--- a/기사데이터/토스/엑셀파일/news(토스, 2023.03.16~2023.03.31).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2023.03.16~2023.03.31).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,2513 +2955,6 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2023.03.29.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>여행·외식 살아나자…작년 카드결제 일평균 3.1兆 돌파</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000888959?sid=101</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>사회적 거리두기 해제 이후 소비 증가  외출 늘자 대면결제 12%↑        지난해 신용·체크카드 이용규모가 하루 평균 3조1000억원을 넘어섰다. 코로나 팬데믹(세계적 대유행) 기간 억눌렸던 민간소비가 살아난 가운데 지난해 4월 방역조치 해제 이후 외출이 늘면서 여행, 외식 등을 중심으로 대면결제가 급증한 영향이다.29일 한국은행이 발표한 ‘2022년중 국내 지급결제동향’에 따르면 지난해 신용·체크카드 등 지급카드 이용규모는 일평균 3조1080억원으로 전년 대비 12.7% 늘었다. 연간 증가율은 2019년(5.8%), 2020년(0.6%), 2021년(9.4%)과 비교하면 크게 높아졌다.27일 점심시간 서울 시내 한 한식부페가 주변 직장인 등으로 붐비고 있다. / 연합뉴스        지난해 사회적 거리두기 조치 해제 이후 펜트업(pent-up·억눌렸던 소비 폭발 현상) 효과가 나타난 영향이 컸다고 한국은행은 설명했다. 코로나 확산 초기인 2020년 3.8% 감소했던 민간소비는 2021년 6.2% 늘었고, 지난해에는 8.8% 증가했다.민간소비 회복에 힘입어 신용카드 이용규모는 13.5% 늘어난 2조4530억원, 체크카드는 9.6% 증가한 6370억원을 기록했다. 선불카드 이용규모도 15.1% 늘어난 145억원으로 집계됐다.결제형태별로 보면 대면결제가 크게 늘었다. 한국은행 관계자는 “코로나19 방역조치 완화 등에 따른 외부활동 증가에 힘입어 지난해 대면결제 이용금액이 12% 증가한 하루평균 1조6000억원을 기록했다”고 했다. 전체 결제 중 대면결제가 차지하는 비중도 59.9%로 전년(59.2%)보다 높아졌다.스마트폰 등 모바일기기 등을 통한 비대면결제는 하루 평균 1조1010억원으로 전년 대비 8.8% 증가했다. 비대면결제는 온라인 쇼핑몰 결제 등 비대면거래뿐만 아니라, 택시 호출·결제 등과 같이 단말기 접촉없이 모바일 애플리케이션(앱) 등을 통해 결제가 이뤄지는 결제를 포함한다.2022년 신용·체크카드 이용규모 / 한국은행        모바일기기 등을 통한 결제는 하루 평균 1조3300원을 기록했다. 연간 증가폭은 13.9%로, 실물카드를 이용한 결제 증가폭(7.8%)보다 컸다.특히 모바일기기를 통한 결제 중 간편결제 비중은 46.3%에 육박했다. 간편결제는 카드 정보를 모바일기기 등에 저장해두고 거래시 비밀번호, 지문인식 등 간편인증수단을 통해 결제하는 서비스다. 모바일 결제에서 간편결제가 차지하는 비중은 2019년 35.1%, 2020년 39.1%, 2021년 43.3%, 2022년 46.3%로 꾸준히 확대되는 추세다.카드기반 간편결제 서비스중 카카오페이, 토스 등 핀테크 기업이 제공하는 서비스를 이용한 비중도 66.6%에 달했다.지난해 개인 신용카드를 이용한 소비는 여행(67.1%), 음식점(25.2%) 등을 중심으로 대부분 업종에서 증가했다. 반면 가구·가전(-7.7%)에서의 이용규모는 부진했다.지역별로는 모든 지역의 신용카드 이용규모가 증가했다. 서울을 포함한 수도권은 11.8% 늘었다. 대구·경북(14%), 부산·경남(11.8%), 대전·충남(13.8%), 제주(16.4%), 기타지역(12.8%) 등에서도 소비가 회복세를 보였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2023.03.30.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>이복현 “연체율, 관리 가능해…토뱅 ‘뱅크런’, 일반적인 불안 커진 것일 뿐”</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000889352?sid=101</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>국민들, 상반기에 금리 인하 체감 가능해이사회 지배구조 투명성 제고해야이복현 금융감독원장이 30일 서울 영등포구 소재 우리은행 영등포 시니어플러스 영업점 개설식에 참석해 인사말을 하고 있다./금융감독원 제공        이복현 금융감독원장이 30일 최근 대출 연체율이 상승세로 전환한 것과 관련해 “관리 가능한 수준이다”라고 했다. 최근 실리콘밸리은행(SVB)발 금융시장 불안정으로 토스뱅크 뱅크런(대량예금인출) 소동이 발생하며 건전성 우려가 커진 국내 인터넷은행에 대해서도 “일반적인 불안감이 커진 것일 뿐이다”라고 선을 그었다.이 원장은 이날 서울 영등포구 우리은행 시니어플러스점 개설식에 참석한 이후 연체율 추이에 대한 취재진의 질문에 “추세상 아무래도 연체율이 더 오를 수밖에 없는 흐름에 대해선 이미 예측을 하고 있다”라며 이같이 밝혔다.이 원장은 “평균적인 연체율이 문제가 아니라 어떤 특정 금융기관이라든가 특정 금융권(섹터)에 (위기) 상황이 와 불안감을 야기하거나 건전성 이슈가 생기는 부분에 대해 중점적으로 챙겨보고 있다”라며 “관리 가능한 수준이라고 보고 있지만, 향후 브릿지론 등을 중심으로 한 부동산 프로젝트파이낸싱(PF) 이슈 등에 대해서 사전 준비가 필요하다고 해 챙겨보고 있다”라고 말했다.이 원장은 토스뱅크 등 중저신용자 대출 비중이 큰 인터넷은행의 연체율 확대에 대한 우려에 대해선 “실리콘밸리은행(SVB) 사태 등으로 인해 일반적인 불안감이 커진 것은 맞고 특히 온라인을 배경으로 이루어지는 금융 거래의 신속성 등 때문에 (인터넷은행에 대한) 추가적인 걱정이 있는 것으로 알고 있다”라며 “국내 인터넷은행의 자산운용 구조는 금리 변동으로 인한 리스크가 직접적으로 재무제표에 영향을 미치는 SVB와는 다르다”라고 설명했다.이어 이 원장은 “(인터넷은행은) 채권 비중이 낮을 뿐만 아니라 대부분의 증권도 단기채 위주로 구성이 돼 있기 때문에 가격 변동 위험이 그렇게 크지 않다”라며 “여신 측면에서도 가계여신 비중이 크기 때문에 상대적으로 외국에서 발생한 은행 이슈와는 절연돼 있다고 보고 있다”라고 했다. 그러면서도 그는 ”그럼에도 발생 가능할 수 있는 여러 가지 이슈들을 챙겨보기 위해서 일별, 주별, 월별 등 다양한 지표를 챙기며 은행 등을 비롯한 금융기관과 소통하고 있다”라고 덧붙였다.이 원장은 금융권의 상생금융의 노력을 격려하며 국민이 올해 상반기 금리 인하 등을 체감할 수 있을 것이라고 전망했다. 이 원장은 “미국 국채 금리라든가 이에 연계된 국내 단기 시장 금리 등이 상대적으로 하향 추세를 보이고 있는 상황이고, 이 영향을 받아서 단기 신잔액 코픽스 기준 금리들이 조금씩 떨어지고 있다”라며 “5월 내지는 6월, 올 상반기가 지나기 전에는 국민들께서 은행의 노력 그리고 단기 자금 시장 안정으로 인한 시장 평균 금리에 떨어지는 이런 것들을 느끼실 수 있지 않을까 기대한다”라고 했다.이날 이 원장은 금융지주의 이사회의 사외이사 교체율이 낮다는 지적에 대해선 “통상 3년 정도 내외가 사회이사 임기인 걸 고려할 때 특정 한 해에 과반이 넘는 수가 교체되는 게 맞는지, 틀린지에 대한 판단은 할 수 없다”라고 했다.대신 이 원장은 이사회에 지배구조에 투명성 제고라는 역할을 강화해달라고 강조했다. 이 원장은 “특정 사외이사 한 명이 적절하냐, 아니냐보다는 사외이사의 전체적인 구성이 어떻게 되는 것이 바람직하고 사외이사가 추천되는 과정이 주주의 의견이 반영되는 형태로 진행돼야 한다는 원칙, 절차에 대해 그동안 말씀드렸다”라며 “우리금융지주를 포함한 여러 금융지주에서 이번 주주총회를 거치며 회장 취임 내지는 자회사 이슈가 정리가 된 걸로 알고 있다”라고 말했다. 이어 이 원장은 “(지주사) 거버넌스를 선진적이고 투명하게 노력한 걸로 이해하고 있고, 금융당국 내부에서도 이러한 노력을 뒷받침할 수 있는 제도적 장치 마련 논의를 하고 있다”라고 했다.이 원장은 최근 외신 인터뷰에서 공매도 재개 검토라는 입장을 밝히며 ‘월권’ 논란이 발생한 데 대해선 “정부에서는 국내 금융시장이 좀 더 매력적이고 경쟁력 있는 환경을 조성하기 위해 무슨 노력을 하고 있는지를 알려야 겠다는 생각을 해왔다”라며 “정부 내지는 금융당국의 책임 있는 자리에 있는 사람이 진정성 있는 자세로 우리 정부의 입장을 설명한다는 취지에서 한 거라서 좀 더 광범위한 사항에서 그렇게 말씀드리게 된 것 같다”고 답했다.이 원장은 검찰이 대장동 사건과 관련해 우리은행을 압수수색한 것과 관련해서는 “검찰 수사 상황에 대해서는 잘 모르고 있다”라고 일축했다. 또, 이 원장은 총선 출마와 관련해 주소지 이전설이 나오는 것에 대해서는 “주거지를 옮긴 적 없고, 주거지를 옮길 생각도 없다”라고 선을 그었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2023.03.25.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>“1억 맡기면 즉시 176만원 준다”…이자 먼저받는 예금 나왔다</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005106734?sid=101</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>[사진 = 토스뱅크]토스뱅크가 인터넷전문은행 최초로 가입과 동시에 이자를 받을 수 있는 ‘먼저 이자 받는 예금’을 선보여 눈길을 끈다.‘먼저 이자 받는 예금’은 연 3.5% 금리(세전, 만기일에 세금 차감)를 제공, 맡길 수 있는 금액 규모는 최소 100만원에서 최대 10억원까지다. 가령, 1억원을 6개월간(184일 기준) 맡기는 고객은 세전 금액인 약 176만원을 즉시 수령 가능하다.받은 이자는 고객이 원할 때 언제든 출금할 수 있다. 다만 언제든 돈을 넣고 뺄 수 있는 수시입출금식 보통예금과는 달라, 자금을 묶어두고 고금리를 받고자 하는 고객은 활용해 볼 만 하다.예치 기간은 3·6개월 중 선택할 수 있다. 기간에 상관 없이 연 3.5% 금리는 동일하게 적용된다.만기를 채운 고객은 ‘자동 재가입’ 서비스를 통해, 최대 3번(최장 2년)까지 재가입 할 수 있다. 이때 적용하는 금리는 재가입 시점의 금리를 따른다.이 예금은 중도해지도 가능하다. 중도해지 시 먼저 받은 이자에서 중도해지 이자(가입 기간에 비례)를 제외한 금액이 원금에서 차감된다.토스뱅크 관계자는 “고객이 돈 모으는 재미를 쏠쏠하게 느낄 수 있도록 했다”며 “특히, 필요에 따라 자금을 운용할 수 있는 상품으로 실질적인 목돈 마련에 기여할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2023.03.29.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>전자계약의 모든 과정 원스톱 서비스</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000731125?sid=105</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>[2023 서비스만족대상] 모두싸인모두싸인(대표 이영준)은 계약서 작성부터 계약 체결, 이후 문서 보관 및 관리가 전부 가능한 전자계약 서비스를 제공하는 기업이다. 클라우드 기반 전자계약 플랫폼으로 계약의 모든 과정이 별도 프로그램 구축이나 설치 없이 원스톱으로 진행된다. 또한 ▲ 대량전송 ▲ 링크서명 ▲ 대면서명 ▲ API 연동 ▲ 맞춤 브랜딩 ▲ 조직(권한) 관리 ▲ 외부문서 관리 등 다양한 엔터프라이즈 기능을 지원하여 기업 필수 솔루션으로 주목받고 있다.또한 롯데글로벌로지스, 한국존슨앤드존슨, 카카오, 대웅제약, 토스를 비롯한 많은 산업군과 규모의 기업 및 기관에서 모두싸인을 도입했다.특히 지난 1월 기준 460만 명의 누적 이용자, 20만 여 기업 고객을 확보하며 지속적인 전자계약 업계 1위 자리를 굳건히 지키고 있다. 모두싸인은 지속적으로 새로운 기능과 함께 기업을 위한 엔터프라이즈 기능을 출시하면서 국내 환경에 최적화된 계약 솔루션을 제공하고 있다. 이영준 대표는 “4년 연속 대한민국 서비스만족 대상을 수상하게 되어 뜻깊고, 모두싸인을 이용해주시는 모든 고객에게 깊은 감사의 말씀을 드린다”며 “앞으로도 더 좋은 서비스로 모두에게 계약이 더 쉽고 안전하도록 하는 계약의 혁신에 기여하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2023.03.20.</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>5대 은행 2월 가계 예대금리차, 우리은행 최대</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011752567?sid=101</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>기사내용 요약가계 예대금리차 우리 1.55%p 가장 커정책서민금융 제외 국민 1.48%p 최대[서울=뉴시스]이주혜 기자 = 5대 시중은행 중 우리은행이 지난달 신규 취급한 가계대출과 예금의 금리 차이가 가장 큰 것으로 나타났다. 반면 신한은행은 지난달에 이어 5대 은행 중 가계 예대금리차가 가장 작은 것으로 집계됐다.20일 은행연합회 공시에 따르면 지난달 신규 취급액 기준 우리은행의 가계 예대금리차는 1.55%포인트로 5대 은행 중 가장 컸다. 가계 예대금리차는 가계 대출금리와 저축성수신금리의 차이를 말한다.우리은행 관계자는 "지난달 햇살론 등 정책서민금융상품 취급이 많았던 것이 예대금리차가 벌어진 원인으로 보인다"고 설명했다.이어 KB국민은행 1.51%포인트, NH농협은행 1.49%포인트, 하나은행 1.42%포인트, 신한은행 1.21%포인트 순이다. 인터넷전문은행의 가계 예대금리차는 토스뱅크 4.90%포인트, 케이뱅크 2.04%포인트, 카카오뱅크 1.19%포인트로 나타났다.지방은행과 외국계 은행을 포함한 공시 대상 19개 은행 중에서는 전북은행의 가계 예대금리차가 7.54%포인트로 가장 컸다. 가장 작은 곳은 KDB산업은행으로 1.05%포인트다.5대 시중은행 중에서 정책서민금융(햇살론뱅크, 햇살론15, 안전망 대출 Ⅱ, 최저신용자 특례보증 )을 제외한 가계 예대금리차가 가장 큰 은행은 국민은행으로 1.48%포인트였다. 이어 농협은행·우리은행 1.46%포인트, 하나은행 1.32%포인트, 신한은행 1.06%포인트가 뒤를 이었다.KB국민은행 관계자는 "1월 말 시행한 주택담보대출 및 전세자금대출 금리 인하로 전세대출의 경우 전월 대비 1%포인트 가까이 평균금리가 낮아졌지만 신용대출 및 단기성 예금 비중 확대로 예대금리차 인하 효과가 다소 축소됐다"고 설명했다. 이어 "현재 주택담보대출 등 가계대출 금리는 시중은행 중 최저 수준이며 지난달 말과 이달 중순에 시행한 두 차례의 가계대출 금리 인하는 3월 예대금리차에 반영될 예정"이라고 부연했다.기업대출을 포함한 예대금리차는 하나은행 1.91%포인트, 농협은행·우리은행 1.81%포인트, 국민은행 1.76%포인트, 신한은행 1.40%포인트 순이다.공시 대상 19개 은행 중 정책서민금융을 제외한 가계 예대금리차가 가장 큰 곳은 전북은행으로 6.48%포인트다. 산업은행이 1.05%포인트로 가장 작았다. 산업은행은 가계 예대금리차와 정책서민금융 제외 가계 예대금리차가 동일하다. 기업대출을 포함한 예대금리차가 가장 큰 은행은 전북은행(5.05%포인트), 가장 작은 곳은 한국씨티은행(0.65%포인트)이다. 예대금리차 공시 대상 중 한국씨티은행은 소비자금융 업무의 단계적 폐지 결정에 따라 지난해 2월15일부터 개인고객 신규 거래가 중단됐다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2023.03.30.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>배당 늘었지만 환율효과에…韓은행 작년 BIS비율 '선방'</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005238628?sid=101</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>배당 늘리고 증자했지만…환율 하락에 위험가중자산 감소지난해 말 국내 은행권이 배당을 늘렸음에도 원·달러 환율이 내린 덕에 국제결제은행(BIS) 기준 자본비율이 개선됐다.30일 금융감독원의 '2022년 12월 말 은행지주회사 및 은행 BIS 기준 자본비율 현황(잠정)'에 따르면 지난해 말 기준 국내 은행의 총자본비율은 15.25%로 집계됐다. 전분기 대비 0.41%포인트 개선된 수치다.보통주자본비율은 12.57%, 기본자본비율은 13.88%로 같은 기간 각각 0.31%포인트, 0.38%포인트씩 상승했다. 금감원 측은 "순이익 시현과 증자 등에도 불구하고 결산배당 등 공제항목 증가 등으로 인해 자본이 1.4% 감소했으나 환율 하락 등에 따른 외화 익스포저(위험노출) 감소 등으로 위험가중자산이 더욱 큰 폭(-4.0%)으로 감소했기 때문"이라고 설명했다.BIS 기준 자본비율은 총자산(위험자산 가중평가) 대비 자기자본의 비율이다. 은행의 재무구조 건전성을 가늠하는 핵심 지표로 꼽힌다. 은행권이 연말 배당을 늘리면서 분자에 해당하는 자본이 줄었지만 원·달러 환율이 오르면서 분모가 더 줄어들었기 때문에 전체 지표가 상승한 것이다.금감원에 따르면 은행권은 작년 4분기 순이익을 내고 증자도 했음에도 결산배당을 늘리면서 은행권 보통주 자본이 총 4조5000억원 감소했다. 보완자본도 4000억원 감소했다. 때문에 신종자본증권 발행 등으로 기타자본이 1조원 늘었음에도 총 자본은 4조6000억원 줄었다.하지만 분모에 해당하는 위험가중자산은 더 큰 폭으로 감소했다. 지난해 4분기 초 달러당 1446.30원(1월24일)까지 치솟았던 원·달러 환율은 12월30일 1258.78원까지 내렸다. 그 결과 외화자산 익스포저가 줄면서 은행권 신용위험가중자산은 91조3000억원 줄어든 것이다. 이익규모 확대 등에 따른 운영위험가중자산은 3조6000억원 늘었지만 전체 위험가중자산은 89조원 넘게 줄었다.한편 지난해 말 기준 개별 은행들은 모두 자기자본비율이 규제 수준을 상회했다. 5대 금융지주의 경우 총자본비율 기준 KB금융(16.16%), 신한지주(15.99%), NH농협지주(15.73%), 하나금융지주(15.67%), 우리금융지주(15.30%) 순이었다.지주사가 아닌 은행 중에서는 씨티은행(20.72%), SC제일은행(17.83%) 등 외국계 은행이 상위권을 차지했다. 인터넷전문은행에서는 카카오뱅크(36.95%), 케이뱅크(13.94%), 토스뱅크(11.49%) 순서로 총자본비율이 높았다.최근 미국 실리콘밸리은행(SVB) 사태 등으로 은행권 우려가 커진 만큼 금감원은 건전성 감독을 강화할 계획이다. 금감원 관계자는 "국내은행 자본비율 현황에 대한 모니터링을 한층 강화하고 자본비율이 취약한 은행에 대해서는 자본적정성 제고를 유도하겠다"라며 "은행이 예상치 못한 손실에 대응할 수 있는 충분한 자기자본을 유지할 수 있도록 경기대응완충자본(CCyB) 부과, 스트레스 완충자본 제도 도입 등을 추진해 나갈 예정"이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2023.03.19.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>현대 감각으로 재탄생한 '심청' 이야기…아르헨티나에 선보인 한국 전통예술</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/052/0001862648?sid=104</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>40도가 넘는 덥고 습한 날씨에도 야외 객석이 가득 찼습니다.부에노스아이레스에서 2년마다 열리는 남미 최대 연극제, '국제공연예술제' 현장입니다.한국 무용단의 창작무용 ＜편지＞가 지구 반대편의 관객들을 만났습니다.판소리 심청가를 현대적으로 재해석한 무대에 시민들의 관심이 쏠립니다.[안드레아 루스토스베가 / 관객 : 한국의 전통문화나 전통 무용에 대해서는 잘 모르기 때문에 오늘 공연을 잘 알아가고 싶습니다. 그래서 진심으로 공연을 즐기려고 왔고 어떨지 궁금합니다.][이영희 / 관객 : 되게 감회가 새롭죠. 왜냐면 흔하게 볼 수 있는 기회도 아니고 우리 전통과 관련된 무대가 오른다고 하니까 좋은 기회라고 생각이 들어요.]객석과 무대를 넘나들며 경계를 없애는 무용가의 움직임에 시선이 집중됩니다.우리 고유의 판소리극이 바탕이지만, 타악 연주자와 판소리 명창뿐만 아니라 피아노에 보컬리스트까지 현대적인 요소가 함께 어우러집니다.[한보화 / 주아르헨티나 한국문화원장 : 이미 우리 전통 음악을 소재로 그것을 재해석해서 만든 작품이나 밴드들이 세계적으로 이목을 끈 바가 있기 때문에 이 작품도 우리 한국의 융복합예술의 새로운 도전으로 아르헨티나인들에게 깊은 감명을 줄 것으로 믿고 기대하고 있습니다.][유선후 / 안무가 ('심청'역) : 어떻게 보면 한국무용은 전통무용이거든요. 그래서 어떻게 보면 거리감을 두고 볼 수 있는데 현시대의 이야기를 한국적인 호흡으로 만들어가는 아름다운 미에 빠졌으면 좋겠어요, 사람들이.]케이팝과 한국 드라마의 높은 인기로 부에노스아이레스에도 한류가 불어왔는데요.한국 전통문화에는 대중문화만큼 관심이 크지는 않은 게 현실입니다.때문에, 이번 공연은 아르헨티나 사람들이 우리 전통문화에 좀 더 쉽고, 재미있게 다가갈 수 있도록 현대적인 감각을 담아냈습니다.[어연경 / 판소리 : 정말 판소리꾼이 하는 것처럼 고수랑 한복을 입고 우리나라 말로 판소리를 한다면 전달이 많이 되지 않을 거예요. 그런데 춤과 음악의 융합으로 인해서 조금 더 감정적인, 시각적인 것들이 되게 많이 전달이 될 거라고 생각합니다.][이한빈 / 음악감독 : '한국에서는 이런 예술적 시도가 계속 이뤄지고 있구나', 그리고 '한국은 정말로 대중문화예술만 발달한 것이 아니라 순수음악 예술도 굉장히 수준 높은 나라구나' 하고 봐주셨으면 좋겠다는 바람을 가지고 있습니다.]심청가의 줄거리를 아는 한인 관객은 물론 현지 관객들도 공연을 보면서 한국 전통 이야기에 흠뻑 취하고 관심을 높이는 계기가 됐습니다.[마리아 플로르 레셰스 / 관객 : 너무 좋았습니다. 한국 문화에서 연꽃의 의미가 무엇인지 모르지만, 이번 공연을 통해 문화를 더 알아가고 싶은 마음이 들었습니다. 그리고 굉장히 감동했습니다.][신종석 / 관객 : 이렇게 우리나라를 알릴 수 있는 점. 정말. 케이팝도 물론 그렇지만 정통의 우리나라 전통을 알린다는 게 세계적으로 알린다는 게 너무 좋은 것 같아요.]볼수록 매력 있고 알수록 귀해지는 한국 전통무용의 가치.더욱 다양한 형태로 관객들과 소통하며 그 고유의 아름다움을 널리 알리고자 합니다.[유선후 / 안무가 ('심청'역) : 우리나라도 마찬가지고 세계의 많은 사람에게 우리나라 전통, 우리나라 고유의 우리만 가진 예술의 아름다움을 전달하는 작품을 그게 전통이든 창작이든 하나씩 풀어내고 싶습니다.]※ '당신의 제보가 뉴스가 됩니다'[카카오톡] YTN 검색해 채널 추가[전화] 02-398-8585[메일] social@ytn.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2023.03.31.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>GS25, 토스와 함께 택배 무제한 할인 지원</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000908887?sid=101</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>4월 동안 국내택배 500원, 반값택배 300원 수량 제한없이 할인 프랜차이즈 편의점 GS25가 토스 앱을 통해 접수하는 택배 서비스 이용료를 4월 한 달간 수량 제한없이 국내택배 500원, 반값택배 300원 할인한다.GS리테일이 운영하는 편의점 GS25는 업계 최초로, 지난 3월부터, 모바일 금융서비스를 제공하는 토스를 통해 편의점 택배가 가능한 시스템을 오픈했다. 토스를 통한 편의점 택배 서비스를 이용하는 고객데이터를 살펴보면, 20~30대가 약 67%를 차지 할 정도로 MZ세대에게 인기 높은 서비스로 자리를 잡고 있는 것으로 판단하고 있다.토스 앱에서 택배 이용방법은 '편의점 택배 예약' 메뉴를 선택하고, GS25 국내택배, 반값택배 중 희망하는 서비스를 이용하면 된다. 국내택배는 원하는 장소로, 반값택배는 원하는 GS25로 보내는 서비스이다.반값 택배를 토스 앱으로 이용할 경우, 최저 가격이 1,600원으로 고물가 시대에 택배를 이용하는 고객에게 인기가 높을 것으로 예상된다. 토스 앱에서는 토스 포인트로 결제가 가능하며, 결제 금액의 최대 4%가 포인트로 적립된다.GS25는 업계를 대표하는 모바일 앱과의 제휴 확대를 통해 오프라인 편의점과의 O4O(Online for Offline) 활동을 넓혀 나갈 계획이다.전병준 GS리테일 서비스기획팀 MD는 "편의점 택배 시장을 선도하고 있는 GS25에서 물가 안정 및 서비스 극대화를 위해 토스와 가격 할인 행사를 준비했다"며, "다양한 플랫폼과의 결합을 통한 서비스 확대로 경쟁사와 더욱 큰 초격차를 실현하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2023.03.28.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>토스뱅크, 선이자 예금상품 출시가 ‘위기설’로… 홍민택 대표 “유동성 문제 없다”</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000888531?sid=101</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>‘먼저 이자 받는 예금’ 출시 후 위기설 확산BIS 자기자본비율 낮고, 채권 투자 비중 높아 “SVB 파산 전철 밟는 것 아니냐” 불안 증폭홍민택 대표 “위기설은 해프닝…문제 없어”        금융 시장과 인터넷 커뮤니티 등을 중심으로 최근 인터넷은행인 토스뱅크의 경영 위기설이 빠르게 확산됐다. 최근 출시한 선(先)이자 지급 방식의 예금상품을 두고 자금난에 빠진 토스뱅크가 유동성 위기를 해소하기 위해 ‘폰지사기’와 같은 방식으로 소비자들의 돈을 끌어모으려는 것이 아니냐는 우려가 일파만파로 퍼진 것이다.직장인 익명 게시판인 블라인드를 비롯한 대형 커뮤니티 등을 달군 토스뱅크 위기설은 유명 투자자와 대학교수 등도 소셜미디어(SNS)에 관련 글을 올리면서 금융 시장까지 퍼져나갔다. 급기야 토스뱅크의 최고경영자(CEO)가 나서 위기설을 일축했지만, 불안감은 완벽하게 해소되지 않는 분위기다. 선이자 지급 예금상품 출시 후 우려 봇물        위기설이 점화된 것은 토스뱅크가 지난 24일 ‘먼저 이자 받는 예금’ 상품을 출시하면서부터다. 이 예금은 일반적인 정기예금과 달리 돈을 맡기면 즉시 연 3.5%의 이자를 먼저 받는 상품이다. 가령 1억원을 6개월 만기로 토스뱅크에 예금하면 즉시 세전 기준으로 이자 176만원을 받는 것이다.토스뱅크의 기대와 달리 이 상품이 출시된 직후부터 블라인드와 여러 인터넷 커뮤니티 등에서는 토스뱅크의 위기설이 빠르게 확산되기 시작했다. 선이자 지급 예금이 일반 시중은행은 거의 출시하지 않는 생소한 상품이라는 점을 들어, 타 은행에 비해 자본건전성 등이 취약한 토스뱅크가 신규 자금을 유치하고자 ‘무리수’를 뒀다는 것이다.이 예금상품에 대해 폰지사기가 아니냐는 비판도 들끓었다. 폰지사기는 투자를 통해 새롭게 이윤을 창출하는 게 아니라 고객에게 줄 돈을 다른 고객이 맡긴 돈으로 채워 주며 돌려막기를 하는 식의 행위를 뜻한다.유명 투자자와 저작, 유튜브 콘텐츠 제작 등을 통해 이름이 널리 알려진 작가 등이 가세하면서 위기설은 더욱 불이 붙었다. 미국에 본사를 둔 대형 벤처캐피털(VC) 알토스벤처스의 김한준 대표는 지난 25일 자신의 페이스북에 토스뱅크가 선이자 지급 예금을 출시했다는 기사를 공유하면서 “괜찮으니 이런 상품을 내놓을 수 있답니다”라는 댓글을 달았다.이에 대해 유튜브 ‘월가아재’를 운영하는 작가 최한철씨는 댓글을 통해 “토스뱅크는 연체율이 56배 급등했고, 인터넷은행 3사의 누적연체는 3000억원이다”라며 “재무적으로 손해 보는 상품을 출시해야 할 정도로 건전성이 생각보다 빠르게 악화되고 있는 것이 아니냐”고 했다.카카오뱅크·케이뱅크·토스뱅크 BIS 자기자본비율 추이/금융감독원  낮은 자기자본비율, 높은 유가증권 투자 비중에 우려 확산        토스뱅크의 위기설이 불거진 데는 다른 은행에 비해 자본건전성 지표인 국제결제은행(BIS) 기준 자기자본비율이 낮다는 점이 큰 영향을 미쳤다. BIS 자기자본비율은 위험가중자산에 대한 자기자본비율로 이 지표가 높을수록 건전성이 양호한 것으로 평가된다.토스뱅크는 지난 2021년 12월 말 BIS 자기자본비율이 36.71%를 기록했지만, 지난해 3월 말에는 17.57%로 크게 하락했다. 6월 말에는 10.52%, 9월 말에는 11.35%를 각각 기록했다. BIS 자기자본비율이 불과 3분기 만에 3분의 1 이하로 떨어진 것이다.토스뱅크의 경우 특례법에 따라 신규 인가를 받고 3년 차에 해당하는 올해까지 BIS 자기자본비율을 8% 이상만 유지하면 된다. 설립 초기에 비해 이 지표가 크게 하락한 것은 위험도가 높은 중·저신용자 대상 여신 비중이 늘었기 때문이지만, 경쟁 인터넷은행에 비해서도 낮은 수준을 기록했다. 카카오뱅크의 경우 지난해 9월 말 기준 BIS 자기자본비율은 37.10%에 달했고, 케이뱅크도 14.51%로 토스뱅크보다 높았다.자산에서 금융채 등 유가증권에 대한 투자 비중이 높은 점도 위기설이 확산된 이유로 꼽힌다. 지난해 9월 말 기준 토스뱅크의 총자산은 27조3588억원으로 이 가운데 유가증권 비중은 64%에 해당하는 17조6040억원에 이른다. 고객에게 대출한 자산은 약 25% 수준으로 전체 자산의 절반 이상이 대출자산인 카카오뱅크, 케이뱅크에 비해 훨씬 비중이 낮다.이달 초 미국 실리콘밸리은행(SVB)이 파산한 것도 고객들에게 받은 예금을 주로 국채 등 유가증권에 투자했기 때문이었다. SVB는 코로나19 사태 당시 주 고객인 스타트업에 투자가 몰려 대출 수요가 줄어들자, 예치된 돈을 국채에 투자했는데, 지난해부터 미국 기준금리가 빠르게 올라 채권 가격이 떨어지면서 결국 회사 문을 닫았다.그래픽=손민균  토스뱅크 대표 “해프닝에 불과”        주말 동안 위기설이 가열되자 결국 토스뱅크는 CEO가 직접 나서 해명에 나섰다. 홍민택 토스뱅크 대표는 지난 27일 서울 여의도 국회에서 열린 ‘인터넷은행 5주년 토론회’에서 기자들과 만나 “위기설은 일종의 해프닝 같다”며 “도이체방크 위기설 등으로 금융 시장의 불안이 확산돼 생긴 일일 뿐 실제로는 우려할 부분이 없다”고 강조했다. 그는 “유동성커버리지비율(LCR)도 833.5%로 평균 100% 수준인 일반 시중은행보다 8배 높다”며 유동성도 문제가 없다고 덧붙였다.그러나 여전히 금융 시장과 소비자 사이에서는 토스뱅크에 대한 불안감이 완전히 해소되지 않은 모습이다. 인터넷 커뮤니티 등에서는 “일단 토스뱅크에서 돈을 빼내 안전한 시중은행으로 옮겼다. 위험이 줄었다고 판단될 때 다시 토스뱅크에 예금하겠다”는 등의 글이 잇따라 올라오기도 했다.한 시중은행 관계자는 “SVB 등 몰락한 외국 은행들 역시 파산 선언 직전까지 자신들은 문제가 없다고 하지 않았었느냐”며 “건전성 지표 등이 눈에 띄게 개선되기 전까지는 위기설이 완전히 가라앉지는 않을 것”이라고 말했다. 그는 “인터넷은행은 거의 모든 고객이 모바일로 예금과 출금을 하는 것이 위험 요소다”라며 “SVB처럼 단기간에 많은 고객이 돈을 찾으려고 몰릴 경우 생각지 못한 뱅크런 위험을 겪을 수도 있다”고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2023.03.30.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>[데스크가 만났습니다]김기문 중기중앙회장 "만드는 것보다 지키는 것 중요, 납품대금연동제 시행령 안착부터"</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003087817?sid=101</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>“만드는 것보다 지키는 것이 더 어려운 일입니다. 제도가 시행되는 10월까지 시행령을 면밀하게 다듬어서 납품대금연동제가 시장에 안착하도록 하는 것이 가장 중요한 과제입니다. 노동시장 개혁도 반드시 필요합니다. 노사의 근로시간 선택권과 근로자 건강권 보장이 조화를 이룬 근로시간 개혁이 이뤄져야 합니다.”김기문 중소기업중앙회장은 지난달 네 번째 임기를 시작했다. 23~24, 26대에 이어 27대 회장에 당선된 그는 임기 중 가장 먼저 해결해야 할 과제로 납품대금연동제 안착을 꼽았다. 김 회장은 앞선 임기 동안 줄곧 납품대금연동제 도입을 중소기업계 선봉에서 주장했다. 14년 만에 빛을 보게 된 납품대금연동제를 본인 손으로 직접 시행부터 제도 안착까지 마무리하겠다는 의지를 강하게 드러냈다.김 회장은 앞선 세 차례 임기 동안 노란우산, 홈앤쇼핑 등 중소기업중앙회 주요 인프라를 구축했다. 노란우산은 출범 15년만에 가입자 160만명을 달성하는 성과를 거뒀다. 토스뱅크 2대주주로 참여하면서 소상공인 금융 접근성 확대에도 집중하고 있다.김 회장은 “중소기업 의견을 더욱 다양하게 알릴 수 있는 네트워크와 인프라를 마련했다는데 지난 임기 동안의 의미를 두고 싶다”면서 “중소기업 뿐만 아니라 소비자에게도 이익이 갈 수 있는 방향으로 균형을 맞춰가며 중소기업계 의견을 적극 전달하겠다”고 말했다.대담=권건호 벤처바이오부장-네 번째 임기다. 취임 소감은.▲중소기업 입장에서는 정치권이나 정부에 안정적으로 메시지를 보낼 수 있다는 점을 높게 보는 것 같다. 중소기업 의견을 수시로 보낼 수 있는 창구가 열려 있다는 점에서 좋은 평가를 받았다. 중소기업이나 중소기업협동조합 이사장들이 중앙회장이라면 뭐든지 할 수 있을 거라 여기는 건 부담도 된다.중소기업만 잘 살겠다고 제도를 바꿔달라고 할 수는 없다. 결국 중요한 것은 국민이고 소비자다. 중소기업은 제품을 만들고 판매하는 사람이다. 소비자 이익을 침해하지 않으면서도 국가 경제 발전을 위해 중소기업 목소리를 전달하는 일이 쉽지 않다. 납품대금연동제를 비롯해 미중간 갈등에 따른 환경 변화까지 대처해야 할 일이 많다.-납품대금연동제가 지난해 국회를 통과해 시행을 앞두고 있다.▲중소기업 숙원이던 납품대금연동제가 14년 만에 법제화됐다. 여야 협치로 단 한 명의 반대 없이 국회를 통과했다. 지금 국회에 계류된 하도급법도 하루 빨리 통과되기를 기대한다.지난해 말에는 대통령께서 직접 납품대금연동제가 매우 중요한 제도라고 강조하면서 효과를 보지 못하는 기업이나 사각지대가 없도록 만전을 기해 달라고 직접 당부하고 적극 지원을 약속했다. 어렵게 만들어진 제도이니 만큼 제도 혜택을 보지 못하는 중소기업이 없도록 시행령을 제대로 만드는 것이 가장 중요하다.지금 중앙회 차원에서 전문가 연구는 물론이고 현장 의견도 수렴하고 있다. 실효성 있는 세부 시행방안 마련을 위해 중기부와도 협의하고 있다. 연동제 예외 사항인 단기·소액 등 범위를 최소화하고 상호 합의로 미적용되는 탈법·부정행위를 미연에 방지할 장치가 필요하다. 예컨대 원재료 외 전기료도 연동대상에 포함하거나 단기·소액 거래를 일률 적용하지 않아야 한다. 쪼개기 계약도 탈법행위로 추정해 부정행위를 미연에 방지하는 등 대책이 필요하다.-대기업 협조를 얻기 힘들 수도 있겠다.▲납품대금연동제는 좋은 중소기업 일자리를 창출하는 것은 물론 대기업에도 도움이 된다. 제값 받기로 인해 근로자 임금 인상은 물론 복지도 향상할 수 있다. 제값을 받아 중소기업이 혁신한다면 납품하는 제품 품질도 덩달아 향상된다. 납품받는 대기업 역시 성장이 가능하다.하지만 역시 가장 중요한 것은 법을 지키는 일이다. 법은 만드는 것보다 지키는 것이 더 어렵다. 10월까지 남은 기간 동안 법안을 잘 다듬어야 한다. 만들어 놓고 써먹지도 못하는 법이 하나둘이 아니다. 무용지물인 법이 되도록 놔두면 안된다. 시행령 개정 과정에서 적극적으로 목소리를 낼 계획이다. 한 번이 안되면 두 번, 두 번이 안되면 다섯 번, 열 번이라도 계속 목소리를 내겠다. 시행령이 법 취지와 다른 방향으로 가지 않도록 준비하고 있다.-납품대금연동제 외에 중소기업계가 해결해야 할 과제가 있다면.▲기업승계 제도 개선을 마무리하는 것이 숙제다. 산업 트렌드 변화에 선제적으로 기업이 대응할 수 있도록 독일이나 일본과 같이 업종변경 제한요건을 폐지하는 것이 중요하다.증여세 연부연납기간도 확대해야 한다. 중소기업은 기업승계 방식으로 사후상속보다 사전증여를 선호한다. 하지만 5년의 짧은 연부연납 기간으로 세부담이 높다. 이것 역시 상속공제와 마찬가지로 20년으로 확대가 필요하다. 세율 역시 현행 누진세 구조를 단일화해 기업승계 제도 완성도를 제고할 필요가 있다.일본은 경영승계원활화법, 중소기업성장촉진법 같은 제도로 기업승계를 국가 차원에서 체계적으로 지원한다. 우리나라 역시 우리 현실과 특색에 맞는 체계적인 승계 지원책을 마련할 때가 됐다.기업승계가 '부의 대물림'이라는 시각으로 인해 제도가 개선될때마다 어려움을 느낀다. 부가 아니라 '업(業)'을 승계하고 장수기업을 육성한다는 대국민 인식 개선이 필요하다.중소기업 공동행위에 대해서도 달리 봐야한다. 일부는 이걸 담합이라고 하지만 담합으로 볼 수 없다. 담합은 소비자에게 피해가 돌아갈 때나 담합이다. 기업간(B2B) 거래는 담합으로 볼 수 없다. 사는 사람이나 파는 사람이나 실질적으로 소비자 가격을 알아보고 산다. 기업간 거래를 담합한다고 해서 소비자 가격이 올라가지 않는다. 이런 몇 가지 문제들을 임기내 해결하는 것이 숙제다.-임기기간 줄곧 주장해온 중소기업 협동조합 활성화와도 맥락이 연결된다.▲최근 제약업계가 힘을 합쳐 제약사 공동 물류센터를 경기 평택에 완공했다. 총 26개사가 참여했다. 이처럼 중소기업이 협동조합을 통해 공동 구매와 판매 등 경쟁력 강화를 위해 노력하고 있지만, 조합이 취할 수 있는 공동행위 허용 범위가 불분명하다. 담합 요건이 불확실한 것과 연결되는 문제다.중소기업협동조합법상 담합규정이 적용되지 않도록 법을 개정했다. 하지만 소비자 이익을 침해하면 안되는 단서가 달려 해석이 쉽지 않다. 소비자 범위를 어디까지 정의해야 하느냐를 정해야 어디까지 공동사업을 할 수 있을지 파악할 수 있는 것이다. 제도가 유명무실해지는 사례가 이런 것이다. 단서 조항에서 소비자를 최종소비자로 정의해 B2B 거래에서는 협동조합의 가격 협의, 제시 등 행위가 담합으로 간주되지 않도록 제도를 개선하는 것이 중요하다.-중소기업이 현 정부 노동개혁에 대해 긍정적이라고 평가하고 있다. 근로시간제도 개편 방안에 대해서는 어떻게 보고 있는지.▲당초 정부 개편안은 중소기업의 다양한 근로 실태를 반영한 내용이 담겼다. 기업과 근로자의 근로시간 선택권을 보장하는 내용을 포함하고 있어 환영 입장을 표명했다.현행 제도에서 중소기업은 구조적 야간근로나, 긴급 발주 대응, 대체인력 수급이 불가능하다. 정부 개편안은 연장근로 단위 시간을 주에서 월단위 이상으로 확대하자는 것이다. 특정 시기에 일이 몰리는 중소 조선업이나 건설기계 정비업 등은 형사 처벌 부담 없이 주52시간을 초과해 일할 수 있도록 하자는 취지다.결국 일을 더 시키겠다는 이야기 아니냐고 MZ노조나 일부가 이야기하지만 그렇지 않다. 청년 근로자가 우려하는 장시간 연장 근로는 일반적이지 않을 것이다. 노사가 합의해야만 도입할 수 있고, 근로자가 원하지 않는 연장근로는 처벌받는다. 돈을 벌고 싶은 사람은 벌고, 쉬고 싶은 사람은 쉴 수 있도록 선택권을 주자는 것이다. 보완방안 마련으로 노사의 근로시간 선택권과 근로자의 건강권 보장이 조화를 이룰 수 있기를 희망한다.-곧 내년도 최저임금 논의를 시작한다.▲올해는 최저임금 인상을 최소화해야 한다. 최저임금 결정에는 경제성장률이나 물가상승률 등 고려할 상황이 많겠지만, 기본적으로 기업 임금지불능력 범위 내에서 결정돼야 한다. 일자리 감소 문제도 고려해야 한다.최근 코로나 이후 고물가, 고금리로 인해 중소기업은 경영여건이 나빠져 임금지불능력이 현저히 저하됐다. 이런 요소를 종합적으로 고려해 최소한의 인상이 이뤄져야 한다.업종별 구분 적용도 시급하다. 최저임금도 받지 못하는 근로자의 업종별 격차가 심해지고 있다. 업종별로 중소기업 지불능력 차이가 큰 만큼 이를 감안해 구분 적용해야 한다.-소기업·소상공인도 많이 어려워 한다. 노란우산 복지 사업이 가능해졌는데 구상하는 방향은▲노란우산이 명실상부 소기업·소상공인 사회안전망으로 성장했다. 이제는 허브 역할을 하기 위해 가입자 복지 지원을 강화할 계획이다. 다른 공제회는 직영시설 기반으로 복지서비스를 제공하는 반면 아직 노란우산은 가입자 규모에 비해 복지서비스가 미흡하다.단계적으로 복지사업을 추진할 계획이다. 우선 지역별 가입자가 소통할 수 있도록 복지플라자를 설치할 계획이다. 다양한 업종 가입자간 상품·서비스 거래를 지원하고 유사업종 사업자간 협업·상생을 위한 앱 기반 복지플랫폼도 구축하겠다. 가입자에게 맞춤형 혜택을 제공하기 위해 상업자 표시 신용카드(PLCC) 방식으로 노란우산 전용카드사업 실시 방안도 검토하고 있다.중장기적으로는 소기업·소상공인에게 편안한 휴식과 놀이를 제공할 수 있는 리조트 같은 사업을 시작하는 것 역시 생각 중이다.-한일 비즈니스 라운드 테이블은 어땠나.▲평가가 엇갈리지만, 분명히 의미가 있다. 집에서 부모가 싸우면 아이들이 불편하다. 마찬가지다. 정부끼리 다투고 있으니 실질적으로 사이에서 일하는 기업인은 어려움이 많았다. 양국 기업인 모두 경제 협력을 바란다. 정치는 정치로 두고, 민간 단위 교류는 계속 이어가는 것이 마땅하다.◇김기문 회장은…1955년생으로 충북 증평 출신이다. 1988년 로만손을 창업해 국내 최대 시계업체로 성장시켰다. 개성공단기업협의회 초대 회장으로 활동했다. 12~14대 한국시계공업협동조합 이사장을 지낸 김 회장은 2007년 23대 중소기업중앙회장으로 당선돼 2015년까지 8년간 중소기업중앙회를 이끌었다. 2015년 로만손 회장으로 복귀한 그는 2016년 여성 주얼리 브랜드 제이에스티나로 사명을 바꾸고 사업을 확장했다. 이후 2019년 26대 회장으로 다시 당선됐고, 지난달부터 27대 회장으로 네 번째 임기를 수행하고 있다.정리=</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2023.03.30.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>이복현 “국내 인뱅, SVB와 달라…소액생계비대출 호응 놀라”</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005238576?sid=101</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>“채권 비중 낮고 단기채 위주”은행 폐쇄 절차 강화 시사“지배구조 제도적 장치 곧 발표”30일 열린 우리은행 시니어플러스점 2호점 개점식에 참석한 이복현 금융감독원장이 기자들에 둘러싸여 질문에 답하고 있다. 사진=허영한 기자 younghan@이복현 금융감독원장은 30일 실리콘밸리은행(SVB) 사태를 계기로 불거진 토스뱅크 등 국내 인터넷전문은행 위기설을 일축했다.이 원장은 이날 서울 영등포구에서 열린 우리은행 ‘영등포 시니어플러스 영업점 개점식’ 직후 기자들과 만나 “국내 인터넷은행은 SVB와 달리 채권 비중이 작을 뿐만 아니라 대부분의 증권이 단기채 위주로 구성돼 있어 가격 변동 위험이 그렇게 크지 않다”고 밝혔다. 이어 “여신 측면에서 볼 때도 부보 대상이 되는(예금보호제도 적용을 받는) 가계 여신 비중이 크기 때문에 외국 사례보다는 상대적으로 더 세련돼 있다”고 덧붙였다.국내 금융기관들의 자산 건전성에 대해서는 “관리 가능한 수준”이라면서도 “브릿지론 등을 중심으로 한 부동산 프로젝트파이낸싱(PF) 이슈 관련 사전 준비와 프로그램 마련이 필요하다고 보고 챙겨보고 있다”고 설명했다.인터넷과 모바일 금융거래에 익숙치 않은 시니어들을 위한 우리은행 시니어플러스점 2호점이 서울 영등포에 개점했다. 이복현 금융감독원장(오른쪽 두번째)과 임종룡 우리금융그룹회장(왼쪽 두번째) 등 참석자들이 지점 고객 대표들과 함께 테이프 커팅을 하고 있다.  사진=허영한 기자 younghan@은행권의 사회적 책임도 재차 촉구했다. 이 원장은 최근 몇 년간 은행 점포 폐쇄 가속화와 관련해 “지나치게 급격하게, 단기 비용 절감을 위해 점포가 폐쇄될 경우 소비자들의 금융 접근성 저하 등 부차적인 피해가 발생할 수 있다”며 “현재 인허가를 수단으로 한 점포 폐쇄 관련 통제 수단은 존재하지 않고 사후에 적정성을 보는 형태로 제도가 설계돼 있는데 최근 점포가 어떤 평가를 거쳐서 폐쇄됐는지에 대해서는 의문이 있다”고 우려했다. 그러면서 “몇 년 치를 보고 점검한 뒤 국민이 보기에 납득할 수 있는 기준이 정립될 수 있도록 하겠다”며 폐쇄 절차 강화를 시사했다.27일 시작된 소액 생계비 대출과 관련해서는 “뜨거운 호응에 놀랐다”면서 “금융기관들이 추가로 소액 생계비 대출과 유사한 형태의 지원 활동들을 준비할 수 있다고 생각한다”고 언급했다.4대 금융지주 사외이사들이 대거 연임한 것을 두고는 “사외이사가 어떻게 구성되는 것이 바람직한지에 대한 원칙과 절차의 문제”라면서 “추천 과정에서 직접적인 이해관계가 있는 주주들의 의견이 반영되는 게 바람직하지 않은가 생각한다”고 말했다. 그러면서 “금융감독 내부에서도 각 회사 사정에 맞는 노력을 뒷받침할 수 있는 제도적 장치를 논의하고 있어서 늦지 않게 발표할 것”이라고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2023.03.22.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>토스페이먼츠, 애플페이 국내 공식 PG 파트너사 선정</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005447579?sid=105</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>"결제 위젯 기능으로 별도 개발 없이 연동 가능"[이데일리 임유경 기자] 토스페이먼츠(대표 김민표)는 애플의 글로벌 간편결제 서비스 애플페이의 국내 공식 PG 파트너사로 선정됐다고 22일 밝혔다.이번 파트너십을 통해 양사는 애플페이의 성공적인 한국 시장 안착과 성장을 위해 온라인 결제망 구축 및 가맹점 모집, 결제 시스템 운영을 함께 진행한다.토스페이먼츠는 가맹점이 자사몰에 애플페이를 쉽고 편리하게 도입할 수 있도록 적극 지원한다. 이에 따라, 기존 가맹점은 간단한 추가 계약만으로 애플페이를 연동할 수 있도록 편의를 제공할 예정이다.또한, 전자결제 시스템 직접 연동, 결제 위젯 연동 등 가맹점이 선호하는 연동 방식을 지원한다. 결제 위젯은 애플페이 도입을 원하는 영세·중소 가맹점에 적합하다는 게 토스페이먼츠의 설명이다. 클릭만으로 간편결제 연동이 가능해, 애플페이 도입을 위한 별도 개발 비용 부담이 없어서다.김민표 토스페이먼츠 대표는 “토스페이먼츠는 높은 기술력과 보안 역량을 기반으로 다양한 글로벌 기업과 협력한 경험과 노하우를 보유하고 있다”며 “파트너사로서 애플페이의 한국 시장 안착과 성장을 도울 수 있도록 최선을 다하겠다”고 밝혔다.애플페이는 아이폰, 애플워치, 아이패드, 맥 등 다양한 애플 기기를 통해 오프라인 가맹점, 앱 및 온라인에서 사용할 수 있다. 애플페이는 70개 이상의 국가 및 지역에서 이용 가능하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2023.03.20.</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>멀어진 '노랜딩' 시나리오…SVB發 공포, 美 경기침체 우려 커졌다</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005233174?sid=101</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>美 대출 10건 중 4건, 중소형銀 담당대출 줄이면 가계·기업 신용 경색 전망골드만 "12개월 내 침체 확률 25→35%"실리콘밸리은행(SVB) 파산 사태로 '노랜딩(no landing·무착륙)' 시나리오까지 거론됐던 미국의 경기침체 우려가 다시 커졌다. 미국 전체 대출 10건 중 4건을 담당하는 중소형 은행들이 리스크 관리 차원에서 대출을 줄이면서 가계·기업의 신용 경색이 발생할 수 있다는 전망이 나온다.19일(현지시간) 월스트리트저널(WSJ)은 전문가들을 인용해 최근 중소형 은행을 중심으로 한 금융권의 혼란이 경제 성장을 저해하고, 경기 침체 위기를 고조시키고 있다고 전했다. 이 전망의 근거는 중소형 은행이 미 대출 시장을 견인하고 경제 활성화를 이끈 동력 역할을 하고 있다는 점에서 출발한다. SVB 사태로 경제의 '혈맥' 기능을 하는 중소형 은행의 대출이 꽉 막혀버릴 수 있다는 것이다.WSJ가 미국 연방준비제도(Fed) 자료를 분석한 결과 미국 전체 대출의 38%는 상위 25위권 밖의 중소형 은행에 집중된 것으로 나타났다. 대출 특성별로 살펴보면 이들 은행이 미국 전체 상업용 부동산 대출에서 차지하는 비중은 67%에 달했다. 다음으로 주거용 부동산 대출의 37%, 상업·기업 대출의 28%, 신용카드 대출의 27%, 자동차 대출의 15%를 담당하는 것으로 집계됐다.글로벌 회계·컨설팅 그룹인 언스트앤영의 그레그 데이코 수석 이코노미스트는 "SVB발 위험은 이미 현실"이라며 "일단 특정 기관에서 스트레스가 발생하면, 이와 유사한 기관들이 대출에 보다 신중해지는 경향이 있다"고 분석했다. 그러면서 "우리는 장기적으로 이 상태에 머무를 가능성이 높다"고 내다봤다.SVB가 테크 기업들의 예금 인출에 대응하지 못하자, 투자자들은 이미 은행의 유동성 현황을 주시하기 시작했다. 이는 뱅크런(대규모 예금 이탈) 우려에 따른 금융주 폭락으로 이어졌다. 사모펀드 운용사인 아폴로 글로벌 매니지먼트의 토스턴 슬록 수석 이코노미스트는 "중소형 은행들은 이에 대응해 자본 비율을 상향하기 위해 대출 기준 강화 및 대출 축소에 나설 공산이 크다"며 "이 같은 움직임을 통해 (언제 예금을 인출할 지 모르는) 변덕스러운 예금주들과 변동성이 심한 자본조달 비용에 대응할 것"이라고 설명했다.중소형 은행들의 대출 축소가 가속화된다면 미국 경기 침체로 이어질 가능성이 있다. 가계 대출 축소로 소비가 줄고, 기업 또한 자금난에 처할 공산이 크다. SVB 파산 사태 전까지 노랜딩 시나리오를 예상했던 슬록 이코노미스트는 "중소형 은행들의 대출 축소로 올해 중반 침체에 접어들 것"이라며 "중소형 은행 위험이 더해지면서 우리는 경착륙 또는 고통스러운 침체로 향하고 있다"고 우려했다. 노랜딩은 경제가 침체 또는 소강상태에 빠지지 않고 상당 기간 호황을 유지한다는 뜻의 신조어다.미국 투자은행(IB) 골드만삭스도 종전 미 경기가 12개월 내 침체에 빠질 가능성을 25%로 봤지만 SVB 파산 사태 이후 35%로 상향했다. 데이코 수석 이코노미스트는 금융 붕괴가 없을 경우 신용·금융 조건 강화로 미국 국내총생산(GDP)이 향후 18개월간 0.5% 감소할 것으로 내다봤다. 마크 잔디 무디스 애널리스트 수석 이코노미스트 역시 "미 경제 성장률은 1분기 1~2%에서 2·3분기 0~1%에 그치고 상황에 따라 마이너스가 될 수 있다"고 경고했다.Fed 조사에 따르면 은행들은 지난해 말부터 대출을 줄이기 시작했다. 금리 인상으로 고신용자 대출자를 찾기 어려워진 데다 대출 수요가 약화된 데 따른 것이다. 페드레이크 가베이 ING 은행의 리서치 헤드는 "SVB 붕괴가 (경기) 확장과 투자를 둔화시킴으로써 고용 시장에 나쁜 징조인 (대출) 긴축을 심화할 것"이라며 "대출 기준과 실업률 사이에는 상당히 강력한 상관관계가 있다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2023.03.22.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>애플페이 국내 공식 PG 파트너는 토스페이먼츠</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002144725?sid=105</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이상일기자] 토스의 페이테크(Pay Tech) 계열사 토스페이먼츠(대표 김민표)는 애플의 글로벌 간편결제 서비스 '애플페이'의 국내 공식 PG 파트너사로 선정됐다고 22일 밝혔다.이번 파트너십을 통해 양사는 애플페이의 성공적인 한국 시장 안착과 성장을 위해 온라인 결제망 구축 및 가맹점 모집, 결제 시스템 운영을 함께 진행한다.토스페이먼츠는 가맹점이 자사몰에 애플페이를 쉽고 편리하게 도입할 수 있도록 적극 지원한다. 이에 따라, 기존 가맹점은 간단한 추가 계약만으로 애플페이를 연동할 수 있도록 편의를 제공할 예정이다.또한, 전자결제 시스템 직접 연동, 결제 위젯 연동 등 가맹점의 기호에 맞는 다양한 연동 방식을 지원한다. 이중, 누구나 클릭만으로 간편결제 연동이 가능한 '결제 위젯' 서비스는 애플페이 도입을 위한 별도 개발 비용 부담이 없고, 쉽고 간편하게 신청할 수 있어 영세·중소 가맹점의 선호도가 높을 것으로 전망된다.김민표 토스페이먼츠 대표는 “토스페이먼츠는 높은 기술력과 보안 역량을 기반으로 다양한 글로벌 기업과 협력한 경험과 노하우를 보유하고 있다. 파트너사로서 애플페이의 한국 시장 안착과 성장을 도울 수 있도록 최선을 다하겠다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2023.03.23.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>예·적금 금리 어디가 높지?…6월부터 온라인으로 한눈에 본다</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002632668?sid=101</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>금융당국, 9개 기업 예금중개 서비스 순차 출시한눈에 금리 비교하고 마이데이터 기반 적합상품 추천도금융위 “10여 개사 추가 신청… 적극 심사해 지정”클립아트코리아금융회사의 예·적금을 비교·추천해주는 온라인 예금중개서비스가 오는 6월 출시된다. 금융당국은 22일 ‘제4차 은행권 경영·영업 관행·제도 개선 태스크포스(TF) 실무작업반’ 회의에서 온라인 예금중개 서비스를 논의했다고 23일 밝혔다. 온라인 예금상품 중개서비스는 은행, 저축은행, 신협 등의 정기 예·적금을 온라인 플랫폼을 통해 비교·추천해주는 서비스다. 금융위원회는 지난해 8월 금융규제혁신회의를 열고 대출상품에 국한돼있던 온라인 중개서비스를 정기 예·적금까지 확대한 뒤 같은 해 11월 9개 기업의 예금중개서비스를 혁신금융서비스로 지정했다. 현재 신한은행·뱅크샐러드·농협·토스 등이 서비스 출시를 준비하고 있다. 금융 소비자들은 온라인 예금중개서비스를 통해 여러 금융회사의 예·적금 상품을 한눈에 비교할 수 있다. 또한 마이데이터와 연계해 적합상품을 추천받고 원스톱으로 해당 상품에 가입할 수 있다. 상품 만기일을 알려주거나 갈아타기를 추천하는 등 사후 관리도 돕는다. 현재 금융감독원이나 은행연합회 누리집에서도 금융회사 예금상품을 비교해 볼 수 있으나 어느 상품이 적정한지 소비자가 직접 판단해야 하고 상품에 가입하려면 따로 영업지점을 방문하거나 각 금융회사 누리집에 접속해야 해 번거로움이 있다. 다만 금융당국은 금융회사간 과도한 자금 이동을 막기 위해 금융회사별로 플랫폼 판매 비중에 한도를 두기로 했다. 금융회사별 전년도 예·적금 신규모집액 기준으로 은행은 5% 내, 기타 금융회사는 3% 내여야 한다. 티에프 회의 참석자들은 “소비자들의 금리 민감도가 높아져 과도한 머니무브가 우려된다. 모집 한도 설정이 필요하고 너무 빈번한 이동을 제어할 수 있는 장치도 필요하다”는 의견 등을 금융당국에 제시한 것으로 알려졌다. 금융당국은 예금중개 수수료가 높지 않을 것으로 내다봤다. 금융위 관계자는 “예금은 대출과 다르게 소비자가 금융회사보다 더 우위에서 가입을 진행하기 때문에 수수료가 높아지기 어려운 구조다”며 “참여 기업들도 수수료가 거의 없는 형태로 사업을 진행하고 있는 것으로 안다”고 말했다. 참여 기업은 더 늘어날 전망이다. 금융당국은 오는 5월까지 추가로 참여 의사를 밝힌 10여 개사에 대해서도 혁신금융서비스 지정 심사를 진행한다. 금융위는 “핀테크 기업뿐만 아니라 신용카드사 등 기존 금융회사에서도 온라인 예금상품 중개업에 대한 수요가 크다”며 “요건을 충족하는 기업은 적극 지정할 계획”이라고 했다. 금융당국은 올해 시범 운영 결과를 바탕으로 내년 온라인 예금중개서비스를 정식 제도화한다는 계획이다. 당국은 예금중개서비스가 정식 제도화되면 취급 상품을 수시입출금 예금 상품(요구불예금 등)으로 확대하고, 금융회사별 모집 한도도 완화하는 것을 검토하기로 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2023.03.22.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>한국투자증권, 카뱅·토뱅과 ‘토큰증권 협의체’ 결성</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003347950?sid=101</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>한국투자 ST 프렌즈한국투자증권은 인터넷전문은행인 카카오뱅크·토스뱅크와 함께 토큰증권 협의체인 ‘한국투자 ST 프렌즈’를 결성해 본격적으로 토큰증권 생태계 구축에 나선다고 22일 밝혔다.한국투자 ST 프렌즈는 한국투자증권을 주축으로 카카오뱅크와 토스뱅크가 토큰증권을 기록할 분산원장(블록체인)의 금융기관 시범 운영 파트너로 참여하고, 카카오엔터프라이즈가 분산원장 구축을 위한 기술 파트너로 합류한다. 카카오엔터프라이즈는 한국은행 중앙은행 디지털화폐(CBDC) 모의실험 사업을 성공적으로 수행하며 기술력을 인정받은 바 있다.토큰증권이란 실물자산이나 금융자산의 지분을 작게 나눈 뒤 블록체인 기술을 활용해 토큰(특정 플랫폼에서 사용되는 가상자산) 형태로 발행한 증권을 의미한다. 증권성을 지닌다는 점에서 일반적인 가상자산(암호화폐)와는 차이가 있는데, 증권이기 때문에 소유권에 대한 권리(주식)나 채무에 대한 권리(채권)를 담고 있는 것이 대표적이다.금융위원회는 지난달 6일 토큰증권 발행·유통 규율체계 정비방안과 토큰증권 가이드라인을 발표하며 토큰증권의 발행·유통을 허용하겠다고 밝힌 바 있다. 이에 따라 요건을 갖춘 발행인은 발행인 계좌관리기관이 되어 증권사 등록을 통하지 않고 직접 토큰증권을 발행할 수 있다.이러한 토큰증권 제도화 추진에 따라 조각투자업체와 블록체인 기업을 내세운 협력체들이 등장하고 있는데 이번 한국투자 ST 프렌즈는 금융기관이 중심이 되어 결성된 첫 사례라 업계에 미칠 파장이 클 것으로 전망된다.한국투자증권은 연내 발행 분산원장 인프라를 구축하고 안정성 및 보안성 테스트를 완료할 예정이다. 이후 한국투자증권의 발행 역량과 카카오뱅크·토스뱅크의 플랫폼 역량을 바탕으로 본격적인 토큰증권 상품 공급을 추진한다. 초기 생태계 구축이 마무리되면 경쟁력 있는 조각투자 기업들의 참여를 유도, 투자자 보호와 시스템 안정성을 최우선으로 하는 국내 1위 토큰증권 생태계로 확장해나가겠다는 목표다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2023.03.20.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>광고부터 해외 진출까지…중소기업 '셀러' 지원책 쏟아진다</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000042875?sid=105</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>최근 경기 침체로 인해 어려움을 겪는 기업들이 많아지면서 우리 경제의 근간인 중소기업을 위한 지원·육성책들이 나오고 있다. 방송 광고 접근성이 높아지고 마케팅 비용 절감을 위한 솔루션들이 등장하고 있는 가운데, 오픈마켓 중에서는 티몬 인수로 국내에 이름을 알린 '큐텐'이 해외 진출 교두보 역할을 하고 있어 눈길을 끈다. (사진=게티이미지뱅크)먼저 한국방송광고진흥공사(이하 '코바코')는 4월부터 중소기업 방송광고비 할인 매체와 시간대를 확대키로 했다. 방송광고비의 70%를 할인해주는 지원 매체를 기존 5개(KBS·MBC·EBS·CBS·YTN)에서 CPBC, WBS를 더해 총 7개로 늘린다. 특히 주말 저녁이나 출퇴근 시간 등 TV 시청률과 라디오 청취율이 높은 인기 시간대에 보다 많은 중소기업의 방송광고를 노출할 수 있도록 지원한다는 계획이다. 광고주들이 선호하는 공영방송 KBS-2TV와 MBC-TV에 중소기업 우선 시간대를 확대한다. 6월 모집 예정인 '방송광고 제작비 지원사업'도 눈여겨볼 만하다. 이는 제품 경쟁력은 있으나 제작비 부담으로 방송광고를 시도하지 못하는 우수 중소기업을 대상으로 하는 제도다. TV광고의 경우 최대 4500만원 한도 내에서 제작비의 50%를, 라디오 광고는 최대 300만원 한도 내에서 제작비의 70%를 지원한다.코바코에 따르면 지난해 코바코를 통해 방송광고비 할인과 방송광고 제작비를 지원받은 중소기업의 매출액은 평균 25% 증가한 것으로 나타났다. 이 중에서도 방송광고비 할인사업은 1998년 시작된 이래 2022년까지 4000여개 중소기업에게 광고비 할인을 지원했다. '바디프랜드', '크린토피아', '안다르', '달바', '토스' 등 현재 중견기업으로 성장한 기업들도 혜택을 받은 바 있다.코바코는 IPTV 실시간 광고와 어드레서블TV 광고도 지원 중이다. 원하는 지역 및 고객군을 설정할 수 있어 타깃팅이 가능한 방송 광고로, 소액으로도 광고를 집행할 수 있는 것이 특징이다. 아울러 인공지능(AI) 기반 광고 창작 지원 시스템 '아이작(AiSAC)'은 챗GPT-3를 탑재하며 빅데이터 기반 트렌드 분석과 AI 카피라이팅 기능을 제공하고 있다. 판매 경로 넓히는 오픈마켓…큐텐 '역직구' 확대 주목오픈마켓의 특장점을 활용하는 것도 방법이다. 쿠팡은 상위 페이지에 상설 기획관 '착한 상점'을 마련했다. 중소상공인에게 안정적인 판로 확보를 지원하는 것을 목적으로, 프로모션 비용 및 배너 광고 등을 지원한다.쿠팡에 따르면 착한상점에 참여한 중소상공인의 지난해 매출이 전년 대비 약 40% 성장했다. 한국신용데이터(KCD) 기준 동기간 전국 소상공인 매출 성장률인 11.9%에 비해 약 3배 높은 수치이자, 쿠팡 전체 매출 성장률인 26%보다도 높다. 쿠팡 전체 판매자 중 약 70%는 연 매출 30억 미만의 소상공인들이다. 최근 쿠팡이 2분기 연속 흑자를 달성하고 사상 최고 실적을 거둔 데에도 함께 협업한 중소상공인의 성장이 뒷받침된 셈이다. (사진=쿠팡)티몬 인수 등으로 크로스보더 커머스 사업(역직구)을 본격화하고 있는 큐텐(Qoo10)은 중소기업유통센터 2022년 소상공인 해외쇼핑몰 지원 사업에 참여했다. 그 결과 큐텐은 50개 소상공 기업의 상품을 동남아시아에 수출해 약 8만5000건의 판매 실적을 기록한 바 있다. 사업 목표 매출의 6배 이상을 초과 달성한 성과다.이는 큐텐 싱가포르의 플랫폼 역량 덕에 가능했다. 큐텐은 2010년부터 13년간 우수한 한국 기업의 상품을 동남아 시장에 선보이며, 싱가포르 현지에 'K상품'의 인기를 쌓아왔다. 싱가포르 시장 1위를 차지했던 비결 또한 한국 상품에 대한 현지의 열렬한 반응이 영향을 미쳤던 것으로 알려졌다.이에 더해 큐텐은 사업에 참여한 소상공인 상품의 전용 기획전을 운영하는 것은 물론 외부 SNS광고까지 지원하며 플랫폼 외부의 새로운 고객까지 공략했다.이를 통해 스틱 홍삼과 착즙주스, 고구마 등 식품과 물티슈, 유축기 등 해외 판매가 쉽지 않았던 식품과 유아용품까지 큰 호응을 얻었다는 것이 큐텐 측 설명이다. 가전 등 한국 글로벌 브랜드의 디지털 제품뿐 아니라 국내 소상공인이 생산한 식품과 생필품의 품질과 성능까지 해외 고객의 인정을 받게 됐다는 평가다.큐텐은 올해에도 자사의 글로벌 플랫폼과 인프라, 노하우를 총 동원해 국내 소상공인의 성공적인 해외 상품 판매에 협력할 계획이다. 특히 올해 사업에는 사업 선정 업체에 마케팅에 배송비까지 포함하는 지원도 계획 중에 있다. 배송 효율 증대와 이에 대한 비용 절감이 현지 셀러의 상품 대비 경쟁력을 확보하는 수단이 될 수 있을 것으로 기대된다.큐텐 관계자는 "글로벌 이커머스 시장의 빠른 성장과 경기 불황으로 인한 내수 시장의 한계로 해외 판매에 대한 국내 중소기업 및 소상공인들의 관심이 커지는 상황"이라며 "복잡한 절차와 전문적인 지식의 부족으로 주저했던 해외 시장으로의 진출을 큐텐만의 노하우로 적극 지원할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2023.03.31.</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>간편결제 수수료율, 배민 3%로 ‘최고’ G마켓·SSG닷컴도 2.59%</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003350369?sid=101</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>금융당국이 네이버페이와 카카오페이 등 전자금융업자의 간편결제 수수료율을 공시하기로 하면서 9개 업체의 카드·선불전자지급수단의 수수료율이 처음 공개됐다.31일 금융감독원이 공개한 바에 따르면 네이버파이낸셜·쿠팡페이·카카오페이·G마켓·11번가·우아한형제들·NHN페이코·SSG닷컴·비바리퍼블리카 등 9개 사가 각 홈페이지에 공시한 선불결제 평균 수수료율은 2.00(영세)~2.23%(일반)이었다. 카드결제 수수료율은 평균 1.09(영세)~2.39%(일반) 수준으로 나타났다.결제 수수료율이 가장 높은 곳은 ‘배달의 민족’을 운영하는 우아한형제들이었다. 해당 회사의 카드결제 수수료율은 1.52(영세)~3%(일반)로 상하단이 모두 다른 업체들에 비해 높았다. 특히 선불결제 수수료율의 경우 영세·중소·일반에 관계없이 일괄 3%를 받고 있었다.일반 기준 카드 결제 수수료율은 우아한형제들에 이어 G마켓과 SSG닷컴이 2.59%로 높았고 카카오페이가 1.4%로 가장 낮게 나타났다. 선불전자지급수단 결제 수수료율은 SSG닷컴과 쿠팡페이가 2.5%로 우아한형제들의 뒤를 이었고 G마켓은 2.49%로 나타났다.금감원은 그간 온라인 간편결제 관련 정보가 부족해 소상공인들이 협상 과정에서 부담을 느낀다는 지적 등을 반영, 지난해 12월 간편결제 수수료 공시 가이드라인을 마련했다. 공시 대상 업체는 간편결제 규모가 월평균 1000억원 이상인 업체로 매 반기 말부터 한 달 안에 각 사 홈페이지에 수수료율을 공시해야 한다.이번 수수료율 공시 제도 시행에 따른 효과도 있었다. 네이버파이낸셜과 카카오페이, 비바리퍼블리카(토스) 등 빅테크 3사의 선불결제 수수료율은 전체 평균(영세·중소·일반 미구분)이 2021년 기준 2.02%에서 1.73%로 0.29%포인트 낮아졌다. 간편결제의 상당 부분을 차지하는 신용카드 기반의 간편결제 수수료율은 1.95%에서 이번 공시 기준 1.46%로 0.46%포인트 인하된 것으로 나타났다.금감원은 수수료율 공시 제도를 시행함으로써 간편 결제 사업자 간 자율적인 경쟁 촉진으로 시장의 가격 결정 기능에 기반해 합리적인 수수료가 책정될 것으로 전망하고 있다. 이를 통해 가맹점들은 수수료 부담이 점진적으로 줄고 금융소비자의 편익도 제고될 것으로 보고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2023.03.26.</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>[2023년 전자신문 독자위원회 1차 회의] "생산가능인구 감소 화두 제시 시의적절"</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003086650?sid=110</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>2023년 전자신문 독자위원회 1차 회의가 지난 21일 서울 서초구 전자신문사에서 열렸다. 왼쪽부터 김원배 전자신문 오피니언실 실장, 최재유 법무법인 세종 고문, 우태희 대한상의 부회장, 김예란 광운대 교수, 김무환 포스텍 총장, 권오경 한양대 석좌교수, 안완기 한국생산성본부 회장, 조준희 한국SW한업협회 회장. 김민수기자 mskim@etnews.com올해 첫 '전문신문 독자위원회' 회의에 참석한 위원들은 지난해 12월부터 최근까지 전자신문에 실린 기사와 사설, 지면 편성 방식 등을 낱낱이 분석, 다양한 의견을 쏟아냈다.21일 전자신문 본사에서 열린 '2023년 전자신문 독자위원회 1차 회의'에서 위원들은 2023년 신년기획, 'CES' 'MWC' 등 기획보도의 주제 발굴 노력, 분석력을 호평하면서도 전자신문만의 차별성 강화를 숙제로 제시했다.신년기획, 주요 전시회 기사가 사실상 전 매체에 공통으로 실리는 상황에서 정보통신기술(ICT)·산업 정론지로서 분석·문제 제기·대안 제시 등 측면에서 전자신문만의 색채를 짙게 드러내 달라고 당부했다.최근 큰 관심을 받는 '챗GPT' 등 생성형 초거대 인공지능(AI) 이슈와 관련해선 실제 활용 사례, 학습 방법, 부작용 등 다양한 관점의 기사를 발굴해야 한다는 주문과 더불어 유사 기사·기고가 집중되는 '쏠림'은 지양해야 한다고 지적했다.산업 나아가 국가 현안으로 부상한 인력 부족, 소재·부품·장비 자급률 저하 등 주제는 전자신문이 깊이 있는 이슈를 발굴해 문제를 제기하고 장기적 관점에서 대안까지 제시하는 긴 호흡의 기사가 필요하다고 강조했다.이와 함께 국제·특파원 기사를 통한 시각 다변화, 연성 뉴스 확대 등이 생각할 거리로 던져졌다.〈참석자〉(위원장 이하 가나다순)△김무환 포스텍 총장(위원장)△권오경 한양대 석좌교수△김예란 광운대 교수△안완기 한국생산성본부 회장△우태희 대한상공회의소 부회장△조준희 한국SW산업협회장△최재유 법무법인 세종 고문△주정민 전남대 사회과학대 학장(서면 참여)△김원배 전자신문 실장(간사)권오경 한양대 석좌교수◇권오경='2023 신년기획' 중 '생산가능인구 감소…산업 대전환 이끌 고급 두뇌 태부족'과 '출산·이민 장려 한계…균형발전 교육혁신 전략 세워야' 기획 기사는 시의 적절했다. 반도체 인력양성과 연계해 문제점과 미래 방향을 제시했으면 더 좋은 기사가 될 것 같다는 생각이 들었다. 출산율이 지속적으로 하락하면 새로운 이민정책이 필요할 것으로 보이는데, 이에 대한 고민도 반영됐다면 좋았을 것이다.2월 24일자 '정부, 삼성·SK와 10년간 반도체 석·박사 2365명 양성' 기사는 실현 가능성에 대한 검토가 필요해 보인다.연초 CES 기사는 더 조직적으로 취재해 특집 형태로 나가면 어떨까 싶다. 다양한 매체가 CES를 다루는 상황에서 전자신문의 근간이 되는 산업분야인 만큼 아쉬운 점이 엿보인다.3월 2일 '中, 韓안방서 OLED DDI 개발…분당에 연구소 설립' 기사가 게재됐다. 중국이 반도체·디스플레이 기술을 탈취하기 위해 한국에 연구소를 설립하거나 국내 중소기업에 투자하는 빈도가 높아지는 상황에서 국가 차원의 대책·정책과 가이드라인이 필요하다는 점에서 관련 이슈를 제기했다.소재·부품·장비(이하 소부장) 이슈와 관련해 아쉬운 점을 말하고 싶다. 일본이 소부장 제재 품목 세 가지로 한국을 압박한지 3년이 흘렀다. 불화수소, EUV 포토레지스트, 불화 폴리이미드가 핵심 소부장 품목이라고 소개되는데 사실과 다르다. 어떤 매체도 이 세 가지 품목이 진짜 핵심 품목이 아니라고 짚지 못했다. 이 세 가지 품목은 한국도 어느 정도 자급 능력을 갖췄다. 진짜 중요한 품목은 반도체 핵심 소재 '실리콘 웨이퍼' 같은 제품이다. 일본 주요 기업이 세계 시장의 58% 이상을 점유했다. 한국의 SK 실트론이 8% 정도 점유했는데 이런 상황에서 일본이 실리콘 웨이퍼를 한국에 공급하지 않으면 심각한 문제가 발생할 수 있다. 이 문제에 대한 언급없이 정부의 발표대로 일본 관련 소·부·장 이슈가 해결된 것처럼 보도되고 있다. '반도체·디스플레이·2차전지' 소부장의 현주소를 파악해 기사화해야 한다.인플레이션 감축법(IRA)을 통해 미국의 속내가 무엇인지 심층 분석해 볼 필요도 있다. 현 IRA법과 프라자합의 당시 상황을 비교·분석하고, 한국 미래산업 추진전략을 외부기관과 협력해 고민해 보는 것을 제안한다.AR·VR·XR용 마이크로 디스플레이에 대한 기술 경쟁이 치열할 것으로 보인다. 산업동향에 소식에 안테나를 세우고 조사할 필요가 있다. OLEDoS, LEDoS 등 기술이 핵심이다. 지난해 12월 21일 게재한 'APS홀딩스, 세계 첫 3000PPI급 마이크로 OLED 개발' 기사 내용과 관련해 지속적 관심을 갖길 당부한다.우태희 대한상의 부회장◇우태희=모니터가 아닌 종이로 신문 전체를 보니 관점이 완전히 달라지는 것을 알게 됐다. 연초 다룬 '대한민국 산업안전 진단' '업종별 위기 요인 분석' 기사는 소부장, ICT 분야 전체를 조망하는 좋은 시도였다. 올해 상반기까지 경제가 어려울 것으로 예상되는데 이런 이슈가 다뤄져 다행이다.CES·MWC는 전자신문 전문 영역이다. 전시회 이슈를 부각시키고 기획해 잘 끌고 나가고 있는 분야다. 전시회를 가지 못하는 사람이 많은 상황에서 연초 해외 전시회를 지속적으로 비중있게 다뤄 독자에게 도움을 줬으면 좋겠다.최근 눈에 띈 것은 기득권을 둘러싼 대립 구도 기사다. 비대면 진료, 로톡 등 다양한 주제를 다뤘다. 스타트업이 기득권에 막혀 어려움을 겪는 사례가 많은 데 전자신문은 기득권, 규제를 완화하자는 입장이라 기업에 큰 힘이 된다.1월 3일, '새해 출범 예고 '민간 모펀드'…벤처업계, 기대보다 우려' 기사는 한쪽 의견에 치우쳤다. 코멘트가 전부 벤처업계 관계자인데, 정부 입장도 들어갔어야 했다. 전자신문 기사에 업계 관계자로 처리한 코멘트가 많은데 취재원 부담은 덜 수 있지만 기사 신뢰성을 높여주지 않는 점도 생각해야 한다.2월 23일, '올해 클라우드 도입 공공 시스템 3.3% '반의 반토막' 기사는 행정안정부의 예산만을 언급했다. 과학기술정보통신부 등 다른 부처 예산도 같이 언급하는 게 적절하다. 1월 30일, '전기차 보조금, 中트럭 50%...韓35% 홀대' 기사는 산업용 트럭과 일반 승용차의 보조금을 비교했는데, 같은 종류로 비교하는 게 맞다.지면 편성과 관련해서 광고가 양면으로 나온 적이 있는데 아쉬운 부분이다. 광고 배치에 신경을 쓰지 않은 느낌을 받았다. 독자의 관점, 시각에서 편성해야 한다.안완기 한국생산성본부 회장◇안완기=올해 첫 독자위원회 회의다. 지난해 5월 첫 회의에서 단순 사실만 전달하는 기사가 많다는 아쉬움을 전했다. 독자가 궁금해 할 이슈를 선별하고 심층 분석한 기사의 확대를 제안했는데 얼마나 개선되고 반영됐는지 궁금하다.올해 1분기 기사를 보면 우선 CES 기사를 언급하지 않을 수 없다. 코로나19 팬데믹 이후 3년 만에 정상적으로 개최한 'CES 2023'에 대한 현장 중계형 보도가 눈에 띄었다. 우수한 부분도 있었지만 전자신문만의 차별성이 보이지 않았다.야구중계를 보면 해설가의 중요성을 느끼게 된다. 전문가야 야구를 잘 알지만 모르는 사람은 해설가의 말로 경기를 판단한다. CES 기사도 야구 중계의 해설가처럼 풀어나간다고 생각하면 좋겠다. 1월 12일, 'CES 2023 리뷰&amp;인사이트 콘서트' 기사의 주요 내용을 더 심층적으로 보도했다면 독자에게 매우 유익했을 것이다.MWC와 관련해선 2월 19일부터 나흘간 4회로 구성한 '미리보는 MWC 2023' 심층 기획이 눈에 띄었다. 사전 정보를 심층적으로 제공해 MWC에 대한 호기심을 키웠다.MWC 행사 기간 한국, 해외의 주요 기업에 대한 실황 보도가 이어졌는데 마치 현장에 있는 듯한 느낌을 받았다. 폐막 이후 종합 정리 보도로 이슈를 마무리한 것도 좋았다.현지에서 전자신문이 개최한 포럼은 통신망 공정성 확보를 통한 글로벌 디지털산업 발전 방안을 주제로 놓고 글로벌 망 이용대가 등 주제를 토론했다. 이런 행사는 더욱 키우고 돋보이게 포장했다면 전자신문의 차별성이 부각됐을 것이다.최근 최대 화두인 챗GPT는 다양한 매체가 다루고 있지만 기술의 명암, 활용 방안 등을 단편적으로 다루는 데 그쳤다. 전자신문이라면 챗GPT로 인한 산업 지형 변화, 사용자의 활용 관점, 정부 정책 등 다양한 관점에서 심층 기획보도가 가능하다.'생성 AI시대, 우리는' 기획이 2월 8일부터 15일까지 총 6편에 걸쳐 보도됐다. 이용자가 쉽게 챗GPT를 이해하고, 활용하는 내용이 부족했다. 챗GPT 활용이 불가피하다면, 올바른 활용 관점의 보도가 지속적으로 나와야 한다. 실제 시연 화면과 이미지, 인포그래픽도 적극적으로 활용해야 한다.김무환 포스텍 총장◇김무환=전시회와 관련해 CES·MWC에서 전자신문 역할을 더 키우면 좋겠다. CES 보도는 차별성이 돋보이지 않아 아쉬웠다. 모 매체와 CES 공동취재를 협약하고 포스텍 교수 5명을 파견한 적이 있다. 기자뿐만 아니라 해당 분야 전문가의 시각도 기사에 직접적으로 반영하기 위한 선택이었다. 전자신문도 전문성 측면에서 다양한 시도를 했으면 한다.챗GPT 이슈와 관련해선, 최근 관심이 크다는 것을 감안하더라도 오피니언 기사가 너무 집중되는 경향이 보인다. 3월에 관련 오피니언 기사가 총 14건 나왔는데 피로감이 들 수 있다.앞서 언급한 비대면 진료 관련 양자 인터뷰 기사처럼 챗GPT 기사도 개인 의견보다 대립하는 양측 의견을 제시하면 어떨까라는 생각도 해봤다. 독자가 대립하는 양측 의견을 모두 듣고 판단할 수 있다. 극단적 의견 충돌을 소개하는 등 다양한 시도를 해보면 좋겠다.'사이언스' 지면은 지식 전달과 함께 흥미위주로 읽기가 편해서 좋다. 과학 대중화 측면에서도 이런 기사가 많아져야 한다고 본다.게임 기사는 장기적으로, 하나의 섹션으로 분리해 다뤄야 한다고 본다. 게임 산업의 규모, 위상을 보면 게임 기사의 위치, 비중을 고민해야 할 시점에 왔다.조준희 한국SW산업협회 회장◇조준희=3월 8일 '세계 여성의 날'을 맞아 국내 IT 기업의 여성 참여도를 스페셜리포트, 사설, ET뷰 등 여러 기사를 통해 다뤘다. 우리나라는 OECD 회원국 중 여성 관리자 비중이 최하위 일본 다음이다. 성별 임금 격차도 가장 크다. 교육 수준 향상, 경제 성장에 따라 여성의 사회적 진출이 늘어나는 상황에서 국내 IT 산업의 여성의 사회활동을 다뤘다는 점에서 의미가 깊다.3월 5일 '저출산과 ESG의 상관관계'라는 칼럼을 통해 ESG경영으로 기업의 남성 육아휴직, 여성의 출산 후 복귀율 등 가족친화제도 운영이 어떻게 출생률에 영향을 주는지 보도했다. 사회에 여성 리더십이 필요하다는 것을 보여준 기사다.3월 7일 '여성 인력 경제활동 참여 늘리려면' 사설에서 해외 선진국의 '여성임원 할당제'를 소개했다. 선진국 기업과 국내 주요 IT 기업의 여성 개발자 비율, 여성 임원 비율을 비교하며 변화의 필요성을 알렸다. 국내외 기업의 여성 인력 양성을 위한 제도 소개 등 IT 전문 언론에서 여성의 날을 맞이해 관련 내용을 심도 있게 다룬 것은 좋은 시도였다.CSAP 등급제 관련 기사도 눈에 띄었다. 국내 소프트웨어의 서비스형소프트웨어(SaaS)화는 한국소프트웨어산업협회에서 꾸준하게 강조하고 있는 과제 중 하나다. SaaS 생태계 구축을 위해서는 공공 분야가 획기적으로 SaaS를 확대·활용해야 한다고 주장해 왔다. 때문에 공공이 클라우드보안인증제도인 CSAP를 통해 SaaS 도입을 확산시키려는 취지는 반가운 일이다. 전자신문은 지난해 12월부터 'CSAP SaaS 인증, 간편 등급 대세 자리매김'과 같은 기사를 통해 CSAP의 역할과 중요성, 그리고 기대 효과 등을 소개했다. 1월 4일 'CSAP 등급제, 현실적 대안 논의 본격화' 기사와 같이 CSAP 개정안이 시행되기 위해 IaaS분리, 규제 간소화, 보안 정책 준수 등 현장의 목소리를 담은 기획기사, 사설을 통해 현실적 대안을 제시했다. IT 업계 목소리를 정부에 전달하는 역할뿐만 아니라 제도를 통해 기회를 얻을 수 있는 기업에 가이드라인을 제시했다는 점에서 언론의 역할에 부합했다.최근 최대 관심사는 '챗GPT'다. 많은 언론이 챗GPT 기사를 쏟아냈다. 전자신문도 MS의 챗GPT 발표 이후 100여건 이상의 기사를 실었다. 전자신문은 챗GPT에 한정하지 않고 AI 기술 관점에서 상황을 바라봤고 전문가 의견과 향후 전망 등을 심도있게 다뤘다. 2월 13일, '챗 GPT처럼…韓 AI 비즈니스 모델 유료화 시동' 기사나 2월 15일 '첫 한국형 챗GPT 신경전' 기사는 대기업, 스타트업의 AI 사업과 기술의 진척도 및 시장 현황을 파악하는 데 도움이 됐다.'생성 AI시대, 우리는' 코너를 통해 우리나라 AI 기술에 대한 현장의 의견을 전달했고 다른 업계 전문가를 통해 AI기술이 어떻게 금융, 제조, 교육 등 각 산업을 변화시킬 수 있을 지 소개했다.AI는 4차 산업혁명을 대표하는 기술 중 하나다. 단순히 챗GPT로 인한 이슈 기사로 끝나는 것이 아니라 지속적으로 국내 AI 기술의 변화와 방향성 등을 제시할 수 있는 수준 높은 기사가 이어지길 기대한다.2월 26일, 클라우드 산업 실태조사 결과 보고서를 기반으로 3건의 기사가 게재됐다. 국내 클라우드 시장의 규모와 성장세, 특화 부분 등을 소개했고 공공부문에서 SaaS 확산화를 위해 어떠한 노력이 이어지고 있는지 설명했다. 전 산업에서 디지털 전환 핵심 요소로 클라우드가 꼽히는 만큼, 단순히 보고서의 데이터만 보여주는 것이 아니라 데이터가 시사하는 바와 우리 정부, IT 외 산업 종사자가 어떻게 대처해야 할지 다뤘다면 더 좋은 기사가 됐을 것이다.올 초 연재를 시작한 'IT 잡학다식' 코너는 흥미를 끄는데 성공했다. 1월 27일자, '왜 키보드는 'QWERTY'로 시작할까' 기사처럼 IT산업 외 종사자에게도 도움이 될 정보를 쉬운 단어와 문장으로 소개했다. 무거운 주제의 기사와 밸런스를 잘 맞춰주는 콘텐츠다. 좋은 코너의 탄생이 반가웠다.김예란 광운대 교수◇김예란=3월 15일, '웹3.0 대중화 시대가 온다…생성AI로 웹3.0 UI·UX도 UP' 기사는 흥미와 유용성 측면에서 좋은 점수를 주고 싶다. 그러나 한편으로는 개별 발표자 논의를 요약하는 데 그쳐 웹3.0을 총체적으로 파악하기에 부족하다는 생각도 든다. 심층적 논의를 제공했다면 더 좋은 기사가 됐을 것이다.지면 편성과 관련해 단순 정치 뉴스 즉, 전자신문 고유 취재 분야와 무관한 뉴스는 1면에 게재하지 않는게 나을 것 같다. 정치 뉴스의 관건인 불편부당, 심층성 등 원칙을 준수해야 하는 어려운 문제가 있다. 또 전자신문의 전문 분야가 아닌 곳에서 좋은 기사가 나오기 어렵다고 본다. 예를 들어 3월 17일 '尹·기시다 “한일 관계 새롭게 출발”' 기사는 정치 기사로 게재됐다. 이 사건이 한국 전자산업에 미치는 영향을 입체적으로 확장·조명하는 게 매체 성격에 더 부합한다.2월 12일 '30조 자율주행로봇, 규제에 갇혔다' 기사는 정책 미비가 기술산업 발전에 미치는 악영향을 취재·분석한 기사로 시의적절하고 유익했다.독자와 상호작용 관점에서 다양한 형태의 기사 발굴을 제안한다. 다만, 단순 흥미 위주의 기사가 아니라 정확하고 심층적 분석이 필요하다. 이런 기사에 대한 독자의 반응은 일반 기사와 확연하게 다르다. 연예기사나 신변잡기적 기사가 아니라 전자신문 전문 분야에서 독자 필요를 만족시킬 수 있는 기사를 발굴해야 한다. 구독 서비스 활성화 등 독자의 반응을 활성화하고 지속 발전시키기 위한 전략적 노력도 필요하다.최재유 법무법인 세종 고문◇최재유=전자신문은 정치보다는 정책을 앞세우는 게 바람직해 보인다. 1월 6일 '이재명 체표동의안 '부결' 기사 등은 1면보다는 6면 등으로 배치하고 정책이나 전문신문 주요 취재 분야 기사가 전면에 배치하는 게 훨씬 좋아 보인다.2월 14일 '1월 벤처투자 84% 급감…냉각기 장기화 우려' '유니콘 몸값 평가 절하 분위기, 투자사 자금 쌓아 놓고 '관망세' 등 기사는 향후 대책 등 후속 분석기사가 필요하다. '관련기사 9면 안내'로 표기돼 있었지만 해당면에 관련 내용도 없었다.3월 10일 '한전, 5G 특화망으로 에너지 효율 높인다' 기사는 한전이 5G 특화망 활용을 위해 기간통신사업자 등록을 신청한다는 내용이었는 데 통신과 전기의 융합 좋은 사례가 소개됐다. 전력관리 기술이 발전하면 기술 수출도 가능할 것으로 보이는데 심층 취재 사안이다.2월 24일 '17분 만에 토스 유심칩 배달…알뜰폰 셀프개통 “뚝딱”'은 이통 3사, 알뜰폰 경쟁 상황, 서비스·요금경쟁 비교분석 등으로 기사를 확장할 수 있을 것으로 보인다.3월 2일 '전자신문·GSMA, 콘텐츠 교류·사업 맞손' 기사는 전자신문의 위상을 제고하는 데 좋은 계기가 될 것이다. 앞으로 MWC에서 사이버 보안 중요성을 강조하고 관련 산업, 기업 등을 전시하는 형태로까지 발전시킬 방안을 고민할 필요가 있다.MWC 기간 중 '통신사·CP, 망투자 공정기여 필요' 'MWC23 바르셀로나 포럼' 등 기사는 시의 적절했고 ICT 리더인 한국의 적극적 역할을 고민했다는 점에서 좋은 기사가 됐다.3월 6일 '디지털 전환시대, DR(재해복구) 시스템 선택 아닌 필수' 기사도 데이터 센터 안전성 대책을 논의해 시의성 측면에서 적절했다. 이동통신사 투자 유도, 정보보안 산업의 육성으로 이어지도록 지속적으로 점검하고 문제를 제기해야 한다.1월 31일 스페셜리포트 '검색엔진 위협하는 새로운 게임 체인저는' '대화형 AI '챗 GPT' 1000만명 이용…세상이 들썩' 기사는 보다 심도있는 심층 취재가 필요했다.2월 14일 '저작권, 뜨거운 감자' 기사는 이미 타 매체가 제조업과 연계한 기사를 게재했는데 전자신문에서 먼저 고민해 소개했다면 매체 성격에 더 부합했을 것이다.'30조 (2030년 시장규모) 자율주행 로봇, 규제에 갇혔다' 기사는 시의적절했지만 로봇시장 전체 구도 속에서 자율주행로봇을 다루지 못한 게 아쉽다. 챗GPT와 관련해선 특정 지면을 할애해 생성형 GPT가 작성한 기사를 게재하는 등 창의적 시도를 해보면 좋겠다.기사가 국내 시각에만 머물고 있다는 느낌도 든다. 실리콘밸리 특파원 파견 등 계획을 이행해 기사의 시각을 넓히는 작업도 빨리 이행했으면 한다.주정민 전남대 사회과학대 학장◇주정민(서면)=3월 9일 'TV로 비대면 진료, 규제 탓 반쪽 출발' 기사는 삼성전자와 LG전자가 비대면 진료 서비스를 개발하고도 규제 때문에 제대로 서비스 하지 못하는 상황을 전달했다. 삼성전자는 자사가 아닌 협력사 앱을 통해, 그리고 LG전자는 미국에서는 출시했으나 국내에서는 출시하지 못한 내용을 기사화했는데 규제 완화의 필요성을 보여준 기사다. 3월 13일자 '지능형 로봇법 개정안 통과 시급' 기사도 마찬가지다. 로봇업계 요구뿐만 아니라 로봇산업 활성화를 위해 조속히 통과돼야 할 법안을 소개했다. 해외 사례를 들어 입법 필요성을 기사화한 것은 적절한 시도다.주 평균 64시간 근로시간제 개편 관련 기사는 구체적 분석이 필요해 보인다. 3월 7일자 관련 기사는 현행 주52시간제를 64시간제로 개편하는 내용을 상세하게 담았다. 그러나 산업계에 미치는 영향을 담은 후속기사가 없었다. ICT, 방송통신 등 산업에 미치는 영향을 심층 분석했다면 독자에게 도움이 됐을 것이다.전국 플러스 면은 특화가 필요하다. 매달 전국 플러스 면을 통해 지역의 소식을 전하고 있는데 주로 지역 행사나 정책 등을 다룬다. 일부는 일반 기사로 다뤄도 되는 내용이 담긴다. 전국 플러스면은 지역의 특화산업과 기술, 이슈 등을 특화해 지면을 구성해 나가도록 노력해야 한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2023.03.27.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>“인터넷은행 성공 안착했지만…중금리대출 리스크관리 필요”</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005450022?sid=101</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>27일 인터넷은행 3사, 인터넷은행 5주년 기념 토론회윤창현 “입법과 정책 통해 인터넷은행 혁신 지원할 것”[이데일리 정두리 기자] 금융당국이 시중은행 중심의 과점체계를 완화하겠다는 구상을 밝힌 가운데 인터넷은행 업계가 은행권 혁신을 위한 논의의 장을 마련했다.27일 국회 의원회관 제1세미날에서 개최된 인터넷전문은행 5주년 기념 토론회 현장.27일 카카오뱅크·케이뱅크·토스뱅크 등 인터넷은행 3사는 윤창현 국민의힘 의원실과 함께 국회 의원회관 제1세미나실에서 인터넷전문은행 5주년 기념 토론회를 개최했다.  ‘인터넷뱅크 5주년; New Banking, Make Money 내 손안의 은행에서 모두의 은행으로 Jump up’ 이라는 주제로 열린 이번 토론회에는 박대출 국민의힘 정책위의장, 윤한홍 정무위 간사, 이세훈 금융위원회 사무처장, 이준수 금융감독원 부원장 등이 참여했다. 인터넷은행 3사 대표(서호성 케이뱅크 행장, 윤호영 카카오뱅크 대표, 홍민택 토스뱅크 대표)도 참석해 축사와 인사말을 전했고, 윤창현 의원이 좌장을 맡아 토론회를 진행했다. 윤창현 의원은 개회사를 통해 “오늘 토론회가 더 편한 서비스, 더 많은 혜택을 주는 전문은행으로 거듭나는 새로운 출발이 될 것을 기대한다”며 “인터넷뱅크의 도약이 금융소비자 편익으로 이어질 수 있도록 입법과 정책을 통해 자율과 혁신을 지원할 것”이라고 밝혔다.기조연설을 맡은 신성환 금융통화위원(전 금융연구원장)은 “인터넷전문은행이 은행권 경쟁력 강화를 위해 탄생한 만큼 앞으로도 금융권 전반의 혁신을 위해 사용자 중심의 서비스 개발, 기존 은행산업에서 소외됐던 부문 대상 금융서비스 제공, 미래 금융인프라 구축·실용화 참여 등을 지속해 나갈 필요가 있다”고 강조했다. 이후 인터넷은행 3사의 청년들이 직접 나와 각 사의 혁신 사례를 발표하는 시간을 가졌다. 주제 발표를 맡은 여은정 중앙대 교수는 “인터넷은행 3사가 서로 다른 사업모델을 추구하고 있지만, 시장에 성공적으로 안착했다”면서 “모바일 금융 편의성 제고, 중신용(중금리) 대출 확대에 기여했다”고 말했다.이어진 토론에서 이병윤 금융연구원 선임연구위원은 “인터넷전문은행이 최근 늘어난 중금리 대출에 대해서는 철저한 리스크관리가 필요하고 향후 대안신용평가 능력 강화와 해외진출 등으로 수익성 확대를 도모해야 한다”고 제안했다.민세진 동국대 교수는 “인터넷뱅크의 출현은 은행산업의 효율성 및 소비자 후생의 증진 차원에서 매우 긍정적으로 평가하지만 혹시라도 발생할 수 있는 모바일런 사태를 예방하기 위해 예금보험 상한 상향 조정과 중저신용자 대출 비중 목표를 유연하게 할 필요가 있다”고 주장했다.조연행 금융소비자연맹 회장은 “산업중에 가장 보수적인 은행이 인터넷뱅크로 시장 변화를 가져왔지만 아직도 갈 길이 먼 소비자권익 향상과 후생증진에 보다 더 역점을 두고 추진해주길 바란다”고 강조했다. 정부 측 토론자로 참석한 신진창 금융위 국장은 “인터넷은행의 그간의 성과에도 불구하고 지금은 내실을 다져나가야 하는 시점이며 인뱅이 은행권내 ‘메기’로서 제 역할을 수행할 수 있도록 금융당국도 적극 지원해나가겠다”고 밝혔다. 김영주 금감원 부원장보는 “인터넷은행의 혁신성장과 금융포용 지속을 위해 충분한 손실흡수능력 확보와 소비자와의 신뢰유지가 중요하며 금감원도 혁신성장 지원을 위해 업계와의 적극적인 소통 노력을 강화해 나가겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2023.03.17.</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>알뜰폰 격전지 된 금융권…“돈장사 비판 피할 수 있길”</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003346963?sid=101</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>국민은행 다음 달 샌드박스 특례 만료은행권 알뜰폰 요금제 간접 진출 확산비이자이익 확대·신파일러 발굴 가능중소 사업자 상생 앞세워 비판 지우기KB국민은행 리브엠주요 은행과 핀테크, 상호금융까지 알뜰폰 시장에 직간접적으로 진출하면서 금융권이 알뜰폰 격전지가 됐다. 특히 은행은 알뜰폰 관련 서비스를 통한 수익 다변화와 중소 사업자들과의 상생으로 이자장사 비판에서도 자유로워지길 기대하는 모양새다.KB국민은행은 알뜰폰 서비스인 리브엠(Liiv M)의 멤버십 서비스 혜택을 확대 시행한다고 17일 밝혔다. 국민은행 KB스타클럽 등급에 따라 월 1회, 최대 연 6회까지 멤버십 쿠폰을 발급받아 이용할 수 있다. 편의점, 음악 스트리밍 관련 쿠폰 혜택을 확대했다는 설명이다.리브엠은 다음 달 16일 금융규제 샌드박스 실증사업 특례기간 만료를 앞두고 있다. 이에 국민은행은 정식 서비스로의 전환을 위해 금융위원회에 알뜰폰 사업을 은행 부수업무로 지정해달라고 요청한 상태다. 은행 부수업무에 알뜰폰 사업이 포함될 경우, 다른 은행들도 본격적인 알뜰폰 사업에 진출할 길이 열리는 셈이다.국민은행이 리브엠을 출시한 2019년까지만 해도 알뜰폰 사업 진출의 가장 큰 목적은 플랫폼 확장이었다. 시중은행과 핀테크가 금융권 파이를 두고 대립각을 세우던 때다. 최근의 분위기는 사뭇 다르다. 알뜰폰 시장 진출이 최근 불거진 금융권의 ‘돈장사’ 비판을 피하기 위한 방법 중 하나로 떠오르고 있다. 금융권 관계자는 “은행 등 금융사들은 이자이익 편중으로 사회적 비판을 받아왔다”며 “알뜰폰 관련 서비스를 통해 비이자이익을 강화하고 기존 금융 이력이 부족한 신파일러를 발굴할 수 있다”고 설명했다.직접 알뜰폰 사업자가 되기 어려운 다른 시중은행들은 간접적인 알뜰폰 시장 진출을 택했다. 제휴를 통해 알뜰폰 요금제를 내놓는 방식이다. 하나은행은 지난 9일 알뜰폰 요금제 비교 플랫폼 고고팩토리와 요금제를 출시했다. 신한은행 역시 전략적 파트너십을 맺은 KT, KT알뜰폰사업자와 손잡고 지난해 알뜰폰 요금제를 출시한 바 있다. 이들 두 은행은 모두 중소 알뜰폰 사업자와의 상생을 강조하고 있다. 은행 플랫폼이 중소 알뜰폰 사업자의 판매 채널이 될 수 있다는 것이다. 상호금융권에서도 비슷한 움직임이 관측된다. 신협중앙회는 지난달 한국케이블텔레콤과 제휴해 알뜰폰 요금제를 출시했다. 조합원들의 통신 요금 부담을 덜어주겠다는 취지다.한편, 또 다른 금융계 알뜰폰 사업자인 토스(비바리퍼블리카) 자회사 토스모바일은 올해 초부터 본격 영업을 시작했다. 사용하지 않은 데이터를 최대 1만원까지 포인트로 환급해주고, 토스페이 가맹점에서 결제금액을 10% 돌려주는 혜택 등을 내걸었다. 알뜰폰 시장에서의 수익과 간편결제 확대를 모두 노린 전략으로 풀이된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2023.03.27.</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>뭐가 중한디? 지금은 '일할 자유' 아닌 '워라밸 보장'[복지국가SOCIETY]</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/002/0002280416?sid=102</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>[복지국가SOCIETY] 노동 분야의 과제와 주 69시간 근무제도윤석열 대통령이 최대 주 69시간 근무를 도입하겠다고 하면서 파장이 커지고 있다. MZ세대가 반발하니 대통령은 이제 60시간으로 줄여야 한다 호통을 쳤다고 한다. 대통령 후보 시기에는 주당 120시간을 언급했다가, 반으로 줄었으니 "다행"이라고 해야하는 걸까? 그러다가 갑자기 노조가 회계를 공개하지 않는 비리 집단이 됐다. 윤 대통령은 건설 노동자들을 두고 조직 폭력배(조폭)를 연상시키는 '건폭'이라는 신조어를 만들어 국민들의 동의를 구하고 있다. 지금 대한민국의 심각한 경제 상황에서 근로시간을 늘리는 것이 해결책이 될 수 있을지, 부동산 경기 하락이 경제 전반의 불황으로 이어지는 속에서 건설 노동자들을 조사하고 구속하는 것이 효과적인 대응책인지, 도대체 어떻게 하겠다는 것인지 궁금해진다. 윤석열 정부의 노동정책 윤석열 정부에서 과연 노동이나 고용 정책이 존재하기는 하는 것일까? 윤석열 후보의 노동 부분 대통령 공약에는 근로시간 유연성을 확대하고, 근로자의 선택권을 보장하겠다는 내용들이 있다. 현재의 근로기준법은 &lt;20세기 공장법&gt; 방식으로 확일적이며 경직된 근로시간 및 임금 규정을 하고 있어, 일하는 방식의 근본적인 변화에 대응하기 어려운 상황을 문제로 지적하고 있다. 이러한 문제를 해결하기 위해 선택적 근로시간의 정산 기간을 현재의 1~3개월에서 1년 이래로 확대하고, 연간 단위의 근로시간저축 계좌제를 도입하며, 정규직을 유지하면서 풀 타임을 파트타임으로 전환할 수 있는 신청권을 부여하고, 신규로 설립된 스타트업 분야를 연장근로시간 특례업종과 특별연장근로 대상에 포함시키는 등의 내용이 포함되어 있다. 그 외에도 현재의 연공급 중심의 임금체계를 직무가치와 성과를 반영하는 "세대상생형" 임금체계로 개선하는 등 이미 근로시간 유연화와 임금체계 개편 중심의 노동 개혁을 천명하였으니, 취임 1년 뒤에 구체화해서 발표한 정책들이 후보 시절에 약속한 공약을 충실히 이행하는 것이라고 이해 해야할까? 아니면, 그 공약들이 주당 69시간을 일하도록 하는 것인지는 모르고 윤석렬 후보에게 투표했다고 스스로에게 자책해야할까? 사실 대통령직 인수위원회나 취임 초기부터 의심스러운 징조들이 다수 있었다. 대통령은 갑자기 미래노동시장연구회라는 자문조직을 급조하여 노동계를 배제하고 편향된 전문가들과 관료 중심으로 노동개혁을 준비하더니, 지금까지 반노동의 전면에 서 있던 김문수 전 지사를 경사노위 위원장으로 임명하여 노동계와 사회적 대화를 포기하는 선언을 했다. 노동시장의 양극화 문제를 상징하는 대우조선 하청노조 파업과, 2차 화물연대 파업에 대해 '법과 원칙'으로 포장한 강경 대응으로 대통령 지지율이 상승하자 노동개혁의 방향을 노조 때리기로 전환했다. 그리고 마침내 주당 69시간 노동이라는 세계적으로 웃음거리가 되는 정책을 발표하면서, 노동계를 적으로 규정하는 국민을 상대로 하는 전쟁을 선언하는 지경에 이르렀다. 근로시간 연장 가능하기는 한가? 수출 규모 세계 7위를 달성하고, 한때 코로나19 판데믹 시기에는 이탈리아와 영국을 능가한 우리나라의 경제 규모는 이제 저임금과 장시간 노동에 근거하여 유지되지 않는다. 고도화한 우리나라의 산업 구조는 주 40시간이 아니라, 주당 35시간 근무를 포함한 창조적이고 생산적인 노동방식을 고민해야 하는 수준이다. 이는 해외 선진국들의 발전 경험에서 배울 수 있는 교훈이고, 학자들의 주장이다. 현재도 주당 52시간 연장근무가 가능하고, 아이스크림 공장과 같이 계절별 특수성을 가진 직종의 경우에는 하계 성수기를 앞두고 3개월 연속 근무를 해야 할 경우에는 11시간 의무 휴식제를 적용하여도 이미 주당 최대 64시간까지 근무가 가능하다. 이 제도는 코로나 19를 극복하기 위한 방안으로 문재인 정부가 도입했다. 2020년 2월 경사노위에서 합의하여 2021년 입법이 된 탄력근무제와 R&amp;D부분의 경우 특수성을 인정하여 3개월 동안 연장근무를 허용한 선택근로제도의 도입, 그리고 일본의 소부장 전쟁에 대응하기 위해 특별연장근로 신청에 관대한 기준을 적용하는 등 우리나라는 이미 상당한 수준의 유연근로시간제도를 도입하고 있다. 이 때문에 사용자들도 윤 대통령의 주 69시간 근무에 대해서는 "뜬금없다"는 입장이다. 유연 노동 도입 논의는 게임개발자나 프로그램 개발회사 등 마감 시간에 쫓겨 '크런치 모드'라고 불리는 시기에 장시간 집중 근무가 필요한 특수 분야에 국한된 이야기다. 그런데 갑자기 모든 산업 분야에서 산업혁명 초기인 1800년대 영국에서나 적용되던 주당 69시간 근무를 도입하겠다니 황당할 따름이다. 특히 각종 조사와 연구에서 청년 세대들은 승진이나 연봉보다도 워라밸을 더 중시하고, 재택근무를 더 선호하며, 수입이 줄어들어도 짧은 노동 시간과 안전한 근로 환경을 선택한다는 것이 이미 알려져 있는데, 정부가 일부 사용자들의 요구를 과도하게 증폭하거나 확대해석한 것은 아닌지 궁금하다. 그것이 아니라면 노동계를 제물 삼아 보수 세력 내부 단결을 꾀하고, 노동운동 억압과 비난으로 중산층의 표심을 잡으려는 정치적 목적을 지녔다고밖에는 그 의도를 짐작할 수 없다. 지금의 국회 의석 상황에서 주당 69시간에 이르는 근로시간 연장 관련 법이 통과되지는 않을 것이다. 지난 주말 표출된 노동계의 집단 행동에서 보듯 앞으로도 정권 유지가 힘들 정도로 노동계의 거센 반발이 이어질 것이다. 정부가 이미 흘러간 대처주의나 레이거노믹스와 같은 신자유주의 부활을 지금 꾀하는 이유도 궁금하지만, 그러한 정무적 판단을 하고, 효용성 없는 노동개혁을 추진하는 핵심 세력이 누구인지 궁금하다. 무엇을 준비할 것인가? 지금 우리나라 경제 상황이 철 지나간 근로시간 연장 주장을 하면서, 시간을 허비할 만큼 여유가 있는지 물어보고 싶다. 우리나라의 심각한 저출산과 고령화는 노동시장에 직격탄을 날리고 있다. 보건복지부는 해마다 2000개 넘게 문을 닫고 있는 어린이집 문제에 당면했다. 교육부는 학령기 인구 감소로 초, 중, 고등학교의 교사가 남아도는 상황에서 지방교육재정교부금을 어떻게 개편해야 하는지를 고민하고 있다. 국방부는 병력 자원 확보에 실패해 일부 사단과 군단 축소를 넘어 60만 대군 전력을 모병제와 획득사업 강화를 통해 20만 명으로도 유지 가능한 대안을 고민하고 있다. 당연히 산업계에서도 노동력 감소라는 노동력 양적 부족 문제는 심각하다. 조선산업은 30년 치 선박 건조 물량을 수주하고도 배를 만들 인력을 구하지 못하여 수주를 포기하고, 중국과 동남아시아로 물량을 돌려야 하는 상황이다. 우리나라가 산업 부문에서 로봇 도입 수준이 2위 보다 한참 앞선 탁월한 세계 1위를 달성한지 오래지만, 외국인 노동력의 도입은 아직 3D 분야와 농업 분야에 한정되어 있다. 그나마도 코로나19로 급감한 상태다. 무엇보다 우리나라에 들어오는 외국인 노동력은 아직은 저임금의 단순생산직과 서비스직에 한정되어 있어, 선진국들이 정책적으로 추진하는 고급 노동력의 국내 유치 정책은 노동부와 법무부 모두 생각을 못하고 있다. 노동의 질적 문제는 더 심각하다. 4차 산업 혁명 기술이 하루가 다르게 발전하고 있지만, 정작 산업현장에서 이들을 적용할 기술인력은 턱없이 부족하다. '네, 카, 라, 쿠, 배'(네이버, 카카오, 라인, 쿠팡, 배달의민족)라고 하여 젊은이들이 가고 싶어 하는 IT기업군들은 자신이 필요한 전문인력들을 더 나은 조건을 제시하면서 끌어들이는 경쟁을 벌이고 있다. 이들 기업들은 성과 중심의 연봉 체계, 재택근무 도입, 엄청난 사내복지제도 등 각종 보상체계와 유연한 근무 체제를 자랑해 Z세대가 가장 가고 싶은 직장으로 떠올랐다. 최근에는 당근마켓, 토스, 직방, 야놀자를 합친 '당토직야'도 인기라고 한다. 반면 국제통화기금(IMF) 외환위기로 많은 직장인이 해고되면서 고용 불안정 위기감이 커진 1990년대 후반부터 신의 직장으로 떠올랐던 공무원 인기는 사라지고 있다. 올해 9급 공무원 공채 경쟁률이 31년 만에 최저를 기록할 정도로 최근 공무원 인기는 시들해졌다고 한다. 임금이 적더라도 오래, 안정적으로 일할 수 있는 직업에 대한 요구가 워라밸과 삶의질에 대한 요구로 바뀌고 있는 것이다. 사용자들이 당면한 노동 문제도 저임금, 장시간 노동으로 해결할 수 있는 사안이 아니다. 중간급 관리자들은 회식도 싫어하고, 야근도 않겠다는 신입사원들이 낯설겠지만, 이사급 이상의 경영진들은 낮은 생산성을 어떻게 높일 것인가, 세계시장에서 경쟁할 수 있는 창조적 제품을 개발하는 근로자를 어떻게 확보할 것인가가 고민이다. 우리나라 기업들의 생산성이 낮은 이유 중의 하나로 경직된 기업 문화가 지적된다. 업무 집중도가 낮고, 단순 반복 작업은 익숙하지만 창조적 노동은 해본적이 없는 근로자들이 구글이나 아마존 등 세계적인 기업들과 경쟁할 수 있는 제품을 생산하는 것은 불가능하다. 기업이 입주한 건물 내에 직원들이 편하게 이용할 수 있는 당구대와 전자오락 시설을 갖추고, 업무 시간 중에 명상수업을 받으러 가거나 요가와 헬스를 권하는 직장 문화는 그저 수입이 남아돌아 돈질하는 것으로 인식되는 상황에서 연간 3만 개의 특허를 생산해내는 기업, 새로운 플랫폼을 만들어 기존 시장을 잠식하는 신기술 기업들의 경영은 다른 세계의 일이 될 뿐이다. 우리나라 기업의 노동 문제는 기업 내부 노동 문화의 문제다. 업무 정의서(job description)나 업무 절차서도 없어 담당 직원이 바뀌면 업무의 연속성이 사라지는 회사에서 고도의 노동생산성은 기대할 수 없다. 출퇴근이 문제가 아니라 실제로 실적을 어떻게 올리는지가 기업의 입장에서는 더 중요함에도 불구하고, 업무 평가는 상사와의 친밀도나 동료 직원들의 세평으로 이루어지는 승진과 보직 발령은 능력 있는 직원을 나가라고 등을 떠밀고 있다. 위험은 외주화가 아니라 정규직 숙련 노동자를 배치하여 오히려 내주화해 해결하는 경영이나, 하청은 2차 밴드 이상은 못하도록 하는 법이 있는 나라를 이해하기는 쉽지 않다. 현대자동차의 4차 밴드 임금 수준은 원청의 40% 수준이다. 4차 밴드까지 무조건 원청 근로자의 80% 수준의 연봉을 보장하는 원-하청 관계를 정립하여 부품 회사로 하여금 원청 기업뿐 아니라 해외 동일 업종의 기업에도 납품하도록 하는 상생관계를 정립하는 다른 나라의 기업문화를 남의 나라 사례로 생각한다면 더는 우리나라가 세계 10위권의 경제력을 유지하는 것이 쉽지않을 것이다. 차기 정부 노동분야의 정책과제 문재인 정부가 초기에는 최저임금 인상에만 매몰되어 있다가, 후반부에는 코로나 19 대응으로 시간을 모두 보내면서 산적한 노동계의 과제가 해결되지 않고 현 정부로 넘어왔다, 무엇을 할 것인지는 아직 불분명하지만, 무엇을 하면 안되는지는 명확하다. 소모적인 근무시간의 문제를 가지고 시간과 국력을 낭비하기에는 우리에게 주어진 시간이 많지 않다. 정년 연장을 넘어, 기업 아카데미 등을 10만 개 만들어 기존 2700만 명의 경제활동 인구들을 재교육해서 새로운 산업분야로 전환할 수 있도록 만들어야 한다는 주장도 있고, 중소기업에서 근무해도 기업복지가 아니고 국가복지를 통해 대기업 수준으로 대우를 받을 수 있도록 하는 복지정책에 대한 사회적 합의가 필요하다는 이야기도 나온다. 가장 높은 여성 고등교육 이수율에도 불구하고, 아직도 경제협력개발기구(OECD) 국가들 중 가장 낮은 여성의 경제활동 참여율을 제고할 수 있는 방안, 우리나라 젊은이들이 해외에 나가서도 안전하게 고수입이 보장되도록 하는 방안, 외국의 고급 노동력을 국내로 모셔오는 방안 등 노동 부분에서 국회와 정부가 해야 할 일들이 산더미다. 뭐가 중한데? 라는 영화 &lt;곡성&gt;에 나오는 대사를 다시 한번 생각해 보자. ▲지난 6일 서울 마포구 서울서부고용복지플러스센터에서 구직자들이 근무시간 등 각 업체의 고용 조건들을 살피는 모습이 일자리 정보 게시판에 비치고 있다. 정부는 이날 열린 비상경제장관회의에서 '주 최대 52시간제'로 대표되는 근로시간 제도의 대대적인 개편을 추진하기로 했다. 최대 69시간까지 일할 수 있도록 허용하고 장기 휴가 등을 이용할 수 있게 한다는 방침이다. ⓒ연합뉴스</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2023.03.31.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>'배민페이 수수료는 카드의 3배'…페이결제 달갑잖은 자영업자</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005238915?sid=101</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>연매출 3억 이하 가맹점 기준 3배 비싸기도당국 "투명하게 공시하면 경쟁효과 발생할 것"당국의 지침에 따라 간편결제 수수료율이 처음으로 공시됐다. 일부 간편결제 업체의 수수료는 기존 카드 대비 수수료가 3배 넘게 비싼 경우도 있었다.공시제도 첫 시행…반기마다 공개31일 금융감독원에 따르면 공시 대상인 간편결제 사업자 9곳의 온라인 카드결제 수수료율 평균은 1.09%(연 매출 3억원 이하 영세 기준)~ 2.39%(연 매출 30억원 이상 일반 기준) 수준으로 나타났다. 기존 신용카드 수수료율 대비 여전히 높은 수준이다. 신용카드 수수료율은 0.5~2.3%로 분포돼 있다.금감원은 반기별 수수료 공시 제도가 시행되면서 네이버파이낸셜(네이버페이), 카카오페이, 비바리퍼블리카(토스) 등 '빅3'의 수수료율은 2021년 대비 낮아졌다고 밝혔다. 실제 '빅3' 기업의 간편결제 상당 부분을 차지하는 신용카드 기반 간편결제 수수료율 평균은 2021년 1.95%에서 올해 1월 말 기준 1.46%까지 0.49%포인트 내려갔다.금감원 관계자는 "기준금리 인상 등으로 한층 어려워지고 있는 경제 상황을 감안해 그간 업계에서 추진해 온 소상공인 부담 완화를 위한 수수료율 인하 노력의 결과로 평가된다"라고 설명했다.다만 세부적으로 살펴보면 상황은 다소 다르다. 영세업체의 경우 기존 카드 수수료 대비 3배 넘게 비싼 경우도 있었다. 금융당국의 수수료율 조정에 따라 연 매출 3억원 미만의 영세 가맹점은 카드 수수료 0.5%(온라인 기준)가 적용된다. 하지만 배달 플랫폼 '배달의민족' 운영사 우아한형제들이 내놓은 '배민페이'의 경우 영세 가맹점도 결제수수료율(온라인 카드 결제 기준)이 1.52%다. 기존 수수료 대비 3배 이상 큰 규모다. 쿠팡페이(1.03%)와 지마켓(1.08%) 등도 2배에 달하는 수수료율을 적용했다. 통상 간편결제업체들은 결제대행(PG)영역까지 다루는 만큼 기존 카드 수수료 0.5%(영세 기준)도 포함돼있다는 점을 감안해도 높다는 지적이 나온다.이커머스 중심 높은 수수료 여전또한 간편결제 전문업체들보다 상대적으로 이커머스 업체들의 수수료율이 높았다. 미리 현금을 충전해 사용하는 방식의 선불전자지급수단 결제수수료율의 경우 매출 규모에 따른 차등적용도 하지 않는 경우가 상당했다. 우아한형제들은 연 매출 규모와 무관하게 3.00%의 수수료를 일괄 적용했다. 쿠팡페이(2.50%), SSG닷컴(2.50%), 지마켓(2.49%), 11번가(2.00%) 등도 마찬가지였다. 네이버페이, 카카오페이, 토스 등은 충전금으로 결제하는 경우에도 기존 카드수수료처럼 연 매출 규모에 따라 차등 적용하는 것과 대조적인 모습이다.이에 대해 우아한형제들 측은 "배달의민족 플랫폼 이용 소상공인 외식업주를 위해 음식점 운영 및 경영 환경 개선에 필요한 하루 단위 정산 시스템, 포장중개이용료 면제, 전문가 컨설팅 및 교육 등의 서비스를 지급하고 있다"고 당국에 해명했다. 하지만 역시 가맹점들에 비슷한 서비스를 제공하고 있다.특히 네이버페이, 카카오페이, 토스 등 간편결제 전문 서비스들은 공시제도 본격 도입 이전에 홈페이지에 평균 수수료율을 공시해왔던 것과 달리 쿠팡, 쓱닷컴, 지마켓 등 이커머스 업체들의 수수료가 공시된 것은 이번이 처음이다. 업계 관계자는 "간편결제 수수료를 결제와 기타로 구분해 결제 부분만 공시하게 됐지만 실제 가맹점들의 부담이 가중되는 것은 기타 수수료 부분 때문인 경우가 많다"라며 "단순 결제 외에 각종 입점 관련 수수료를 더한다면 이커머스 기반 플랫폼들이 부과하는 수수료율은 공시된 내용보다 훨씬 클 수 있다"고 했다.금감원 관계자는 "기준금리 인상 등으로 한층 어려워지고 있는 경제 상황을 감안해 그간 업계에서 추진해 온 소상공인 부담 완화를 위한 수수료율 인하 노력의 결과로 평가된다"라며 "공시 제도 도입으로 수수료율 구분·관리체계가 확립되면서 업체 간 자율 경쟁이 촉진되고 가맹점들은 협상력의 비대칭성이 완화돼 수수료 부담이 점진적으로 줄어들 것"이라고 내다봤다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2023.03.27.</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>토스, 2만부 팔린 ‘유난한 도전’ 인세 전액 기부 나서</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000042361?sid=101</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>인세 2960만원, 자립준비 청년 자격증 취득 사업 지원10쇄 기념 3가지 디자인 리커버 에디션 함께 선봬토스, 10쇄 기념 '유난한 도전’리커버 에디션. [사진 토스][이코노미스트 윤형준 기자] 비바리퍼블리카(토스)가 지난 11월 출간한 ‘유난한 도전’의 인세를 전액 기부한다고 27일 밝혔다.토스는 출간 이후 처음 정산된 인세 2960만원 전액을 초록우산어린이재단에 기부한다. ‘유난한 도전’은 토스팀의 10년간 역사를 담은 책으로, 출간 3개월 만에 2만부 이상 판매되며 많은 관심을 받았다.기부된 금액은 가정위탁 보호가 종료돼 홀로서기에 나선 만 19세부터 24세까지의 자립준비 청년들의 자격증 취득 사업에 쓰일 예정이다.10쇄를 기념해 리커버 에디션도 함께 출간한다. 리커버 에디션의 표지 디자인은 책에 등장하는 주요 메타포를 활용했다. 토스팀 창업 초기의 꿈과 고난을 상징하는 ‘가시덤불’, 거대한 도전과 탐험을 상징하는 ‘병아리와 공룡’, 토스팀의 빠른 성장과 그 이면을 의미하는 ‘로드바이크’ 등 총 세 가지 버전으로 선보인다.저자 정경화 콘텐츠 매니저는 “새로운 인생의 출발점에 선 자립준비 청년들의 도전을 응원한다는 의미에서 인세를 전액 기부하기로 결정했다"라며 “인생의 새로운 챕터를 맞이한 자립준비 청년들과 토스가 이어갈 ‘유난한 도전’에 많은 관심과 응원 부탁한다”라고 전했다.리커버 에디션의 표지 디자인을 맡은 권영찬 브랜드 디자이너는 “기본 표지는 제목과 부제라는 핵심 요소만 남겨 꾸밈없고 단단한 토스팀을 표현한 반면, 리커버 에디션은 책 안에 등장하는 메타포들을 활용해 ‘유난한’ 디자인을 의도했다”고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2023.03.31.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>카카오엔터프라이즈, 블록체인 기술 기반 STO 플랫폼 구축 지원</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002145490?sid=105</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이종현기자] 카카오엔터프라이즈는 한국투자증권을 중심으로 카카오뱅크, 토스뱅크 등 인터넷전문은행이 결성한 토큰증권 협의체 ‘한국투자 ST 프렌즈’에 기술 파트너로 참여한다고 31일 밝혔다. 블록체인 기술 기반의 토큰증권 발행(이하 STO)을 위한 플랫폼 구축을 지원한다는 계획이다.   카카오엔터프라이즈의 블록체인 플랫폼은 클레이튼을 기반으로 전자지갑 및 애플리케이션 프로그래밍 인터페이스(API)를 개발하며 서비스를 고도화했다. 2021년부터 진행되고 있는 한국은행의 중앙은행 디지털 화폐(CBDC) 사업에 참여하며 기술적으로 신뢰도 높은 플랫폼을 운영하고 있다고 강조했다.   카카오엔터프라이즈에 따르면 토큰증권은 블록체인 기술을 활용해 자본시장 법상 증권을 디지털화한 것이다. 기존에 미술품, 부동산, 음악 저작권 등 쪼개어 거래하기 어려웠던 다양한 실물자산을 디지털화해 주식처럼 거래할 수 있다는 것이 특징이다.   금융당국에서 토큰증권 제도화를 추진함에 따라 조각투자업체와 블록체인 플랫폼 및 기술을 보유한 기업들의 협력이 속속 등장하는 가운데, 한국투자 ST 프렌즈는 금융기관이 중심이 되어 결성된 첫 사례다.   카카오엔터프라이즈는 해당 토큰증권 협의체에서 토큰증권에 적합한 상품을 공급할 수 있는 발행 인프라 구축을 담당한다. 블록체인 기술을 활용한 증권 토큰 발행 및 계좌관리 방안 설계를 지원하며 한국투자증권 STO 전반에 대한 기술 검토를 맡는다.    또 STO 블록체인 네트워크 운영을 위한 은행 및 카드사 등의 얼라이언스를 확대하는 역할도 담당한다. 향후 카카오엔터프라이즈는 한국투자증권을 중심의 STO 생태계에 다양한 금융기관들이 참여할 수 있도록 보다 빠르고 안정적이며 효율적인 플랫폼 구축에 협력한다는 방침이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2023.03.22.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>토스페이먼츠, 애플페이 국내 공식 PG 파트너사 선정</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002300335?sid=101</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>◆…토스페이먼츠 제공토스의 페이테크(Pay Tech) 계열사 토스페이먼츠는 애플의 글로벌 간편결제 서비스 '애플페이'의 국내 공식 PG 파트너사로 선정됐다고 22일 밝혔다.   양사는 애플페이의 성공적인 한국 시장 안착과 성장을 위해 온라인 결제망 구축 및 가맹점 모집, 결제 시스템 운영을 함께 진행한다.   토스페이먼츠는 가맹점이 자사몰에 애플페이를 쉽고 편리하게 도입할 수 있도록 적극 지원한다. 기존 가맹점은 간단한 추가 계약만으로 애플페이를 연동할 수 있도록 편의를 제공할 예정이다.   또 전자결제 시스템 직접 연동, 결제 위젯 연동 등 가맹점의 기호에 맞는 다양한 연동 방식을 지원한다. 이중 누구나 클릭만으로 간편결제 연동이 가능한 '결제 위젯' 서비스는 애플페이 도입을 위한 별도 개발 비용 부담이 없고, 쉽고 간편하게 신청할 수 있어 영세·중소 가맹점의 선호도가 높을 것으로 전망된다고 회사는 설명했다.   김민표 토스페이먼츠 대표는 "토스페이먼츠는 높은 기술력과 보안 역량을 기반으로 다양한 글로벌 기업과 협력한 경험과 노하우를 보유하고 있다"며 "파트너사로서 애플페이의 한국 시장 안착과 성장을 도울 수 있도록 최선을 다하겠다"고 밝혔다.   애플의 다양한 기기인 아이폰(iPhone), 애플워치(Apple Watch), 아이패드(iPad), 그리고 맥(Mac)을 통해 이용할 수 있는 쉽고 안전한 결제 방식인 애플페이는 오프라인 가맹점, 앱 및 온라인에서 사용할 수 있다. 애플페이는 70개 이상의 국가 및 지역에서 이용 가능하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2023.03.21.</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>‘돈 잔치’ 비판에도… 은행 예대금리차 더 확대</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003794340?sid=101</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>2월 1.36%P차… 2달 연속 늘어KB 1.48%P로 5대 은행 중 최고은행권 비판 목소리 고조될 듯지난달 5대 시중은행(KB국민·신한·하나·우리·NH농협)의 예대금리차(대출·예금 금리 간 차이)가 더 벌어졌다. 2개월 연속 확대로, 대출 금리에 비해 예금 금리가 더 가파르게 떨어진 탓이다. 정부의 ‘돈 잔치’라는 질타에도 예대금리차가 벌어지면서 은행권을 향한 비판의 목소리는 더욱 커질 것으로 보인다.     서울시내 현금인출기. 연합뉴스    20일 은행연합회에 공시된 ‘은행별 예대금리차 비교’에 따르면 2월 말 기준 5대 시중은행의 정책서민금융(햇살론뱅크·햇살론15·안전망 대출)을 뺀 가계 예대금리차는 평균 1.36%포인트로 전월 평균(1.18%포인트)보다 확대된 것으로 나타났다. 지난해 12월 0.73%포인트에 그쳤으나 이후 2개월 연속 차이가 커졌다.  예대금리차가 확대됐다는 것은 대출 금리와 예금 금리의 격차가 벌어지면서 은행권의 마진이 많아졌다는 뜻이다. 은행권이 대출 금리보다 예금 금리를 가파르게 내리면서 차이를 키웠다. 5대 시중은행의 평균 예금 금리는 3.51%로 전월(3.80%) 대비 0.29%포인트 떨어졌다. 반면 대출 금리는 같은 기간 0.11%포인트 하락에 그쳤다.  KB국민은행이 1.48%포인트로 5대 시중은행 중 예대금리차가 가장 컸다. 우리은행과 NH농협은행이 1.46%포인트로 뒤를 이었다. 이어 하나은행(1.32%), 신한은행(1.06%) 순이었다. 우리은행은 예대금리차가 전월 대비 0.39%포인트 확대돼 5대 시중은행 중 확대 폭이 가장 컸다. KB국민은행은 유일하게 전월 대비 예대금리차가 축소됐다.  정부와 당국이 지난달 금융권에 ‘고금리로 돈 잔치를 벌이고 있다’고 비판한 뒤에도 예대금리차가 더욱 커지면서 압박 강도는 더욱 거세질 전망이다.  KB국민은행 관계자는 “신용대출 및 단기성 예금 비중 확대로 예대금리차 인하 효과가 다소 축소됐다”며 “2월 말과 3월 중순에 시행한 두 차례의 가계대출 금리 인하는 3월에 반영될 예정”이라고 설명했다.  한편 공시에 참여한 19개 은행 중에서는 전북은행의 예대금리차가 6.48%포인트로 가장 큰 것으로 나타났다. 인터넷은행 중에서는 토스뱅크(4.90%포인트)가 최대였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2023.03.20.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>`배그` 기술 고도화로 매치 개선·불법 프로그램 대응</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002789811?sid=105</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>크래프톤 '개발자 토크'서 강조크래프톤이 '펍지: 배틀그라운드'의 올해 주요 개발 계획을 발표했다. 크래프톤 제공    크래프톤이 '펍지: 배틀그라운드'의 일반 매치를 개선하고 아케이드를 개편한다. 신규 맵 출시와 클랜 시스템 추가, 머신러닝 기술 고도화를 통한 불법 프로그램 대응에도 나선다.크래프톤은 지난 18일 '펍지: 배틀그라운드'의 라이브 개발자 토크를 진행하고 올해 주요 개발 계획을 발표했다고 20일 밝혔다. 이번 행사는 전 세계 유저들을 대상으로 한 해 동안의 인게임, 아웃게임, 안티치트 관련 계획을 공개하고 질의응답을 진행하는 형태로 꾸려졌다.배틀그라운드는 게임 코어 플레이를 유지한 채 모든 요소를 재점검하고 수리·개편한다. 먼저 게임에 관한 전반적인 스트레스를 줄이고 재미를 극대화하기 위해 일반 매치를 개선한다. 아이템과 블루존, 차량 스폰을 개선해 전체 플레이 시간을 단축시키고 속도감을 높일 예정이다. 사망 부담을 줄이고 스쿼드 플레이를 유지해 더욱 재미있게 게임을 즐길 수 있도록 새로운 형태의 부활 시스템도 추가한다. 전략적인 플레이를 위한 전술 장비 개편도 마련했다.경쟁전에도 새로운 변화를 적용한다. 기존의 8×8㎞ 사이즈의 맵들을 모두 경쟁전에 적용하며 일반 매치에서만 만나볼 수 있던 아이템과 기능들을 추가했다. 경쟁전 보상을 강화하고 e스포츠와 룰셋 역시 동일하게 변경한다. 일반 매치와 경쟁전에 적용될 새로운 맵 로테이션 시스템은 다음 달 중 예정돼 있다.올해 말에는 신규 맵 '네온(가칭)'도 선보인다. 네온은 세련된 빌딩이 즐비한 현대적인 도시부터 전통적인 과거의 향취가 배인 장소까지 만나볼 수 있는 맵이다. 지상, 공중, 수상 등 다양한 교통수단은 물론 네온 맵에서만 만날 수 있는 신규 시스템을 함께 추가할 예정이다. 가장 오래된 전장인 에란겔과 미라마는 올 하반기 업데이트한다. 해당 맵들의 고유한 컨셉을 유지하면서 대규모 업데이트와 신규 스팟을 추가할 계획이다. 이 외에도 튜토리얼 개편, 모드 서비스를 확장하는 업데이트를 예정하고 있다.색다른 게임 모드를 즐기기 원하는 이용자들을 위해 아케이드도 개편한다. 실험실(LABS) 전용 모드를 장기간 또는 상시 운영 콘텐츠로 아케이드에 포함해 이용자들이 원하는 모드를 선택, 플레이할 수 있는 환경을 마련할 예정이다. 모드 플레이를 통해 포인트를 획득하고 아이템으로 교환할 수 있는 보상 시스템을 계획 중이다. 클랜 시스템도 추가한다. 외부에서 활동 중인 클랜을 아웃게임 영역에 추가하며 이용자의 클랜 태그, 플레이트가 인게임, 펍지 ID 등 중요 영역 곳곳에 노출될 예정이다. 서바이버 패스는 올해 두 번에 걸쳐 개편한다. 많은 이용자가 가벼운 마음으로 패스를 즐길 수 있도록 보상 획득 구조를 변경하고 전반적인 난이도를 조정한다. 성장형 무기 스킨은 올 하반기 개편한다. 기존 스킨 개선, 무기 특정 부분의 색 변경, 오래전 출시한 성장형 무기 스킨을 복각해 재출시하는 등 다양한 방향을 고려하고 있다.불법 프로그램 근절을 위한 강경한 모니터링과 대응을 이어간다. 특히 대응 능력을 강화하고자 머신러닝 기술 고도화에 많은 노력을 기울일 예정이다. 불법 프로그램 계정과 어뷰징 탐지, 배틀그라운드 자체 안티치트 솔루션 '자킨토스'와의 연동 등 더 넓은 영역에서 머신러닝 기술을 활용할 방침이다. 핵심 기술 모델을 개발해 올 상반기 실행한다는 목표다. 이와 함께 불법 프로그램 사용자와 기기의 게임 재진입을 차단하고 이용자와 파트너들의 다양한 의견을 듣고 반영하기 위해 소통을 강화해 나간다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2023.03.30.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>"카카오·토스 섰거라" 하나은행, 단기 적금 도전장</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000737734?sid=101</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>연 최고 3.95%, 전용 버튼 누를 때마다 우대금리하나은행이 카카오뱅크와 토스뱅크가 주도해왔던 단기 예·적금 시장에 도전장을 내밀었다. 설정 금액과 적립 횟수에 따라 우대금리를 다르게 적용해 금리를 쌓는 재미도 있다.30일 하나은행은 오는 7일 '하나 타이밍 적금'을 개편해 1개월 초단기 만기 적금을 출시한다고 밝혔다.하나은행이 1개월 만기 하나타이밍적금을 출시했다. [사진=하나은행]하나 타이밍 적금은 전용 버튼을 누를 때마다 고객이 설정한 금액(10원~5천원)을 추가 적립할 수 있고, 적립 횟수에 따라 우대금리를 주는 것이 특징이다.가입 금액은 1천원 이상 50만원 이하다. 타이밍 버튼을 통한 추가 납부 한도 최대 15만원을 포함하면 월 최대 납부 한도는 65만원이다. 버튼은 하루에 30회까지 누를 수 있다.만기는 최소 1개월부터 6개월까지다. 금리는 기본금리 연 2.95%에 우대금리 최대 1.0%포인트(p)를 더해 최고 연 3.95%(4월 7일 기준, 세전)까지 적용받을 수 있다.우대금리는 ▲타이밍 버튼 입금 우대 최대 0.8%포인트(만기 전 일까지 누적 입금 횟수 40회 이상) ▲자동이체 등록 0.1%포인트 ▲친구 추천 또는 재예치 우대 0.1%포인트 등이다. 재예치는 5회까지 할 수 있다.하나은행 관계자는 "MZ세대의 금융 트렌드에 맞춰 게임 UI(이용자 인터페이스)를 접목한 것이 특징"이라며 "새롭고 다양한 금융 트렌드에 맞춰 차별화된 금융상품과 서비스를 내놓겠다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2023.03.30.</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>애플 반격 나선 삼성·네이버페이…"온·오프 다 잡는다"</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001092361?sid=101</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>네이버페이, 삼성페이와 현장결제 연동 프로모션 기간 포인트 세 차례 지급애플페이, 가맹점 확대 속도내며 점유율 높여&lt;앵커&gt;애플페이가 국내에 상륙하면서 큰 돌풍을 일으키자, 기존 간편결제업자들이 본격적인 맞대응에 나섰습니다.온라인 강자인 네이버페이는 오프라인 1위인 삼성페이와 손잡고 시장 점유율 확대에 돌입했습니다.장슬기 기자의 보도입니다.&lt;기자&gt;네이버페이 앱을 열면 삼성페이 결제 화면이 뜹니다.네이버페이 안에 탑재된 삼성페이로 현장결제를 하면 현금처럼 쓸 수 있는 포인트가 무려 세 차례나 지급됩니다.네이버페이는 삼성페이와 손잡고 국내 모든 가맹점에서 이 같은 현장결제 연동을 시작했습니다.온라인 간편결제시장 1위 사업자인 네이버페이는 그간 온라인 중심의 결제를 지원해왔는데, 이번 제휴로 삼성페이의 마그네틱전송방식(MST) 결제를 활용해 모든 오프라인 가맹점 결제가 가능해진겁니다.현재 카카오페이도 네이버페이와 같이 삼성페이를 연동해 결제하는 방식을 검토 중입니다.이처럼 기존 간편결제시장 강자들이 손잡고 본격적인 영토 확장에 나선 것은 '무서운 돌풍' 애플페이에 대응하기 위해섭니다.애플페이는 아이폰을 사용하는 젊은 층들의 높은 지지를 받으며 지난 21일 국내에 공식 상륙했는데, 첫날 가입자만 100만 명이 넘었습니다.삼성페이에 비해 한참 모자란 결제단말기 수가 한계로 꼽혔지만, 애플페이 사용자가 늘면서 가맹점 자체적으로 단말기를 앞다퉈 설치하는 움직임까지 나타나고 있다는 게 업계의 설명입니다.여기에 토스의 자회사인 토스페이먼츠가 애플페이의 공식 PG파트너사로 선정되면서 가맹점 모집과 온라인 결제망 구축에도 속도를 낸다는 방침입니다.[김상봉 한성대 교수 : 아직 그 만큼 인프라가 깔려있지 않기 때문에…오프라인쪽에 얼마만큼 망이 갖춰지냐에 따라 달라질 것 같고요. 다양한 방식에서 소비자들은 결제할 수 있는 수단이 많아지기 때문에 어느 정도 편리할 수가 있습니다.]3,000만 가입자를 보유한 네이버페이와 1,300만 가입자를 지닌 삼성페이.애플페이의 무서운 성장세를 막기 위한 연합군의 대응 전략이 본격적으로 펼쳐질 전망입니다.한국경제TV 장슬기입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2023.03.26.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>금리인하요구권 신청·수용률, 인터넷은행 시중은행보다 높아</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/021/0002563314?sid=101</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>서울 시내에 설치돼 있는 주요 은행의 현금인출기 앞을 시민이 지나고 있다. 연합뉴스  윤창현 의원 “시중은행, 금리인하 수용률 높이고 인하 폭 확대해야”인터넷전문은행의 금리인하요구권 신청률이나 수용률이 시중은행보다 높은 것으로 조사됐다.26일 윤창현 국민의힘 의원이 5대 시중은행과 인터넷전문은행에서 받은 자료에 따르면, 지난해 신한은행 등 5대 시중은행의 금리인하요구권을 신청할 수 있는 대출 계좌 870만여 개 중 실제 신청이 이루어진 계좌는 55만여 개로 평균 신청률은 6.33%였다. 실제 금리가 인하된 계좌는 20만여 개(2.38%)에 불과했다.NH농협은행은 전체 신청 가능 계좌 160만여 개 중 2만5000여 개(1.56%)만 금리인하 신청이 이뤄졌다. 전체 신청 가능 계좌 대비 수용률은 NH농협은행이 1.01%를 비롯해 5대 시중은행이 평균 2.38%에 그쳤다.반면 인터넷전문은행의 금리인하요구권을 신청할 수 있는 대출 계좌 570만여 개 중 실제 신청이 이루어진 계좌는 142만여 개, 실제 금리가 낮아진 계좌는 27만여 개로 신청률과 수용률이 각각 24.96%, 4.71%였다.금리인하요구권 수용에 따른 금리 인하 폭을 살펴보면 시중은행은 0.13%포인트(우리은행)~0.42%포인트(NH농협은행)지만 인터넷전문은행은 0.38%포인트(카카오뱅크)~0.76%포인트(토스뱅크)에 분포돼 시중은행보다 금리 인하 폭이 높았다.윤 의원은 “시중은행들도 인터넷전문은행을 벤치마킹해 신청 절차는 더 편하게 개편하며 고객의 입장에서 금리인하 수용률은 높이고 인하 폭도 대폭 확대할 필요가 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2023.03.30.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>미래에셋·한투, 토큰증권 시장 선점 위해 동맹 맺어</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002792098?sid=101</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>미래에셋-SK텔레콤 제휴한국투자증권도 카카오뱅크, 토스뱅크와 손잡아'토큰증권(Security Token Offering·ST) ' 제도화가 급물살을 타면서 국내 대표 증권사인 미래에셋증권과 한국투자증권도 ST 시장 선점을 위해 협력사들과 손을 잡았다. 미래에셋증권은 30일 SK텔레콤과 토큰증권 발행 협의체 '넥스트파이낸스 이니셔티브' 결성을 위한 업무협약을 맺었다. 협약을 통해 미래에셋증권은 기초자산 발굴 및 발행을 맡고, SK텔레콤이 블록체인 등 인프라 구축을 담당하기로 했다. 더불어 국내 주요 기업들의 참여를 적극적으로 유도해 토큰증권 생태계 활성화 및 블록체인 분야 글로벌 경쟁력 확보에 나선다는 계획이다. 앞서 27일 한국투자증권도 카카오뱅크, 토스뱅크와 함께 STO협의체인 '한국투자 ST 프렌즈'를 결성했다. 한국투자증권을 주축으로 카카오뱅크와 토스뱅크가 토큰증권을 기록할 분산원장(블록체인)의 금융기관 시범 운영 파트너로 참여하는 모양새다. 또한 카카오엔터프라이즈가 분산원장 구축을 위한 기술 파트너로 합류한다. 한국투자증권은 연내 발행 분산원장 인프라를 구축하고 안정성 및 보안성 테스트를 마칠 예정이다. 토큰증권은 블록체인 기술을 기반으로 부동산, 미술품, 지식재산권(IP), 저작권(음원) 등의  유·무형 자산을 담아 토큰(디지털자산) 형태로 발행한 증권이다. 증권사들로서는 주식, 채권 등에 이은 새로운 먹거리로 주목하고 있다. 토큰증권은 이르면 내년부터 도입될 전망이다. 금융위원회는 지난달 토큰증권 가이드라인을 내놓았고, 올해 상반기에 전자증권법과 자본시장법 개정안도 국회에 제출할 예정이다.  글로벌 토큰증권 시장의 시가총액은 152억달러(약 20조원)이며 1월 거래대금은 시가총액의 1% 수준에 불과한 것으로 알려졌다.  안인성(왼쪽) 미래에셋증권 디지털부문대표와 오세현 SK텔레콤 Web3 CO 담당 부사장이 30일 서울 중구 을지로 미래에셋센터원에서 토큰증권 비즈니스 생태계 구축을 위한 토큰증권 컨소시엄 - 넥스트 파이낸스 이니셔티브 결성을 위한 업무협약을 체결 후 기념 촬영하고 있다. 미래에셋증권·SK텔레콤 제공</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2023.03.27.</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>“금리 경쟁이 SVB 사태 불러와”…인뱅 규제 완화 목소리</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000042405?sid=101</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>인뱅 3사, 국회서 출범 5주년 기념 토론회 가져은행 경쟁 촉진, 소비자 혜택 증진 효과 나타나“중소은행 금리 경쟁, 자금이탈 위기 높여” 지적도27일 국회에서 인터넷뱅크 5주년 관련 토론회가 열려 참석자들이 기념촬영을 하고 있다. [사진 이용우 기자][이코노미스트 이용우 기자] 인터넷전문은행이 출범한 지 5년이 지난 가운데 인터넷은행이 은행업에 경쟁과 혁신을 가져왔다는 평가가 나왔다. 다만 금리 경쟁이 인터넷은행에 리스크를 키울 수 있다는 지적이 나오면서 미국에서 발생한 중소 은행의 파산을 교훈 삼아야 한다는 주장도 제기됐다. “인터넷은행, 메기효과·경쟁 촉진 효과 발휘”27일 국민의힘 정책위원회가 주최하고 윤창현 의원과 인터넷전문은행 3사가 공동 주관한 인터넷전문은행 5주년 기념 토론회가 국회 제1세미나실에서 열렸다. 이날 토론회에는 서호성 케이뱅크 은행장, 윤호영 카카오뱅크(323410) 대표, 홍민택 토스뱅크 대표 등 인터넷은행 3사 대표가 모두 참석했다. 또 윤호영 국민의힘 의원, 이세훈 금융위원회 사무처장, 이준수 금융감독원 부원장 등이 참여했다.주제 발표에서는 여은정 중앙대 경영학부 교수가, 토론회에서는 이병윤 한국금융연구원 선임연구위원, 민세진 동국대 경제학과 교수, 조연행 금융소비자연맹 회장이 발표자로 나섰다. 여은정 교수는 ‘인터넷전문은행의 도입 성과와 향후 과제’를 주제로 “인터넷은행은 금융혁신, 경쟁촉진, 소비자편익 증진을 목표로 도입됐다”며 “모두 나름대로 성공적으로 안착하고 흑자전환, 고객 확보에서 지속적인 성장을 보였다”고 말했다. 인터넷은행 출범이 가계 신용대출시장의 경쟁을 개선했다는 평가다. 금리 측면에서 보면 저축은행의 신용 스프레드가 인터넷은행이 출범한 2017년부터 줄기 시작해 2019년에는 2%포인트에서 안정화됐다. 업권별 중저신용대출 누적 잔액은 2019년 이후 증가세가 뚜렷해졌고 같은 기간 이후로 대부업 대출 잔액은 감소했다.이병윤 위원은 “인터넷은행이 기존 은행들에 위기감을 주면서 디지털금융을 활성화하도록 했다”며 “은행업 내의 메기로서 경쟁을 유발한 효과가 있다”고 평가했다. 이 위원은 “우리나라에서도 금융사와 정보통신기술(ICT) 기업, 핀테크 업체 등이 제휴해 시너지를 내고 있다”며 “인터넷은행이 새로운 금융서비스를 개발하고 신시장을 개척했다”고 말했다. “인터넷은행 규제 많아 혁신 방해” (왼쪽부터) 서호성 케이뱅크 행장, 윤호영 카카오뱅크 대표, 홍민택 토스뱅크 대표가 토론회 주제를 경청하고 있다. [사진 이용우 기자]이런 성과에도 규제로 인한 인터넷은행의 발전이 더디다는 지적도 제기됐다. 여은정 교수는 인터넷은행에 ▲투자자문업 허용범위 확대 ▲해외 자회사에 대한 대출 제한 해소 ▲청년·서민금융 역할 등으로 프레임 확장 ▲중저신용자대출 비율 완화가 필요하다고 주장했다. 특히 중저신용자대출 비율과 관련해 여 교수는 “인터넷은행이 가계대출시장의 혁신 촉매 역할을 지속할 수 있어야 한다”며 “토스뱅크의 경우 중금리 대출 비중이 40%를 넘어 이미 상당한 수준”이라고 설명했다. 여 교수는 향후 경기 악화 영향으로 인터넷은행 전반에 건전성 악화가 우려된다며 탄력적으로 정책 운영이 가능해야 한다고 봤다. 윤창현 의원도 개회사에서 “과거에 보면 금융권 지주사 설립이 필요하다고 하면서 정부가 지주사를 규제하는 모습을 본 적이 있다”며 “마찬가지로 새로운 제도의 필요성을 말하면서도 불필요한 규제가 있을 수 있어 완화할 규제는 완화할 필요가 있다”고 말했다.“은행 경쟁 촉진, 은행 위험성 높일 수도”이 외에도 민세진 동국대 경제학과 교수는 은행 간 경쟁 심화가 실리콘밸리은행(SVB) 파산 등의 은행 위기를 높일 수 있다고 지적했다. 민 교수는 “금리 인상기에 대형은행들의 예금고객들은 잘 안 움직인다는 특성이 있다”며 “특별한 혜택이 없어도 고객이 대형은행에 남아 있는 것”이라고 말했다. 그는 “반대로 중소은행들은 고객 이탈을 막기 위해 금리 경쟁을 벌였다”며 “그것이 SVB 파산 사태처럼 은행들의 발목을 잡았다는 지적이 있다”고 설명했다. 민 교수는 “과연 경쟁 촉진이 은행 산업 안정성에 바람직한가라는 점을 생각해야 한다”며 “은행 접근성은 높아졌지만 안정성을 확보하는 점에선 다시 생각해 볼 필요가 있다”고 지적했다. 이병윤 선임연구위원도 “인터넷은행이 가격 경쟁에서 소비자를 확보했지만 리스크가 쌓여있을 가능성이 있다”며 “최근 SVB 사태에서 교훈을 찾아야 한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2023.03.27.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>쿠첸, 신제품 출시 ‘토스 쇼핑’ 라이브 방송 최대 50% 할인</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/144/0000875992?sid=101</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>프리미엄 주방가전기업 쿠첸이 오는 28일 오전 11시부터 60분간 토스 쇼핑 라이브에서 신제품 출시 기념 라이브 방송을 진행한다.쿠첸은 토스 쇼핑 라이브를 통해 신제품 ‘더핏 듀얼프레셔(CRS-FWK1040I, CRS-FWK0640I)’와 ‘미니 에어프라이어(COV-A020W)’를 비롯해 스테디셀러 ‘121 플러스 블라썸 화이트(CRT-RPS1071BW, CRT-RPS0671BW)’ 밥솥을 최대 50% 할인 판매한다. 이번 라이브 방송에선 쿠첸이 최근 선보인 6인용, 10인용 밥솥 ‘더핏 듀얼프레셔’를 10만원대 특가로 만나볼 수 있다.‘더핏 듀얼프레셔’는 고압 무압 2중 압력 기능에 미니멀리즘 디자인으로 완성도를 높인 제품이다. 고압, 무압 메뉴 색상이 디스플레이에 다르게 표기돼 압력별 기능을 한눈에 알아볼 수 있고 요리 종류에 따라 압력이 자동으로 설정되는 기능도 갖춰 누구나 최상의 밥맛을 즐길 수 있다. 버튼과 손잡이를 결합해 돌리면 한 번에 뚜껑이 열리는 ‘이지 오픈 핸들’ 방식이 적용돼 불필요한 동작이 줄어 밥솥을 쉽게 열 수 있다.쿠첸 ‘미니 에어프라이어’는 좁은 공간에서 사용하기 좋은 콤팩트한 크기로 공간 효율성이 뛰어나며 1~2인 가구의 한 끼 식사를 한 번에 요리하기 적합한 2리터 용량으로 출시됐다. 투명한 유리 바스켓으로 조리 중 내부를 확인하기 어려웠던 기존 바스켓형 에어프라이어와 달리 바스켓을 분리하지 않아도 안이 들여다보여 요리 초보자도 쉽게 쓸 수 있다.‘121 플러스 블라썸 화이트’는 잡곡을 부드럽고 빠르게 익혀주는 2.1 초고압 기술에 STS316Ti 스테인리스 내솥을 적용한 밥솥이다. 쿠첸만의 ‘논스틱 기술’로 스테인리스 단점인 눌어붙음 현상을 개선해 깔끔하게 사용할 수 있는 점이 장점이다. 내솥에 음식물이 잘 눌어붙지 않아 관리가 편하다. 내솥 불리는 시간을 최대 84% 단축하는 ‘내솥 불림 기능’으로 세척도 손쉽게 할 수 있다.쿠첸은 이번 라이브 방송을 통해 구매 시 ‘귀리를 품은 활력잡곡’(1kg)을 증정한다. 방송 중 구매 인증을 완료하면 추첨을 통해 신세계 상품권 1만원권을 추가 증정한다. 채팅에 참여한 고객 20명에겐 커피 기프티콘을 지급할 예정이다. 쿠첸 관계자는 “이번 방송에서 알찬 기능과 깔끔한 디자인을 겸비한 쿠첸 신제품과 스테디셀러를 초특가에 만나볼 수 있다”며 “농협양곡, 한양대학교 영양유전체학연구실과 공동 개발한 잡곡 제품을 포함해 상품권 등 풍성한 사은품을 마련해 알뜰한 쇼핑 기회를 이어 가길 바란다”고 전했다.손재철기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2023.03.22.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>"月 30조 대환대출 시장 잡아라" 토스, 60개 제휴사 대상 세미나 개최</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000905936?sid=101</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>사진=토스 토스는 지난 21일 제휴 금융사를 대상으로 '대환대출 플랫폼 전략 세미나'를 개최했다고 밝혔다.서울 양재 엘타워에서 열린 이날 행사에는 약 60여 개 금융사의 여신업무 실무 책임자 125명이 참여했다. 이날 세미나는 오는 5월 시행 예정인 대환대출 플랫폼 출시를 앞두고 업계에서 처음으로 열렸다.금융위원회가 주도하고 있는 대환대출 플랫폼 사업은 신규대출 금융사에서 모든 대환대출 신청이 가능하고 1, 2 금융권 수십여개의 대출상품을 한눈에 비교, 고금리 시장환경에서 금융소비자의 선택권을 넓힌다는 것을 골자로 한다.김규하 토스 CBO(최고사업책임자)는 인사말을 통해 지난 4년간 대출 플랫폼의 성장과 산업 전반에서 일어나고 있는 플랫폼 비즈니스로의 전환과 변화에 대해 설명했다.이후 이어진 첫 번째 본 세션에서는 '대출 플랫폼의 변화와 미래'를 주제로 토스의 대출 사업을 이끌고 있는 김슬아 PO(Product Owner)가 강연자로 나섰다.김슬아 PO는 "지난해 4분기 신규 개인신용대출의 약 40%가 온라인 플랫폼을 통해 일어났다"며 "플랫폼의 본질은 제휴사와 금융소비자 모두의 성장과 편익을 높이는 것으로 대출 플랫폼이 그 대표적인 사례"라고 강조했다.'대안신용정보 활용 연구 공유'를 주제로 한 두번째 세션에서는 강지훈 신용데이터 팀 리더가 연사로 나서 개인 신용대출 시장 환경과 대안신용정보의 연구 사례를 발표했다.대안신용정보는 금융이력과 같은 전통적인 데이터가 아닌 금융기관 외 기관, 전자상거래 플랫폼 등에서 발생하는 정보를 의미하는 것으로 국내 최대 마이데이터 가입자를 보유한 토스의 잠재 경쟁력을 연구사례를 통해 제시했다. 행사에 참여한 제휴 금융사들도 긍정적인 반응을 보였다는 후문이다.토스 관계자는 "플랫폼은 모든 참여자가 함께 성장할 수 있다는 점에서 다른 판매채널과 구분된다"며 "개인 신용대출 플랫폼에서 보여준 토스의 검증된 서비스 경쟁력과 노하우를 대환대출 서비스 개시를 앞두고 제휴 금융사들에게 소개하고 궁금증을 해소할 수 있는 시간을 마련하고자 이번 행사를 기획했다"라고 밝혔다.한편 국내 대환대출 시장은 월평균 약 30조원 규모로 개인 신용대출 월평균 약 6조원에 비해 5배 이상 크다.토스는 개인 신용대출 플랫폼 중 월평균 1조원 이상의 대출 실행액을 중개하는 1위 사업자로 시장점유율은 약 54%에 달한다. 토스는 이번 '대환대출 플랫폼 전략 세미나'를 시작으로 각 제휴 금융사별 컨설팅과 대환대출 서비스 준비에 박차를 가할 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2023.03.27.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>토스뱅크 "예대율 안정적…유동성 충분해"</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001091266?sid=101</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>토스뱅크는 9조원대의 여신 잔액과 23조원대의 수신 잔액을 확보해 안정적인 성장세를 보이고 있다고 27일 밝혔다.이날 기준 토스뱅크의 여신 잔액은 9조3천억원, 수신 잔액은 23조2천억원으로 집계됐다.지난 9월 말과 비교하면 여신 잔액은 2조2천억원 늘었고, 수신 잔액은 555억원 감소한 수준이다.토스뱅크는 예대율(은행의 예금 잔액에 대한 대출금 잔액 비율)이 44%로 전년 동기(12.4%) 대비 4배가량 개선됐다고 밝혔다.토스뱅크 관계자는 "토스뱅크는 안정적인 자본 확충과 보유 여신 대비 높은 수신고를 바탕으로 성장하며 올해 하반기 손익분기점(BEP) 달성이 가시화되고 있다"고 말했다.토스뱅크는 시장의 유동성 불안에도 충분한 대비가 이뤄졌다고 밝혔다.이날 기준 유동성커버리지비율(LCR)은 833.5%이며, 토스뱅크는 약 14조5천억원의 고유동성자산을 확보하고 있다.이는 평균(100%)을 유지하는 시중은행 대비 월등히 높은 수치로, 유동성 공급에 차질 없이 나설 준비가 돼 있다는 의미다.순안정자금조달비율(NSFR)은 208%로 시중은행 대비 2배 가까이 높아, 장기간(1년 이상) 필요한 은행의 보유자산에 따라 안정적으로 자금을 조달할 수 있는 것으로 나타났다.아울러 토스뱅크는 최근 추가 유상증자를 단행해 총 1조6천500억원의 자본금을 확충했다.(사진=연합뉴스)</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2023.03.27.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>“신규은행 효과 제한적… 인터넷은행 역할 확대해야”</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/021/0002563434?sid=101</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>산업은행 노동조합원들이 27일 서울 영등포구 KDB산업은행 본점 앞에서 ‘부산 이전 강행 규탄’ 결의대회를 열고 있다.  연합뉴스■ 인터넷은행 5주년 정책 세미나금통위원 “은행 완전경쟁 불가”정부 과점폐해 해소 모색에 파장학계“중저신용자 대출비중 완화건전성 위기 대비해야 파국 막아”신성환 한국은행 금융통화위원이 27일 “진입장벽을 낮춰 은행산업을 완전경쟁에 가까운 형태로 재편하는 것은 불가능하고, 소수의 차별화되지 않은 신규 은행 추가 효과는 제한적일 것”이라고 강조했다. 정부가 은행산업의 과점체제 폐해 해소를 위한 구조적인 재편 방안을 모색 중인 상황에서 통화신용정책을 심의·의결하는 금통위원이 부정적인 견해를 피력했다는 점에서 파장이 예상된다.신 위원은 이날 국회의원회관에서 국민의힘 정책위원회와 국회 정무위원회 주최로 열린 ‘인터넷은행 5주년 정책 세미나’에 기조연설자로 참석해 이같이 밝혔다. 대신 신 위원은 ‘은행권 혁신을 위한 인터넷은행의 나아갈 방향’이라는 연설을 통해 “인터넷은행의 역할을 강화해 은행산업의 혁신을 견인해야 한다”고 제언했다. 그는 정부가 추진 중인 은행 개혁과 관련, “은행산업의 불안정성이 금융시장 및 실물경제에 미치는 영향을 고려할 때 완전경쟁 형태의 은행산업은 경제에 큰 혼란을 일으킬 것”이라면서 “신규 은행을 추가해도 일정 시점이 지난 뒤에는 과점적 경쟁 상황으로 회귀할 것”이라고 진단했다. 신 위원은 고도의 혁신 능력과 플랫폼 운영 능력, 데이터 분석 능력을 지닌 인터넷은행을 늘리고 역할을 확대해야 한다고 제언했다. 특히 사용자 중심의 플랫폼 기반 금융 서비스 혁신 경쟁을 촉진하고, 중·저신용자 및 혁신산업 대출 등 기존 은행산업에서 소외된 고객을 대상으로 한 금융 서비스를 개척하며, 토큰경제에 대비한 미래 금융 인프라 구축과 실용화에 앞장서야 한다는 주장이다. 토큰경제는 경제적 가치가 있는 자산 등을 토큰화해 탈중앙화 플랫폼에서 배분하거나 거래하는 경제를 뜻한다.학계에서도 인터넷은행에 대한 정책적 기대 역할을 확대하는 한편, 중·저신용자에 대한 대출 비중 규제를 완화해 건전성 위기에 대비해야 한다고 목소리를 높였다. 여은정 중앙대 경영학부 교수는 세미나에서 “인터넷은행은 청년·서민금융 분야 등 가계 대출 전반에서 은행권의 경쟁을 촉진하고 소비자 편익을 증진할 수 있는 기반을 갖추고 있다”면서 “중·저신용자를 대상으로 한 신용대출 공급자에서 청년·서민 금융 역할 등으로 정책 프레임을 확장해야 한다”고 말했다. ‘한국판 미국 실리콘밸리은행 파산사태’가 인터넷은행 분야에서 발생하는 상황을 막기 위해서라도 금융당국의 중·저신용자 대출 비율 규제를 완화해야 한다는 지적이다. 여 교수는 “토스뱅크의 경우 중금리 대출 비중이 40%에 육박할 정도로 인터넷은행의 중신용자 대출 비중이 자본력과 업력에 비해 이미 상당한 수준”이라면서 “경기가 향후 침체되면 인터넷은행 전반의 건전성 악화로 이어질 우려가 있어 경기 상황에 맞춰 보다 탄력적인 정책 운용이나 개선이 필요하다”고 말했다. 이병윤 한국금융연구원 선임연구위원은 “금융당국이 2021년 중금리 대출 목표치를 제시한 뒤로 관련 대출이 크게 증가해 왔다”면서 “최근 시장 금리 상승으로 관련 대출의 부실이 늘어날 가능성이 크고, 업무영역이 다양하지 않아 리스크(위험) 분산에 어려움을 겪을 가능성이 있다”고 지적했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2023.03.16.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>신세계쇼핑, 대한항공 그리스 전세기 단독 상품 판매</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011745326?sid=101</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스]이지영 기자 = 신세계쇼핑이 한진관광과 손잡고 대한항공 전세기를 이용한 단독 여행 상품을 론칭한다고 16일 밝혔다.다른 곳에서는 볼 수 없는 오직 신세계쇼핑에서만 볼 수 있는 상품으로 그리스, 남프랑스 등의 프리미엄 여행지들로 향하는 ‘골든 티켓’을 준비했다.신세계쇼핑이 가장 먼저 선보이는 장소는 지중해의 대표 관광지 그리스다. 오는 18일과 19일 저녁 8시 35분 2번에 걸쳐 한 시간씩 방송될 예정으로 출발 역시 5월 중 4회로 한정돼 있다.이번에 판매하는 그리스 9일 여행상품은 아테네로 직항하는 대한항공 전세기와 함께 아테네 시내 관광, 메테오라 수도원, 산토리니와 자킨토스 등 유명 섬 투어, 신탁의 도시 델피 관광 등을 경험할 수 있다. 또 산토리니의 4성급 호텔 숙박과 고속 페리 이동, 그리스 전통식인 무사카, 수블라키, 기로스 등도 포함돼 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2023.03.24.</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>김남구 한투 회장 "미국 인수금융 시장 진출 본격화…토큰증권 발전할 것"</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006704278?sid=101</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>김남구 한국투자금융지주 회장.(한국투자증권 제공)(서울=뉴스1) 이기림 기자 = 김남구 한국투자금융지주 회장이 미국 인수금융 시장 진출 등 해외사업을 강화하겠다고 밝혔다.김 회장은 24일 열린 지주 정기주주총회에서 "베트남, 인도네시아에서의 비즈니스 확대는 물론 스티펄과의 합작을 통한 미국 인수금융 시장 진출 등 선진국 시장에 대한 진출을 본격적으로 추진하겠다"고 말했다.앞서 한국투자금융지주 자회사인 한국투자증권은 미국 종합금융회사 '스티펄 파이낸셜'과 인수금융 및 사모대출을 전문으로 하는 합작회사를 설립하기로 했다. 합작회사 SF 크레딧파트너스는 연내 정식 출범 후 미국 현지에서 인수금융 및 사모대출 사업에 주력할 예정이다.김 회장은 "경기침체 우려가 현실화되고 자산가격 하락, 부채 리스크가 확대되고 있는 만큼 리스크 관리에 더욱 집중하겠다"고도 말했다.또한 김 회장은 최근 한국투자증권이 카카오뱅크, 토스뱅크와 협력한 것에 대해서도 언급하면서 "토큰증권(ST)이 많이 발전할 것으로 봤다"고 말했다. 한국투자증권은 최근 이들과 함께 토큰증권 협의체 '한국투자 ST 프렌즈'를 결성했다.한편 한국금융지주는 이날 주총에서 배당, 사외이사·감사위원 선임 등의 안건을 의결했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2023.03.26.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>토스뱅크, 연 3.5% '먼저 이자 받는 예금' 출시...최대 3회까지 재가입 가능</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002300716?sid=101</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>가입과 동시에 이자를 받을 수 있는 정기예금 ◆…서울 강남구 역삼동 토스 본사 사진=연합뉴스     토스뱅크가 가입과 동시에 이자를 받을 수 있는 선이자지급방식의 예금 상품을 출시했다.   토스뱅크에 따르면 '먼저 이자 받는 예금'은 연 3.5% 금리(세전, 만기일에 세금 차감)를 제공한다. 가입금액은 최소 100만원에서 최대 10억원까지다.   이번에 토스뱅크가 출시한 '이자 받는 예금'은 일종의 정기예금 상품이지만 시중은행의 정기예금과 달리 고객이 돈을 맡김과 동시에 즉시 이자를 받을 수 있다. 가령 1억원을 6개월간(184일 기준) 맡기는 고객은 세전 금액인 약 176만원을 즉시 받는다. 받은 이자는 고객이 원할 때 언제든 출금이 가능하다.   예치 기간은 3개월·6개월이며 필요에 따라 선택이 가능하다. 어느 기간을 선택하더라도 연 3.5% 금리는 동일하게 적용된다.   만기를 채운 고객은 자동 재가입 서비스를 통해 최대 3회(최장 2년)까지 재가입할 수 있다. 이때 적용되는 금리는 재가입 시점의 금리를 따른다.   예금 중도해지를 원하면 언제든 가능하다. 다만 미리 받은 이자에서 중도해지 이자(가입기간에 비례)를 제외한 금액이 원금에서 차감된다.   토스뱅크 관계자는 "고객들이 더 이상 만기일까지 기다릴 필요 없이 가입과 동시에 이자를 받는 경험을 누리게 된다"며 "특히 목돈을 맡기는 고객의 경우 먼저 받은 이자를 출금한 뒤 재투자에 활용할 수 있어 자금 운용 측면에서 편의성이 강화될 전망"이라고 기대했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2023.03.22.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>토스페이먼츠, 애플페이 공식 PG사 선정…"추가 계약만으로 연동"</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000328191?sid=101</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>[토스페이먼츠가 애플의 간편결제 서비스 애플페이 공식 PG 파트너사로 선정됐다. (자료=토스)]토스의 결제 부문 계열사 토스페이먼츠가 애플페이 공식 PG 파트너사로 선정됐습니다.토스페이먼츠는 자사에 등록된 가맹점이 애플페이 연동이 가능하도록 애플페이 공식 PG사로 선정됐다고 22일 밝혔습니다.토스페이먼츠는 "가맹점이 애플페이를 쉽게 도입할 수 있도록 간단한 추가 계약만 진행하면 연동이 가능하다"며 "전자결제 시스템 직접 연동, 결제 위젯 연동 등 가맹점 기호에 따라 다양하 방식을 지원한다"고 밝혔습니다.토스페이먼츠는 두 개의 방식 중 결제 위젯 서비스가 애플페이 도입을 위한 별도 개발 비용이 들지 않는 만큼 중소형 가맹점의 선호도가 높을 것으로 보고 있습니다.김민표 토스페이먼츠 대표는 "높은 기술력과 보안 역량을 기반으로 다양한 글로벌 기업과 협력한 경험과 노하우를 보유하고 있다"며 "파트너사로서 애플페이의 한국 시장 안착과 성장을 도울 수 있도록 최선을 다하겠다"고 밝혔습니다.당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2023.03.21.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>크래프톤, 2023년 ‘배그’ 개발 로드맵 발표</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005446314?sid=105</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>[이데일리 김정유 기자] 크래프톤(259960)이 올해 ‘펍지:배틀그라운드’에 신규 맵을 만들고 주요 요소를 재점검하는 등 장기 서비스 기반을 다진다.크래프톤은 지난 18일 전 세계 이용자 대상 라이브 방송을 통해 주요 개발진이 직접 배틀그라운드 개발 로드맵을 소개하는 개발자 토크를 진행했다고 21일 밝혔다.우선 올해 배틀그라운드는 게임에 대한 전반적인 스트레스를 줄이고 재미를 극대화하기 위해 일반 매치가 개선된다. 아이템 및 블루존, 차량 스폰을 개선해 전체 플레이 시간을 단축시키고 속도감을 높인다. 또 사망에 대한 부담을 줄이고 스쿼드 플레이를 유지하며, 새로운 형태의 부활 시스템도 추가된다. 전략적인 플레이를 위한 전술 장비 개편도 마련됐다.경쟁전에도 변화가 적용된다. 기존의 8x8km의 맵들이 모두 경쟁전에 적용되며, 일반 매치에서만 만나볼 수 있던 아이템 및 기능들이 추가된다. 이외에도 경쟁전 보상이 강화되고, 이스포츠와 룰셋이 동일하게 변경될 예정이다. 이어 올해 말에는 신규 맵 ‘네온’(가칭)을 선보인다. 네온은 현대적인 도시부터 전통적인 과거 향취가 배인 장소까지 만나볼 수 있는 맵이다. 지상, 공중, 수상 등 다양한 교통수단은 물론 네온 맵만을 위한 신규 시스템이 함께 추가될 예정이다. 배틀그라운드의 가장 오래된 전장인 에란겔과 미라마는 올 하반기 업데이트된다. 해당 맵들의 고유한 콘셉트를 유지하면서 대규모 업데이트와 신규 스팟을 추가할 계획이다. 더불어 색다른 게임 모드를 즐기기 원하는 이용자들을 위해 아케이드가 개편된다. 실험실(LABS) 전용 모드를 장기간 또는 상시 운영 콘텐츠로 아케이드에 포함해 이용자들이 원하는 모드를 플레이할 수 있는 환경을 마련할 예정이다. 모드 플레이를 통해 포인트를 획득하고 아이템으로 교환할 수 있는 보상 시스템도 계획 중이다.클랜 시스템도 추가된다. 외부에서 활동 중인 클랜이 아웃게임 영역에 추가되며, 이용자 클랜 태그 및 플레이트가 인게임, 펍지 ID 등 중요 영역에 노출될 예정이다. 서바이버 패스도 올해 두 번에 걸쳐 개편된다. 성장형 무기 스킨 개편은 올 하반기에 이뤄질 예정이다.불법 프로그램 근절을 위한 모니터링 및 대응도 이어간다. 이를 위해 머신러닝 기술을 고도화하는 데 많은 노력을 기울일 예정이다. 불법 프로그램 계정 및 어뷰징 탐지, 배틀그라운드 자체 안티치트 솔루션 ‘자킨토스’와의 연동 등 더 넓은 영역에서 머신러닝 기술을 활용할 계획이다. 핵심 기술 모델을 개발해 올 상반기 실행한다는 목표다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2023.03.27.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>[단독] 청년도약계좌는 인뱅도…'병역 사각지대' 해소 추진</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002696141?sid=101</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>청년희망적금은 시스템 문제로 '불가'이번엔 서류 온라인 연계로 해결 전망왼쪽부터 케이뱅크·카카오뱅크·토스뱅크 본사.ⓒ각 사[데일리안 = 김효숙 기자] 정부가 사회 초년생의 목돈 마련을 돕기 위해 내놓는 청년도약계좌 가입이 인터넷전문은행에서도 가능할 것으로 보인다. 불과 지난해 비슷한 목적으로 출시된 청년희망적금은 병역 이행 여부의 온라인 확인이 어렵다는 이유로 인터넷은행에서 가입이 불가능했지만, 이번에는 관련 시스템이 미리 갖춰지면서 비대면 계약에 제한이 사라지게 됐다.젊은 층에게 친숙한 인터넷은행에서도 청년 자산 증대를 위한 상품 출시가 가능해지면서, 이전보다 정책 효과가 보다 잘 발휘될 수 있을지 주목된다.27일 금융당국에 따르면 서민금융진흥원은 청년도약계좌 사업자에 영업지점이나 창구가 없는 인터넷은행도 참여할 수 있도록 비대면 계좌 가입 절차 구축에 나섰다.서금원은 최근 병무청 등 유관 부처와 협의를 통해 제출 서류 전문을 온라인으로 연계하는 방식을 확정 짓고 취급기관에게 이 같은 조건들을 안내했다. 이는 지난해 청년희망적금 출시 당시 인터넷은행에서의 가입이 불가능했던 전철을 밟지 않기 위한 사전 대응 차원이다.금융당국이 오는 6월부터 새로 선보이는 청년도약계좌는 2030세대를 중심으로 자산 형성 지원을 목적으로 한 정책 금융 상품이다. 정부의 기여금을 포함해 5년간 70만원씩 납입하면 최대 5000만원을 모을 수 있다.청년도약계좌와 직접 비교 대상이 되는 청년희망적금은 지난해 정부가 선보인 유사한 정책 금융 상품이다. 매월 50만원 한도 내에서 자유롭게 납입할 수 있는 2년 만기 적금으로 저축장려금에 비과세 혜택까지 고려해 일반 적금 상품 금리로 환산하면 최고 9~10% 수준의 금리 효과를 기대할 수 있어 관심을 받았다.하지만 청년희망적금은 인터넷은행에서 가입을 할 수 없었다. 19~34세 나이 제한 조건에서 병역 이행 확인시 해당 기간을 연령 계산에 포함하지 않는 혜택을 제공하기로 했는데, 병무청의 병적증명서 진위 확인을 하는 절차가 오프라인 창구로만 가능하다는 이유로 비대면 가입만 받는 인터넷은행은 청년희망적금 판매에 나설 수 없었다.젊은 세대가 많이 이용하는 인터넷은행이 해당 상품을 내놓지 않게 되면서 접근성이 상대적으로 제한될 수 밖에 없게 됐다는 지적이 제기됐다. 여기에 더해 인터넷은행들이 사회적 책임을 다하지 않는다는 비판을 받기도 했다.청년도약계좌 역시 병역 기간이 혜택 조건으로 제시되면서 이번에도 인터넷은행이 또 다시 참여 대상에서 빠지는 것 아니냐는 우려가 제기됐다. 그러나 관련 서류의 온라인 연계로 청년도약계좌는 청년희망적금과 달리 인터넷은행에서도 가입이 가능할 전망이다.청년도약계좌도 청년희망적금과 같이 만 19~34세만 가입할 수 있도록 한 대신 최대 6년의 병역 이행 기간은 연령 계산에 포함하지 않아 군필자의 경우 최대 만 40세까지 가입이 가능하다.금융권에서는 인터넷은행의 고객 중 청년들이 절반을 차지하는 만큼 인터넷은행이 청년도약계좌 판매에 나선다면 가입 경로에 대한 접근성이 개선될 것이라는 전망이 나오고 있다.인터넷은행 1위인 카카오뱅크의 지난해 말 기준 고객 수는 2042만 명으로 이중 절반 가량인 약 49%가 2030세대다. 같은 해 10월 말 기준 토스뱅크의 2030 고객도 전체 고객 504만 명의 절반(50.9%)을 차지한다.최근 연일 이자 장사 논란으로 은행권 사회적 책임 확대 요구가 커지는 가운데 인터넷은행들도 제한 조건이 없어진 만큼 사업 참여를 면밀히 검토하는 모습이다. 카카오뱅크·케이뱅크·토스뱅크 관계자는 “신청 막바지 단계까지 여러 가지 가능성을 두고 검토 중”이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2023.03.22.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>한국투자증권, 카카오·토스와 손잡고 토큰증권 협의체 결성</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005447133?sid=101</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>'한국투자ST프렌즈' 결성카카오뱅크ㆍ토스뱅크, 토큰증권 기록 분산원장카카오엔터프라이즈, 기술파트너로 합류[이데일리 김인경 기자] 한국금융지주(071050)의 자회사 한국투자증권은 인터넷 전문은행 카카오뱅크(323410)ㆍ토스뱅크와 함께 토큰증권 협의체 ‘한국투자 ST 프렌즈’를 결성하고 본격적으로 토큰증권 생태계 구축에 나선다고 22일 밝혔다.‘한국투자 ST 프렌즈’는 한국투자증권을 주축으로 카카오뱅크와 토스뱅크가 토큰증권을 기록할 분산원장(블록체인)의 금융기관 시범 운영 파트너로 참여한다. 한국은행의 중앙은행 디지털화폐(CBDC) 모의실험 사업을 성공적으로 수행하며 그 기술력을 인정받은 카카오엔터프라이즈가 분산원장 구축을 위한 기술 파트너로 합류한다.금융당국의 토큰증권 제도화 추진에 따라 조각투자업체와 블록체인 기업을 내세운 협력체들이 속속 등장하는 가운데, 이번 ‘한국투자 ST 프렌즈’는 금융기관이 중심이 돼 결성된 첫 사례다. 토큰증권이라는 전에 없던 새로운 시장이 열리는 만큼 은행업계 핀테크를 이끌어온 카카오뱅크ㆍ토스뱅크와 한국 자본시장을 선도해온 한국투자증권이 힘을 합쳐 토큰증권 발행 플랫폼 인프라 구축을 최우선으로 시너지를 낸다는 계획이다.한국투자증권은 연내 발행 분산원장 인프라를 구축하고 안정성 및 보안성 테스트를 완료할 예정이다. 이후 한국투자증권의 발행 역량과 카카오뱅크ㆍ토스뱅크의 플랫폼 역량을 바탕으로 본격적인 토큰증권 상품 공급을 추진한다. 초기 생태계 구축이 완료되면 경쟁력 있는 조각투자 기업들의 참여를 유도해 투자자 보호와 시스템 안정성을 최우선으로 하는 국내 1위 토큰증권 생태계로 확장해 나간다는 목표다.한국투자증권 관계자는 “토큰증권에 적합한 상품을 공급할 수 있는 발행 인프라 구축이 토큰증권 생태계 구성의 첫 걸음”이라며 “카카오엔터프라이즈의 안정적인 IT인프라 기술력과 카카오뱅크ㆍ토스뱅크의 플랫폼 경쟁력, 한국투자증권의 딜소싱 능력까지 파트너간 시너지를 극대화해 토큰증권 활성화와 양질의 상품 제공에 역할을 다하겠다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2023.03.17.</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>토스뱅크, 2000억원 규모 유상증자 결의</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/241/0003263029?sid=101</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>토스뱅크토스뱅크는 지난 16일 이사회를 열고 2000억원 규모의 유상증자를 추진하기로 결의했다. 출범 후 진행하는 일곱 번째 유상증자다.이번 증자의 신주 발행가액은 6500원으로 직전 가액(5000원) 대비 30% 할증된 가격이다. 재작년 10월 출범 후 토스뱅크가 달성한 고속 성장세와 혁신성이 투자자들로부터 높은 가치를 인정받으면서 자연스레 신주 발행가의 상승으로 이어졌다.신규 발행 주식은 보통주 3077만주 규모로 주당 발행가는 6500원이다. 증자방식은 제3자 배정으로, 기존, 신규 주주가 증자에 참여한다. 자본금 납입일은 이달 30일이며, 납입을 마치게 되면 토스뱅크의 총 납입 자본금은 1조6천5백억원으로 늘어난다.토스뱅크는 이번 증자를 통해 한국투자캐피탈을 신규 주주사로 맞이한다. 한국투자캐피탈은 보통주 총 1013만주(약 659억원 규모)를 배정 받아 총 4.0%의 지분을 확보하게 될 예정이다. 토스뱅크는 한국투자금융지주의 자회사이자 기업금융분야에서 높은 전문성을 지닌 한국투자캐피탈과 향후 다양한 영역에서 협력을 강화해나갈 계획이다.또 신규 주주사인 홈앤쇼핑과 토스뱅크와의 다양한 협업도 기대된다. 홈앤쇼핑이 보유하고 있는 중소기업 및 소상공인 고객의 방대한 데이터는 토스뱅크의 신용평가 모델 고도화에 활용될 수 있고, 토스뱅크 또한 우량한 잠재고객들을 확보해나가는 기회로 활용할 수 있기 때문이다. 토스뱅크 관계자는 “지난 2022년이 토스뱅크가 본격적으로 사업을 영위한 1년이었으며, 이 기간 동안 놀라운 사업 성장을 달성해 더 높은 기업가치를 인정받을 수 있었다”며 “앞으로도 혁신적인 뱅킹 서비스를 지속 선보여 은행에 대한 고객 경험을 바꿔나가며, 주주사와 고객들이 보내준 전폭적인 신뢰와 지지에 부응하는 성과를 만들어 나가겠다”고 말했다.         권지예 기자 kwonjiye@edaily.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2023.03.27.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>"인터넷은행 3사, 은행권 '메기' 역할로 3마리 토끼 잡아야"</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000730729?sid=101</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>'인터넷은행 5주년 기념토론회'"혁신성, 포용성, 건전성 잡아야"27일 서울 국회 의원회관에서 윤창현 국민의힘 의원·인터넷전문은행협의회 공동 주최로 열린 '인터넷 은행 5주년 기념 토론회'에서 참석자들이 기념 촬영을 하고 있다. 카카오뱅크 제공‘은행 과점체제 해소’가 금융당국의 최우선 과제로 떠오르면서 인터넷전문은행이 경쟁을 촉진할 ‘메기’로 주목받고 있다. 다만 이들 은행의 중·저신용자 대출 목표 완화 요구에 대해선 전문가 의견이 팽팽하게 갈리는 모습이다. 국민의힘 정책위원회와 윤창현 국민의힘 의원, 카카오뱅크·케이뱅크·토스뱅크는 27일 국회 의원회관에서 ‘인터넷은행 5주년 기념 토론회’를 열고 향후 과제 등을 논의했다. 기조 연설자로 나선 신성환 한국은행 금융통화위원은 “은행 산업을 완전경쟁에 가까운 형태로 재편하는 것은 불가능하고, 소수의 차별화하지 않은 신규 은행을 추가하는 효과는 제한적일 것”이라며 결국 인터넷은행 역할을 강화해 은행업 혁신을 견인해야 한다고 강조했다.신 금통위원이 당부한 건 기존 은행과의 차별화다.  비슷한 형태로 영업하면 다른 은행들에 혁신과 비용 절감을 압박하려는 도입 취지가 무색해진다는 이유다. 특히 “중·저신용자, 혁신산업 대출 등 기존 은행 산업에서 소외됐던 고객 대상 금융서비스를 제공해야 한다”고 강조했다. 실제로 2021년 인터넷은행의 중·저신용자 신용대출 비중 규제가 도입된 이후 3사는 매년 할당된 목표를 채우기 위해 공격적으로 중금리 대출 취급을 늘려왔다.학계 전문가들은 인터넷은행이 은행권 경쟁과 소비자 편익 증진에 기여했다는 데 공감하면서도, 중·저신용자만의 특화 은행이 될 필요는 없다고 지적했다. 민세진 동국대 교수는 최근 미국 실리콘밸리은행(SVB) 사태를 언급하며 “인터넷은행도  ‘모바일런’ 예방을 위해 예금보험 상한을 올리고 중·저신용자 대출 비중 목표를 유연하게 해 포트폴리오를 다변화할 필요가 있다”고 제언했다. 여은정 중앙대 교수도 “청년·서민금융 역할 등으로 프레임을 확장할 필요가 있다”고 했다.업계도 부쩍 규제 완화에 목소리를 내고 있다. 3사는 최근 금융위원회에 “유례없는 금리 상승기 은행권의 금리 경쟁 유도를 위해 중·저신용대출 잔액 목표를 재조정해달라”는 업권 건의를 전달했다. 지난해 9월까지 0.44%였던 인터넷은행 가계대출 연체율이 연말 0.63%까지 치솟는 등 자산건전성이 악화하고 있고, 5대 은행과의 경쟁에서도 여전히 열위에 있다는 토로다.정부는 “중·저신용자 대출 확대가 도입 취지이자 국민과의 약속”이라며 일축했다. 대출 비중 완화 대신 건전성과 부실 관리를 강화해 내실을 다져야 한다는 것이다. 이날도 이세훈 금융위원회 사무처장은 “인터넷은행이 은행권 메기로서 경쟁 촉진과 디지털 혁신, 상생금융 확산 등 도입 취지를 꾸준히 달성하리라 기대한다”고 말했다. 이준수 금융감독원 부원장 역시 “인터넷은행이 혁신성과 포용성, 건전성 등 세 마리 토끼를 모두 잡으면서 성장하도록 지원하겠다”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2023.03.16.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>신세계쇼핑, '그리스 전세기' 단독 상품 판매…"프리미엄 경험 제공"</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006687500?sid=101</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>대한항공 그리스 전세기 단독 방송…남프랑스도 준비신세계라이브쇼핑, 그리스 여행 상품 판매.(신세계라이브쇼핑 제공)(서울=뉴스1) 신민경 기자 = 신세계쇼핑은 한진관광과 손잡고 대한항공 전세기를 이용한 단독 여행 상품을 론칭한다고 16일 밝혔다. 오직 신세계쇼핑에서만 볼 수 있는 상품으로 그리스·남프랑스 등 프리미엄 여행지들로 향한다.신세계쇼핑이 가장 먼저 선보이는 장소는 지중해 대표 관광지 그리스다. 이달 18일과 19일 오후 8시35분에 딱 2번에 걸쳐 한 시간씩 방송된다. 출발 역시 5월 중 4회로 한정돼 있다.그리스 9일 여행상품은 아테네로 직항하는 대한항공 전세기와 아테네 시내 관광·메테오라 수도원·산토리니와 자킨토스 등 유명 섬 투어를 경험할 수 있다. 산토리니 4성급 호텔 숙박과 고속 페리 이동·그리스 전통식 무사카·수블라키·기로스 등도 포함돼 있다.신세계쇼핑은 프리미엄 일정과 국적기 등 한 단계 높은 품격있는 여행을 제공하고 있다. 특히 올해 1~2월 편성된 여행상품은 전년 대비 3배 이상 증가하는 등 대만·베트남 등 근거리뿐 아니라 호주·뉴질랜드·독일·캐나다·미서부 등 장거리 상품도 많은 고객 사랑을 받고 있다.박진응 신세계쇼핑 무형가전팀 팀장은 "이번에 한진관광과 함께 만든 대한항공 전세기 상품들은 고객들에게 더 큰 만족을 주는 여행상품이 될 것으로 확신하고 있다"며 "이번 그리스 상품에 이어 남프랑스 전세기 상품도 연이어 선보일 것"이라고 말했다.   신세계쇼핑은 지난해 이마트에서 신세계(백화점)로 계열을 변경한 후 백화점 상품 판매·컨템포러리 패션 자체브랜드(PB) 론칭·조선호텔앤리조트 가정간편식(HMR) 판매 등 프리미엄 홈쇼핑으로 꾸준히 변화하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2023.03.23.</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>한국투자증권, 카뱅·토뱅과 ‘토큰증권 협의체’ 결성</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003795191?sid=101</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>한국투자증권은 인터넷 전문은행 카카오뱅크·토스뱅크와 함께 토큰증권 협의체 ‘한국투자 ST 프렌즈’를 결성하고 본격적으로 토큰증권 생태계 구축에 나선다고 22일 밝혔다.     ‘한국투자 ST 프렌즈’는 한국투자증권을 주축으로 카카오뱅크와 토스뱅크가 토큰증권을 기록할 분산원장(블록체인)의 금융기관 시범 운영 파트너로 참여한다. 카카오엔터프라이즈는 분산원장 구축을 위한 기술 파트너로 합류한다.     한국투자증권은 이번 ‘한국투자 ST 프렌즈’는 금융당국의 토큰증권 제도화 추진에 따라 조각투자업체와 블록체인 기업을 내세운 협력체들이 속속 등장하는 가운데 금융기관이 중심이 되어 결성된 첫 사례라고 설명했다.     한국투자증권은 연내 발행 분산원장 인프라를 구축하고 안정성 및 보안성 테스트를 완료할 예정이다. 이 후 한국투자증권의 발행 역량과 카카오뱅크·토스뱅크의 플랫폼 역량을 바탕으로 본격적인 토큰증권 상품 공급을 추진한다. 초기 생태계 구축이 완료되면 경쟁력 있는 조각투자 기업들의 참여를 유도해 투자자 보호와 시스템 안정성을 최우선으로 하는 국내 1위 토큰증권 생태계로 확장해 나간다는 목표다.      한국투자증권 관계자는 “토큰증권에 적합한 상품을 공급할 수 있는 발행 인프라 구축이 토큰증권 생태계 구성의 첫 걸음”이라며 “카카오엔터프라이즈의 안정적인 IT인프라 기술력과 카카오뱅크ㆍ토스뱅크의 플랫폼 경쟁력 한국투자증권의 딜소싱 능력까지 파트너간 시너지를 극대화해 토큰증권 활성화와 양질의 상품 제공에 역할을 다하겠다”고 밝혔다</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2023.03.30.</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>KB리브엠 알뜰폰 정식 승인 도전, 메기 될까</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004173454?sid=105</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>규제샌드박스 4년 만기 맞은 알뜰폰 리브엠금융위, 정식 승인 논의···통과 가능성 높아정부는 경쟁력 높은 알뜰폰 사업자 환영하지만중소 알뜰폰·유통망 '생존 위협'에 강력 반발[서울경제] KB국민은행이 서비스하는 알뜰폰 ‘리브엠(리브모바일)’이 다음달 규제 샌드박스 특례 만료를 앞두고 정식 서비스 승인에 도전한다. 리브엠이 정식 승인을 받으면 기존 토스모바일 외 타 금융기업들의 추가 진출이 이뤄질 수 있어 중소 알뜰폰 업체들의 반발이 예상된다.30일 금융위원회 혁신금융위원회 소위원회는 리브엠 정식 서비스 승인 여부를 논의했다. 정식 승인 여부는 이날 논의를 바탕으로 내달 중 결정된다. 업계는 금융위가 리브엠에 정식 허가를 내줄 가능성이 높다고 본다. 통신업계 한 관계자는 “리브엠 가입자가 40만에 달해 사업 종료 시 소비자 피해가 크고, 정부가 알뜰폰 활성화 정책을 추진 중인 만큼 정식 승인을 내주지 않을 이유가 없다”고 말했다.리브엠은 2019년 혁신금융서비스 1호로 지정돼 출시된 서비스다. 매년 100억 원대 적자를 두려워하지 않는 저렴한 가격에 KB국민은행 브랜드 인지도를 바탕으로 4년 만에 알뜰폰 시장 3~4위권으로 성장했다. KB국민은행은 알뜰폰 자체로 수익을 얻기보다는 카드·금융상품 결합 판매와 통신 가입자 데이터 수집에 집중하고 있다.이에 정식 서비스 승인이 난다면 타 금융사들도 알뜰폰 시장에 진출해 출혈 경쟁이 거세질 수 있다는 관측이 이어진다. 중소 알뜰폰 업체들은 강하게 반발하고 있다. 알뜰폰통신사업자협회는 꾸준히 “금융기관들이 거대 자본력을 이용해 가입자를 빼가는 불공정 행위를 막을 제도적 장치가 필요하다”고 촉구하고 있다. 앞서 지난 28일 통신 유통점 연합체인 전국이동통신유통협회(KMDA)도 “금융계 알뜰폰의 도매대가 이하 상품 판매를 금지하고 시장점유율을 제한해야 한다”는 입장문을 냈다. 이에 KB국민은행은 “도매대가 이상으로 리브엠의 가격을 제한하면 통신 3사 자회사 과점체제가 더욱 심화하고 소비자 혜택이 줄어든다”고 반박했다.정부는 리브엠 등 대기업 알뜰폰 진출에 긍정적인 동시에 중소사업자 생존을 위한 정책 마련에 골몰하고 있다. 통신 3사 자회사 외 경쟁력 있는 알뜰폰 사업자가 등장해야 과점 체제를 뒤흔들 수 있지만 이 경우 중소 사업자 피해가 불가피하다. 나아가 과학기술정보통신부는 리브엠 등 신규 사업자가 알뜰폰을 넘어서 ‘제4통신사’로 성장해주기를 바라고 있기도 하다. 업계 한 관계자는 “KB국민은행이 막대한 투자가 필요한 제4통신사 자리까지 탐내진 않겠지만 알뜰폰 사업에서는 적자 이상으로 얻어가는 게 많아 사업을 이어갈 것”이라며 “금융사의 알뜰폰 진출이 정식으로 가능해진다면 기존 알뜰폰 시장 판도가 뒤흔들 수 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2023.03.27.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>인뱅 출범 5년…3사 대표 "소비자 편익 확대·금융산업 혁신 주도할 것"</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002791264?sid=101</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>금융당국 "내실 과제…리스크 관리해야"신성환 금통위원 "소외된 고객 금융서비스 제공해야"인터넷전문은행이 출범 5년을 맞은 가운데 혁신 노력이 이어져야 한다는 지적이 나왔다. 문혜현 기자    인터넷 전문은행이 출범 5년을 맞은 가운데 3사(카카오뱅크·케이뱅크·토스뱅크) 대표는 일제히 금융산업 혁신을 주도하고 중·저신용자 대출을 늘리는 등 소비자 편익 확대에 적극 나서겠다고 밝혔다.한국은행, 금융감독원, 금융위원회 등 금융당국은 인터넷 은행이 국민 기대에 미치지 못하는 부분이 있다며 소외된 금융소비자에게 금융 서비스를 제공하고 플랫폼 기반 금융서비스 혁신을 지속해야 한다고 지적했다.27일 국회 정무위원회 소속 윤창현 국민의힘 의원 주최로 서울 여의도 국회 의원회관에서 개최된 '인터넷뱅크 5주년: New Banking, Make Money-내 손안의 은행에서 모두의 은행으로 Jump up' 토론회에선 2017년 이후 인터넷은행 산업 발전 상황을 짚어보고 향후 나아갈 방향에 대한 열띤 논의가 이뤄졌다.윤 의원은 개회사에서 "오늘 토론회가 더 편한 서비스, 더 많은 혜택을 주는 전문은행으로 거듭나는 새로운 출발이 될 것을 기대한다"며 "인터넷 뱅크의 도약이 금융소비자 편익으로 이어질 수 있도록 입법과 정책을 통해 자율과 혁신을 지원할 것"이라고 말했다.쓴소리도 이어졌다. 이세훈 금융위원회 사무처장은 "인터넷 은행은 짧은 기간 크게 성장하는 한편 내실을 다져야 하는 과제들을 안고 있다"며 "인터넷 은행이 은행권의 '메기'로서 경쟁 촉진과 디지털 혁신, 상생금융 확산 등의 도입취지를 앞으로도 꾸준히 달성하리라 기대한다"고 말했다.이준수 금융감독원 부원장도 "인터넷 은행의 자산건전성 악화 우려가 커지고 있다"면서 "혁신 노력이 국민 기대에 미치지 못한다는 비판도 있다. 이러한 어려운 상황을 헤쳐나가려면 리스크 관리·위기 대응 능력을 확충해야 한다"고 짚었다.이에 3사 대표는 적극 화답했다. 서호성 케이뱅크 행장은 "은행 산업의 혁신을 주도하면서 소비자 편익을 지키는 게 저희의 가장 큰 과제"라고 말했다. 윤호영 카카오뱅크 대표도 "규모는 작지만 인터넷 은행은 시장에 빠르게 자리 잡았으며, 다른 나라들도 벤치마킹하려고 한다. 앞으로도 금융 산업과 경제 발전에 기여해나가도록 혁신해나가겠다"고 목소리를 높였다. 홍민택 토스뱅크 대표도 "금융당국의 문제의식에 공감한다"며 "내실 있게 성장해 나갈 것을 약속한다. 중저신용자 대출 확대 등 은행의 사회적 역할도 다할 것"이라고 밝혔다.이날 토론회에선 신성환 한국은행 금융통화위원의 기조연설과 전문가들의 발표가 이어졌다. 신 금통위원은 은행산업의 과점적 특성을 강조하며 소외 고객 대상 금융서비스 개발에 나서야 한다고 강조했다. 신 금통위원은 "기존 은행들에 금리 경쟁을 할 만한 인센티브가 부족하고, 경쟁을 하지 않는다"면서 "이러한 시장 구조를 개선하기 위해 출범한 것이 인터넷 은행"이라고 했다. 그는 인터넷은행이 은행 산업 혁신을 위해 사용자 중심의 플랫폼 기반 금융서비스 혁신에 나서야 한다고도 설명했다.신 금통위원은 "규제당국의 (은행) 이익에 대한 가이드라인이 필요하다. 차별화되지 않은 금융서비스에 대해선 은행의 적정 이익에 대한 가이드라인이 필요한 것 아닌가 생각할 수 있다"면서 "인터넷 은행은 중·저신용자, 혁신산업 대출 등 기존 은행 산업에서 소외됐던 고객 대상 금융서비스를 제공해야 한다"고 밝혔다. 그러면서 "인터넷 은행이 기존 은행과 비슷한 형태로 영업을 한다면, 도입 취지가 무색해진다"며 "인터넷 은행 관계자와 규제당국은 본래 기대 효과가 나타날 수 있도록 노력해달라"고 당부했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2023.03.31.</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>카카오엔터프라이즈, 한투증권 STO 발행 인프라 구축</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002287319?sid=105</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>기술 검토 전반 담당카카오엔터프라이즈(대표 백상엽)은 31일 블록체인 기술 기반의 토큰증권 발행(STO) 플랫폼 구축에 박차를 가한다고 밝혔다.토큰증권이란 블록체인 기술을 활용해 자본시장 법 상 증권을 디지털화한 것으로 기존에 미술품, 부동산, 음악 저작권 등 쪼개어 거래하기 어려웠던 다양한 실물자산을 디지털화해 주식처럼 거래할 수 있다.카카오엔터프라이즈는 한국투자증권을 중심으로 카카오뱅크, 토스뱅크 등 인터넷전문은행이 결성한 토큰증권 협의체 ‘한국투자 ST 프렌즈'에 기술 파트너로 참여했다.카카오엔터프라이즈토큰증권 협의체에서 카카오엔터프라이즈는 토큰증권에 적합한 상품을 공급할 수 있는 발행 인프라 구축을 담당한다. 블록체인 기술을 활용한 증권 토큰 발행과 계좌 관리 방안 설계를 지원하며 한국투자증권 STO 전반에 대한 기술 검토를 맡는다. STO 블록체인 네트워크 운영을 위한 은행 및 카드사 등의 얼라이언스를 확대하는 역할도 담당한다.향후 카카오엔터프라이즈는 한국투자증권을 중심의 STO 생태계에 다양한 금융기관들이 참여할 수 있도록 보다 빠르고 안정적이며 효율적인 플랫폼 구축에 힘쓸 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2023.03.21.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>'모임통장' 뭉치면 돈 된다… 카뱅·토뱅 흥행에 하나은행 참전</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000905340?sid=101</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>모임통장은 동호회 등에서 회비를 모은 계좌의 사용 내역 등을 공유할 수 있는 이른바 공동계좌다. 사진은 서울 시내 대출창구 모습/사진=뉴시스 여러 명이 한 계좌를 쓸 수 있는 모임통장이 은행권의 화두로 떠올랐다. 지난달 토스뱅크가 출시한 모임통장이 한 달만에 가입자 23만명을 확보하면서 카카오뱅크에 이어 하나은행도 모임통장 서비스 재개에 나섰다. 21일 금융권에 따르면 하나은행은 최근 특허청에 '하나 모임통장'으로 상표권을 출원했다. 지난해 2월 모임통장 서비스를 중단한 지 1년 만이다.모임통장은 동호회 등에서 회비를 모은 계좌의 사용 내역 등을 공유할 수 있는 이른바 공동계좌다. 앞서 신한은행이 '김총무', 우리은행 '우리U모임', KB국민은행 'KB짝꿍통장'을 출시했으나 판매를 중단했다. 2018년 12월 카카오뱅크는 카카오톡으로 간편하게 친구들을 모임통장에 초대할 수 있는 모임통장을 출시해 지난해 말 기준 계좌 수 406만좌, 이용자 수 1356만명(여러 모임통장에 함께 참여하고 있는 중복 이용자 포함)을 확보했다. 카카오뱅크의 모임통장은 계좌가 없어도 모임원이 될 수 있는 점(카카오뱅크 앱 설치와 회원가입은 필요)과 모임원들이 회비 현황을 실시간으로 확인할 수 있도록 한 점이 장점이다. 최근에는 '생활비 관리 기능'과 '회비 관리 기능'을 추가해 모임통장 서비스를 확대했다. 카카오뱅크 관계자는 "파킹통장인 '세이프박스'와 연결할 경우 연 2.6%를 받을 수 있다"며 "생활비와 회비 관리를 하는 등 모임통장의 기능을 확대할 것"이라고 말했다. 토스뱅크의 모임통장은 누구나 출금 및 이체가 가능한 점이 특징이다. 기존 카카오뱅크의 모임통장이  1명만 독점적으로 출금·결제 권한을 가졌던 기존 상품과 달리 모임원이라면 누구나 출금 및 이체가 가능하도록 만들었다. 모임장의 동의를 얻고 실명확인 절차를 완료한 모임원이 이른바 공동모임장으로 카드 발급 및 결제·출금을 할 수 있다. 접근성이 편한 장점에 토스뱅킹 모임통장의 가입자는 23만명을 넘어섰다.토스뱅크는 모임통장 고객을 대상으로 해외여행 항공권을 지급하는 이벤트를 진행한다. 모임통장을 보유하거나 새로 개설하는 모임장은 가고 싶은 도시 6곳(파리·뉴욕·방콕·도쿄·하와이·제주도) 중 한 곳을 선택하고 함께 여행 갈 친구를 모임통장에 초대하면 된다. 토스뱅크가 모임통장 대전에 뛰어들면서 케이뱅크도 관련 상품 개발에 나섰다. 인터넷은행 관계자는 "모임통장이 1개 생기면 가입자가 10명 넘게 늘어나는 상황"이라며 "인터넷은행 입장에서 많은 고객을 유치할 수 있는 집객능력이 매력적"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2023.03.27.</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>인뱅3사, 중금리대출 딜레마…전문가들 "뱅크런 위험 키운다"</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005450426?sid=101</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>인터넷은행3사, '인터넷은행 5주년' 기념 토론회 개최"중소형은행, 경쟁 치열할수록 뱅크런 위험 노출"예금보험 상향 및 중저신용자 리스크 관리 필요성 제기홍민택 토스뱅크 대표, 유동성 우려 일축  "안전성 탄탄"[이데일리 정두리 기자] 카카오뱅크·케이뱅크·토스뱅크 등 인터넷은행 3사가 금융시장에 성공적으로 안착하면서 은행산업의 효율성을 극대화시켰지만 은행산업 내 경쟁이 치열할수록 뱅크런 위험에 대비해야 한다는 목소리가 커지고 있다. 미국 실리콘밸리은행(SVB) 사태가 중소형 은행이 뱅크런 위험에 노출됨을 극명하게 보여줬다는 분석이다.27일 국회 의원회관 제1세미날에서 개최된 인터넷전문은행 5주년 기념 토론회 현장.민세진 동국대 경제학과 교수는 27일 국회 의원회관 제1세미나실에서 열린 ‘인터넷은행 5주년 기념 토론회’에서 이같이 밝혔다. 민 교수는 최근 발생한 SVB의 실패와 스위스 크레디트스위스(CS)의 매각 결정은 한국의 은행 산업에도 중요한 시사점을 남겼다고 봤다. 민 교수는 “SVB는 은행 산업 내 경쟁이 치열할 때 중소형 은행이 뱅크런의 위험에 비대칭적으로 노출됨을 극명하게 보였으며, 미 정부의 예외적인 예금 보호 조치에도 불안이 쉽사리 가라앉지 않았다“고 평했다.  그는 이어 “중소형은행의 경우 예금고객 이탈을 막기 위해 예금금리를 경쟁적으로 올렸는데, 그것이 오히려 SVB의 발목을 잡았다”면서 “과연 우리가 경쟁을 얼마나 촉진하는 게 좋은지, 경쟁 촉진이 안정성에 있어서 얼마나 바람직한 것인지 해외사례를 통해 타산지석을 삼아야 한다”고 부연했다. 아울러 민 노수는 “인터넷뱅크의 출현은 은행산업의 효율성 및 소비자 후생의 증진 차원에서 매우 긍정적으로 평가하지만 혹시라도 발생할 수 있는 모바일런 사태를 예방하기 위해 예금보험 상한 상향 조정과 중저신용자 대출 비중 목표를 유연하게 할 필요가 있다”고 주장했다.이병윤 금융연구원 선임연구위원도 최근 중금리대출 목표 달성을 위해 인터넷은행의 중저신용자 대출이 크게 늘어난 상황을 언급하며 향후 부실이 늘어날 가능성이 높다고 진단했다. 특히 인터넷은행은 업무영역이 다양하지 않아 리스크분산에 어려움을 겪을 가능성이 높다는 점을 인식하고 최근 SVB사태에서 교훈을 찾아야 한다고 봤다. 실제 인터넷은행은 지난해부터 금융당국의 요청에 의해 중·저신용자 대출을 적극적으로 확대·취급해 오고 있으나 이에 따른 건전성 악화가 뒤따르고 있다. 인터넷은행의 연체율은 지난 2021년 말 0.26%에서 지난해 말 0.63%로 2배 이상 급증했다. 시중은행의 경우 지난해 9월 말까지 연체율이 0.16% 수준이다. 이 연구위원은 “인터넷 전문은행이 최근 늘어난 중금리 대출에 대해서는 철저한 리스크관리가 필요하고 향후 대안신용평가 능력 강화와 해외진출 등으로 수익성 확대를 도모해야 한다”고 제안했다.홍민댁 토스뱅크 대표공교롭게도 이날 인터넷 커뮤니티를 중심으로는 ‘토스뱅크 뱅크런’ 우려설이 불거지기도 했다. 토스뱅크의 ‘먼저 이자 받는 예금’ 출시를 두고 ‘유동성을 확보하기 위해 고액 예치금을 끌어모으려는 것 아니냐’는 의혹이 제기된 것이다. 앞서 토스뱅크는 지난 24일 고객이 돈을 맡기면 즉시 선이자를 받을 수 있는 수신상품을 내놨다. 예를 들어 1억원을 6개월간 맡기는 고객은 세전 금액인 약 176만원을 즉시 받는다. 받은 이자는 고객이 원할 때 언제든 출금도 가능하다.이날 토론회에서 참석하는 홍민택 토스뱅크 대표는 해당 의혹과 관련해 ‘먼저 이자 받는 예금’ 상품이 재무 상황에 미치는 영향은 지극히 낮으며 현재 충분한 유동성을 확보하고 있다는 입장이다. 홍 대표는 “선이자 정기예금은 기존 금융권에 있던 상품으로, 고객에게 이자를 먼저 제공해도 재무적으로는 차이가 없다”고 밝혔다.그는 “금융 시장이 불안해서 생기는 일 같다”며 “실제로는 관련해서 우려할 만한 부분이 전혀 없다. 유동성도 충분하다”고 일축했다. 한편 토스뱅크에 따르면 이날 기준 토스뱅크의 여신 잔액은 9조3000억원, 수신 잔액은 23조2000억원으로 집계됐다. 지난해 12월 말과 비교하면 여신 잔액은 6600억원, 수신 잔액은 2조9000억원 증가한 수치다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2023.03.29.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>[단독] 토스뱅크, 신규 상품 ‘굴비 적금’ 내놓는다</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000042517?sid=101</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>6개월 만기 자유적금…월 최대 30만원까지모임통장, 선이자 예금 이어 적극적 시장 공략홍민택 토스뱅크 대표. [사진 연합뉴스][이코노미스트 윤형준 기자] 토스뱅크가 ‘모임통장’, ‘선이자 예금’에 이어 신규 적립식예금(적금) 상품인 ‘굴비 적금’을 출시할 예정이다.29일 토스뱅크에 따르면 ‘토스뱅크 굴비 적금’은 정기적금 상품으로, 실명확인 된 토스뱅크 통장·토스뱅크 서브 통장을 보유한 개인만 개설할 수 있다. 또 1인 1계좌만 가입 가능하며, 파트너 제휴나 이벤트 등 토스뱅크가 복수 계좌 개설을 허용하는 경우에만 추가 개설이 가능하다.굴비 적금은 6개월 만기의 자유적금 상품으로 출시될 예정이다. 횟수 제한 없이 매월(월 초일~말일) 최대 30만원까지 자유롭게 적립할 수 있다. 다만, 반드시 토스뱅크 통장 또는 토스뱅크 서브 통장을 통한 입금만 가능하다.아직 기본금리와 우대금리에 관한 내용은 알려지지 않았다. 우대금리는 어떤 식으로 혜택이 제공되는지도 미지수다.업계에서는 과거 KB국민은행의 ‘굴비 통장 재테크’ 사례를 들어 토스뱅크 굴비 적금의 상품 구조가 이와 유사하지 않겠느냐는 추측을 내놓고 있다. 당시 국민은행에선 여러 예·적금 상품을 함께 가입하면 우대금리 및 수수료 면제 혜택을 제공했다. 한 통장에 모두 납입할 필요가 없어 금리 혜택을 주는 수신 잔고 조건이 완화되는 셈이다.토스뱅크 관계자는 “굴비 적금 스펙(구조)에 대해선 출시 전이라 구체적으로 알려줄 수 없다”면서 “출시 일정은 조만간이긴 하나 이 또한 구체적으로 말하기 어렵다”고 말했다.토스뱅크는 최근 들어 잇따라 새로운 수신상품을 내놓으며 시장 공략에 나서고 있다. 2월 1일에는 공동모임장 기능을 도입한 모임통장을 출시해 30만 계좌를 돌파했고, 2월 24일에는 연 3.5% 금리를 가입 즉시 제공하는 선이자 예금 상품도 내놨다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2023.03.16.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>모바일 이체 5억 되는데…인터넷은행 `폰 뱅크런` 우려</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002789421?sid=101</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>"인출 금지 명령 등 제도 설계 필요"SVB 파산 배경으로 지목된 폰뱅킹과 관련해 국내 인터넷은행에 대한 우려가 나온다. 연합뉴스    미국 실리콘밸리은행(SVB)의 초고속 파산 주요 배경으로 스마트폰을 통한 예금 인출이 거론되면서 모바일 뱅킹 환경인 국내 인터넷전문은행 등에 대한 우려가 제기됐다.금융당국은 SVB 사태 여파가 국내 시중은행으로 번질 가능성은 작은 것으로 보고 있으나, 국내 은행의 모바일 뱅킹 이체 한도가 1일 최대 5억원에 달해 관련 대응책이 필요하다는 지적이다.16일 금융권에 따르면 전자금융감독규정에 따라 개인 고객 기준 국내 은행의 인터넷·모바일 뱅킹 1회 이체 한도는 최대 1억원, 1일 이체 한도는 최대 5억원이다.이는 대면 채널이 없는 카카오·케이·토스뱅크 등 인터넷 전문은행은 물론, KB국민·신한·하나·우리·NH농협은행 등 주요 시중은행에도 적용된다.SVB의 경우 소셜미디어(SNS) 등을 통해 위기 소식이 전파되자, 실리콘 밸리 사업가 등 예금주들이 당일 금융기관이 문을 닫는 시간까지 420억 달러(약 55조6000억원)를 인출하려 시도한 것으로 나타났다.국내에서도 1997년 외환위기, 2011년 저축은행 사태 등으로 뱅크런이 나타난 선례가 있다.만약 국내에서도 위기가 발생한다면 SVB 사태와 유사한 '디지털 뱅크런'이 발생할 수 있는 만큼 대비가 필요하다는 목소리가 나온다.특히 비대면 채널로 영업하는 인터넷 전문은행은 이체가 손쉬운 사용자환경(UI)을 갖춘 데다, 영업점 없이 비대면 고객상담센터 위주로 소비자 대응을 한다.비대면으로 쉽게 금융거래를 할 수 있는 점은 장점으로 꼽히지만, 유사 시에는 취약성을 증폭시키는 '양날의 검'이 될 수 있다.국회에서도 유사한 사태를 대비한 금융당국의 대응책 마련이 필요하다는 지적이 나왔다.김병욱 더불어민주당 의원은 14일 국회에서 열린 원내대책회의에서 초기 뱅크런이 일어날 경우 금융당국이 인출 금지 명령 등 시장 조치를 할 수 있는 보다 제도 설계가 필요하다고 지적했다.김 의원은 "스마트폰과 인터넷뱅킹으로 대표되는 디지털 은행은 필연적으로 특정한 사건이 발생했을 때, 단기간에 대규모의 예금이 인출될 수밖에 없는 구조"라면서 "금융소비자의 이용 편의성과 효율성을 극대화하는 것도 필요하지만, 이에 대응해 금융당국은 디지털 뱅크런이 발생하지 않도록 금융 안정을 최고의 목표로 보완 장치를 마련해 나가야 할 것"이라고 말했다.다만 금융감독원은 당장 SVB 사태가 인터넷 은행에 미친 영향은 미미한 것으로 보고 있다.금감원 관계자는 "인터넷 은행의 예금 동향을 지속해서 확인하고 있으며, 평소와 다른 상황은 없는 것으로 확인했다"면서 "SVB의 예금이 소수가 큰 금액을 가진 예금이었다면 인터넷 은행의 예금은 분산된 개인이 소액으로 갖고 있는 예금이라는 차이점도 있다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2023.03.27.</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>블라인드서 난리난 ‘인뱅 뱅크런’ 우려…당국 “은행 입출금 이상없다”[머니뭐니]</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002121608?sid=101</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>미국 실리콘밸리은행(SVB) 파산 등 미국 은행 위기 여파가 독일 최대 은행인 도이체방크 위기설로까지 번지고 있다. 사진은 도이체방크 모습 [로이터 연합][헤럴드경제=서정은 기자] 실리콘밸리은행(SVB) 파산을 시작으로 글로벌 금융위기 우려가 커지면서 국내 은행에도 불똥이 튈 것을 걱정하는 고객들이 늘고 있다. 특히 인터넷 전문은행을 중심으로 스마트폰 ‘뱅크런’을 걱정하는 입소문이 커지자 금융당국은 “국내 은행권의 입출금 동향에 이상이 없다”며 관리를 강화하고 있다.27일 금융권에 따르면 금융감독원은 시중은행, 인터넷전문은행 등 금융회사에 대한 입출금 동향 등을 점검 중이다. 그간 금감원은 SVB 파산 이후 국내 은행권에 미치는 영향을 모니터링하기 위해 은행권의 유가증권 보유현황 및 자산현황 등도 종합적으로 살펴봤다. 당국은 지난주 후반부터 입출금 동향을 살펴본 결과 큰 문제가 없다고 판단한 상태다.최근 금융권에서는 미국 중소은행발 뱅크런 사태 우려가 지속적으로 제기되고 있다. SVB는 금리인상 이후 가속화된 예금 유출에 대응하는 과정에서 대량의 뱅크런을 맞이했고 결국 당국은 SVB를 결국 페쇄했다. 모바일뱅킹을 통해 초고속으로 은행이 무너진 만큼 국내 인터넷전문은행들도 자유롭지 않을 수 있다는 우려가 커졌다.로이터 연합특히 지난주에는 한 인터넷은행이 내놓은 신상품을 놓고 일부 커뮤니티 사이트 등에 뱅크런을 막기 위해 수신을 유치하기 위한 전략이 아니냐는 우려섞인 글들이 올라오기도 했다.지난해 9월 말 기준 국내 금융사의 부보예금 중 5000만원 이하 예수자 비율이 전체의 98%에 달해 뱅크런 가능성이 없는 상황으로 파악된다. 한국신용평가 또한 “SVB가 국내은행들과 달리 유동성 관리에 취약한 예금구조를 갖게 된 것은 법인고객·거액예금·금융기관고객 비중이 높기 때문”이라며 “국내 은행은 유동성커버리지비율(LCR) 규제 대상에 해당하며, 모두 규제비율을 상회하고 있다”고 분석하기도 했다.특히 인터넷전문은행의 경우 BIS비율이 모두 규제비율을 상회하는 등 양호한 자본적정성을 기록 중이다. 금감원에 따르면 지난해 말 기준 BIS비율은 카카오뱅크 36.95%, 케이뱅크 13.94%, 토스뱅크 11.35%를 기록했다.자산건전성을 보면 지난해 말 기준 원화대출금 연체율은 0.62%를 기록했다. 시중은행 0.21%에 비해 높긴 하지만, 가계신용대출 연체율(0.77%)을 기준으로 볼 때 시중은행과 지방은행 사이로 큰 문제는 없다는게 중론이다.토스뱅크 또한 “지난 주말 사이 수신 잔액 변화는 크지 않은 것으로 확인했다”며 “이날 기준 토스뱅크의 여신 잔액은 9조3000억원, 수신 잔액은 23조2000억원으로 집계됐고 올해 하반기 손익분기점(BEP) 달성이 가시화된 상태”라고 밝혔다.금융위원회는 SVB 파산 사태 이후 김주현 위원장 지시로 예금보험공사 등과 뱅크런 발생 시 금융회사의 예금 전액을 정부가 지급 보장하는 방안에 관해 제도적 근거와 시행 절차를 살펴보는 중이다. 이복현 금융감독원장은 “미국 정부 및 감독 당국이 모든 예금자를 보호하기로 해 시스템적 리스크로 확대될 가능성은 제한적”이라고 언급한 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2023.03.20.</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>돈 잔치 비판에도 은행 예대금리차 확대 지속…KB·농협·우리銀 순</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000206841?sid=101</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>전북은행 가장 높아…5대 시중은행 중에서는 국민은행20일 전국은행연합회에 따르면 국내 17개 은행(산업은행·씨티은행 제외)의 정책서민금융 제외 가계예대금리차는 2월 기준 평균 2.30%포인트로 전월 대비 0.29%포인트 확대됐다. /더팩트 DB이자 장사 비판에도 지난달 예금과 대출의 금리 차이가 더 벌어진 것으로 나타났다. 5대 시중은행 중 예대금리차가 가장 높은 은행은 KB국민은행이었고 전체 은행권에선 전북은행이 가장 높은 것으로 집계됐다.20일 전국은행연합회에 따르면 국내 17개 은행(산업은행·씨티은행 제외)의 정책서민금융 제외 가계예대금리차(햇살론뱅크 등 정책서민 금융을 제외한 가계대출금리에서 저축성수신금리를 뺀 수치)는 2월 기준 평균 2.30%포인트로 전월(2.11%포인트) 대비 0.29%포인트 확대됐다.정책서민금융 제외 가계예대금리차는 지난해 10월(1.60%포인트) 이후 지난달까지 4개월 연속 상승곡선을 그렸다.17개 은행의 2월 평균 가계대출금리차는 6.06%로 전월(6.19%) 대비 0.13%포인트 낮아졌다. 반면 저축성수신금리는 같은 기간 3.92%에서 3.58%로 0.34%포인트 떨어졌다.5대 시중은행 중에서는 KB국민은행이 가장 높은 수준을 보였다. KB국민은행의 지난달 신규취급액 기준 가계 예대금리차(햇살론뱅크·햇살론15·안전망 대출 제외)는 1.48%로 공시됐다.이어 NH농협은행(1.46%), 우리은행(1.46%), 하나은행(1.32%), 신한은행(1.06%) 순이었다. 농협은행은 예대금리차가 전월 대비 0.02%포인트 상승했고, 우리·하나·신한은행은 각기 0.39%포인트, 0.29%포인트, 0.22%포인트씩 상승했다.이외 기타 은행은 sh수협은행(2.18%), SC제일은행(1.26%), IBK기업은행(1.13%), KDB산업은행(1.05%) 순이었다.인터넷전문은행 중에선 토스뱅크가 4.90%로 가장 높았다. 케이뱅크(2.04%)와 카카오뱅크(1.15%)는 상대적으로 낮은 수준을 유지했다.지방은행을 포함한 전체 일반은행 중에선 전북은행의 예대금리차가 6.48%로 가장 높았다. 다른 지방은행은 광주은행(4.52%), DGB대구은행(2.65%), BNK경남은행(2.52%), 제주은행(2.02%), BNK부산은행(1.53%) 순이었다.기업 대출까지 포함한 전체 예대금리차는 하나은행이 1.91%로 5대 은행 중 가장 높았다. NH농협·우리은행(1.81%), 국민은행(1.76%), 신한은행(1.40%) 등이 뒤를 이었다.발로 뛰는 더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2023.03.29.</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>국내은행, 美은행 1만원으로 112원 벌때 52원밖에 못벌어</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005451542?sid=101</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>국내은행 ROA 등 수익성 지표 美 절반도 안돼지난해 美 상업은행 1.12% VS 국내은행 0.52%"예대마진 등 NIM 낮고 수수료 공짜 인식 강해"마진 높은 신용대출 비중 20년간 12%p↓[이데일리 노희준 기자] 지난해 성과급 잔치를 벌인 국내은행이 수익성 측면에서 미국 상업은행의 절반에도 미치지 못하는 것으로 나타났다. 은행의 사회적 역할에 대한 기대가 큰 상황에서 이자이익 의존도가 높은 데다 마진이 높은 신용대출보다 담보 및 보증 대출 비중이 큰 것 등이 원인으로 지목된다. 다만 높은 이자이익 비중은 금리 상승기 투자 리스크를 줄이는 요소가 되기도 한다.[이데일리 문승용 기자]美은행 순이자마진, 韓의 1.8배28일 미국 예금보험공사(FDIC)에 따르면 지난해 제이모건 체이스 뱅크, 뱅크 오브 아메리카, 웰스파고, 시티은행 등 4대 은행을 포함한 미국 모든 상업은행의 총자산수익률(ROA)은 1.12%로 확인된다. ROA는 자산의 수익률로 당기순이익을 자산총액으로 나눈 수치다. 자산을 얼마나 효율적으로 굴렸는지를 보여주는 수익성 지표다.ROA가 1.12%라는 것은 1만원의 자산(자본+부채)을 굴려 112원을 번다는 의미다. 이는 같은 기간 지난해 국내은행 ROA 0.52%의 2배를 넘는다. 여기서 국내은행이란 KB국민·신한·하나·우리·NH농협은행 등 시중은행은 물론 지방은행에 카카오뱅크(323410)·케이뱅크·토스뱅크 등 인터넷은행, 산업은행 등 특수은행까지 모두 포함한 개념이다. 거꾸로 말하면 국내 은행의 수익성은 미국 은행의 46%로 절반에도 미치지 못하는 셈이다. 같은 1만원을 미국 은행이 굴리면 112원을 벌 때 국내은행은 52원밖에 벌지 못하기 때문이다.국내은행의 수익성이 미국 상업은행의 절반 수준에 그치는 것은 어제오늘 일은 아니다. 실제 시계열을 최근 5년으로 넓혀봐도 2018년부터 지난해까지 국내은행의 ROA가 미국 은행 ROA의 절반을 넘은 해는 2020년(ROA 0.71%, 59%)뿐이다. 나머지 모든 기간에는 40%~47%에 그쳤다.이렇게 국내은행의 수익성이 선진국과 비교해 떨어지는 것은 우선 대출금리와 예금금리 차로 발생하는 예대마진과 유가증권에서 발생한 이자, 채권 부도에 대비한 충당금 등을 반영한 순이자마진(NIM, 모든 금리부자산의 운용이익률)이 상대적으로 낮기 때문이다. 가령 지난해 국내은행의 순이자마진이 1.62%일 때 같은 기간 미국 상업은행의 순이자마진은 2.93%로 국내의 1.8배를 넘는다. 다른 해도 별반 다르지 않다. 한미 은행간 ROA 그래프와 NIM 그래프는 거의 비슷하다.“강한 공공성이 수익성 떨어트려”이혁준 나이스 신용평가 금융평가본부장은 “국내는 특히 은행이 공공재라는 성격이 강해 금리를 낮추려는 사회적 압력이 커 순이자마진이 낮다”며 “은행 서비스에 대한 공짜 인식이 강해 수수료 수익도 작아 이자이익 비중이 거의 90%에 달하는 것도 수익성이 떨어지는 이유”라고 설명했다. 지난해 국내은행의 총이익(이자이익+비이자이익)에서 이자이익이 차지하는 비중은 94%에 달한다. 미국 은행의 경우 이자이익과 비이자이익 비중이 6대4 정도 된다. 여기에 금리가 상대적으로 높은 신용대출보다 금리가 낮은 담보나 보증부 대출이 많은 것도 국내은행 수익성을 떨어트리는 요인으로 지목된다. 금감원 금융통계정보시스템을 이용해 국내 시중은행 담보별 대출 현황을 보면, 2001년 38.5%였던 신용대출 비중은 2021년 26.8%까지 11.7%포인트 줄어든 반면, 담보 및 보증 대출은 같은 기간 61.5%에서 73.2%로 그만큼 늘었다. 금융권 한 관계자는 “은행이 과점 구조에서 손쉽게 돈을 벌었다는 지적은 순이자마진이 낮고 수수료 수익을 벌기 힘든 국내 상황을 같이 봐야 한다”며 “이자이익에 집중된 수익구조가 금리 상승기 투자손실에서 파산에 이른 실리콘밸리은행(SVB)사태를 막아준 측면도 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2023.03.24.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>토스뱅크, 예금가입 즉시 이자 지급</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002286528?sid=105</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>금리 3.5%…인출 기간도 자유로워토스뱅크 가입과 동시에 이자를 받는 예금 상품을 출시한다고 24일 밝혔다.‘먼저 이자 받는 예금’은 정기예금이다.고객이 돈을 예금함과 동시에 이자를 준다. 예를 들어 1억원을 6개월 간(184일 기준) 맡기는 고객은 세전 금액인 약 176만 원을 즉시 받는다. 받은 이자는 고객이 원할 때 언제든 출금 가능하다.상품 금리는  연 3.5%다. 가입 최소 금액은 100만원이며 최대 10억원까지 맡길 수 있다. 예치 기간은 3, 6개월이다.만기를 채운 고객은 ‘자동 재가입’ 서비스를 통해, 최대 3번(최장 2년)까지 간편하게 재가입할 수 있다. 이때 적용되는 금리는 재가입 시점의 금리를 따른다.중도 해지 시에는 먼저 받은 이자에서 중도 해지 이자를 제외한 금액이 원금에서 차감된다.토스뱅크 관계자는 "먼저 이자 받는 예금은 고객들이 돈 모으는 재미를 즉시 느낄 수 있도록 했으며 동시에 필요에 따라 자금을 운용할 수 있는 상품으로 실질적인 목돈 마련에 기여할 것으로 보고 있다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2023.03.27.</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>한자리에 모인 인터넷뱅크 3사 대표</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003086809?sid=101</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>국민의힘 정책위원회가 주최하고 윤창현 의원과 인터넷전문은행 3사가 공동 주관하는 인터넷전문은행 5주년 기념 토론회가 27일 서울 여의도 국회 의원회관에서 열렸다. 윤호영 카카오뱅크 대표가 발언하고 있다. 왼쪽부터 서호성 케이뱅크 대표, 윤 대표, 홍민택 토스뱅크 대표.</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2023.03.22.</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>은행권 생체인증 의무화…알체라 얼굴인식 AI 잘나가네</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005447261?sid=105</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>[이데일리 김현아 기자]지난해 11월, 금융감독원이 ‘국내은행 내부통제 혁신방안’의 일환으로 생체인증 도입을 의무화하자, 알체라의 얼굴인식 인공지능(AI) 솔루션이 주목받고 있다.은행들이 금감원 지침에 따라 구체적인 내부통제 시스템 전략을 수립하면서, 생체인증 수단 중 정확성과 편의성이 높은 얼굴인식 AI 기술을 도입하고 있는 것이다.알체라의 AI를 통한 비대면 신원확인 솔루션은 토스뱅크, 현대해상 등에 제공됐다. 셀프카메라를 이용한 인증과 실시간 로그인, 계좌 개설 서비스에 활용하고 있다. 기존 1원 계좌인증이나 상담원과의 전화 연결 등으로 진행해야 했던 과정을 얼굴인증으로 대체하며 비대면 서비스의 제약을 해소하고 신속성과 정확성은 높이는 보안 시스템을 구축했다.알체라는 영상인식 AI 기업이다. 이 회사의 얼굴인식 AI는 카메라 외 별도의 인증 장치가 필요하지 않고 최초 등록으로 지속적 활용이 가능하여 기술 도입에 용이하다. 딥러닝 기술 발전에 따라 타 생체인증 수단인 지문, 홍채 인식과 비교하여 고성능의 기술 구현이 가능하고 시스템 구축 비용도 저렴하다.알체라의 얼굴인식 AI는 15년 이상의 노화에 따른 외모 변화, 화장, 안경 및 마스크 착용과 같은 여러 환경에서도 본인 여부를 정확하게 판별할 수 있다. 얼굴 위변조 방지 기술, 안티스푸핑(Anti-Spoofing)을 통해 사본 이미지 또는 동영상, 3D 마스크 등 다양한 방법의 부정 인증 시도를 방어한다.회사 관계자는 “자사의 얼굴인식 AI 기술은 ID와 PW의 한계를 뛰어넘는 고도화된 보안 수준을 자랑하며 업무 PC 로그인, 클라우드 자료 열람, 비공개 화상회의 입장 절차에 적용이 가능하다”고 말했다.황영규 알체라 대표는 “알체라는 글로벌 최대 안면인식 테스트(NIST)를 통해 세계적인 기술력을 입증했으며 내부통제는 물론 다양한 금융 서비스 영역에서 보안 솔루션으로 활용할 수 있다. 앞으로 금융 사고를 방지하고 국내 금융 관련 산업의 혁신을 이끌 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2023.03.20.</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>증권사 주총 본격화…'CEO 선임·깜깜이 배당개선' 주목</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000014761?sid=101</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>8개 증권사 대표 신규선임 및 연임유안타·키움 제외 배당절차 변경증권사들의 주주총회 시즌이 본격화하는 가운데 이번 주총의 핵심 키워드는 대표이사 선임과 배당절차 개선으로 요약할 수 있다. 다수 증권사가 변화보다 안정을 추구하면서 기존 사령탑을 유지하는 반면 일부는 경영진 교체를 통해 새로운 도약을 꾀한다.금융당국이 '깜깜이 배당' 개선을 권고하면서 대부분의 증권사가 배당금을 먼저 결정한 후 배당받을 주주를 정하는 정관 변경 안건을 주총에 올렸다. 해당 안건이 통과 후 시행되면 투자자들은 배당금을 먼저 확인하고 증권주에 투자할 수 있게 된다.2023년 증권사 신규 및 연임 대표이사/그래픽=비즈워치미래에셋·키움 등 대표 연임…다올·토스·한화 교체20일 금융투자업계에 따르면 이달 말까지 증권사들은 정기주총을 개최하고 주요 안건을 의결한다.우선 대표이사를 선임하기 위한 안건을 올린 증권사는 교보증권, 다올투자증권, 미래에셋증권, 키움증권, 토스증권, 한화투자증권, 현대차증권, SK증권(가나다 순) 등 8곳이다.교보증권은 이석기 사장을, 미래에셋증권은 최현만 회장과 이만열 사장을 대표이사로 재선임할 계획이다. 키움증권은 황현순 사장, 현대차증권은 최병철 사장의 대표이사 연임 안건을 올렸다.다올투자증권은 황준호 다올저축은행 대표를 신임 대표이사로 선임하는 안건을 올렸다. 황 대표는 36년 경력의 금융투자업계 대표적 전략통으로 평가받고 있다. 그는 대우증권 부사장과 다올투자증권 그룹전략부문 대표를 거쳐 현재는 다올저축은행 대표이사를 맡고 있다.토스증권은 영상공유 플랫폼 '틱톡'의 비즈니스솔루션을 담당한 김승연 총괄(제너럴 매니저)을 신임 대표로 선임하는 안건을 올렸다. 김 총괄은 온라인 플랫폼 및 마케팅 전문가로 틱톡에 몸담기 전 구글 아시아지역 마케팅을 총괄했다. 지난해 7월 대표이사에 올랐던 오창훈 토스증권 대표이사는 최고기술책임자(CTO)로 돌아갈 예정이다.한화투자증권은 한두희 한화자산운용 대표를 선임할 계획이다. 한 대표는 자산운용사, 증권사, 보험사를 오가면서 금융투자업계 내 풍부한 경험을 인정받고 있다.이번 주총에서는 대표이사뿐 아니라 신규 사내·사외이사를 선임하는 안건도 다수 올라왔다.미래에셋증권은 김미섭 글로벌 사업담당 대표를 사내이사로 선임하는 안건을 올렸다. 김 대표는 지난 1998년 미래에셋자산운용에 입사해 미래에셋그룹의 성장을 도운 창업 공신 중 한 명이다.현대차증권은 도신규 전무를 신규 사내이사로 선임할 계획이다. 도 전무는 현대차 재경사업본부장, 현대엔지니어링 재경본부장 등을 역임한 재무 전문가다.이베스트투자증권은 새 사내이사로 이주한 부사장을 선임하는 안건을 상정했다. 새로운 사외이사로는 나재철 전 금융투자협회장과 정갑재 전 금융감독원 금융교육협력관을 추천했다.하나증권은 전병조 전 KB증권 대표를 사외이사로 선임할 계획이다. 전 전 대표는 지난 1985년 제29회 행정고시에 합격해 기획재정부와 해양수산부에서 공직 생활을 한 경제관료 출신 금융인이다. 지난 2008년 NH투자증권 투자은행(IB) 부문 전무를 맡으며 금투업계에 발을 들였다.SK증권은 박태형 IB총괄 사장과 구자원 비서실장을 사내이사로 선임할 예정이다. 박 사장은 브릿지증권, 교보증권 임원을 거친 뒤 SK증권에 합류해 리테일본부장, 법인영업본부장, 자산관리(WM)사업부문장, IB총괄 사장 등을 맡았다.2023년 3월 증권사 주주총회 일정 및 주요안건/그래픽=비즈워치대다수 증권사, 깜깜이 배당 개선 나서이번 증권사 주총에서 또 눈여겨볼 만한 것은 '깜깜이 배당' 개선을 위한 정관 변경 안건이다. 이는 금융당국의 배당절차 개선방안과 법무부 유권해석을 고려한 것이다.현재 증권사들은 배당받을 주주를 먼저 결정하고 다음 해 열리는 정기주주총회에서 배당금을 확정한다. 따라서 투자자들은 배당금이 얼마인지 모르고 투자할 수밖에 없다. 이에 금융당국은 최근 배당절차 문제 개선 방안을 내놓고 증권사들에 깜깜이 배당 개선을 권고한 바 있다. 삼성증권, 한화투자증권, 교보증권, 미래에셋증권, 유진투자증권, 현대차증권, NH투자증권, 다올투자증권, 대신증권, 이베스트투자증권, SK증권 등이 배당개선 안건을 올렸으며, 지난 17일 주총을 진행한 삼성증권은 이미 배당개선 안건을 통과시켰다.이에 더해 NH투자증권은 분기 배당을 시행하기 위한 정관 변경 안건도 주총에 올렸다. 안건이 통과되면 NH투자증권은 3월, 6월, 9월 말 주주를 확정한 후 배당금을 지급할 수 있다.다만 유안타증권과 키움증권의 경우 이번 주총에 배당개선 안건은 올리지 않았다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2023.03.22.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>토스페이먼츠, 애플페이 국내 결제대행 파트너 선정</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002790311?sid=101</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>토스페이먼츠가 애플페이 파트너사로 선정돼 중소상공인이 클릭 한번에 애플페이를 도입할 수 있게 됐다. 토스페이먼츠 제공    토스페이먼츠는 애플의 근거리무선통신(NFC) 결제 서비스 '애플페이' 전자지급결제대행(PG) 파트너로 선정됐다고 22일 밝혔다.이에 따라 양사는 애플페이 온라인 결제망 구축 및 가맹점 모집, 결제 시스템 운영 등을 공동으로 진행한다. 토스페이먼츠는 간단한 추가 계약만으로 기존 가맹점들이 애플페이를 연동할 수 있도록 지원할 예정이다.토스페이먼츠는 가맹점이 자사몰에 애플페이를 쉽고 편리하게 도입할 수 있도록 적극 지원한다. 기존 가맹점은 간단한 추가 계약만으로 애플페이를 연동할 수 있도록 편의를 제공할 예정이다.토스페이먼츠는 모바일 금융 플랫폼 '토스'를 운영하는 비바리퍼블리카가 2020년 8월 LG유플러스의 전자지급결제대행 부문을 인수한 뒤 설립한 회사다. 애플페이의 전자지급결제대행 파트너사로는 토스페이먼츠를 비롯해 NHN KCP, KG이니시스, 나이스정보통신 등이 있다.김민표 토스페이먼츠 대표는 "토스페이먼츠는 높은 기술력과 보안 역량을 기반으로 다양한 글로벌 기업과 협력한 경험과 노하우를 보유하고 있다. 파트너사로서 애플페이의 한국 시장 안착과 성장을 도울 수 있도록 최선을 다하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2023.03.24.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>스마트폰이 곧 지갑…간편결제·송금액 20% 이상 늘었다</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001596193?sid=101</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>스마트폰에서 삼성페이를 통해 네이버페이 온라인 주문형 가맹점의 간편 결제를 이용하는 모습이다. 연합뉴스지난해 간편결제·간편송금 서비스의 하루 이용금액이 20% 이상 증가하며 각각 7000억원과 6000억원을 넘어섰다.한국은행이 24일 발표한 ‘2022년 간편결제·간편송금 서비스 이용 현황’을 보면 지난해 하루평균 간편결제 서비스 이용건수는 2342만건, 이용금액은 7326억원에 달했다.전년 대비 건수는 18.2%, 금액은 20.8% 늘어난 수준이다. 간편송금 서비스 이용건수와 이용금액은 전년 대비 각각 19.9%, 24.1% 증가해 520만건, 6259억원을 기록했다.간편결제·간편송금은 지난 2015년 3월 공인인증서 의무사용이 폐지된 후 도입된 것으로 비밀번호, 생체정보(얼굴·지문) 등 간편 인증수단을 이용해 결제와 송금이 가능하도록 한 서비스다.간편결제는 모바일에 미리 저장해둔 신용카드·은행 계좌 등의 정보 또는 충전한 선불금 등으로 결제하는 방법으로, 거래 시 비밀번호 입력이나 단말기 접촉 등만 필요하다. 삼성페이 등 휴대전화 제조사, KB국민은행과 신한카드 등 은행 및 신용카드사들이 주로 제공한다.간편 송금은 모바일을 통해 충전한 선불금을 전화번호, SNS 등을 활용해 보내는 서비스다. 시중은행과 토스뱅크 등 인터넷은행 외에도 네이버페이·카카오페이 등 IT업체, SSG페이 등 대형유통업체에서도 간편송금 서비스를 제공하고 있다.이번 조사는 2022년 말을 기준으로 전자지급서비스를 제공 191개 회사를 대상으로 진행됐으며, 167개의 전자금융업자와 24개 금융회사가 포함됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2023.03.18.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>‘제4 인터넷은행’ 나올까… 추가인가 논의 중 [뉴스 인사이드-‘금산분리 완화’ 논의 재점화]</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003793637?sid=101</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>네이버파이낸셜·키움증권 등 유력 후보 은행권 차지 비중 작아 실효성은 미지수 기존 고객 이동만 시키는 ‘제 살 깎기’ 우려   은행 과점을 깨기 위한 방안으로 제4 인터넷전문은행(인터넷은행) 도입이 거론되고 있다. 몇몇 업체가 유력한 후보로 언급되는 가운데, 이미 내부 검토에 들어간 곳도 있다. 다만 은행권에서 차지하는 인터넷은행의 비중이 작아 실효성은 미지수란 시각이다.  17일 금융권에 따르면 당국의 은행권 경영·영업관행·제도개선 태스크포스(TF)에서는 은행의 과점 해소를 위한 방안 중 하나로 인터넷은행 추가 인가를 두고 논의 중이다. 신규 사업자 진입을 허용해 과점 구도를 깨겠다는 복안에 시중은행·지방은행과 함께 인터넷은행의 인가도 검토되는 것이다.  인터넷은행 설립이 추가로 허용되면 기존 인터넷은행 3사(카카오뱅크·토스뱅크·케이뱅크)에 더해 사업자가 총 4곳으로 늘어나게 된다. 인터넷은행 추가 도입 소식에 핀테크 업계도 들썩이고 있다. 자본력과 고객 확보 능력 등을 고려했을 때 네이버파이낸셜과 키움증권이 유력한 후보로 떠오르고 있다. 네이버파이낸셜은 네이버페이 제휴 등을 통해 이미 금융 서비스를 제공 중이다. 키움증권은 2019년 인터넷은행 진출을 시도한 적이 있다.  이들 업체는 조심스러운 입장이다. 네이버파이낸셜 관계자는 “(TF에서) 구체적인 내용이 나온 것은 아니기 때문에, 공식 입장을 기다린 다음 (진출 여부를) 검토할 방침”이라고 설명했다. 키움증권 관계자도 “내부적으로 검토하고 있으나 정해진 바는 없다”고 말을 아꼈다.  신규 인터넷은행이 은행권의 구도를 깰 수 있을지에는 회의적인 의견도 많다. 인터넷은행의 업계 비중이 여전히 미미해 틈새시장 이상의 역할을 수행하지 못하고 있기 때문이다. 금융감독원 금융통계시스템에 따르면 지난해 9월 말 기준 인터넷은행 3사의 총자산은 전체 은행의 2.26%에 불과하다. 5대 시중은행(KB국민·신한·하나·우리·NH농협)의 62.06%와 비교하면 ‘덩치’가 20분의 1 수준이다. 막대한 설립 비용을 감당하며 진입할 업체가 현실적으로 많지 않다는 점도 한계로 지적된다.  이에 신규 인터넷은행이 시장에 진입하더라도 은행 과점 구도를 깨기보다는 기존 인터넷은행 내 고객 이동만 부추기게 될 것이란 전망도 제기된다. 한정된 시장에 업체 수만 늘어나, 각 인터넷은행이 영세화하며 은행권 내 영향력이 쪼그라들 가능성도 배제할 수 없다.  인터넷은행 업계에서는 기대와 우려가 교차하고 있다. 추가 인가로 경쟁이 활성화하면서 비중을 키울 수 있을 것이란 의견이 나오는 반면, 제 살 깎아 먹기가 될 수 있다는 걱정도 나온다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2023.03.22.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>토스페이먼츠, 애플페이 공식 PG 파트너사로 선정</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003086004?sid=101</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>토스의 페이테크 계열사 토스페이먼츠(대표 김민표)는 애플의 글로벌 간편결제 서비스 '애플페이'의 국내 공식 PG 파트너사로 선정됐다고 22일 밝혔다.이번 파트너십을 통해 양사는 애플페이의 성공적인 한국 시장 안착과 성장을 위해 온라인 결제망 구축 및 가맹점 모집, 결제 시스템 운영을 함께 진행한다.토스페이먼츠는 가맹점이 자사몰에 애플페이를 쉽고 편리하게 도입할 수 있도록 적극 지원한다. 이에 따라, 기존 가맹점은 간단한 추가 계약만으로 애플페이를 연동할 수 있도록 편의를 제공할 예정이다.또한, 전자결제 시스템 직접 연동, 결제 위젯 연동 등 가맹점의 기호에 맞는 다양한 연동 방식을 지원한다. 이중, 누구나 클릭만으로 간편결제 연동이 가능한 '결제 위젯' 서비스는 애플페이 도입을 위한 별도 개발 비용 부담이 없고, 쉽고 간편하게 신청할 수 있어 영세·중소 가맹점의 선호도가 높을 것으로 전망된다.김민표 토스페이먼츠 대표는 “토스페이먼츠는 높은 기술력과 보안 역량을 기반으로 다양한 글로벌 기업과 협력한 경험과 노하우를 보유하고 있다. 파트너사로서 애플페이의 한국 시장 안착과 성장을 도울 수 있도록 최선을 다하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2023.03.26.</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>"인터넷은행이 더 잘 깎아주네" 금리인하 수용률, 시중은행보다 인터넷은행이 2배 높다</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004986821?sid=101</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>/사진=연합뉴스[파이낸셜뉴스] 인터넷전문은행의 금리인하요구권 수용률이 시중은행보다 2배 가까이 높은 것으로 나타났다.   26일 윤창현 국민의힘 의원실이 5대 시중은행(KB국민·신한·우리·하나·NH농협은행)과 3대 인터넷전문은행(카카오·케이·토스뱅크)으로부터 받은 자료에 의하면 5대 시중은행의 신청 가능 계좌 대비 수용률은 평균 2.38%로 나타났다. 총 874만4128좌 가운데 20만7898좌의 금리인하가 받아들여진 것이다. 이에 비해 인터넷전문은행의 경우 총 571만7275좌 가운데 26만9413좌의 금리가 낮아지며 수용률은 4.71%를 기록했다.   신청률도 압도적인 차이를 나타냈다. 5대 시중은행은 전체 계좌의 6.33%(55만3872좌)가 금리인하요구권을 신청했으나 인터넷전문은행은 24.96%(142만7230좌)나 신청하면서 신청률이 4배 가까이 벌어졌다.   금리인하요구권 수용에 따른 금리 인하 폭도 시중은행은 0.13%포인트(p)~0.42%p지만 인터넷전문은행은 0.38%p~0.76%p에 분포돼 시중은행보다 금리 인하 폭이 높았다.   윤 의원은 "금리인하요구권은 법률로 보장되고 있는 금융소비자의 권리"라면 "시중은행들도 인터넷은행을 벤치마킹해 신청절차는 더 편하게 개편하고, 고객의 입장에서 한번 더 생각해 금리인하 수용률을 높이고 인하폭도 대폭 확대할 필요가 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2023.03.16.</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>“벌써 시즌12, ‘미드’ 아닙니다”…때마다 혜택 바뀌는 ‘알짜 체크카드’</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000041761?sid=101</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>카뱅 ‘프렌즈 체크카드’ 시즌 12, 10개 브랜드 월 1회 캐시백토스뱅크·케이뱅크는 영역별 일 1회 캐시백 체크카드 서비스업계 “시즌제 프로모션, 시장 트렌드와 고객 수요 반영 용이”(왼쪽부터) 케이뱅크 'MY 체크카드', 카카오페이 '카카오페이카드3', 토스뱅크 '토스뱅크카드'. [사진 윤형준 기자][이코노미스트 윤형준 기자] 최근 매년 체크카드의 인기가 점차 사그라드는 가운데도 인터넷은행과 핀테크 기업의 체크카드는 혜택이 전업 카드사들보다 좋아 눈길이 쏠린다. 인터넷은행·핀테크 업계는 혜택이 기간마다 바뀌는 ‘시즌제’를 적용했기 때문에 유연한 서비스 제공이 가능하다고 설명한다.15일 여신금융협회에 따르면 지난해 말 기준 유효기간이 활성화돼 있는 국내 체크카드 발급 수는 총 1억509만장이다. 2018년 말 최고치(1억1142만5000장)를 기록한 후 최근 5년 동안 꾸준히 감소한 것이다. 이는 코로나19 이후 비대면 금융이 활성화되면서 실물 카드 사용이 줄고, 여러 간편결제(페이) 시장이 급성장하면서 체크카드의 필요성이 축소됐기 때문으로 분석된다.하지만 이 같은 전반적인 체크카드 시장의 쇠퇴 추세와 다르게 인터넷은행과 핀테크 체크카드는 ‘카드테크(카드+재테크)’족들에게 인기다. 이들 체크카드는 기존 카드사가 3년 고정의 혜택을 제공하는 것과 다르게 시즌제를 선택해 수개월마다 혜택을 변경하는 것이 특징이다. 카카오뱅크 프렌즈 체크카드 캐시백 프로모션 시즌12. [제공 카카오뱅크]카카오뱅크는 지난 2월 1일부터 ‘프렌즈 체크카드’의 새로운 캐시백 프로모션 시즌12를 선보였다. 시즌12는 오는 7월 31일까지 적용된다. 시즌12의 혜택은 전월 실적 30만원을 채우면 혜택 브랜드별로 월 1회 캐시백을 받을 수 있다.대표적으로 쿠팡에서는 5만원 이상 결제 시 3000원을, 올리브영에서는 3만원 이상 결제 시 2000원을 받을 수 있다. 스타벅스의 경우 1만원 이상 결제 시 1000원을 돌려주며, 휴대전화요금도 5만원 이상일 시 3000원을 캐시백해준다. 이외에도 반려동물·배달·주유 등 총 10가지 브랜드에서 혜택을 받을 수 있다. 브랜드마다 최소 결제 금액과 최대 캐시백 한도가 다르니 체크해둘 필요가 있다.토스뱅크의 ‘토스뱅크카드’는 지난 1일 새로운 혜택 프로모션인 에피소드4를 시작했다. 에피소드4는 8월 31일까지 진행되며, 혜택 영역마다 하루에 한 번 캐시백해준다. 특히 에피소드3에는 없었던 ‘구독’ 영역이 추가됐다. 넷플릭스·디즈니플러스·쿠팡 와우멤버십·네이버플러스 멤버십이 해당된다. 건당 1만원 미만 결제 시에는 100원, 그 이상 결제 시에는 500원을 캐시백해준다.케이뱅크의 ‘마이(MY) 체크카드’의 경우 시즌제를 도입하지 않은 점이 눈에 띈다. 토스뱅크와 마찬가지로 일 1회만 캐시백을 받을 수 있다. 이 카드는 편의점·카페·패션·영화·도서·구독 등 10가지 영역에서 5000원 이상 결제할 때마다 300원을 할인받을 수 있다. 전월 실적 30만원을 채웠다면 캐시백 혜택은 500원으로 늘어난다.카카오페이 ‘카카오페이카드3’의 네 가지 디자인. [제공 카드고릴라]핀테크 관련 체크카드도 혜택이 다양하다. 카카오의 인기 캐릭터 라이언과 춘식이를 디자인으로 내세운 카카오페이의 ‘카카오페이카드3’는 지난해 7월부터 오는 6월 30일까지 적용되는 혜택인 ‘어디서나 적립팩’과 ‘MZ세대 라이프팩’ 중 선택해야 한다. 어디서나 적립팩은 전월 실적과 적립 한도 제한 없이 국내 모든 가맹점 0.3% 적립해주는 혜택이다. MZ세대 라이프팩을 고를 경우 9개 브랜드에서 포인트를 적립해준다. 이는 전월 실적에 따라 최대 적립 한도가 달라진다.NHN 페이코의 ‘페이코 포인트 카드’는 혜택이 매월 달라지는 게 특징이다. 이 카드는 기본적으로 온라인 1%, 오프라인 0.5% 페이코 포인트 적립 혜택을 준다. 여기에 매달 달라지는 다양한 브랜드에서 최대 10%(월 최대 1만점)를 적립해준다. 최대 적립 한도가 정해져 있기는 하나 횟수 제한이 없는 것이 큰 장점이다.카카오뱅크 관계자는 “인터넷은행은 온라인 채널을 통한 비대면 모집만 하므로 불필요한 광고·모집비용이 들지 않는다”며 “고객들이 당행 서비스를 더 자주 이용하게 되는 선순환 구조를 만드는 효과도 있다”고 설명했다.이어 “시즌이 바뀔 때마다 시장 트렌드와 고객 수요를 고려하여 혜택처를 변경할 수 있는 장점이 있다”며 “이번 시즌12에서도 코로나19를 경험하며 수요가 급증한 업종(인테리어)과 보다 많은 고객이 혜택을 받을 수 있는 일상 업종(병원)을 추가한 바 있다”고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2023.03.24.</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>토스뱅크, 이자 먼저 주는 정기예금 출시…연 3.5% 금리</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002695737?sid=101</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>3개월·6개월 만기 선택 가능토스뱅크 '먼저 이자 받는 예금' 이미지. ⓒ토스뱅크[데일리안 = 김효숙 기자] 토스뱅크는 가입과 동시에 이자를 받을 수 있는 ‘먼저 이자 받는 예금’을 출시한다고 24일 밝혔다.‘먼저 이자 받는 예금’은 연 3.5% 금리(세전, 만기일에 세금 차감)를 고객들에게 제공하며, 맡길 수 있는 금액 규모는 최소 100만 원에서 최대 10억원까지다.먼저 이자 받는 예금은 일종의 정기예금 상품이다. 일정 기간 돈을 보관했을 때 고금리를 제공한다. 언제든 돈을 넣고 뺄 수 있는 수시입출금식 보통예금과 달라, 자금을 안정적으로 묶어두고 높은 금리를 받고자 하는 고객들에게 유리하다.다만 시중은행의 정기예금과 달리, 먼저 이자 받는 예금은 고객들이 돈을 맡김과 동시에 즉시 이자를 받는 차별화된 경험을 제공한다. 가령 1억원을 6개월 간(184일 기준) 맡기는 고객은 세전 금액인 약 176만 원을 즉시 받는다. 받은 이자는 고객이 원할 때 언제든 출금 가능하다.예치 기간은 절반 이하로 줄였다. 고객들은 3개월·6개월 중 필요에 따라 이를 선택하면 돼, 자금 운용의 편의성이 강화될 것으로 보인다. 어느 기간을 선택하더라도 연 3.5% 금리는 동일하게 적용된다.토스뱅크는 인터넷전문은행 최초로 정기예금 상품의 이 같은 변화를 시도했다고 설명했다. 그동안 고객들은 만기까지 기다려야만 이자를 받을 수 있어 자금 운용 측면에서 제약이 있었다. 또 정기예금에 가입해 얼마의 이자를 받을 수 있는지도 한 눈에 파악하기 어려웠다.먼저 이자 받는 예금은 고객들이 즉시 받은 이자를 재투자에 활용하는 등 자유롭게 불릴 수 있게 했다. 또 안정적인 예치와 함께 고금리 예금의 강점도 투명하게 체감하게 했다.이로써 토스뱅크는 수시입출금(토스뱅크 통장), 적금(키워봐요 적금)에 이어 예금까지, 수신 상품 라인업을 한층 강화하게 됐다. 보유한 자금의 필요와 성격에 따라, 고객들은 얼마든지 돈을 나누고 보관하며 불릴 수 있다.토스뱅크 관계자는 "그동안 정기예금은 고객이 목돈을 굴리기 위한 수단이었음에도, 고객들이 매달 또는 만기일에 이자를 받기까지 기다려야 해 그 혜택이 직관적으로 전달되지 않았다"며 "토스뱅크의 먼저 이자 받는 예금은 고객들이 돈 모으는 재미를 즉시 느낄 수 있도록 했으며 동시에 필요에 따라 자금을 운용할 수 있는 상품으로 실질적인 목돈 마련에 기여할 것으로 보고 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2023.03.31.</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>알뜰폰 ‘KB리브엠’ 정식서비스 앞두고… “은행 진입하면 생존권 위협”</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000889832?sid=101</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>특례 만료 4월 16일 전 승인 여부 나올 전망 중소알뜰폰업계 “리브엠, 원가 이하로 사업해”상생 방안 찾아야 하지만 양측 입장차 커서울 시내에 위치한 알뜰폰 스퀘어 매장 모습. /뉴스1        시범운영 기간 종료를 앞둔 KB국민은행의 알뜰폰 사업 ‘KB리브엠’이 곧 정식 서비스로 승인될 가능성이 크다는 전망이 나온다. 금융 당국으로선 이 서비스가 금융사의 비이자이익을 확대할 방안인 데다가 과점인 통신 시장에서 경쟁을 촉진할 수 있기 때문이다. 그러나 중소 알뜰폰 업계가 크게 반발하고 있어 양측의 상생 방안을 마련하는 것이 관건이 될 것으로 보인다.31일 금융 당국에 따르면 KB리브엠은 다음 달 16일 금융규제 샌드박스 실증사업 특례기간이 만료된다. 국민은행은 현행법상 통신업을 부수 업무로 영위할 수 없자, 4년 전인 지난 2019년 4월 혁신금융서비스로 KB리브엠을 시작했다. 이후 국민은행은 2021년 서비스 기간을 한 차례 연장했고, 특례기간이 곧 만료되자 알뜰폰 사업을 은행의 부수 업무로 지정할 것을 금융위에 요청했다.금융위는 전날 산하 혁신금융심사위원회 소위원회에서 KB리브엠의 정식 승인 여부에 대한 논의를 진행했다. 소위원회는 혁신위 민간위원들이 모여 의견을 듣는 자리로, 승인 여부가 이날 결정되진 않았다. 금융위는 이를 시작으로 국민은행이 제시한 규제개선 요청을 승인할지 말지에 대한 결정을 서비스 종료 전주쯤 내릴 전망이다.전국이동통신유통협회(KMDA)와 금융노조 KB국민은행지부가 지난해 7월 21일 서울 종로구 금융위원회 앞에서 기자회견을 열고 KB국민은행의 알뜰폰(MVNO) 사업 철수를 촉구하고 있다. /뉴스1        당국의 결정은 승인 쪽으로 기우는 모양새지만, 관건은 대립각을 이어가고 있는 일부 통신사와 중소 알뜰폰 업계다. 통신3사 대리점을 회원사로 둔 전국이동통신유통협회(KMDA)는 “리브엠은 출범한 뒤 혁신 서비스는 보여주지 못하고, 원가 이하 요금제에 의존해 사업을 전개하고 있다”며 “알뜰폰 사업이 은행 부수 업무로 지정되면 중소 이동통신사 및 유통 관련 소상공인들이 타격을 입을 수 있다”고 주장하고 있다.국민은행이 계속 알뜰폰 사업을 영위하기 위해선 이들과 상생 방안을 모색하는 게 불가피하다는 분석이 나온다. 그러나 양측의 입장차가 커 적절한 합의점을 찾기가 어렵다는 게 관련 업권의 전언이다.금융권 관계자는 “그동안 국민은행과 통신업계가 상생하는 방법을 찾기 위해 회의를 많이 했는데, 지금까지도 결론이 나지 않았다”면서 “혁신금융심사위에서 중재안까지는 결정을 못 할 것 같다”고 말했다. 이어 “국민은행 측에선 (상생을 위해서) 할 수 있는 방안을 제시하겠다는 입장으로 알고 있다”고 말했다. 요금 하한선을 두는 방안 등이 유력하게 검토되는 것으로 전해졌다.국민은행은 알뜰폰 전용 할인 카드 출시, KB국민인증서 제공 등 다양한 상생 방안을 마련해 소통하고 있다는 입장이다. 국민은행 관계자는 “통신 시장의 메기 역할을 수행해 알뜰폰에 대한 소비자 인식 제고에 기여해 왔다”며 “소비자의 통신비 절감과 수준 높은 서비스 제공이 타 사업자의 이익 보전보다 우선시돼야 한다고 생각한다”고 설명했다.KB국민은행 서울 여의도 본점에 방문한 고객이 리브엠 무제한 요금제 가입을 위해 직원에게 상담 받는 모습. /LG유플러스 제공        이 관계자는 KMDA 등 통신업계의 지적에 대해선 “금융사의 알뜰폰 진출이 중소 유통 사업자의 생존권을 위협한다는 주장은 사실이 아니며, 과도한 규제는 되레 소비자 이익을 침해할 수 있다”고 반박했다. 중소 사업자의 생존권을 위협하는 것은 은행이 아니라 대리점을 통하지 않고 직접 단말기를 구입하는 자급제 시장의 성장과 통신시장의 변화에 따른 대리점의 역할 축소라는 주장이다.금융권에선 KB리브엠이 은행업 부수 업무로 정식 승인을 받으면 다른 은행도 본격적으로 알뜰폰 시장에 뛰어들 것으로 보고 있다. 하나은행은 지난달 초 알뜰폰 요금제를 출시했고, 신한은행도 KT와 전략적 파트너십을 맺고 지난해 알뜰폰 요금제를 내놨다. 토스는 올해부터 알뜰폰 사업을 하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2023.03.24.</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>간편결제 일평균 이용금액 7000억원 돌파...간편송금도 6000억원대</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002300635?sid=101</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>◆…한국은행 제공지난해 삼성페이와 네이버페이 등 간편결제 서비스의 일평균 이용금액이 20% 넘게 증가해 7000억원을 넘어섰다.   토스와 카카오페이 등을 통한 간편송금도 20% 넘게 늘어나면서 일평균 6000억원대를 기록했다.   한국은행이 24일 발표한 '2022년중 전자지급서비스 이용 현황'에 따르면 지난해 간편결제 서비스 이용실적(일평균)은 2342만건, 7326억원으로 전년대비 각각 18.2%, 20.8% 증가했다.   간편결제‧간편송금은 공인인증서 의무사용이 폐지된 2015년 이후 비밀번호, 지문인식, 얼굴인식 등 간편 인증수단을 이용한 결제 및 송금 서비스다. 한은은 '전자금융거래법'에 따른 전자지급서비스 통계와는 별도로 2016년부터 조사하고 있다.   간편결제 서비스 이용금액을 제공업자별로 보면 전자금융업자 비중이 2020년 45.7%, 2021년 49.7%로 지속 확대되다가 지난해 47.9%로 소폭 축소했다.   반면 전자금융업자의 간편결제 서비스 방식 중 카드 및 계좌에 연동해 미리 충전한 선불금을 이용한 비중은 2020년 27.7%, 2021년 29.4%, 2022년 33.8% 등 꾸준히 확대되는 모습을 보였다.   지난해 선불금 기반 간편송금 서비스 이용실적(일평균)은 520만건, 6259억원으로 전년대비 각각 19.9%, 24.1% 증가했다. 금융회사 이용금액은 일부 회사의 간편송금 서비스 종료로 감소했다.   지난해 전자금융업자와 금융회사가 제공하는 전자지급서비스 중 전자지급결제대행(PG) 및 선불전자지급수단 서비스 이용금액(일평균)은 전년대비 각각 16.4%, 24.5% 증가했다.   전자지급결제대행(PG)은 온라인 거래 증가로 신용카드 결제대행을 중심으로 이용건수(2366만건)와 금액(1조529억원)이 전년대비 각각 8.9%, 16.4% 증가했다.   선불전자지급수단은 간편결제·송금 이용 확대 등으로 이용건수(2708만건)와 금액(8289억원)이 전년대비 각각 13.6%, 24.5% 증가했다. 이는 전자금융업자의 간편결제 및 간편송금 이용실적이 꾸준히 증가한 영향으로 분석됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2023.03.16.</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>[금융 CEO 베스트50] 핀테크 1위 | 정태영 현대카드 부회장</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000080686?sid=101</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>뉴욕타임스·아멕스도 반한 ‘디지털 역량’이변이라면 이변이다. 정태영 현대카드 부회장이 매경이코노미 금융 CEO 핀테크 혁신 부문 1위에 올랐다. 윤호영 카카오뱅크 대표, 서호성 케이뱅크 행장, 이승건 비바리퍼블리카(토스) 대표 등 국내를 대표하는 핀테크 전문 기업 CEO보다 더 많은 표를 받았다. 모바일 금융이 아닌 전통 금융사 CEO가 핀테크 혁신 부문 1위에 오른 것은 4년 만이다. 1960년생/ 서울대 불어불문학과/ 매사추세츠공과대학(MIT) MBA/ 1987년 현대종합상사 기획실 이사/ 1996년 현대정공 미주·멕시코법인장 상무/ 2021년 현대카드·커머셜 대표이사 부회장(현)정 부회장이 주도한 ‘애플페이’ 도입이 국내 간편결제 생태계에 미칠 파급력을 높이 평가하는 분위기가 지배적이다. 지난 2월 현대카드와 애플코리아가 애플페이 국내 도입을 공식 선언한 데 이어 최근에는 애플 본사까지 국내 애플페이 서비스를 언급, 출시가 임박했다.다만 이번 정 부회장 1위 등극이 온전히 애플페이 도입 때문만이라고 보는 것은 무리가 있다. 그는 이미 2015년부터 ‘디지털 현대카드’를 선언하고 테크 강화에 전사적 역량을 쏟아왔다. 지난 5년간 6000억원에 달하는 투자를 통해 디지털 인프라를 마련했고 마이크로소프트·구글·IBM·페이스북 등 글로벌 IT 기업 우수 인재를 공격적으로 영입해 테크 기업으로 초석을 다졌다.실제 최근 현대카드 행보를 살펴보자면 금융사보다는 테크 기업에 더 가깝게 느껴질 정도다. 직접 개발한 IT 시스템을 해외에 수출하는가 하면 최신 기술 트렌드를 연구하기 위해 정 부회장을 비롯한 핵심 임원이 한 달 가까이 몸소 해외로 나가는 모습을 보이기도 했다. 현대카드는 지난 9월 현대카드 신용카드 IT 시스템 ‘H-ALIS’를 일본 내 신용카드 신규 사업자에 판매하는 계약을 맺었다. 10월에는 현대카드 PLCC(상업자 전용 신용카드) 파트너사 11곳과 함께 ‘이스라엘의 실리콘밸리’로 불리는 헤르칠야 등을 중심으로 활동하고 있는 유망 테크 기업 40여곳을 만나 각종 협약을 맺고 기술 검증을 진행한 바 있다.이제는 타 업종 기업이 현대카드와 데이터 기반 마케팅 협업을 하자며 먼저 요청해오는 상황이다. 지난 11월 미국 ‘뉴욕타임스’는 현대카드에 뉴욕타임스 디지털 콘텐츠 구독권 마케팅을 함께하자고 제안해왔다. 뉴욕타임스 구독권을  구입한 고객 데이터 분석과 이를 통한 AI 기반 마케팅을 추진하기로 했다. 뉴욕타임스가 신용카드사와 협업을 한 것은 글로벌을 통틀어도 현대카드가 처음이다.‘프리미엄 카드’ 대명사인 ‘아메리칸익스프레스(아멕스)’가 최근 현대카드와 단독으로 카드를 발급하기로 결정한 이유 역시 현대카드가 보유한 데이터 사이언스 역량 덕분인 것으로 알려졌다. 디지털 전환에 관심이 많은 아멕스가 현대카드가 갖추고 있는 데이터 분석 조직과 기술을 높이 평가, 13년간 인연을 맺어온 삼성카드 대신 현대카드와 손을 잡았다는 후문이다. 한 카드업계 관계자는 “현대카드와 아멕스는 데이터 사이언스 등 디지털 전략 차원에서 추구하는 바가 비슷하다”며 “정 부회장의 핀테크 혁신 노력이 단순히 기술 경쟁력을 제고하는 것은 물론 타사와 비즈니스 관계 형성에도 성과를 내고 있다”고 설명했다.[본 기사는 매경이코노미 제2200호 (2023.03.15~2023.03.21일자) 기사입니다]</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2023.03.17.</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>크립토까지 흡수한 챗GPT, GPT코인 올라타야할까? [엠블록레터]</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005103051?sid=101</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>[엠블록레터] 최근 챗GPT, Bing AI등 생성형 AI의 등장이 큰 돌풍을 일으키고 있습니다. 국내에서도 토스나 카카오톡 등 다양한 플랫폼 기업들 또한 이러한 추세에 맞춰 너도나도 자사 플랫폼에 생성형 AI를 적용하고 있는데요. NFT 프로젝트 중에서도 챗GPT를 활용한 블록체인 프로젝트가 등장했습니다. 이름하여 크립토GPT입니다.크립토GPT는 리플출신 개발자가 운영하는 프로젝트입니다. 자체 발행 코인 $GPT를 스테이킹하면 게임, 데이트, 운동 등 Dapp을 통해 확보한 사용자 데이터가 담긴 NFT, 캡슐을 받습니다. 캡슐은 3가지 능력치와 5개의 레어리티로 구분되어 있는데요. 이중 높은 희귀도를 가진 캡슐일수록 가치가 높다고 해요. 크립토GPT는 이렇게 모인 정보들을 AI 기업에게 판매하고 그 수익을 사용자들에게 보상으로 제공하는 AI 2 EARN의 구조를 가지고 있습니다.크립토GPT는 이름에서 알 수 있듯, Open AI가 개발한 챗GPT의 모델을 그대로 사용하고 있습니다. 크립토GPT의 운영진은 향후 AI 기업 뿐만 아니라 학계, 정부 혹은 개인 등이 크립토GPT에서 수집한 데이터를 기반으로 AI 모델을 구축할 수 있도록 할 것이라는 포부를 밝혔습니다. 모인 정보들에는 개인정보보호를 높여주는 ZK롤업을 적용해 보안성을 높인다고 하구요.크립토GPT는 미국 기준 이달 10일 11시에 자체코인 GPT를 발행했는데요. AI코인이라는 입소문에 힘입어 비트파이넥스, 바이비트, 비트겟 등 총 7개 거래소에 빠르게 상장되었습니다. 생성형 AI에 대한 전 세계적 관심이 얼마나 대단한지 몸소 보여주는 듯 한데요. 크립토GPT의 가상자산 GPT는 16일 오후 6시 30분 코인마켓캡 기준 개당 142.60원을 기록하고 있습니다.크립토GPT는 챗GPT, 미드저니, 달리 등의 생성형 AI가 무단으로 확보한 데이터를 가지고 학습하는 문제를 블록체인으로 풀 수 있다는 새로운 시각을 제시한 것에 의의를 둘 수 있겠습니다. 하지만 자사가 개발한 생성형 AI가 아닌 기존의 모델을 응용한 프로젝트라는 점에서 많은 아쉬움이 남습니다. 해당 프로젝트는 현재 챗GPT와 관련된 구체적인 계약 내용이 공개되지 않았기 때문에 아직 투자에 주의가 필요해 보입니다.&lt;엠블록레터(Mblock)&gt;[엠블록레터]는 매일경제 블록체인 전문 자회사 '엠블록컴퍼니(Mblock)'의 뉴스레터입니다. 엠블록컴퍼니가 만든 무료 뉴스레터를 구독하시면 디지털 자산 투자의 지침이 될 올바른 정보와 새로운 블록체인 기술 트렌드를 따라잡을 수 있는 심층분석을 수·금 아침 이메일로 받아보실 수 있습니다. 아래 주소로 접속하시면 구독 페이지로 연결됩니다.https://bit.ly/mblockletter</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2023.03.20.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>크래프톤 배틀그라운드, 변화 예고...2023년 로드맵 공개</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002285979?sid=105</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>일반 매치 개선, 신규 맵 출시, 아케이드 개편 및 클랜 시스템 등 추가크래프톤(대표 김창한)이 ‘PUBG: 배틀그라운드(PUBG: BATTLEGROUNDS)’의 2023년 주요 개발 계획을 공개했다고 20일 밝혔다.크래프톤은 라이브 방송을 통해 주요 개발진이 직접 배틀그라운드의 개발 로드맵을 소개하기 위해 개발자 토크(Dev. Talk)를 마련했다. 지난 18일 전 세계 이용자를 대상으로 진행된 행사는 올 한 해 동안의 인게임, 아웃게임 및 안티치트 관련 계획을 발표하고 이용자들의 질문에 답변하는 순으로 이어졌다.올해 배틀그라운드는 게임 코어 플레이를 유지한 채 모든 요소를 재점검하고 수리 및 개편하여 최종적으로는 장기 서비스의 초석을 다진다는 계획이다.일반 매치 개선부터 신규 맵 등 추가 예고게임에 대한 전반적인 스트레스를 줄이고 재미를 극대화하기 위해 일반 매치가 개선된다. 아이템 및 블루존, 차량 스폰을 개선해 전체 플레이 시간을 단축시키고 속도감을 높일 예정이다. 사망에 대한 부담을 줄이고 스쿼드 플레이를 유지하여 더욱 재미있게 게임을 즐길 수 있도록 새로운 형태의 부활 시스템도 추가된다. 또한 전략적인 플레이를 위한 전술 장비 개편도 마련됐다.경쟁전에도 새로운 변화가 적용된다. 기존의 8x8km 사이즈의 맵들이 모두 경쟁전에 적용되며, 일반 매치에서만 만나볼 수 있던 아이템 및 기능들이 추가된다. 이외에도 경쟁전 보상이 강화되고, 이스포츠와 룰셋이 동일하게 변경될 예정이다. 일반 매치와 경쟁전에 적용될 새로운 맵 로테이션 시스템은 다음 달 중 예정돼 있다.크래프톤, 배틀그라운드 2023년 개발 로드맵 발표.뿐만 아니라 올해 말에는 신규 맵 ‘네온(가칭)’을 선보인다. 네온은 세련된 빌딩이 즐비한 현대적인 도시부터 전통적인 과거의 향취가 배인 장소까지 만나볼 수 있는 맵이다. 지상, 공중, 수상 등 다양한 교통수단은 물론 네온 맵만을 위한 신규 시스템이 함께 추가될 예정이다. 배틀그라운드의 가장 오래된 전장인 에란겔과 미라마는 올 하반기에 업데이트된다. 해당 맵들의 고유한 컨셉을 유지하면서 대규모 업데이트와 신규 스팟을 추가할 계획이다. 그 외에도 튜토리얼 개편 및 모드 서비스를 확장하는 업데이트가 실시한다.아케이드 개편, 클랜 시스템 추가 등 아웃게임 업데이트색다른 게임 모드를 즐기기 원하는 이용자들을 위해 아케이드가 개편된다. 실험실(LABS) 전용 모드를 장기간 또는 상시 운영 콘텐츠로 아케이드에 포함해 이용자들이 원하는 모드를 선택하여 플레이할 수 있는 환경을 마련할 예정이다. 또한, 모드 플레이를 통해 포인트를 획득하고 아이템으로 교환할 수 있는 보상 시스템을 계획 중에 있다.많은 이용자가 기다려온 클랜 시스템도 추가된다. 외부에서 활동 중인 클랜이 아웃게임 영역에 추가되며, 이용자의 클랜 태그 및 플레이트가 인게임, PUBG ID 등 중요 영역 곳곳에 노출될 예정이다. 서바이버 패스는 올해 두 번에 걸쳐 개편된다. 많은 이용자가 가벼운 마음으로 패스를 즐길 수 있도록 보상 획득 구조가 변경되고 전반적인 난이도가 조정된다.성장형 무기 스킨은 올 하반기에 개편된다. 기존 스킨 개선, 무기 특정 부분의 색 변경, 오래전 출시한 성장형 무기 스킨을 복각하여 재출시하는 등 다양한 방향을 고려하고 있다. 이외에도 다채로운 스킨 컬래버레이션을 진행할 예정이다.불법 프로그램 대응에도 적극 나서불법 프로그램 근절을 위한 강경한 모니터링 및 대응도 이어간다.우선 대응 능력을 강화하기 위해 머신러닝 기술을 고도화하는 데 많은 노력을 기울일 예정이다. 불법 프로그램 계정 및 어뷰징 탐지, 배틀그라운드 자체 안티치트 솔루션 ‘자킨토스(Zakynthos)’와의 연동 등 더 넓은 영역에서 머신러닝 기술을 활용할 계획이다. 핵심 기술 모델을 개발하여 올 상반기 실행한다는 목표다.여기에 불법 프로그램 사용자와 기기의 게임 재진입을 차단하고, 이용자와 파트너들의 다양한 의견을 듣고 반영하기 위해 소통을 강화해 나간다고 회사 측은 약속했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2023.03.21.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>토스, 한국투자저축은행과 전자금융사기 예방 위한 업무협약 체결</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006695750?sid=101</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>(토스제공)(서울=뉴스1) 김정은 기자 = 모바일 금융플랫폼 토스를 운영하는 비바리퍼블리카(토스)가 한국투자저축은행과 전자금융사기 예방을 위한 업무협약(MOU)을 체결했다고 21일 밝혔다.이번 업무협약을 통해 토스는 자체 개발한 악성 앱 탐지 기능 '토스 피싱제로'를 제공하고, 한국투자저축은행은 제공 받은 솔루션을 시범 적용하여 보안체계를 더욱 강화한다는 계획이다.피싱으로부터 금융 소비자를 보호하기 위해 토스에서 자체 제작한 보안 솔루션인 토스 피싱제로는 지난해 4월 안드로이드용 토스 앱에 탑재됐다. 해당 기능은 권한의 적절성, 악성 행위 가능성 등 휴대전화에 설치돼 있는 앱의 악성 여부를 판단한다.토스 피싱제로는 화이트해커와 보안 전문가들로 구성된 토스의 보안기술팀이 자체적으로 개발한 '악성 앱 분석 자동화 시스템'을 활용한다. 보이스피싱을 통해 금융 피해를 유발하는 신종⋅변이 악성 앱을 실시간으로 탐지해 내는 것이 특징이다. 토스 보안기술팀은 최신 해킹 기술, 악성 앱을 통한 공격 트렌드 등을 연구한 결과를 반영해 해당 기능을 주기적으로 업데이트한다.단말기 내 악성 앱이 존재할 경우 앱 삭제를 권고하고, 삭제하지 않을 경우 금융 서비스 이용이 불가함을 안내해 안전한 환경에서 금융 서비스를 이용할 수 있도록 금융 소비자를 보호한다. 그 결과 지난해 4월부터 지난 1월까지 탐지한 악성 앱의 개수는 누적 약 68만 건 이상, 보호한 금융 소비자는 누적 10만 명 이상에 달하는 것으로 집계됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2023.03.26.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>금리인하요구권 수용률, 인터넷은행이 시중은행보다 2배 높아</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005449738?sid=101</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>윤창현 "시중은행, 금리인하요구권 실질화·활성화 대책 필요“[이데일리 정두리 기자] 인터넷전문은행의 금리인하요구권 신청률이나 수용률이 시중은행보다 높은 것으로 파악됐다.사진=연합뉴스고금리 시대에 예대마진으로 막대한 이익을 누리고 있는 시중은행에 대한 국민 여론이 좋지 않은 상황에서 금리인하요구권의 실질화·활성화를 위한 대책 마련이 필요하다는 지적이 나온다.26일 윤창현 국민의힘 의원이 5대 시중은행과 인터넷전문은행에서 받은 자료를 보면 지난해 5대 시중은행의 금리인하요구권을 신청할 수 있는 대출 계좌 870만여개 중 실제 신청이 이뤄진 계좌는 55만여개로, 평균 신청률은 6.33%였다. 실제 금리가 인하된 계좌는 20여만개(2.38%)에 불과했다.NH농협은행은 전체 신청 가능 계좌 160여만개 중 2만5000여개(1.56%)만 금리인하 신청이 이뤄졌다. 전체 신청 가능 계좌 대비 수용률은 NH농협은행이 1.01%를 비롯해 5대 시중은행이 평균 2.38%에 그쳤다.반면 인터넷전문은행의 금리인하요구권을 신청할 수 있는 대출 계좌 570여만개 중 실제 신청이 이뤄진 계좌는 142만여개, 실제 금리가 낮아진 계좌는 27만여개로 신청률과 수용률이 각각 24.96%, 4.71%였다.금리인하요구권 수용에 따른 금리 인하 폭을 살펴보면 시중은행은 0.13%포인트(우리은행)~0.42%포인트(NH농협은행)지만 인터넷전문은행은 0.38%포인트(카카오뱅크)~0.76%포인트(토스뱅크)에 분포돼 시중은행보다 금리 인하 폭이 높았다.윤창현 의원은 “시중은행들도 인터넷전문은행을 벤치마킹해 신청 절차는 더 편하게 개편하며 고객의 입장에서 금리인하 수용률은 높이고 인하 폭도 대폭 확대할 필요가 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2023.03.30.</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>국내은행 자본비율 0.41%p↑…환율 하락에 위험가중자산 감소</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011773145?sid=101</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>기사내용 요약지난해 12월말 국내은행 총자본비율 15.25%"全은행 규제비율 상회…부실 가능성 선제 대비"[서울=뉴시스]국내은행(은행지주회사 및 은행) 자본비율. (자료=금감원 제공) *재판매 및 DB 금지[서울=뉴시스] 김형섭 기자 = 국내 은행의 건전성 지표인 국제은행(BIS) 기준 자본비율이 환율 하락에 따른 위험가중자산 감소 영향으로 전분기 대비 상승한 것으로 나타났다. 금융감독원이 30일 발표한 '2022년 12월말 은행지주회사 및 은행 BIS기준 자본비율 현황'에 따르면 지난해 말 기준 국내 은행의 총자본비율은 15.25%로 전분기 대비 0.41%포인트 상승했다.총자본비율은 은행의 총자본(분자)을 위험가중자산(분모)으로 나눈 값이다. 비율이 높을수록 건전성이 좋다는 것을 뜻한다. 반대로 해당 비율이 줄었다는 것은 위험가중자산이 크게 늘었다는 걸 의미한다.보통주자본비율과 기본자본비율, 단기자본비율은 각각 12.57%, 13.88%, 6.18%였다. 역시 전분기 대비 각각 0.31%포인트, 0.38%포인트, 0.11%포인트씩 올랐다.다만 전년동기대비로는 총자본비율의 경우 0.28%포인트 하락했고 보통주자본비율과 기본자본비율도 각각 0.42%포인트, 0.30%포인트 낮았다.지난해 4분기 국내은행의 자본비율이 상승한 것은 결산배당 등 공제항목 증가 등으로 인해 자본이 감소하기는 했지만 환율하락 등에 따른 외화 익스포저(위험노출액) 감소 등으로 위험가중자산이 더욱 큰 폭으로 줄어든 데 따른 것이다.지난해 12월 말 기준 국내은행의 총자본은 전분기대비 1.4%(4조6000억원) 감소했으며 위험가중자산은 4.0%(89조1000억원) 줄었다.국내 은행은 보통주자본 7.0%, 기본자본 8.5%, 총자본 10.5%의 규제비율을 지켜야 한다. 여기에 금융체계상 중요한 은행(D-SIB)은 1%포인트의 규제비율이 추가된다. 단순기본자본 규제비율은 3.0%다.지난해 말 기준으로 모든 국내은행의 자본비율은 규제비율을 상회했다. 신한·하나·KB·DGB·농협·우리·SC·씨티·산업·수출입·수협·토스 등 12개 은행은 자본비율이 상승했으며 BNK·JB·케이·카카오·기업 등 5개 은행은 자본비율이 하락했다.은행 중에서 총자본비율이 가장 높은 곳은 카카오뱅크로 36.95%를 기록했으며 씨티은행과 농협은행이 각각 20.72%, 18.77%로 뒤를 이었다.총자본비율이 가장 낮은 곳은 토스뱅크로 11.49%이며 산업은행과 수출입은행이 각각 13.27%, 13.31%로 뒤를 이었다. 다만 토스뱅크의 경우 올해까지 바젤Ⅰ 적용으로 완충자본과 단순자기자본비율 규제를 적용받지 않는다.금융지주의 경우 총자본비율은 KB지주가 16.16%로 가장 높았으며 신한지주 15.99%, 농협지주 15.73%, 하나지주 15.67%, 우리지주 15.30% 등의 순이었다. 5대 금융지주를 제외한 나머지 지주는 DGB지주 13.93%, BNK지주 13.65%, JB지주 13.51% 등으로 집계됐다.금감원 관계자는 "국내은행의 자본비율은 전분기말 대비 상승했고 모든 은행의 자본비율이 규제비율을 상회하는 등 양호한 수준을 유지하고 있다"고 평가하면서도 "다만 최근 금융시장의 변동성이 확대되고 있고 대내외 경제여건도 악화되고 있는 만큼 향후 부실확대 가능성에 선제적으로 대비할 필요가 있다"고 진단했다.금감원은 대내외 경제 충격에도 은행이 건전성을 유지할 수 있도록 손실흡수능력 확충을 계속해서 유도할 예정이다. 국내은행의 자본비율 현황에 대한 모니터링을 한층 강화하고 자본비율이 취약한 은행에 대해서는 자본적정성 제고를 유도하는 동시에 경기대응완충자본(CCyB) 부과, 스트레스 완충자본 제도 도입 등도 추진할 계획이다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2023.03.31.</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>‘OO페이’, 영세업자에 카드사 대비 3배 수수료 받아</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003798191?sid=101</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>금융당국의 ‘간편결제 수수료율 공시 제도’ 시행에 따라 주요 온라인 간편결제 서비스의 수수료율이 처음 공개됐다. 이들은 평균 2%대 높은 수수료율을 매기고 있었고, 영세 사업장에는 카드사 대비 최대 3배 높은 수수료율을 적용하고 있었다.     금융감독원. 뉴스1    금융감독원은 간편결제 규모가 월평균 1000억원 이상인 업체 9곳의 수수료율이 각사 홈페이지를 통해 공시됐다고 31일 밝혔다. 대상 업체는 네이버파이낸셜(네이버페이), 쿠팡페이, 카카오페이, G마켓(스마일페이), 11번가(SK페이), 우아한형제들(배민페이), NHN페이코, SSG닷컴(SSG페이), 비바리퍼블리카(토스페이)다.     이들 업체의 선불결제 평균 수수료율은 2.00%(영세)~2.23%(일반), 카드결제 수수율은 1.09%(영세)~2.39%(일반)로 집계됐다. 금감원은 이번 수수료율 공시 제도 시행에 따라 빅테크 3사(네이버·카카오·토스페이)의 평균 수수료율이 2021년 대비 선불결제 0.29%포인트, 카드결제 0.49%포인트 인하됐다고 설명했다.     그럼에도 영세 가맹점은 여전히 높은 간편결제 서비스 수수료에 허덕이고 있는 것으로 나타났다. 여신금융협회에 따르면 연간 매출액이 3억원 이하인 영세 가맹점에서 카드사의 신용카드 결제 수수료율이 0.50% 수준인 반면 간편결제 서비스의 수수료는 0.84%~1.52%에 달했다. 배민페이를 운영하는 우아한형제들의 경우 영세 가맹점에서 카드결제 수수료율이 1.52%로 카드사의 3배에 달했다. 이어 11번가(1.30%), 카카오페이(1.21%), 쿠팡페이(1.03%) 순으로 높게 나타났다.     선불결제 평균 수수료율도 가맹점 규모를 고려하지 않고 수수료율을 측정하는 간편결제 업체가 많아 다소 높은 수준이었다. 우아한형제들의 선불결제 수수료율은 3.00%에 달했고 쿠팡페이 2.50%, G마켓 2.49%로 다소 높았다.     금감원은 주기적(반기별) 공시를 통해 소상공인 등이 결제 관련 수수료율을 투명하게 알 수 있도록 해 시장의 가격결정 기능에 따라 합리적인 수수료가 책정될 것으로 기대하고 있다.     카카오페이는 이날 소상공인 지원을 위해 영세 가맹점의 카카오페이머니(선불충전금) 수수료율을 인하한다고 밝혔다. 카카오페이머니 수수료율은 1.00% 내외로 측정될 것으로 보인다.     카카오페이 관계자는 “앞으로 온라인 영세·중소 가맹점 대상 카카오페이머니 수수료는 먼저 인하했던 카드 수수료 수준으로 낮아질 것”이라며 “소상공인의 경제활동을 지원할 수 있는 다양한 서비스와 정책들을 계속 만들어 가겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2023.03.31.</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>인뱅 3사, 실적 개선에도 악재투성이… 주가 부진·상장 철회에 위기설까지</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000889621?sid=101</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>카카오뱅크, 6개월째 2만원대 중반 갇혀케이뱅크는 기업가치 떨어지자 상장 철회토스뱅크는 저본건전성 우려에 위기설인뱅 3사, 금리 하락하면 실적 악화 가능성도국내 인터넷은행 3사가 시중은행들과 비교해 눈에 띄는 성장성이 보이지 않는다는 평가가 나오고 있다./조선비즈DB        카카오뱅크와 케이뱅크, 토스뱅크 등 국내 인터넷은행 3사가 금융 시장에서 투자 가치를 인정받지 못하고 있다. 시중은행과 비교해 지속적으로 성장할 만한 차별점이 눈에 띄지 않는다는 이유에서다.31일 금융감독원에 따르면 카카오뱅크는 지난해 당기순이익이 전년 대비 28.9% 증가한 2631억원을 기록했다. 케이뱅크는 836억원으로 지난해보다 순이익이 271.6% 급증했다.양대 인터넷은행의 실적이 눈에 띄게 개선됐지만, 금융 시장에서는 여전히 지속적인 성장성에 대한 의문부호가 가시지 않고 있다. 상장 초반 급등 후 줄곧 내림세를 보였던 카카오뱅크 주가는 실적 발표 이후에도 좀처럼 반등하지 못하고 있으며, 증시 입성을 노렸던 케이뱅크는 몸값이 추락하자 결국 상장을 철회했다. 카카오뱅크, 6개월째 2만원 중반…케이뱅크는 상장 철회        카카오뱅크는 30일 유가증권 시장에서 전날보다 0.62% 하락한 2만4100원에 거래를 마쳤다. 지난해 9월 중순 2만5000원대까지 주가가 하락한 후 6개월 넘게 2만원대 중반을 뚫지 못한 채 공모가보다 훨씬 낮은 가격에 거래되고 있다.카카오뱅크는 지난 2021년 8월 상장 당시 성장성이 클 것이라는 기대를 모으며 화려하게 출발했다. 상장 당일 공모가 3만9000원을 훌쩍 뛰어넘은 6만9800원으로 거래를 마친 카카오뱅크는 줄곧 상승세를 보이며 8월 20일에는 9만4000원까지 치솟았다. 당시 자사주를 싼값에 취득한 카카오뱅크 직원들이 얼마나 큰 돈을 거머쥐었는지 유추하는 글이 여러 인터넷 커뮤니티에 올라오기도 했다.그러나 카카오뱅크는 이후 이렇다 할 성장동력이 없다는 지적이 잇따라 나오면서 주가가 내리막길을 걷기 시작했다. 카카오뱅크가 ‘국민 메신저’ 카카오톡을 기반으로 하고 있지만, 시중은행이 이미 모바일뱅킹에 대한 대규모 투자를 통해 불편한 점을 상당 부분 개선하면서 인터넷은행으로서 갖는 강점이 상당 부분 퇴색했기 때문이다.카카오뱅크 측은 비대면 개인사업자대출 등에서 먹거리를 찾겠다고 밝혔지만, 금융 시장에서는 시중은행과 비교해 이렇다 할 차별화 전략이 없다는 지적이 잇따랐다.케이뱅크는 지난해부터 상장을 추진했지만, 예상보다 몸값이 크게 하락하자 결국 지난 2월 준비 작업을 중단하고 상장을 미루기로 했다. 올해 들어 기업가치가 지난해 같은 기간의 절반 수준으로 떨어지면서 결국 상장을 철회한 것이다.두나무가 운영하는 비상장주식 거래 플랫폼인 증권플러스 비상장에 따르면 29일 기준 케이뱅크 비상장 주식의 최근 거래액은 1만800원으로 추정 시가총액은 4조575억원을 기록했다. 케이뱅크 비상장 주식 가격은 지난해 3월 30일 2만3400원에서 절반 이하로 떨어진 상태다.카카오뱅크 상장 후 주가 추이(단위 : 원)  토스뱅크는 때아닌 ‘위기설’ 휩싸여        인터넷은행 3사 중 가장 늦은 지난해 10월부터 영업을 시작한 토스뱅크는 최근 위기설에 휩싸이기도 했다. 만기가 오기 전 예금에 대한 이자를 먼저 받는 방식의 신규 예금상품을 지난 24일 출시한 후 오히려 여러 인터넷 커뮤니티와 소셜미디어(SNS) 등에서 자본건전성에 대한 우려가 쏟아진 것이다.토스뱅크는 자본건전성 지표인 국제결제은행(BIS) 기준 자기자본비율이 시중은행과 인터넷은행 가운데 가장 낮은 수준이다. BIS 자기자본비율은 위험가중자산에 대한 자기자본비율로 이 지표가 높을수록 건전성이 양호한 것으로 평가된다.토스뱅크의 BIS 자기자본비율은 지난 2021년 12월 말 36.71%에서 지난해 9월 말에는 11.4%로 불과 3분기 만에 3분의 1 이하로 떨어졌다. 9월 말 기준 카카오뱅크의 BIS 자기자본비율은 37.1%, 케이뱅크는 14.5%를 각각 기록했다.논란이 확산되자, 홍민택 토스뱅크 대표가 직접 나서 “유동성커버리지비율(LCR)이 시중은행보다 8배 높은 833.5%로 유동성에 아무런 문제가 없다”며 진화에 나섰지만, 소비자들의 불안감은 쉽게 가라앉지 않은 상황이다.카카오뱅크·케이뱅크·토스뱅크 BIS 자기자본비율 추이/금융감독원  새 먹거리 확보 난항 속 리스크 관리도 고민        인터넷은행은 출범 초반 시중은행들의 과점 구조를 개선할 ‘메기’가 될 것이라는 기대를 받았다. 그러나 막상 뚜껑을 열고 보니 시중은행들과 비교해 오랜 기간 성장세를 이끌 만한 차별화 된 수익 구조가 부족하다는 혹평에 휩싸였다.지난해 카카오뱅크와 케이뱅크의 실적이 개선된 것도 시중은행과 같이 금리 인상으로 예대마진(예금과 대출의 금리 차)이 급증했기 때문이라는 분석이 나온다. 반대로 얘기하면, 기준금리 인상 기조가 마무리되고 금융 당국의 지속적인 압박으로 예대마진 수익이 줄어들 경우 인터넷은행의 성장세도 크게 꺾일 수밖에 없다는 것이다.한화투자증권은 지난달 카카오뱅크에 대해 본질적 가치에 비해 주가가 고평가돼 있다며, 매도 의견을 제시했다. 현대차증권 역시 “부동산 규제 완화 등 정책적 뒷받침과 기저효과 영향 등으로 부동산 대출은 증가하겠지만, 성장률 전망치가 높아지기 어렵고 기업의 기초체력(펀더멘털) 개선 기대감도 약하다”고 분석했다.토스뱅크의 경우 성장성보다 오히려 리스크를 걱정해야 한다는 의견도 많다. 카카오뱅크, 케이뱅크의 경우 전체 자산의 절반 이상이 대출자산으로 구성된 데 비해 토스뱅크는 자산을 주로 채권 등 유가증권에 투자했기 때문에 채권 가격이 하락할 경우 뱅크런 위기를 겪을 수 있다는 것이다. 지난해 9월 말 기준 토스뱅크의 총자산은 27조3588억원으로 이 가운데 유가증권 비중은 64%에 해당하는 17조6040억원을 기록했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2023.03.31.</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>전자금융업자 수수료 공시…선불결제 수수료율 평균 2%대</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011456356?sid=101</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>네이버파이낸셜·쿠팡페이 등 온라인 전자금융업자를 대상으로 하는 간편결제 수수료율 공시 제도가 오늘부터 시행됩니다.금융감독원에 따르면 공시 대상인 9개 업체의 선불결제 수수료율은 평균 2.00∼2.23%로 나타났습니다.이들 업체의 카드결제 수수료율은 평균 1.09∼2.39%였습니다.공시 대상 업체는 간편결제 규모가 월평균 1천억원 이상인 업체로, 네이버파이낸셜, 쿠팡페이, 카카오페이, G마켓, 11번가, 우아한형제들, NHN페이코, SSG닷컴, 비바리퍼블리카 등입니다.금융감독원은 그동안 온라인 간편결제 관련 정보가 부족해 소상공인들이 협상 과정에서 부담을 느낀다는 지적 등을 반영해 지난해 12월 간편결제 수수료 공시 가이드라인을 마련했습니다.공시 대상 업체는 매 반기 말로부터 한 달 안에 각 사 홈페이지에 수수료율을 공시해야 합니다.금감원은 "앞으로 반기별 공시를 통해 소상공인 등에 결제 관련 수수료율 정보가 투명하게 제공될 것"이라고 말했습니다.특히 이번 수수료율 공시 제도 시행에 따라 네이버파이낸셜·카카오페이·비바리퍼블리카(토스) 등 빅테크 3사의 수수료율이 지난해보다 하락하는 효과가 나타났습니다.지난해 2.02%였던 빅테크 3사의 선불결제 수수료율 평균은 0.29%p 하락하며 이날 기준 1.73% 수준이었습니다.특히 간편결제의 대부분을 차지하는 신용카드 기반 간편결제 수수료율은 기존 1.95%보다 0.49%p 내린 1.46%로 나타났습니다.금감원 관계자는 "기준금리 인상으로 어려워진 경제 상황을 고려해 그간 업계에서 소상공인 부담을 완화하고자 수수료율 인하 노력을 기울인 결과로 보인다"고 평가했습니다.금감원은 이번 공시 시행으로 간편결제 사업자 간 자율적인 경쟁이 촉진되면서 시장의 가격 결정 기능에 기반해 합리적인 수수료가 책정될 것으로 전망했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2023.03.31.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>[시선집중] 탁현민 "블핑 정도로 안보실장 날아갈 수 없어.. 질 바이든 언급은 美에 결례"</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/214/0001263278?sid=100</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>&lt;탁현민 전 청와대 의전비서관&gt; -- 대통령 보고 누락이 문제? 원래 최종 결정 전까지는 보고하지 않아-- 안보실장이 보고할 내용도 아냐.. 굳이 보고한다면 의전비서관-- 美, 우리 측에 협조 구할 수는 있겠지만 7번 요청은 비상식적 -- 질 바이든 여사 실명 거론은 美에 결례.. 미국도 달갑지 않을 것 -- 블랙핑크 레이디가가를 만찬에? 아티스트에도 결례.. 디너쇼도 아니고-- 후쿠시마 오염수 발언? 공개 일정이면 통상 전속팀이 촬영-- 동영상 있다면 대통령 발언 확인하면 될 일 ■ 방송 : MBC 라디오 표준FM 95.9MHz &lt;김종배의 시선집중&gt;(07:05~08:30)■ 진행 : 김종배 시사평론가■ 대담 : 탁현민 전 청와대 의전비서관☏ 진행자 &gt; 김성한 국가안보실장이 사퇴하기까지 일련의 과정을 두고 참 여러 가지 이야기가 나오고 있습니다. 도대체 사퇴한 배경이 뭐냐를 두고도 별별 추측이 지금 난무하고 있는 상황인데요. 이 분은 이 상황을 어떻게 보고 있는지 궁금해서 전화연결을 하도록 하겠습니다. 탁현민 전 청와대 의전비서관 전화로 연결합니다. 나와 계시죠?☏ 탁현민 &gt; 안녕하세요? 오랜만입니다.☏ 진행자 &gt; 워낙 어지러운 장면이 연출되고 있는데 일단 어떻게 지켜보세요. 총평을 해주신다면.☏ 탁현민 &gt; 일단 믿기지가 않고요. 예를 들어 블랙핑크와 레이디가가의 공연 문제 때문에 안보실장이 흔한 이야기로 이제 날아갔다는 게 도저히 사실은 있을 수 없는 일이라고 보고 이런 식의 일은 이전 정부에서는 그냥 의전비서관 정도 선에서 진행되거나 결정되는 일이었지 그게 안보실장이 직접적으로 관여가 되거나 그 문제에 대한 책임이 있다고 생각이 들지 않거든요.☏ 진행자 &gt; 바로 우리 탁현민 비서관 인터뷰를 저희가 추진했던 이유가 바로 시스템으로 어떻게 돌아가는지를 이해하기 위해서 인터뷰를 부탁드린 거니까 지금부터 그거에 질문 드릴게요. 아무튼 블랙핑크와 레이디가가의 합동 공연이 추진이 됐는데 5번인지 7번인지 이것도 보도가 엇갈리는데 여러 차례 보고 누락이 있었다. 그런데 일단 여기서 이 건 같은 경우는 대통령한테 보고가 되는 사항입니까?☏ 탁현민 &gt; 아니죠. 왜냐하면 문화행사잖아요. 지금은 두 가지 중에 한 가지로 보여지는데 하나는 만찬 때 어떤 여흥을 돋우기 위한 장치로서의 문화행사, 그리고 이건 제 추측입니다만 하나는 아예 양쪽 여사들이 참석하는 별도의 문화행사 둘 중에 하나일 확률이 높은데 그 어떤 것도 최종적으로 다 결정이 되기 전까지는 대통령께 보고하지 않죠.☏ 진행자 &gt; 그렇습니까?☏ 탁현민 &gt; 의제라든지 이를 테면 반도체 문제라든지 이런 정말 이번 국빈 방문에서 거두어야할 어떤 중요한 사안이 아니잖아요. 이건. 말 그대로 국빈 방문의 일부인 장치로서의 어떤 프로그램들이잖아요. 그렇기 때문에 최종적으로 완성되기 전에는 그 과정을 보고하는 일은 없었죠. 이전 정부에서는.☏ 진행자 &gt; 확정이 되면 그때 일정상☏ 탁현민 &gt; 이런 걸 하기로 했다 혹은 이렇게 이렇게 진행을 할 계획이다. 왜냐하면 여기는 사실은 대통령의 의사가 별로 개입될 여지가 없어요. 이를 테면 블랙핑크 우리나라에 어울리지 않아 이런 거 아니면 개인의 취향으로 공연하는 게 아니잖아요. 이게. 무슨 예술적인 행사가 아니니까.☏ 진행자 &gt; 그러면 보고 누락이라는 이런 표현부터가 일단 성립이 안 된다는,☏ 탁현민 &gt; 제가 보기에는 그렇습니다.☏ 진행자 &gt; 당연히 보고돼야 되는 게 빠졌다라고 할 때 보고 누락이 성립이 되는 거니까 표현이.☏ 탁현민 &gt; 그리고 이건 안보실장이 보고할 내용도 아니에요.☏ 진행자 &gt; 누가 보고를 해야 됩니까? 그러면.☏ 탁현민 &gt; 굳이 얘기한다면 보고를 한다면 의전비서관이 보고를 해야죠. 안보실장이 블랙핑크를 얼마나 알겠어요.☏ 진행자 &gt; 두 번째, 보고누락이란 것을 의역해서 보도를 보면 주미대사관에서 여러 차례 확인 요청이 들어왔는데 제대로 답변이 없었던 걸 갖고 보고누락이라고 해석할 수 있을 것 같은데 이건 이 현상은 어떻게 이해해야 되는 겁니까?☏ 탁현민 &gt; 그 부분도 사실 조금 이상한데 예를 들어서 우리가 미국에 국빈으로 가는 거잖아요. 그러면 거기에 따른 모든 준비는 미국이 하는 거예요. 예를 들어서 가수를 초청한다고 해도 미국의 역할이고 그 가수에게 들어가는 모든 비용도 미국이 부담하는 게 상식적이죠. 그런데 한국 정부나 우리 용산에 누구를 데리고 와달라고 7번이나 요청했다는 것 자체도 저는 이해가 안 가요. 이상하잖아요. 우리가 국빈으로 가는데 누굴 데리고 와달라고 계속해서 요청했다는 게.☏ 진행자 &gt; 그럼 이 경우에는 블랙핑크 섭외해야 되잖아요. 섭외주체가 어디가 되는 겁니까? 이런 경우에는.☏ 탁현민 &gt; 이게 진짜 애매한 거죠. 원래는 미국이 해야 하는 일인데 한국의 가수이니 한국 쪽에서 데려와 줄 수 있겠느냐고 의사를 타진해볼 수 있겠지만 그것을 7번이나 집요하게 요청했다는 건 조금 상식적이지 않죠.☏ 진행자 &gt; 그렇게 봐야 되는 거고. 하나 더 보도에 따르면 이 행사를 질 바이든 여사가 제안했다는 건데 통상적인 문화행사가 아니라 상대국의 영부인이 제안한 만큼 무게가 있으니까 대통령한테 보고를 했어야 되는데 누락됐다, 아마 이런 얘기를 하는 것 같은데 이건 어떻게 이해해야 될까요?☏ 탁현민 &gt; 그것은 만약에 그게 사실이어도 한국 정부에서 공식적으로 할 수 있는 말의 한계선은 미 국무부가 한미 친선을 위해서 한국 쪽 가수를 요청했다 이 정도 얘기할 수 있죠. 그게 누구라든지 혹은 질 바이든 여사의 실명이 등장한다든지 이것은 좀 결례에 가깝죠. 왜냐하면 미국도 시스템이 있는데 미국의 영부인이 특정가수를 집어서 그것도 여러 차례 요청했다는 게 미국 입장에서 공개되는 게 달갑지 않을 거 아니에요. 그런데 그걸 이렇게 물론 언론 보도이기는 하지만 이렇게 노출되는 게 적절한가, 이런 판단을 해야 될 것 같아요. 실제로 그랬을 수도 있지만 그건 실무자들 사이에서 이게 이렇게 중요해 이 정도 중요하고 이 정도 관심이 많은 사항이니까 한국 정부가 조금 데려와 줄 수 있겠니 이렇게 요청을 하더라도 그것을 이렇게 공개하는 거는 또 전혀 다른 문제죠.☏ 진행자 &gt; 이게 또 공개가 되는 것 자체도 문제가 있다고 지금 말씀하시는 거네요.☏ 탁현민 &gt; 좀 과해 보이잖아요. 누가 봐도.☏ 진행자 &gt; 아무튼 지금 탁현민 비서관의 평가에 따르면 일반적인 시스템이나 통상적 절차에 기초해서 본다면 이해할 수 없는 현상이 지금 벌어지고 있는 거다 이런 말씀이신 거고.☏ 탁현민 &gt; 그렇죠. 그리고 또 하나 간과할 수 없는 게 지금 둘 중에 하나라고 제가 말씀드렸잖아요. 밥 먹는 자리에 부르든지 아니면 별도의 문화행사든지. 근데 만약에 밥 먹는 자리에 부르는 거였다면 그거는 아티스트에 대해서도 결례에 가깝죠. 사실은 블랙핑크나 레이디가가가 식사자리에서 노래하는 경우가 제가 알기로는 없거나 없다고 봐야죠. 디너쇼 이런 데서 하는 것도 아니고.☏ 진행자 &gt; 무대가 필요한 거 아닙니까? 무대가.☏ 탁현민 &gt; 무대도 필요하고 퍼포먼스를 하기 위한 조명 여러 장치들 그 다음에 레퍼토리도 사실 중요해요. 왜냐하면 거기서 어떤 노래 불렀는지가 또 어떻게 해석될 수 있는 거 아니에요. 그러니까 그런저런 여러 복잡한 문제들이 있기 때문에 저는 아무리 생각해도 이게 만찬장에서 기획했다고는 볼 수가 없을 것 같아요. 별도의 문화공연이 준비하려고 했었고 그 자리에 양국 여사들이 가는 그렇게 진행하다가 뭔가 문제가 생긴 거 아닌가라는 생각이 자꾸 듭니다.☏ 진행자 &gt; 그래서 하여간 이 우여곡절이 있었는데 최종적으로 하기로 한 건지 안 하기로 한 건지 지금 사실은 약간 불분명한 부분이 있는데 만약에 최종적으로 하기로 결정이 됐으면 그때는 이 행사 준비는 외주로 빼는 경우가 일반적입니까?☏ 탁현민 &gt; 행사 준비를 어디로 뺀다고요?☏ 진행자 &gt; 그러니까 전문업체에게 외주를 맡기느냐고요.☏ 탁현민 &gt; 아니요. 전문업체라는 건 영상 음향 그 다음에 조명 무대 이런 것들을 전문업체를 쓰는 거고요. 출연과 레퍼토리 이른바 연출의 영역은 전문업체를 쓸 수가 없죠. 왜냐하면 이게 외교행사가 돼버렸잖아요.☏ 진행자 &gt; 그럼 이거 외주로 빼는 게 아니라는 말씀이시네요.☏ 탁현민 &gt; 외주를 주되 그것은 기술적인 부분 테크니컬한 부분을 외주를 주는 거지 내용에 대한 부분 어떤 노래를 할지 또 어떤 거기서 이제 멘트도 하잖아요. 가수들이 어떤 메시지를 낼지 또 그 자리에서 어떤 퍼포먼스를 할지는 적어도 이전 정부에서는 제가 직접 관여를 했거나 이렇게 해야지만 사고가 없죠. 안 그러면 돌발적인 무엇인가가 나올 수 있잖아요.☏ 진행자 &gt; 총괄 모든 것들을 컨트롤하고 하는 것은 의전비서관실에서 해야 된다 이런 말씀이신 거죠.☏ 탁현민 &gt; 의전비서관실과 미국의 국무부 의전관실이 하고 그 외에 아주 기술적인 부분들은 미국 쪽 회사를 쓰는 게 절차상 맞죠. 왜냐하면 미국 현지에서 벌어지는 거니까 이 문제의 진실은 이 행사가 다 실제로 이루어졌다 치고 다 종료된 다음에 여기에 소요되는 예산을 어느 정부가 부담했느냐를 보면 누구 쪽이 먼저 제안한 건지 그리고 누가 가장 이 행사를 원했는지를 알 수 있을 거라고 봐요.☏ 진행자 &gt; 이 문제와 관련해서 외교비서관의 역할이 있습니까? 의전비서관 말고 외교비서관.☏ 탁현민 &gt; 통상적으로 이게 정상적으로 진행이 됐다면 미국 국무부가 그런 요청을 현지에 있는 미 대사관에게 해요. 그럼 미 대사관은 그것을 전문으로 써서 미국 정부가 이런 걸 요청하고 있다라고 안보실로 보내요. 그러면 안보실에서는 그것을 담당하는 게 외교비서관 그리고 안보실 1차장 그리고 안보실장까지 가겠죠. 그런데 안보실은 이 문제에 있어서 전문성도 없고 본인들 영역의 일도 아니에요. 그렇기 때문에 당연히 받자마자 그냥 의전비서관실에 토스를 하거든요. 그럼 의전비서관실이 의사결정을 한 후에 다시 안보실을 통해서 대사관을 거쳐서 미국 정부에 알리는 프로세스.☏ 진행자 &gt; 제가 여쭤본 이유가 의전비서관 사퇴 말고 외교비서관도 지금 교체가 됐잖아요. 뭔가 문제가 있었으니까 교체를 한 거 아니겠습니까?☏ 탁현민 &gt; 저는 블랙핑크나 레이디가가의 문제가 아니라는 나름의 확신이 있어요. 이 정도 일로 외교비서관과 안보실장이 날아갈 수가 없고요. 이것은 의전비서관이 날아갈 수는 있을지 몰라도 그 이상의 책임자가 없어요.☏ 진행자 &gt; 아무튼 지금 거의 모든 건 이 공연으로 지금 맞춰져 있으니까 그럼 저도 일단은 거기로 한정을 해가지고 한번 추가 질문을 드려보고 싶은 게 의전비서관이 윤석열 대통령이 일본으로 가기 직전에 사퇴한다라는 이야기가 있었거든요. 그리고 이게 아마 돌아보니까 이 문제하고 연관된 게 아니냐라는 추측이 나오는데 그런데 지금 그 다음에 외교비서관 그 다음에 안보실장이 차례로 지금 사퇴를 했는데 이 문제 때문이라면 왜 시간차가 발생했을까가 사실은 풀리지 않는 문제인데 이건 어떻게 해석을 해야 될까요?☏ 탁현민 &gt; 풀리지 않으니까 저는 그 문제가 아니라고 생각하는 거죠. 그리고 이건 사실은 우리 쪽이 먼저 제안을 했다면 미국 쪽이 좋다, 그러면 그냥 진행하면 되는 문제예요. 우리 쪽이 먼저 제안했다면 우리가 블랙핑크 섭외도 이미 어느 정도 가닥이 잡혔고 또 해외에서 행사하려면 공연장도 잡아야 되고 여러 가지 일들이 있거든요. 그게 어느 정도 됐거나 자신이 있기 때문에 제안을 했을 거 아니에요. 그리고 미국 쪽이 오케이를 했다면 무리 없이 진행하면 되는 일이고 만약에 반대로 미국 쪽이 제안했다면 실무적으로 검토해서 이건 이렇게 까지 할 일은 아니다 라고 판단해서 의전비서관 선에서 킬해도 되는 일이거든요. 이전 정부에서는. 그러니까 양쪽으로 어느 걸 봐도 이 문제 때문에 의전비서관부터 안보실장까지 줄줄이 사퇴를 했다고 볼 수 없죠.☏ 진행자 &gt; 외교비서관의 직속상관이 안보실 제1차장 맞죠?☏ 탁현민 &gt; 그렇죠. 저희 때는 2차장이었고 지금은 1차장입니다.☏ 진행자 &gt; 지금 1차장이 김태효 차장 아닙니까?☏ 탁현민 &gt; 네, 그렇게 알고 있습니다.☏ 진행자 &gt; 만약에 외교비서관이 어떤 귀책사유가 있어서 교체가 됐다면☏ 탁현민 &gt; 1차장이 지휘 책임이 있죠.☏ 진행자 &gt; 지휘 책임이 있는 건 1차장이 되는 거죠?☏ 탁현민 &gt; 그렇죠.☏ 진행자 &gt; 그런데 1차장은 건너뛰고 지금 안보실장이 사퇴하게 된 거잖아요.☏ 탁현민 &gt; 그렇죠. 이상한 일이죠. 예를 들어 의전비서관의 직속상관은 비서실장이에요. 편제상. 그 다음에 안보비서관이나 외교비서관의 직속상관은 1차장이고 1차장의 직속상관은 안보실장이고 지휘 책임을 묻는다면 1차장에게 묻는 게 맞죠.☏ 진행자 &gt; 참 이해가 안 되는 구석이 여러 가지가 있어서.☏ 탁현민 &gt; 명확하게 설명들을 안 해주니까 자꾸 추측을 하게 되는 것 같아요.☏ 진행자 &gt; 알겠습니다. 추측의 영역은 최대한 제한해서 질문을 드렸고요. 다른 거 몇 가지 짧게 여쭤볼게요. 지금 윤석열 대통령이 일본 가서 정치인들을 만났을 때 무슨 이야기가 나왔다 안 나왔다 지금 논란이 되게 많은데, 윤석열 대통령이 정치인을 만나서 이야기를 나누는 게 영상으로 촬영이 되거나 속기가 되는 겁니까, 안 되는 겁니까?☏ 탁현민 &gt; 원칙대로 하면 해외에서 만날 때는 전속이 따라가요. 전속은 대통령을 기록하는 팀이죠. 두 가지죠. 사진 전속이 있고 영상 전속이 있고. 아주 아주 비밀스러운 별도의 회담이나 혹은 대화가 아니고 공개적인 일정이면 전속은 촬영을 하게 돼 있습니다. 이전 정부까지는 그렇게 했어요. 그리고 그 기록들이 다 남아 있을 거고.☏ 진행자 &gt; 그러니까요. 그러면 이 자리에서 워딩이 정말로 어떻게 했는지는 얼마든지 확인해서 공개할 수 있는 거 아닌가요? 그러면.☏ 탁현민 &gt; 확인할 수 있죠. 만약에 촬영 자체를 안 했다면 모르지만 통상적으로 공개되는 일정에 전속팀, 기자들은 못 들어와도 전속팀은 들어가니까.☏ 진행자 &gt; 뉴스를 보면 일본 정치인들을 만날 때 윤석열 대통령이 악수하면서 인사 나누는 영상은 이미 뉴스를 이미 탄 바가 있거든요. 풀 영상이 있다고 볼 수 있는 거 아닙니까?☏ 탁현민 &gt; 그렇죠. 전체풀이든 아니면 주요 발언이든 최소한 대통령의 발언이 담겨 있는 영상은 있어야 하죠. 그거는 기록이잖아요.☏ 진행자 &gt; 하나만 더요. 지금 새로 제기된 의혹이 하나 있는데 새해 업무보고 과정에서 특정업체가 수의계약을 통해서 이걸 연이어 진행했다는 지금 문제 제기가 나왔는데 이건 어떻게 이해를 해야 되는 겁니까?☏ 탁현민 &gt; 제가 왜 그 비슷한 문제로 많은 공격을 받았었잖아요. 이전에, 근데 대통령의 행사 중에 수의계약이 가능한 게 있어요. 예를 들면 외교행사 같이 비밀스럽게 해야 한다거나 아니면 아주 시급하게 결정이 된다거나 이번 주에 결정해서 다음 주에 해야 한다거나 이런 식의 일들, 그런 것들을 제외하고는 전부 다 비딩을 하거나 아니면 그 해당 부처에서 자신들이 정한 기준에 따라서 선정하게 돼 있죠. 그런데 저도 그 뉴스를 봤는데 대통령 업무보고는 시급한 일이 아니었고 또 비밀스럽게 하는 일도 아니잖아요. 그런데 수의계약 또는 특정업체가☏ 진행자 &gt; 여러 건을 따냈다는 거잖아요. 여러 건.☏ 탁현민 &gt; 그것은 살펴볼 필요가 있죠.☏ 진행자 &gt; 알겠습니다. 시간이 다 돼서 마무리를 해야 될 것 같은데 뭔가 정리가 되는 건 없네요. 알겠습니다.☏ 탁현민 &gt; 답을 알고 있는 분들이 얘기를 안 하시니까.☏ 진행자 &gt; 그러니까요. 마무리할게요. 고맙습니다.☏ 탁현민 &gt; 네, 감사합니다.☏ 진행자 &gt; 탁현민 전 청와대 의전비서관과 함께했습니다.[내용 인용 시 MBC &lt;김종배의 시선집중&gt;과의 인터뷰 내용임을 밝혀주시기 바랍니다.]</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2023.03.24.</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>"경제 어려울수록 잘 팔린다"…감자 하나로 세계 제패한 '램 웨스턴(LW)' [조연 기자의 바이 아메리카]</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001091088?sid=101</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>미래 우주 식량으로 단 하나의 작물을 키운다면?영화 '마션'에서 홀로 고립된 우주인 맷 데이먼은 화성의 흙과 자신의 인분을 이용해 감자를 키우고 놀랍게도 4년간 생존해 나가죠.감자 요리는 맛있는게 많습니다. 그 중에서도 전 감자튀김 '푸틴'을 제일 좋아하는데요.오늘 이야기 할 이 기업, 한 해 감자튀김만 5조원어치 넘게 전 세계로 팔고 있습니다.뉴욕 주식시장에서 생소하지만 궁금한 기업을 조금 더 가까이 들여다보는 '바이 아메리카'오늘은 '맥도날드 감튀'로 유명한 기업, 물가가 높아지면 소비도, 인기도 오르는 주식'램 웨스턴'(티커명: LW) 입니다.우리나라 식탁에 김치가 빠질 수 없다면, 미국과 유럽, 서구권에서 빼놓을 수 없는 Side dish는 감자 아닐까요?오븐 구이, 으깬 감자, 감자 그라탕, 감자칩, 그 중에서도 최고는 단연 감자튀김이죠.램 웨스턴이 전 세계로 매일 판매하는 감자튀김은 무려 8천만개 라는데요."감자튀김 파는 회사가 많이 팔아봐야~"라고 생각하실수도 있지만, 햄버거와도 먹고, 치킨과도 먹고, 스테이크와도 함께 먹고, 쉐이크에도 찍어먹고.. 감자튀김은 여러 음식들과 떼어놓을 수 없는 매력이 있습니다.램 웨스턴의 최근(2023 회계연도 2Q) 매출은 27%, 순이익은 무려 217%나 증가했습니다. 주가는 1년 전보다 96% 늘어났고요.시가총액은 144억달러, 우리 증시에 넣어보자면 단숨에 신한금융지주를 제치고 바로 시총 19위까지 자리할 수 있습니다.월가의 전설적 테크 투자자 체이스 콜먼이 창업한 타이거글로벌, 이 헤지펀드는 기술주 담기로 유명한데요. 팬데믹 기간 오히려 테크투자를 제대로 실패하면서 역대급 손실률을 기록했습니다.그런 타이거글로벌의 지난 3분기 신규 투자처로 램 웨스턴을 택해서 눈길을 끌었죠.또 드러켄밀러가 이끄는 듀케인오피스도 에너지 주식 대거 처분하고 램웨스턴 주식을 95만주 가까이 담기도 했습니다.'고인플레 시대', 글로벌 큰 손 투자자들이 램웨스턴을 주목한 이유는 무얼까요?먼저 최근 1년새 감자튀김 가격이 두 배나 올랐습니다.일전에 프랜차이즈마다 감자튀김 품절 대란이 일어났던 것 기억하시죠?그 이유 바로 이 주인공 때문입니다. '감자'요.이상 기후로 인한 감자 수확량 감소는 감자 가격, 그리고 감자튀김 가격 급등으로 이어졌습니다.지난해 미국산 감자 가격은 1파운드 당 1달러대에서 2.15달러로 뛰었는데, 이는 지난 5년간 상승률을 훨씬 뛰어넘는 수준입니다. (자료 - 포테이토스 USA)여기에 물가가 높아질수록 소비자들이 감자튀김을 더 찾는게 공식이라고 하죠.고급 레스토랑의 음식 가격이 더 비싸졌고, 요즘 팁도 퍼센티지가 많이 올랐거든요. 아무래도 맥도날드 같은 패스트푸드들이 불황 압력을 덜 받게 됩니다.'램 웨스턴' 이 이름이 우리에겐 익숙하지 않지만, 사실 감튀업계 대장 입니다.맥도날드 프라이즈가 램웨스턴이라면 말 다했죠. 참고로 맥도날드는 전 세계 어느 매장에서나 같은 맛을 내는 것을 추구하기에 램 웨스턴 제품이 세계 곳곳에 들어갑니다.세계 감자튀김 시장에서 43%의 마켓쉐어를 차지하고 있고, 경쟁자로는 맥케인(30%), 심플로트(20%) 등이 있는데, 둘 다 비상장회사입니다.무엇보다 램 웨스턴은 냉동감자 식품의 제조 기술을 선도한 기업인데요. 지금 우리가 먹는 스틱형 감자튀김 제조법을 만든 곳입니다.아주 옛날의 감자튀김은 지금의 모양이 아니고, 고속도로 휴게소에서 자주 보는 통감자구이에 가까웠다고 해요.그러다 램 웨스턴의 창업자, 길버트 램이 1950년 ''Water gun knife'라는 커팅 기계를 발명하게 됩니다.물총 펌프를 통해 십자 형태로 되어진 칼날을 감자가 지나치면서 우리에게 익숙한 형태의 감자튀김이 만들어지는데, 이 기계는 감자튀김 공정 스탠다드가 되죠.이후에도 램 웨스턴은 스프링 모양의 '컬리 프라이즈', 감자 한면을 와플모양으로 자르는 '크리스 컷츠', 한입 크기에 '테이터 텃츠', 그 외에도 크링클, 웨지 등등 다양한 제품군으로 확장해 나갑니다.또 유대교 율법을 따른 코셔(Kosher)와 이슬람의 할랄(Halal) 감자튀김도 만들어 파는 등 새 제품 발명을 멈추지 않아서, 파이낸셜타임즈는 '포테이토베이션(Potatovation·감자와 혁신 합성어)'이라는 별명을 붙여주기도 했습니다.냉동감자 시장의 규모는 지난해 기준 627억 5천만달러로 오는 2028년까지 연평균 성장률 4.2%를 나타낼 것이란 전망입니다.(인사이트 파트너스 자료)특히 램 웨스턴이 높은 순이익 증가를 기록할 수 있었던 것은 가격 전가력이 높아, 인플레이션이 심화에도 높은 마진율을 유지하는 것이 가능한겁니다.여기에 현금 배당금으로 3,500만달러를 지급, 분기 배당금을 14% 인상하는 등 최근 주주 보상을 늘리고 있다는 점도 주목됩니다.현재 주식은 선행 PER의 22배에 거래되고 있으며, 시장 컨센서스는 램 웨스턴이 올해도 두자릿수 성장률을 이어갈 것으로 예상하고 있습니다.월가의 투자의견은 'Strong Buy', 뱅크오브아메리카는 115달러를 비롯해 평균 목표가는 111달러를 나타내고 있습니다.램 웨스턴이 어닝콜에서 강조한 단어가 있습니다. 바로 '감자튀김 애착율(Fry Attachment Rate)'인데요."레스토랑 방문객 숫자가 줄어들어도, '감자튀김 애착율'은 팬데믹 이전 수준을 웃돌고 있다"고 설명한 겁니다.다시 말해, 경제 상황이 나빠지고 지갑이 덜 열리고 있지만, '소확행' 감자튀김으로 얻는 행복은 소비자들이 놓치지 않고 있다는 거죠.금융위기 이후 최악의 경제 위기가 드리웠지만, 그럼에도 작은 행복, 작은 행운이 함께 하길 바랍니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2023.03.27.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>토스뱅크 “여신 9조원·수신 23조원… 하반기 흑자전환 전망”</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000888235?sid=101</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>예대율 44%로 전년보다 4배 개선토스뱅크 제공        인터넷전문은행 토스뱅크는 출범 1년 6개월 만에 600만 고객을 넘어섰다고 27일 밝혔다.토스뱅크의 여신잔액은 지난 26일 기준 총 9조3000억원, 수신잔액은 총 23조2000억원으로 나타났다. 특히 지난해 3월 2조6000억원이던 여신 잔액은 1년새 4배 가까이 늘며 수익성 개선을 견인했다.예대율은 44%에 달하며 전년 동기(12.4%) 대비 4배 가까이 개선됐다. 토스뱅크는 올 하반기 손익분기점(BEP)을 달성해 흑자 전환에 성공할 수 있을 것으로 전망하고 있다.자본도 빠르게 확충하고 있다. 토스뱅크는 지난해에 이어 올해까지 선제적인 유상증자 단행을 통해 총 1조6500억원의 자본금을 확충하며 여신 성장을 뒷받침했다. 특히 최근에는 한국투자캐피탈이 증자에 참여 의사를 밝히며 주주사로 합류할 예정이다.토스뱅크의 이날 기준 유동성커버리지비율(LCR)은 833.5%로, 토스뱅크는 약 14조5000억 원의 고유동성자산을 확보하고 있다. 이는 평균(100%)을 유지하는 시중은행 대비 8배 이상 높은 수치다.또 순안정자금조달비율(NSFR)도 208%로 시중은행 대비 2배 가까이 높아, 장기간(1년 이상) 필요한 은행의 보유자산에 따라 안정적으로 자금을 조달할 수 있는 것으로 나타났다.아울러 이날 기준 토스뱅크 가입 고객은 605만명을 넘어섰다. 이는 전년 동기(3월) 235만명 대비 약 2.6배에 달해, 이례적인 성장세를 유지했다. 약 7초에 1명, 토스뱅크의 고객이 됐다는 게 회사 측의 설명이다연령대 별로 보면 토스뱅크의 고객 중 20대가 26.8%로 가장 많았다. ▲30대(23.1%) ▲40대(22.8%) ▲50대 이상(20.4%)이 근소한 차이를 유지했다. 10대의 경우 7%로 가장 적었는데, 이는 은행 가입 고객 연령이 만 17세 이상으로 제한된 영향이라는 게 토스뱅크 측의 설명이다.토스뱅크 관계자는 “토스뱅크는 안정적인 자본 확충과 보유 여신 대비 안정적인 수신고를 바탕으로 성장하며 올해 BEP 달성이 가시화 되고 있다”며 “고객 중심적인 혁신 서비스와 고객의 금융 주권을 생각한 서비스와 상품으로 성장세를 이어갈 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2023.03.28.</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>인터넷은행 “경쟁 위해 큰 폭 규제 완화해달라”···금융당국 “과점체제 깨야 하긴 하지만···”</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003213687?sid=101</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>정부가 은행 간 경쟁 촉진을 위한 정책을 추진하자 인터넷전문은행이 각종 대출 규제를 풀고 대면 채널을 허용해 줄 것을 요구하고 나섰다. 금융당국은 시중은행 중심의 과점 체제를 완화하려면 인터넷은행의 역할이 중요하다고 보면서도 설립 취지에 반하는 규제까지 완화하는 것에는 난색을 표하는 것으로 전해졌다. 미국 실리콘밸리은행(SVB) 파산 사태로 대내외 불확실성이 커진 상태라 대규모 규제완화에 대해서는 부담도 크다.28일 금융권에 따르면 인터넷은행 3사(케이, 카카오, 토스)는 시중은행과 공정한 경쟁할 수 있도록 규제 완화와 특례 적용을 해 달라는 요구를 금융당국과 정치권에 하고 있다.이들은 지난 27일 국회에서 윤창현 국민의힘 의원과 공동으로 인터넷은행법 제정 5주년 기념 토론회를 열고 그동안의 성과를 평가하고 요구사항을 내놨다. 지난 23일에는 금융위원회가 인터넷전문은행협의회가 제출한 건의사항을 공개하기도 했다.인터넷은행은 대환대출 플랫폼 활성화를 위한 규제 완화, 중금리대출(중저신용자대출) 비중 목표 완화, 대면 업무와 상장지수펀드(ETF) 중개 허용, 방카슈랑스 판매 한도(25%) 확대 등을 요구하고 있다.김소영 금융위 부위원장이 주재하는 은행권 경영·영업 관행·제도 개선 태스크포스(TF)는 각 업권과 전문가 의견을 모두 참고한 후 6월까지 최종 방안을 확정할 예정이다.금융위는 TF의 활발한 논의를 위해 이해당사자도 자유롭게 건의할 수 있다는 입장이다. 지방은행과 협업하는 공동대출 방안은 검토를 공식화하기도 했다.그러나 금융위 내부적으로는 인터넷은행의 무리한 요구가 적지 않다는 분위기이다.오는 5월에 출시되는 대환대출 플랫폼으로 대출을 갈아탈 때 차주별 총부채원리금상환비율(DSR) 규제를 적용하지 말아달라는 게 대표적이다. 인터넷은행은 차주(돈을 빌리는 사람)가 더 좋은 조건의 대출로 갈아탈 수 있도록 플랫폼으로 갈아타는 대출은 DSR 규제 대상에서 제외해달라고 주장한다. 금융권에서는 DSR 규제가 사실상 사문화되는 데다 머니무브(자금이동)가 가속화해 안정성에 문제가 될 수 있다는 지적이 있다.중금리대출 취급 목표를 낮춰달라는 요구는 애초 인터넷은행의 설립 취지와 어긋난다는 비판이 나온다. 각 인터넷은행의 중금리 대출 비중은 지난해 말 기준 25~40%였고 올해 말 목표치는 30~44%이다. 업계는 고신용자 판매 규모를 늘려야 시중은행과의 금리 경쟁이 가능해지고 시중은행보다 높은 인터넷은행의 연체율도 낮출 수 있다고 주장한다.인터넷은행은 집단대출이나 기업 수신 계좌 개설 등을 위해 대면 업무를 허용해달라는 주장도 하고 있다. 현행법은 인터넷은행의 비대면 영업방식을 금지하고 있다.한 금융권 관계자는 “인터넷은행은 중금리대출 활성화가 도입 목적 중 하나였고 인가 조건도 자본금 요건 등을 낮추는 대신에 비대면 방식만으로 영업할 수 있게 한 것”이라면서 “기존에 받은 혜택은 유지하면서 부족한 부분은 시중은행 수준으로 높여달라는 것”이라고 말했다.또 다른 금융권 관계자는 “SVB 사태로 건전성과 유동성 관리가 중요해진 만큼 영업 확장을 위한 인터넷은행 규제 완화는 신중해야 한다”고 말했다.반면 인터넷은행권은 현 금융당국의 규제하에서는 자본 규모가 다른 시중은행과의 경쟁은 한계가 있다는 입장이다. 인터넷은행 관계자는 “(대면업무 허용 등 규제완화 요구는) 금융권의 ‘메기’ 역할을 하는 과정에서 겪는 어려움을 알린 차원이고 제도 도입 당시와 달라진 대내외 환경도 고려해야 할 시기”라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2023.03.23.</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>[fn마켓워치]다올인베, 우리벤처파트너스로 새출발</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004985773?sid=101</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>다올인베 23일 주주총회서 거래 종결..2125억 규모  [파이낸셜뉴스] 오늘 다올인베스트먼트를 우리금융지주에 매각하는 딜(거래)이 종결된다. 다올인베스트먼트는 우리금융의 벤처캐피탈(VC) 자회사로서, 우리벤처파트너스로 사명을 바꾸고 새출발한다.   23일 금융투자업계에 따르면 다올인베스트먼트는 이날 주주총회를 통해 정관변경, 사명변경 등을 단행하고 우리금융에 인수된다.   우리금융은 다올인베스트먼트 경영권 지분 52%를 인수하기 위한 주식매매계약(SPA)을 체결했다. 매입가격은 2125억원이다.   다올인베스트먼트는 우리나라 1세대 벤처캐피탈인 한국종합기술금융(KTB네트워크)에 뿌리를 뒀다. 지난해 말 기준 약 1조4000억원 규모의 펀드를 운용하는 업계 5위권의 대형 벤처캐피탈 회사다. 그간 배달의민족, 토스(비바리퍼블리카), 해외 스타트업 등에 대한 트랙레코드(투자이력)를 보유하고 있다.   우리금융은 이번 인수로 비은행 포트폴리오를 강화하고 종합금융그룹으로 도약하겠다는 의지다. 특히 혁신기업 투자를 통해 벤처기업의 성장을 돕는 기업금융 가치사슬의 한 축을 담당할 예정이다.   우리금융은 2019년 지주사를 재출범한 이후 지속해서 사업 포트폴리오를 확장하고 있다. 재출범 첫해 우리자산신탁, 우리자산운용, 우리글로벌자산운용을, 2020년에는 우리금융캐피탈, 우리금융저축은행을 인수했다. 지난해엔 부실채권 투자 전문회사인 우리금융F&amp;I를 만들었다.   우리금융의 비은행 부문 수익 비중은 2019년 10.3%에서 2020년 15.0%, 2021년 17.2%, 작년 18%대로 상승했다. 우리금융은 2023년까지 비은행 부문 수익 비중을 30% 수준까지 끌어올린다는 계획이다.   앞서 우리금융은 경남은행과 광주은행, 우리투자증권(현 NH투자증권), 우리아비바생명(현 DGB생명) 등을 매각했다. 특히 핵심 계열사인 우리투자증권(NH투자증권)을 농협금융에 넘길 당시 농협지주 수장이 임종룡 우리금융 회장 내정자였다. 금융과 거시 정책은 물론 금융시장과 금융그룹 사업구조를 잘 아는 임 내정자가 적극적인 M&amp;A로 증권 등 비은행 사업 확장을 추진할 것이란 기대가 크다.   이에 대해 김경률 한기평 책임연구원은 “비은행 부문 사업포트폴리오가 다각화되고 우리은행, 우리PE자산운용 등 그룹 내 금융계열사와 협업을 통해 비이자순이익 증가에도 기여할 것”이라고 설명했다.   우리금융은 다올인베스트먼트 인수를 시작으로 증권사를 비롯해 카드사, 보험사 등을 품을 계획도 세우고 있다. 우리금융은 KB국민·신한·하나·농협 등 다른 금융지주사와 달리 증권사를 가지고 있지 않아 인수에 속도를 낼 전망이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2023.03.26.</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>금리인하요구권 신청·수용률, 인터넷은행이 시중은행보다 높아</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011452713?sid=101</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>인터넷전문은행의 금리인하요구권 신청률이나 수용률이 시중은행보다 높은 것으로 조사됐습니다. 윤창현 국민의힘 의원이 5대 시중은행과 인터넷전문은행에서 받은 자료를 보면 지난해 5대 시중은행의 금리인하요구권을 신청할 수 있는 대출 계좌 870만여 개 중 실제 신청이 이뤄진 계좌는 55만여 개로 평균 신청률은 6.33%를 기록했습니다. 실제 금리가 인하된 계좌는 20여만 개로 2.38%에 그쳤습니다. NH농협은행은 전체 신청 가능 계좌 160여만 개 중 2만 5천여 개, 1.56%만 금리 인하 신청이 이뤄졌습니다. 전체 신청 가능 계좌 대비 수용률은 NH농협은행이 1.01%를 기록하는 등 5대 시중은행이 평균 2.38%에 그쳤습니다. 그러나 인터넷전문은행의 금리인하요구권을 신청할 수 있는 대출 계좌 570만여 개 중 실제 신청이 이루어진 계좌는 142만여 개, 실제 금리가 낮아진 계좌는 27만여 개로 신청률과 수용률이 각각 24.96%, 4.71%를 보였습니다. 금리인하요구권 수용에 따른 금리 인하 폭을 보면 시중은행은 0.13%p(우리은행)~0.42%p(NH농협은행) 수준이지만, 인터넷전문은행은 0.38%p(카카오뱅크)~0.76%p(토스뱅크)에 분포돼 시중은행보다 금리 인하 폭이 컸습니다. 윤창현 의원은 "시중 은행들도 인터넷전문은행을 벤치마킹해 신청 절차는 더 편하게 개편하며 고객의 입장에서 금리 인하 수용률은 높이고 인하 폭도 대폭 확대할 필요가 있다"고 지적했습니다.[사진 출처 : 연합뉴스]</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2023.03.23.</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>인터넷은행과 지방은행, 손 맞잡고 공동대출 추진한다</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000906339?sid=101</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>그래픽=김은옥 기자 금융당국이 인터넷전문은행의 경쟁력 강화 방안 일환으로 지방은행과의 '공동대출' 도입을 추진한다.이는 시중은행 중심으로 형성된 과점체계를 완화할 수 있는 장점이 있어 금융당국은 '인터넷은행-지방은행 공동대출' 도입을 적극적으로 검토한다는 방침이다.23일 금융위원회에 따르면 카카오뱅크·케이뱅크·토스뱅크 등 인터넷은행협의회는 정부서울청사에서 열린 '제4차 은행권 경영·영업 관행·제도 개선 실무작업반' 회의에서 지방은행과 공동대출 도입안이 담긴 '인터넷전문은행 경쟁력 강화를 위한 건의사항'을 발표했다.공동대출은 인터넷전문은행이 보유한 높은 모객력과 신용평가모형을 바탕으로 대출 대상자를 선정하고 자금은 인터넷은행과 지방은행이 분담하는 방식이다.고객이 인터넷은행 애플리케이션(앱)에서 대출을 신청하면 인터넷은행과 지방은행이 각각 심사를 진행하고 대출을 실행한다.대출은 두 은행에서 승인된 고객에게 사전 합의된 비율에 따라 실행된다. 고객 대응 업무는 인터넷은행이 지방은행으로부터 위탁받아 수행한다.이미 미국, 중국 등 주요국에서 동일·유사 형태의 공동대출 상품이 출시된 바 있다.인터넷은행은 적정 자본 비율 내에서 대출을 지속 공급해 성장 기반을 확대할 수 있고 지방은행은 영업 채널을 다각화하고 양질의 대출 포트폴리오를 확보할 수 있을 것으로 기대된다.토스뱅크와 광주은행이 지난해부터 공동대출 실무협의를 진행하고 있으며 현재 이 모델 도입하기 위한 세부 방안을 마련 중이다.김소영 금융위 부위원장은 "대출재원을 확보하고 있는 지방은행과 소비자와의 넓은 접점을 가지고 있는 인터넷전문은행 간 협업을 통한 경쟁촉진 효과가 기대된다"고 말했다.이외에 인터넷은행은 오는 5월 '대환대출 플랫폼' 출시를 통해 대출 이동제가 시행되면 참여 은행이 동등한 출발선에서 가격 경쟁을 할 수 있도록 중도상환수수료를 면제하고 대환건에 한해 차주 단위 총부채원리금상환비율(DSR) 규제를 면제하는 등 조치가 필요하다고 건의했다.특히 인터넷은행들은 은행권의 '메기' 역할을 수행할 수 있도록 중·저신용대출 잔액 목표에 대한 재조정이 필요하다고 역설했다. 이들은 "포용금융 실천을 위해 중·저신용자대출 비중을 급격히 확대해야 하는 점으로 인해 연체율 상승 등 자산건전성 악화에 직면했다"고 설명했다.김소영 부위원장은 "인터넷 은행은 지금까지 급격한 외형성장에 치중한 측면이 있다"며 "꾸준한 자본확충을 통한 건전성 제고, 대안신용평가의 고도화·혁신화, 중·저신용자 대출 활성화, 철저한 부실관리 등 내실을 다져나가야 한다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2023.03.20.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>[Why] 대형은행 잘나가는데?... 美 중소은행 위기에 경기침체 우려 커진 이유</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000886478?sid=104</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>미국 실리콘밸리은행(SVB) 등 중소은행이 3곳이 잇달아 파산하면서 경기침체 우려가 다시 고개를 들고 있다. SVB 파산 이전까지만 해도 경제 둔화 조짐에도 불구하고 경제가 계속 성장할 것이라던 ‘무착륙’ 시나리오가 나왔다. 하지만 SVB 파산 이후 중소기업이 대출 규모를 줄이고 이로 인해 경기 침체가 발생할 것이라는 가능성이 제기되고 있다.중소은행 추가 도산 우려에 대형은행은 신규 예금을 유치하며 ‘반사이익’을 누리고 있다. 중소기업이 추가로 도산할 수 있는 우려가 확산하면서 상대적으로 안전한 대형은행 선호 현상이 발생했기 때문으로 풀이된다.이와 관련해 블룸버그 통신은 지난 14일(현지 시각) 소식통을 인용해 뱅크오브아메리카(BoA)가 며칠 만에 150억 달러 이상의 신규 예금을 유치했다고 전했다. JP모건체이스와 시티그룹, 웰스파고 등과 같은 대형은행에도 수십억 달러의 신규 예금이 밀려든 것으로 알려졌다. 블룸버그는 “위기 확산을 두려워한 고객이 피난처를 찾으면서 미국 대형은행으로 예금이 홍수처럼 밀려들고 있다”고 언급했다.하지만 중소은행이 미국 전체 대출 10건 중 4건을 담당하는 만큼 이들 은행이 도산을 막기 위해 대출을 줄이면 경제가 흔들릴 수 있다. 특히 중소은행과 주로 거래하는 중소기업, 일반 가정의 자금줄이 막혀 경기 침체로 이어질 수 있다는 전망이 나온다.19일(현지 시각) 월스트리트저널(WSJ)은 “지역 및 지방 은행은 전체 대출의 약 40%를 차지한다”며 “중소은행의 위기가 경기 침체 위험을 높이고 있다”고 분석했다. SVB 파산을 지켜본 중소은행이 유동성 확보를 위해 대출을 줄이고, 이로 인해 미국 기업과 가정이 대출받기가 어려워질 가능성이 있다는 것이다.미국 캘리포니아주 산타클라라의 실리콘밸리은행(SVB) 본사 앞에 줄지어 서있는 사람들. / 신화=연합뉴스         NYT 역시 중소은행 파산과 위기가 대출 시장에 영향을 줄 것으로 봤다. 위기 상황에서 중소은행이 자발적으로 자금 조달 노력을 기울일 것이며, 규제 기관이 감시를 이들에 대한 규제를 강화하면서 대출 기준을 엄격해지고 이로 인해 대출이 줄어들 수 있다는 것이다. 중소은행의 대출 감소는 부채에 의존하는 주거·상업 개발업체와 제조업체에 타격을 줄 수 있다.또한 중소은행이 대출 규모를 줄이고 그 결과 기업이 돈을 빌리는 데 어려움을 겪으면 고용과 투자에 타격을 입힐 수 있다. 결국 고용과 투자가 줄어들면 경기 침체가 발생할 수 있다. 웰스 파고의 수석 분석가인 제이 브리슨은 NYT에 “지난주에 일어난 SVB 파산 등을 감안하면 경기 침체 가능성이 있다”며 “중소은행 파산으로 인한 실질적이고 지속적인 경제적 영향이 있을 것”이라고 말했다.WSJ가 미국 중앙은행인 연방준비제도(Fed·연준) 자료를 분석한 결과를 보면 미국 전체 대출의 38%는 상위 25위권 밖의 중소형 은행에서 이뤄졌다. 이를 목적별로 세분화해 따져보면 중소은행이 미국 전체 상업용 부동산 대출에서 차지하는 비중은 67%에 달한다. 주거용 부동산 대출, 상업·기업 대출, 신용카드 대출, 자동차 대출에서 중소은행이 담당하는 비중은 각각 37%, 28%, 27%, 15%다.사모펀드 회사인 아폴로 글로벌 매니지먼트의 토스턴 슬록 수석 이코노미스트는 “중소형 은행들이 자본 비율을 높이기 위해 대출 기준을 강화하고 대출을 줄일 수 있다”며 “이 같은 움직임을 통해 변덕스러운 예금주들과 불안정한 자본조달 비용에 대응할 것”이라고 말했다. 그는 “중소은행이 대차대조표를 재구성하면서 자동차 대출, 소비자 대출, 상업용 부동산 대출을 받는 것이 갑자기 어려워졌다”며 “기업 대출, 차와 세탁기를 사는 자금을 얻기 힘들어질 것”이라고 말했다.이를 반영하듯 시장에선 미국 경기가 침체에 빠질 것이라는 가능성이 높이고 있다. 골드만삭스는 향후 1년 동안 미국이 경기침체에 빠질 확률을 35%로 봤다. SVB 파산 이전에는 25%였으나, 10%포인트 상향 조정했다. 웰스파고 역시 올해 경기침체 확률을 SVB 파산 이전 55%에서 최근 65%로 올렸다.ING은행의 미국 지역 리서치 책임자인 파드라익 가비는 WSJ에 “SVB 여파는 투자를 둔화시킬 것”이라며 “고용 시장에 나쁜 징조인 긴축을 가속할 것”이라고 예상했다. 그는 “대출 기준과 실업률 사이에는 상당히 강한 상관관계가 있다”고 덧붙였다.NYT는 “미국 경제는 노동력 부족, 수십 년 만의 금리 인상 등을 견뎌내며 경기침체 가능성을 거듭 무시했다”며 “하지만 은행 위기 앞에 시장에선 경기 침체 가능성이 제기되고 있다”고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2023.03.19.</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>통신3사 알뜰폰 점유율 규제, 금융사 몸집만 키울수도</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002789706?sid=105</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>정부 '독과점 해소' 방식 논란막강자본 금융권 진출 더 위협영세기업 "사업 접어야 할 판""이동통신 3사 자회사 점유율을 규제한다고 가입자들이 과연 중소기업으로 올까요."한 알뜰폰 업계 관계자의 얘기다.  정부가 '독과점 해소'를 이유로 통신 3사 알뜰폰 자회사의 점유율 규제 강화를 검토하는 가운데, 이 경우 정부가 또 다른 '독과점' 화살을 겨냥하는 금융사의 몸집 키우기로 이어질 수 있다는 분석이 나온다. ◇정부, 알뜰폰 키워 통신요금 인하 효과 기대 = 과기정통부는 최근 통신시장 경쟁촉진을 위해 알뜰폰을 통신 3사와 경쟁하는 사업자로 육성하겠다고 밝혔다. 이어 박윤규 과학기술정보통신부 제2차관은 지난 10일 간담회에서 통신 3사 자회사의 알뜰폰 시장점유율 제한 방안을 검토하고 있다고 말했다. 알뜰폰 산업을 키우되 통신 3사에 그 혜택을 주지는 않겠다는 것이다. 이에 대해 통신 3사 중 알뜰폰 사업에 가장 적극적인 LG유플러스의 황현식 대표는 지난 17일 주주총회에서 "바람직하지 않다고 본다"고 입장을 밝혔다. 정부는 지난 2010년 통신시장 경쟁촉진을 위해 알뜰폰을 도입했다. 그러면서 통신사 자회사들의 합산 점유율이 50%를 넘을 경우 영업을 제한하는 규정을 만들었다. 그러나 IoT(사물인터넷) 회선이 급증하면서 합산 점유율 산정에 문제가 있다는 지적이 나오면서 최근 점유율 산정 시 IoT 회선을 제외해야 한다는 목소리가 나왔다. 지난해 말 공정거래위원회에 따르면, IoT 회선을 제외한 통신 3사 자회사의 알뜰폰 시장점유율은 2019년 37.1%에서 2021년 50.8%로 높아졌다. 정부가 IoT 회선을 제외한 것을 기준으로 점유율을 규제하면 이통 3사 자회사는 바로 가입자 유치를 중단해야 하는 상황이다. 현재 통신 3사 중 1위인 SK텔레콤은 알뜰폰 사업에 소극적인 반면, 3위인 LG유플러스는 가장 적극적이다. 정부의 규제 움직임에  LG유플러스가 가장 먼저 목소리를 내는 이유다. KT도 상대적으로 알뜰폰에 적극적인 편이다.  ◇ 알뜰폰 업계 "금융권 진출이 더 문제…막대한 자본력으로 생존 위협" = KB국민은행, 토스, 신한은행 등 금융사가 경쟁적으로 진출하면서 알뜰폰 시장은 더이상 통신 3사 '그들만의 무대'가 아닌 상황이다. 금융사들은 통신 3사의 시장을 파고들기보다는 영세기업들의 점유율을 뺏어오면서 규모를 키우고 있다. 이에 대해 알뜰폰 업계는 금융사가 막대한 자본력을 내세워 시장을 교란시킨다며 반대 목소리를 내 왔다. 이 가운데 KB국민은행이 알뜰폰 사업 특례기간 만료를 앞두고 정식 서비스로 전환하기 위해 금융위원회에 알뜰폰 사업을 은행 부수업무로 지정해달라고 요청한 상태다. 이 경우 다른 은행들도 본격적으로 진출하는 길이 열리게 된다. 알뜰폰 업계는 통신 3사보다 금융사가 더 큰 위협이 될 수 있다고 지적한다. 통신사의 알뜰폰 자회사는 도매대가 이하 요금제를 팔지 못하도록 규제받고 있지만, 금융사는 막대한 자본력을 내세워 시장을 교란시킬 수 있기 때문이다.  알뜰폰 시장에서 은행 간 경쟁도 치열해지고 있다. 2019년 진출한 국민은행 '리브엠'은 지난달 기준 가입자 40만명을 돌파했다. 저렴한 요금제와 알뜰폰 최초 5G 요금제, 적금상품 금리우대 등이 영향을 미쳤다. 토스모바일은 데이터를 쓰지 않은 만큼 캐시백을 해주는 혜택으로 가입자 유인에 나서고 있다. 신한은행, 신협, 하나은행 등은 기존 알뜰폰 사업자와의 제휴요금제를 내놓았다. 신한은행은 규제만 풀리면 시장에 직접 진출하는 것을 검토하는 것으로 알려졌다.이에 대해 알뜰폰 업계 한 관계자는 "통신사 자회사는 점유율, 요금제 규제를 받지만 여기에서 자유로운 금융사는 원가보다 낮은 요금제로 시장을 교란시킬 우려가 있다. 이 경우 중소업체들은 사업을 접을 수밖에 없다"고 밝혔다. 통신사 알뜰폰 자회사 규제 시 시장이 정체될 수 있다는 전망도 나온다. 김홍식 하나증권 연구원은 "알뜰폰 규제가 적용되면 정체 추세를 나타내던 통신 3사 MNO(이동통신) 가입자수가 다시 증가세로 전환하고 알뜰폰 가입자 증가 추세는 주춤해질 것"이라며 "과거 알뜰폰 시장에서 통신 3사가 자회사를 중심으로 가입자 유치에 나서면서 시장이 커졌다는 점을 감안해야 한다"고 말했다. 박윤규 과기정통부 제2차관이 지난 10일 서울 중구 한국지능정보사회진흥원 서울사무소에서 열린 '알뜰폰의 경쟁력 강화를 위한 간담회'에서 인사말을 하고 있다. 연합뉴스</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2023.03.31.</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>네·카·토 간편결제 수수료율 평균 1.6%</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000737829?sid=101</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>우아한형제들, 카드·선불 결제수수료율 최고네이버파이낸셜, 카카오페이, 토스 등 빅테크 3사의 간편결제 수수료율 평균이 1.595%로 나타났다.31일 금융감독원에 따르면 간편결제 수수료율 공시 대상 9개 전자금융업자의 선불 결제 수수료율 평균은 2.00~2.23% 수준이었다. 카드 기반 수수료율 평균은 1.09%~2.39%였다.영세·중소가맹점 카드 결제수수료율 평균 [사진=이재용 기자]앞서 금감원은 거래 규모가 월평균 1천억원 이상인 업체들이 매 반기 수수료율을 공시하도록 하는 가이드라인을 마련했다. 공시 대상은 네이버파이낸셜, 쿠팡페이, 카카오페이, 지마켓, 11번가, 토스페이 등이다.그간 빅테크는 결제 수수료 외 수수료를 항목별로 구분 관리하지 않고, 가맹점과도 이를 통합해 계약을 체결하고 있어 소상공인들이 적정 수수료율 수준을 가늠하기 어려웠다. 가이드라인은 이 같은 애로를 해소하기 위해 만들어졌다.수수료율이 가장 높은 곳은 배달의민족 운영사 우아한형제들이었다. 연 매출 3억원 이하 영세 가맹점 기준 카드 결제 수수료율은 1.52%였다. 연 매출 30억원 이상 일반 가맹점에 받는 카드 결제 수수료율과 선불전자지급수단 결제수수료율도 3.0%로 가장 높았다.이번 수수료율 공시 시행에 따라 빅테크 3사의 선불 결제 수수료율 전체 평균은 지난 2021년 2.02%에서 0.29%p 떨어진 1.73%를 나타냈다. 간편결제 상당 부분을 차지하는 신용카드 기반 간편결제 수수료율도 1.95%에서 1.46% 수준으로 0.49%p 인하했다.금감원은 기준금리 인상 등으로 어려워지고 있는 경제 상황을 고려해 그간 업계에서 추진해 온 소상공인 부담 완화를 위한 수수료율 인하 노력의 결과라고 설명했다.금감원 관계자는 "결제수수료율 정보를 통해 수수료와 관련한 정보·협상력의 비대칭성이 완화돼 가맹점의 수수료 부담이 점진적으로 줄어들 수 있다"며 "가맹점 부담이 내려가는 만큼 소비자에 다양한 보상을 제공할 수 있어 결과적으로 소비자의 편익 제고에 기여할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2023.03.17.</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>토스뱅크, 2000억 유상증자 추진...총 자본금 1.6조</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005444443?sid=101</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>신규 주주로 한국투자캐피탈, 프리미어파트너스, 홈앤쇼핑 합류[이데일리 전선형 기자] 토스뱅크가 2000억원 규모의 유상증자를 추진한다. 토스뱅크는 지난 16일 이사회를 열고 2000억원 규모의 유상증자를 추진하기로 결의했다고 17일 밝혔다. 이번 유상증자는 출범 후 진행하는 일곱 번째 유상증자다.(사진=연합뉴스)이번 증자의 신주 발행가액은 6500원으로 직전 가액(5000원) 대비 30% 할증된 가격이다. 신규 발행 주식은 보통주 3077만주 규모로 주당 발행가는 6500원이다. 증자방식은 제3자 배정으로, 기존, 신규 주주가 증자에 참여한다. 자본금 납입일은 이달 30일이며, 납입을 마치게 되면 토스뱅크의 총 납입 자본금은 1조6500억원으로 늘어난다.토스뱅크는 이번 증자를 통해 한국투자캐피탈을 신규 주주사로 맞이한다. 한국투자캐피탈은 보통주 총 1013만주(약 659억원 규모)를 배정 받아 총 4.0%의 지분을 확보하게 될 예정이다. 또, 신규 주주사인 홈앤쇼핑과 토스뱅크와의 다양한 협업도 기대된다. 홈앤쇼핑이 보유하고 있는 중소기업 및 소상공인 고객의 방대한 데이터는 토스뱅크의 신용평가 모델 고도화에 활용될 수 있다. 여기에 양사 고객들에게 포인트 제휴 등 금융과 유통/커머스가 결합된 다양한 혜택을 제공할 수 있을 것으로 예상된다.토스뱅크는 이달 말 자본금 납입을 마치게 되면, 토스뱅크의 재무안정성과 비즈니스 확장 기반도 보다 강화될 것으로 기대하고 있다. 이에 따라 리스크관리 역량 강화와 함께 상품 포트폴리오 다각화에도 집중할 계획이다.토스뱅크 관계자는 “앞으로도 혁신적인 뱅킹 서비스를 지속 선보여 은행에 대한 고객 경험을 바꿔나가며, 주주사와 고객들이 보내준 전폭적인 신뢰와 지지에 부응하는 성과를 만들어 나가겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2023.03.23.</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>인뱅, 지방은행과 공동대출…토스뱅크·광주은행 협업 추진</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006703185?sid=101</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>은행권 경쟁 촉진 방안으로 인터넷·지방銀 공동대출 모델 제안인터넷·지방銀 '윈윈' 전략…금융당국 "적극적으로 검토하겠다"ⓒ News1 윤주희 디자이너(서울=뉴스1) 김정은 서상혁 기자 = 인터넷전문은행이 금융당국에 경쟁력 제고 차원에서 지방은행과 공동대출을 허용해달라고 공식 요청했다. 금융소비자 접점이 넓은 인터넷전문은행이 고객을 모아, 자금력이 있는 지방은행과 대출을 공동으로 공급하는 방식이다. 현재 토스뱅크는 광주은행과 이같은 방식의 공동대출 도입을 준비 중이다.23일 금융당국에 따르면 인터넷은행은 전날 열린 '제4차 은행권 경영·영업 관행·제도 개선 TF 실무작업반 회의'에서 은행권 경쟁력 제고 방안 중 하나로 지방은행과의 공동대출 도입을 건의했다.인터넷은행과 지방은행의 공동대출 모델은 인터넷은행이 보유한 우수한 모객력과 신용평가모형을 바탕으로 대출 대상자를 선정하고, 대출 자금은 인터넷은행과 지방은행이 공동 분담하는 상품 모델이다.고객이 인터넷은행 애플리케이션(앱)에서 대출을 신청하면 인터넷은행과 지방은행이 각각 심사를 해 대출을 실행한다. 대고객 업무는 인터넷은행이 지방은행으로부터 위탁받아 수행한다.인터넷은행은 적정 자본 비율 내에서 대출을 지속 공급해 성장 기반을 확대하고, 지방은행은 영업 채널을 다각화하고 양질의 대출 포트폴리오를 확보해 경쟁력이 강화될 수 있다는 게 업계의 주장이다.실제 토스뱅크와 광주은행은 지난해부터 공동대출 모델 구축을 위한 실무 협의를 진행 중이다. 토스뱅크에서 개발한 대안신용평가모형을 중심으로 토스뱅크와 광주은행이 공동으로 대출을 실행하는 방식이다.이들이 검토 중인 모델에 따르면 토스뱅크와 광주은행이 각각 1차, 2차 대출 심사를 하고, 대출을 실행한다. 사후 관리는 토스뱅크와 광주은행이 채권자로서 책임을 반반 부담한다. 일관성 있는 고객 경험을 위해 동일한 업체에 사후관리를 위탁한다는 방침이다.공동대출이 도입되면 인터넷은행과 지방은행이 시너지를 극대화할 수 있을 것으로 보인다. 상대적으로 자본력이 부족한 인터넷은행에 지방은행이 자금을 공급하고, 이용자 접점이 넓은 인터넷은행이 모객에 나서는 등 각 은행의 부족한 점을 보완할 수 있다는 이유에서다.금융당국도 인터넷은행과 지방은행의 상생 모델을 긍정적으로 검토하고 있다. 우선 위탁업무와 본질 업무 등과 관련한 법적 제약이 있는 만큼, 개선 여부를 살펴보겠다는 입장이다.김소영 금융위 부위원장은 "대출재원을 확보하고 있는 지방은행과 소비자와 넓은 접점을 가지고 있는 인뱅 간 협업을 통한 경쟁촉진 효과가 기대된다"며 "해당 모델 도입과 관련한 법적·제도적 제약 여부, 출시 가능성 등에 대해 적극 검토하겠다"고 강조했다.강영수 금융위 은행과장 역시 "인터넷은행과 지방은행의 협업이 좋은 모델로 발전할 수 있다는 인식에서 법적 제약이 있다면 정부는 개선 여부를 살펴볼 것"이라며 "제도 개선이 필요할지 협업 모델을 새롭게 만들어야 할지 계속해서 검토하겠다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2023.03.23.</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>'상생모델' 인터넷-지방銀 공동대출 나온다(종합)</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011759292?sid=101</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>기사내용 요약지역에 금리 혜택 제공…은행 과점체계 완화 기대금융당국, 업무 위탁 등 제도개선 검토[서울=뉴시스] 금융위원회는 22일 '제4차 은행권 경영·영업 관행·제도 개선 실무작업반'을 열고 인터넷은행 경쟁력 활성화 방안을 논의했다. (사진=금융위원회) photo@newsis.com *재판매 및 DB 금지[서울=뉴시스] 최홍 기자 = 금융당국이 인터넷전문은행 경쟁력 강화 방안 일환으로 '인터넷은행-지방은행 공동대출' 도입을 추진한다.인터넷은행과 지방은행의 동반성장을 도모하고, 지역 곳곳까지 1금융권의 금리혜택을 제공하는 동시에 시중은행 중심의 과점체계를 완화하자는 취지다. 조만간 금융당국은 위탁 관계 등 업무 조정과 관련한 제도개선에 착수할 방침이다.금융당국은 전날 열린 '제4차 은행권 경영·영업 관행·제도 개선 실무작업반'에서 이같은 내용을 논의했다고 23일 밝혔다.공동대출은 인터넷전문은행이 보유한 우수한 모객력과 신용평가모형을 바탕으로 대출 대상자를 선정하고 자금은 인터넷은행과 지방은행이 분담하는 상품이다.고객이 인터넷은행 앱(App)에서 대출을 신청하면, 인터넷은행과 지방은행이 각각 심사를 진행하고 대출을 실행한다. 대출은 두 은행에서 승인된 고객에게 사전 합의된 비율에 따라 실행된다. 이미 미국, 중국 등 주요국에서 동일·유사 형태의 공동대출 상품이 출시된 바 있다.고객 대응 업무는 인터넷은행이 지방은행으로부터 위탁받아 수행한다. 사후관리는 두 은행이 각 채권자로서 독립적인 사후관리 주체가 되나, 일관성 있는 고객 경험을 위해 동일 사후관리업체에 위탁한다.이에 따라 인터넷은행과 지방은행의 '윈윈(win-win)' 효과가 기대된다.인터넷은행은 적정 자본 비율 내에서 대출을 지속 공급해 성장 기반을 확대하고, 지방은행은 영업 채널을 다각화하고 양질의 대출 포트폴리오를 확보해 경쟁력을 강화할 수 있다. 특히 대형 시중은행 중심의 과점적 구조를 완화하고, 인터넷은행과 지방은행의 상생과 동반 성장을 견인할 것으로 보인다.강영수 금융위 은행과장은 "금리와 한도를 더 주거나 더 많은 고객을 확보하는 방식으로 협업이 마련되면 시중은행과의 경쟁에서 뒤처지지 않을 수 있다"고 말했다.이어 "금융당국은 협업 모델이 가능할 수 있도록 적극 검토해 나갈 것"이라며 "대출심사를 어느 은행이 하는지, 특히 대출심사는 은행의 본질적 업무인데 위탁이 가능한지를 따져봐야 한다"고 설명했다.금융권에 따르면 현재 토스뱅크와 광주은행이 이같은 공동대출을 준비 중인 것으로 알려졌다.김소영 금융위 부위원장도 "오늘 인터넷전문은행에서 건의한 인터넷전문은행과 지방은행의 공동대출 모델의 경우 대출재원을 확보하고 있는 지방은행과 소비자와의 넓은 접점을 가지고 있는 인터넷전문은행 간 협업을 통한 경쟁촉진 효과가 기대된다"며 "금융위·금감원 담당자들에게 해당 모델 관련 법적·제도적 제약여부, 출시 가능성 등에 대해 적극 검토해줄 것을 당부했다"고 밝혔다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2023.03.21.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>넥슨 블루아카이브, 새 학생 코코나 업데이트</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002286134?sid=105</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>관통 타입 스트라이커넥슨코리아(대표 이정헌)는 자회사 넥슨게임즈(대표 박용현)에서 개발한 서브컬처 게임 ‘블루 아카이브’에 신규 학생 ‘코코나’를 21일 업데이트했다.새롭게 합류하는 ‘코코나’는 ‘산해경 고급중학교’ 소속 관통 타입 스트라이커다. ‘EX 스킬: 참 잘했어요’ 사용 시 자신을 제외한 아군 1인과 자신의 체력을 각각 회복시키며, ‘칭찬 도장’을 1개 적립한다. ‘코코나’는 다양한 스킬을 통해 아군에게 ‘칭찬 도장’을 적립시킬 수 있고, ‘칭찬 도장’을 5개 모은 아군은 다음 EX 스킬 사용 코스트가 1 감소한다. 이와 함께 ‘슌’ 모집을 추가하고, ‘키리노’, ‘슌(어린이)’, ‘사야(사복)’ 모집을 복각한다.이벤트 스토리 ‘네버랜드에서의 술래잡기’도 복각한다. 이번 이벤트 스토리에서는 회춘의 비약을 마시고 어릴 적의 모습으로 돌아간 ‘슌’이 학원을 돌아다니며 온갖 말썽을 부리는 모습을 확인할 수 있다.넥슨, ‘블루 아카이브’에 신규 학생 ‘코코나’ 추가 및 특별 방송 예고.이와 함께 특별 생방송 ‘Go! Go! 키보토스!’를 예고했다. 3월 24일에 공식 유튜브 채널에서 시청할 수 있으며, 개발진의 코멘터리 영상과 함께 다양한 제휴 이벤트 및 행사 소식에 대한 내용을 확인할 수 있다.‘블루 아카이브’는 출시 이후 게임 안팎으로 활발한 행보를 이어가며 국내외 이용자들에게 많은 사랑을 받고 있다. 지난 달 28일 수제버거 브랜드 ‘프랭크버거’와 손잡고 출시한 ‘궁극의 미식 버거 세트’는 폭발적인 관심을 바탕으로 제품 구매 시 지급되는 포토카드 및 쿠폰이 조기 소진되어 추가 물량이 입고됐다. 이 외 지난 8일에는 2년 연속으로 ‘바하무트 게임 애니메이션 어워드’에서 인기게임 부문 3위에 등극하며 ‘블루 아카이브’ 열기를 증명한 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2023.03.20.</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>‘KB 알뜰폰’ 정식 승인받을까…요금제·상생방안 막판 쟁점</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003212040?sid=105</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>30일 혁신금융심사위 소위서 ‘리브모바일’ 최종 승인 여부 논의2019년 혁신금융서비스 1호 지정4월16일까지 ‘부수업무’ 인정돼야당국, 강한 규제서 한발 물러나기존 업체들 과당경쟁 우려 반대문턱 넘으면 은행들 줄줄이 동참금융당국이 KB국민은행의 알뜰폰 사업을 정식으로 승인할지를 이번달 중 확정할 예정이다. 알뜰폰이 은행의 부수업무로 인정되면 금융권의 통신업 진출이 더 활발해질 수 있다. 금융당국은 관련 업계와 요금제, 기존 사업자와의 상생방안 등 승인에 필요한 세부조건을 검토하고 있다.20일 금융위원회에 따르면 혁신금융심사위원회는 오는 30일 소위원회를 열고 혁신금융서비스 1호 사업인 국민은행 알뜰폰 ‘리브모바일’(리브엠)의 최종 승인 여부를 논의하기로 했다.혁신금융서비스는 기존 금융서비스와 차별성이 인정되는 금융업 또는 이와 관련된 업무를 수행하는 과정에서 제공되는 서비스를 말한다. 혁신금융사업자는 각종 규제를 적용받지 않는 조건으로 최대 4년(기본 2년+연장 2년)간 승인받은 서비스를 운영할 수 있다.금융위는 2019년 4월 국민은행이 신청한 ‘알뜰폰 사업을 통한 금융·통신 융합’ 서비스를 제1차 혁신금융서비스 중 하나로 지정했다. 금융업자가 통신업을 하는 첫 사례로서 은행이 한시적으로 가상통신망사업(알뜰폰 사업)을 할 수 있도록 허용하는 대신 스마트폰 판매 유도, 내부통제 장치 마련 등을 조건으로 했다.혁신금융서비스 지정기한은 오는 4월16일이다. 국민은행이 이후에도 리브엠 사업을 하려면 금융당국이 알뜰폰 사업을 은행의 부수업무로 인정해야 한다.금융위는 당초 국민은행 측에 리브엠 공식 승인 조건으로 이동통신 3사(SKT·KT·LG유플러스)의 알뜰폰 자회사 수준으로 요금체계를 올리거나, 시장점유율을 10%로 제한하는 방안 등을 검토했다. 승인 방식도 금융위 공고를 변경하는 방법 대신 국회를 통과해야 하는 은행법 개정을 추진했다.금융당국은 국민은행 측이나 과학기술정보통신부 등과 논의하면서 기존의 ‘강한 규제’ 입장에서 한발 물러선 것으로 보인다.은행 측은 통신 3사 자회사 수준으로 요금이 비싸지면 가입자 모집에 어려움이 있고 가입자 수도 현재 40만명에서 더 늘려야만 사업성이 있다고 주장한 것으로 알려졌다. 과기정통부도 알뜰폰 시장 활성화를 위해 승인 조건을 최소화해야 한다는 의견인 것으로 전해졌다.반면 이동통신 3사 중 일부 업체와 중소 알뜰폰 사업자는 과당경쟁과 중소업체 고사 등을 우려하며 정식 승인을 반대하고 있다.이 때문에 금융당국이 승인 조건으로 은행 측에 중소 알뜰폰사업자를 위한 상생 방안을 마련할 것을 요구할 수도 있다.금융위 관계자는 “기존 사업자의 요구사항도 검토해야 하는 만큼 혁신금융심사위 소위원회에서 여러 쟁점을 논의할 것”이라고 말했다.리브엠이 정식 승인을 받고 알뜰폰 사업이 은행의 부수업무로 인정되면 다른 은행들도 알뜰폰 시장에 뛰어들 가능성이 있다. 하나은행은 이번 달 초에 알뜰폰 요금제를 출시했고, 신한은행도 KT와 전략적 파트너십을 맺고 지난해 알뜰폰 요금제를 내놨다. 토스는 올해부터 알뜰폰 사업을 하고 있고 신협중앙회도 최근 알뜰폰 요금제를 출시했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2023.03.27.</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>토스증권, '주식모으기' 누적 이용 60만명 돌파</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011765128?sid=101</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>기사내용 요약이달 현재 이용자 64만명 기록[서울=뉴시스] 박은비 기자 = 토스증권은 적립식 투자 서비스인 '주식모으기'를 선보인지 1년 만에 누적 이용자 60만명을 돌파했다고 27일 밝혔다. 이달 현재 주식모으기 이용자는 64만명이다.주식모으기는 국내·해외주식을 고객이 원하는 일정 주기와 수량만큼 설정해 적립식으로 투자하는 서비스다. 매일, 매주, 매월 등 고객 투자 계획에 따라 투자 주기를 다르게 설정할 수 있다. 국내주식은 1주부터, 해외주식은 최소 1000원부터 소수점 단위로 투자 가능하다. 토스증권이 주식모으기 이용 고객들의 데이터를 분석한 결과에 따르면 고객 1인당 평균 2건의 주식모으기를 이용하고 있으며 매일 꾸준히 투자하는 비중이 가장 높게 나타났다. 가장 많이 투자하는 종목은 테슬라였고, 애플과 스타벅스가 그 뒤를 이었다. 상위 4개 종목 중 국내주식은 삼성전자가 유일했다.토스증권 관계자는 "지난 1년간 침체된 시장 환경 속에서도 이용 고객이 빠르게 증가한 건 적립식 투자가 시장 리스크를 헤징하는 전략으로 유효했던 것으로 보인다"며 "시장 상황에 상관 없이 누구나 쉽고 간편하게 투자할 수 있는 서비스를 만들어 나가겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2023.03.21.</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>토스 - 한국투자저축은행...전자금융사기 예방 MOU</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002790069?sid=101</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>모바일 금융플랫폼 토스를 운영하는 비바리퍼블리카(토스)가 한국투자저축은행과 전자금융사기 예방을 위한 업무협약(MOU)을 체결했다고 21일 밝혔다. 이번 협약을 통해 토스는 자체 개발한 악성 앱 탐지 기능 '토스 피싱제로'를 제공하고, 한국투자저축은행은 제공받은 솔루션을 시범 적용해 보안체계를 더욱 강화한다는 계획이다.'토스 피싱제로'는 2022년 4월 안드로이드용 토스 앱에 탑재됐다. 권한의 적절성, 악성 행위 가능성 등 휴대폰에 설치돼 있는 앱의 악성 여부를 판단하는 역할을 한다.'토스 피싱제로'는 토스의 보안기술팀이 자체 개발한 '악성 앱 분석 자동화 시스템'을 활용한다. 특히 보이스피싱을 통해 금융 피해를 유발하는 신종·변이 악성 앱을 실시간으로 탐지해내는 것이 특징이다. 악성 앱이 존재할 경우 앱 삭제를 권고하고, 삭제하지 않을 경우 금융 서비스 이용이 불가함을 안내해 안전한 환경에서 금융 서비스를 이용할 수 있도록 금융 소비자를 보호한다. 2022년 4월부터 2023년 1월까지 탐지한 악성 앱의 개수는 누적 약 68만 건 이상, 보호한 금융 소비자는 누적 10만 명 이상에 달하는 것으로 집계됐다.토스의 김규하 최고사업책임자(CBO)는 "앞으로 '토스 피싱제로'의 제공 범위를 넓히고 완성도도 높여나갈 것"이라고 말했다. 토스와 한국투자저축은행이 전자금융사기 예방을 위한 업무협약에 나섰다. 토스 김규하(왼쪽) CBO와 한국투자저축은행 전찬우 전무가 기념 촬영하고 있다. 토스 제공</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2023.03.26.</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>미국, 0.25%p 금리 인상...한국 경제 영향은?</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/052/0001865338?sid=101</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>■ 진행 : 김선희 앵커, 이현웅 앵커■ 출연 : 이정환 한양대 경제금융대학 교수* 아래 텍스트는 실제 방송 내용과 차이가 있을 수 있으니 보다 정확한 내용은 방송으로 확인하시기 바랍니다. 인용 시 [YTN 뉴스와이드] 명시해주시기 바랍니다.[앵커]실리콘밸리 은행 파산 여파 속에 미국이 기준금리를 0.25%포인트 올렸습니다.[앵커] 한미 간 금리 격차가 커진 가운데다음 달 우리나라의 기준금리 결정에 관심이 쏠립니다. 자세한 내용, 이정환 한양대 교수와 전망해보겠습니다.미국이 실리콘밸리은행 파산 사태 속에서 기준금리를 0.25%포인트 올렸습니다. 실리콘밸리은행 같은 경우 벤처 스타트업계 주거래 은행이어서 파산 여파가 적지 않습니다. 경제, 특히 금융 상황에 대한 영향이 큰 데도 불고하고 이렇게 기준금리를 올린 배경 어디에 있다고 보십니까?[이정환] 이게 사실은 3월 한 달 동안 FOMC에서 기준금리 얼마나 올릴지에 대해서 뉴스가 굉장히 많이 나왔고요. 혼란한 시기가 있었다고 일단 보시면 될 것 같습니다. 3월 초에는 파월 의장이 이번에 소비자물가지수가 예측보다 굉장히 높게 나오고 생산자물가지수 역시 예측보다 높게 나오고. 흔히 말하는 실업률이라든지 노동지표들이 예측보다 좋게 나왔다.경기가 호황이다라는 것을 강조하면서 3월 7, 8일쯤에는 빅스텝을 단행하지 않을까라는 메시지를 줬죠. 왜냐하면 경제지표상으로 보면 물가안정이 안 되는 것 같고 노동시장이 계속 좋다 보니까 인플레이션 압박, 임금이 올라가면서 인플레이션이 발생하지 않을까 해서 빅스텝을 단행한다는 이야기를 했는데. 그런데 그 직후 사실 며칠 되지 않아서 SVB 실리콘밸리뱅크가 파산하게 됐죠. 파산하게 되는 게 결국 금리를 너무 빨리 올리게 되고 예전에 샀던 채권들, 안전한 채권이기는 한데 국채라고 해서 안전한 채권이기는 하지만 예전에 샀던 채권들이 가치가 떨어지면서 아무래도 금리를 1% 주는 채권하고 지금 사면 금리를 3~4% 주는데 1% 주는 채권의 가치는 굉장히 많이 떨어질 수밖에 없거든요.그런 것들이 문제가 되면서 대차대조표에 문제가 생기고 이에 따라 실리콘밸리뱅크가 파산하게 되고. 시그니처 은행 같은 다른 은행들도 연쇄 파산이 일어나면서 금융시장에 혼란이 왔다. 그리고 금융시장 혼란의 주범이 다른 게 아니라 금리인상 때문이 아니냐, 이 친구들이 결국은 안전한 자산을 갖고 있었음에도 불구하고, 국채라는 건 굉장히 안전한 자산이거든요.안전한 자산을 갖고 있었음에도 불구하고 파산한 것은 금리를 너무 빨리 올리면서 예전에 샀던 채권의 가치들이 굉장히 하락하고 이것들이 사람들의 우려, 예금주들은 결국 은행이 돈을 못 갚을 거라고 생각하면 무조건 빨리 가서 돈을 빼는 게 우선이기 때문에 그런 심리적인 우려가 생기면서 금리를 안 올려야 되지 않냐라는 이야기가 많이 나왔죠. 그래서 한때 실리콘밸리뱅크가 파산을 한 직후에는 이번 FOMC에서는 금리를 안 올릴 가능성도 굉장히 높다는 이야기가 나왔거든요. 그런데 연준 혹은 미국 정부에서 예금자는 보호해 주겠다는 강력한 정책을 하고. 흔히 말하는 시장 리스크가 지역적인 것이기 때문에 그렇게 크지 않다는 것을 천명하면서 어떻게 보면 중간을 취했다고 보시면 될 것 같습니다.경제상황 상으로는 금리를 올려야 되지만 금융 상황상 특히나 대차대조표상에서 금리를 많이 올리게 되면 여러 은행들에 대차대조표의 충격이 우려되고 이에 따라서 뱅크런 사태가 확산될 수 있기 때문에 0.5%포인트와 0.2%의 중앙을 택했다고 아마 이해하시면 괜찮지 않을까 생각합니다. [앵커] 이렇게 미국이 기준금리를 올리게 되면서 4.75에서 5%가 됐습니다. 상단 기준으로 보면 우리와 1.5%포인트 차이가 나게 됐고. 이게 2000년 이후 22년 만에 가장 크게 벌어진 거라고 합니다. 이렇게 되면 다음 달이죠. 4월에 있을 한국은행 금통위에서 머리가 좀 아플 것 같은데 어떻게 전망하시나요?[이정환] 기준금리가 차이가 많이 나게 되면 우려하는 부분이 크게 두 가지가 있습니다. 기준금리 차이라는 것은 미국의 금리가 한국의 금리보다 굉장히 많이 높아졌다, 차이가 난다는 이야기로 말씀드릴 수 있겠고요. 아무래도 미국의 기준금리가 올라가게 되면 첫째는 환율이 영향을 받습니다.환율이 영향을 받는 게 아무래도 미국의 투자 기회가 좋다 보니까 달러로 투자하면 5%를 주는데 한국에 투자하면 3%밖에 안 준다고 하면 달러를 사서, 달러 국채를 사서 높은 수익을 올리려는 경향성이 있으면서 달러에 대한 수요가 늘고요. 그렇다는 얘기는 원화에 대한 수요가 감소하면서 원달러의 가치를 비교하는 환율이 올라가게 됩니다. 이렇게 환율이 올라가게 되면 수입물가가 상승하게 되고요.수입물가가 상승하게 되면 인플레이션 압력이 또 자극되면서 결국 사실 우리나라도 인플레이션 문제가 심각한데 이 인플레이션을 잡으려는 한은의 노력이 점차 강해져야 되는 상황이 오기 때문에 일단 기준금리 차가 벌어지면 환율이 올라가고 이에 따라서 금리를 올려야 될 가능성이 있다고 이야기하시는 분들이 많습니다.그다음에는 기준금리 격차가 나면 비슷한 논리에 따라서 자금유출이 우려되거든요. 자금유출이라는 것은 결국 미국의 투자 기회가 좋기 때문에 한국의 주식에 투자했던 분들도 돈을 다 빼서 미국에 투자하는 경향성들이 발생하면서 자본시장에 혼란이 오지 않을까라는 그런 이야기가 있습니다. 그런데 지금은 어떤 것들을 봐야 되냐면 기준금리도 중요하지만 장기금리가 투자 관점에서 훨씬 더 중요하거든요. 장기금리라는 것은 기준금리라는 것은 초단기 금리입니다.하루, 이틀 사이. 많아봐야 일주일 사이의 금리를 이야기하는 것이고 보통 투자를 할 때 그렇게 짧게 하지 않죠. 투자자들의 움직임이라는 것은 1년, 2년, 3년 장기적으로 봐야 되는데 3월 8일에 비해서 미국의 기준금리 상단 예측치가 조금 떨어졌습니다. 그러니까 예측치가 떨어졌다는 얘기는 앞으로 어디까지 갈 것이냐에 대한 전망치들이 있는데. 3월 초에 소비자물가지수가 높게 나오고 생산자물가지수가 높게 나올 때 비해서 실리콘밸리뱅크 사태가 터지니까 미국이 기준금리를 올릴 여유가 그렇게 많지 않다.그래서 5.5% 수준으로 예측하고 있었는데 그때 당시에는 6%도 가지 않을까, 금리 상단이 6%도 가지 않을까라는 이야기를 하고 있거든요. 그렇다는 얘기는 기준금리를 올리기는 했지만 장기적으로 봤을 때는 실리콘밸리뱅크 사태로 인해서 미국이 기준금리 정책을 조금 더 완화적으로 갈 가능성이 높아지고 있고. 실제로 이에 따라서 미국의 장기물국채금리인데 장기물국채금리가 오히려 떨어지고 있거든요. 그래서 한국과의 금리 격차가 오르고 있는 상황도 발생하고 있는 데다가 실제 환율 역시 굉장히 안정적입니다.왜냐하면 이런 기대들이 기준금리는 초단기적인 계획이고 결국 경제를 봤을 때 1년, 2년 길게는 10년 단위로 운영되는 것이기 때문에 전반적인 영향을 고려해 본다면 환율도 안정되고 있고 그다음에 자본유출의 우려가 없기 때문에 아무래도 물가상승 압력, 환율 압력이 있었다고 하면 기준금리를 인상해야 된다는 압력 이야기도 많이 나오겠지만 그러지는 않을 것 같다는 게 전반적인 평가이기는 합니다.[앵커] 한국은행에서는 고심은 있겠지만 생각보다 그렇게 인상을 하거나 할 것 같지 않다는 전망을 주셨어요. 어쨌든 미국의 경우 이 실리콘밸리은행 파산 이후에 금융권 불안이 이어지고 있는 게 사실입니다. 예금자보호를 해 주겠다, 이렇게 진정시키려고 천명도 하고 그랬지만 그럼에도 불구하고 제롬 파월 의장, 연내 금리 인하는 없을 거다, 이렇게 못을 박았어요. 어떻게 보면 금융권 불안이 곧 정리될 것이라는 자신감을 내보인 걸까요? [이정환] 금융권 불안에 대해서 그러니까 감독당국을 이해할 필요가 있는데. 감독당국에서 중요하게 생각하는 것은 금융 시스템 상에서 중요한 은행들이라고 보통 이야기를 하고요. 그런 은행들은 어떻게 평가가 되느냐. 흔히 말해서 여러 은행들, 여러 금융기관과 연계성이 큰 외부성이 큰 은행, 독자적인 역할을 할 수 있는 대체 가능성, 그다음에 규모 이런 것들을 종합적으로 평가하게 되는데. 이 실리콘밸리뱅크 같은 것들은 캘리포니아 벤처캐피탈이라고 하는 국지적인 은행들이고요.나머지 시스템적으로 중요한 은행들은 2008년 이후에 굉장한 규제를 많이 받았습니다. 굉장히 규제를 많이 받아서 자기자본에 대한 추가적인 정리 혹은 자구책 마련, 그다음에 구제금융, 혹시나 문제가 생겼을 때 플랜B를 어떻게 운영할 것인가에 대해서 굉장히 세세하게 써내라는 식으로 안정적으로 운영이 돼 있기 때문에 흔히 여러분들이 미국의 중요한 은행들, 큰 은행들이라고 하면 씨티은행, 체이스, 뱅크오브아메리카 은행들이 있는데 이런 은행들에 대해서는 건전성에 대한 믿음이 있거든요.그렇기 때문에 이런 은행들이 문제가 되지 않는다고 생각하면 우리 은행 시스템 자체가 탄탄하고 유동성을 보유하고 있다. 건전하고 강력하다는 이야기를 할 수가 있겠고요. 물론 몇 개 은행들, 지역적으로 흔히 말하는 채권 같은 것들을 잘못 사서 부실에 빠질 은행들이 있기는 하겠지만 이런 것들은 예금주를 보호하면서 금융시장을 안정시킬 수 있다는 기대감이 분명히 있는 것 같습니다.실제 주가 역시 기대들이 반영되면서 실리콘밸리뱅크 사태가 났을 때는 주가가 떨어지기는 했지만 전반적으로 회복하는 기조를 보이고 있는. 그래서 미국 내 금융 시스템의 문제는 별로 없을 것 같다는 그런 이야기는 많이 하고 있습니다.그런데 크레디트스위스나 도이치뱅크는 이게 어떻게 연결이 됐냐를 아셔야 되는데 크레디트스위스 같은 경우에는 부실이 누적된 은행이라고 보시면 될 것 같고요. 부실이 누적된다는 것은 은행업이라는 것은 예금을 대출로 바꿔주는 업이라고 볼 수 있는데 그런 것의 문제는 아니고. 투자은행업이라고 얘기를 하는데 증권을 발행한다든지 인수합병한다든지 이런 과정 속에서 손실이 누적되면서 2020년 후반부터 이 은행이 부실하다는 이야기가 굉장히 많이 나왔습니다.부실하다는 것들이 실리콘밸리은행 사태들이 터지면서 은행의 대차대조표를 다시 보게 되고 대차대조표를 다시 보게 되니까 크레디트스위스은행 같은 것들이 위험한 거 아니냐라는 평가가 이뤄지게 됐고요. 이에 따라서 뱅크런 사태가 발생하면서 결국 크레디트스위스가 UBS라고 하는데 스위스 제일 큰 은행에 합병되는 사태가 발생했거든요. 그런데 사태가 여기서 끝나는 게 아니라 크레디트스위스가 발행한 코코본드라는 게 있는데, 자기자본을 확충하기 위해서 주식하고 채권 사이의 어떤 중간쯤 채권들이 있는데 이 코코본드라는 것들을 인수합병 과정 속에서 안 갚아야 된다는 이야기를 했거든요. 그러니까 안 갚겠다는 이야기를 해 버렸기 때문에 코코본드에 대한 노출도가 높은, 그러니까 다시 말해서 코코본드를 통해서 자기자본을 조달한 도이치뱅크에 대한 의구심이 굉장히 커지는 상황들이 발생했다고 보시면 될 것 같습니다.특히 도이치뱅크는 예전에 2010년대 초반에 미국의 제재를 받을 정도로 부실했던 사태가 있었고요. 그다음에 최근 미국 상업 부동산이 안 좋다고 많이 이야기를 하는데 거기에 노출도가 높으면서 이 불안감들이 조성됐기 때문에 코코본드를 많이 활용했던 도이치뱅크에 대한 의구심이 굉장히 커지면서 도이치뱅크에 대한 부도 확률이 높아지게 되는 상황들이 발생했다.그래서 근본적으로는 은행업이라는 것은 위기에 취약할 수밖에 없습니다. 위기에 취약한다는 것은 예금은 늘 뺄 수 있는 거지만 은행에 비어진 것들, 은행이 가진 것들은 쉽게 팔 수 없는 거거든요. 그래서 은행이 가진 현금 자산은 한정적인 것이고 사람들이 이 은행이 부실화가 된다는 기대감이 생기는 순간 너도 나도 돈을 가서 뺄 것이기 때문에 부실화 과정, 기대감이 형성되는 과정들이 전파가 미국에서 시작됐지만 유럽 은행들로 이어지면서 금융시장 혼란이 잦아들지 있지는 않다고 보시면 될 것 같습니다.[앵커] 한 가지만 추가로 질문을 드리고 싶은데 최근 유로존 그래서 20개국 정상들이 만나서 우리 유럽은행들 자본 유동성 탄탄해서 문제없다, 이렇게 강조했음에도 불구하고 일부에서는 2008년 세계 금융위기 다시 오는 게 아니냐는 우려가 나오고 있는 것도 사실이거든요.[이정환] 거의 확률은 없다고 보시면 될 것 같고요. 근본적인 것은 2008년 이후에 중요한 은행들, 큰 은행들에 대해서 굉장히 강력한 규제를 많이 했다는 그런 상황들이 존재합니다. 물론 크레디트스위스 같은 경우에는 비은행업이 문제가 생겨서 그렇지만 근본적으로는 리스크 관리를 전반적으로 잘하고 있다고 보시면 될 것 같습니다. [앵커] 알겠습니다. 다음 소식 짚어보겠습니다. 테라와 루나 폭락사태의 장본인으로 지목된 권도형 대표가 체포됐습니다. 국내 피해자만 20만 명이 넘는다고 알려져 있는데. 이렇게 될 경우에 투자자들 피해 회복 가능합니까? [이정환] 불가능하다고 보시면 될 것 같고요. 투자자라는 게 크게 두 가지입니다. 루나랑 테라랑 코인에 투자한 사람들이 있고요. 아니면 루나와 테라를 만든 테라폼이라는 권도형 피의자가 만든 회사에 투자한 사람들이 있는데. 회사에 투자한 사람들은 일부 혹시나 어떻게 된다고 하면 이 자본시장법에 따라서 약간은 혜택을 받을 수도 있지만 코인이나 이런 것에 직접 투자한 사람들은 사실 구제 방안이 없습니다.왜 구제할 방안이 없냐면 결국 코인이라는 게 아직까지 제대로 입법이 된 상품이 아니거든요. 코인이 여러 가지 종류가 있다 보니까 이것이 주식처럼 증권 형태인지, 혹은 채권형 증권 형태인지 아니면 밀가루나 이런 것들처럼 상품 형태인지 이런 것에 대한 의견조차 불분명한 상황이거든요.그래서 한동안 입법에 대한 공백이 있었고 입법에 대한 공백이 있다는 얘기는 법적으로 뭘 처벌할 수가 없다는 이야기입니다. 입법이 제도화가 돼야 이런 이런 상태로 코인이 발행돼야 되고 규칙을 안 지킨 코인에 대해서 투자자에 대한 보호를 할 수 있는데 그렇지만 이 코인 사태는 아직까지 입법이 완전하게 진행된 상태가 아니고 이건 코인의 굉장히 특별한 성질. 상품으로 봐야 되느냐, 주식으로 봐야 되느냐의 여러 가지 논의가 나오면서 이것을 정리하는 것부터 굉장히 오래 걸렸거든요.아무래도 법이라는 것은 안정성을 지켜야 되는데 안정성을 유지하려고 하면 굉장히 상품성, 증권성에 대한 연구가 많이 진행돼야 되고 이 과정이 너무 오래 걸렸다. 그렇기 때문에 아직까지 입법이 안 이뤄지고 있고 그렇기 때문에 다시 말해서 그때 코인에 직접 투자한 분들은 구제할 방법이 없다고 일단 보시면 될 것 같습니다. [앵커] 다시 말하면 투자자들이 잃은 돈을 일반적인 투자 손실로 볼 거냐, 아니면 사기 피해로 볼 수도 있는 거잖아요. 이 부분을 밝히는 게 굉장히 중요할 것 같은데 어느 쪽이 맞다고 보십니까?[이정환] 그런데 투자자가 아까 말씀드린 대로 두 가지인데 회사에 투자하신 분들은 사기로 볼 가능성이 있고. 미국 SEC의 방향 역시 사기로 봐야 된다는 입장이거든요. 나중에 루나, 테라라든지 거래에 사용한다고 했고 거래로 사용하는 자산들은 보통 증권으로 인식을 하기 때문에 이런 증권에 투자할 때 권도형 피고가 될 사람이 결국 이것들이 문제가 될 것을 알고 투자자들을 모았다는 입장에서 실질적 주식이나 채권에 투자한 사람이겠죠. 투자자를 모았다는 측면에서 사기죄가 성립할 수 있다고 볼 수 있습니다.그렇지만 흔히 말해서 직접적으로 우리나라 빗썸이라든지 거래소에서 코인을 사신 분들은 직접적인 투자, 회사에 대한 투자는 전혀 아니고 자본시장법이 보호하는 투자의 대상이 아니기 때문에. 그리고 코인에 대한 입법이 완전하게 이뤄진 것이 아니기 때문에 이런 투자자분들은 판결이 어떻게 나든 회복이 굉장히 어렵다고 일단 인지를 하시면 될 것 같습니다. [앵커] 국내 경제 소식 다음으로 짚어보겠습니다. 취약계층을 대상으로 최대 100만 원까지 빌려주는 소액생계비대출이 처음에 여러 가지 비판 혹은 걱정도 있었습니다마는 인기를 얻고 있다고 합니다. 신청자가 폭주해서 다음 달까지 상담예약이 거의 마감된 상태라고요.[이정환] 맞습니다. 금리가 굉장히 높은데 15%가 넘는 금리를 대출해 주는데 왜 많이 몰리느냐, 이런 것에 대해서 궁금해하시는 분들이 많은데. 사실 이 대상 자체가 굉장히 신용도가 낮고 소득이 낮은 분들을 대상으로 하고 있어서 15%가 넘는 고금리임에도 불구하고 사람들이 많이 몰리고 있다고 보시면 될 것 같고요.[앵커] 말씀하신 것처럼 신용평점이 하위 20% 이하입니다. 더군다나 연소득 3500만 원 이하인 분들만 신청을 할 수 있더라고요.[이정환] 맞습니다. 서민계층, 금융의 서민금융이라고 얘기하는데 취약계층에 대한 지원책이라고 말씀드릴 수 있겠고. 이분들이 예전이라면 저축은행 같은 데 가서 20% 안쪽의 금리를 대출받을 수 있었는데. 최근 금리가 급상승하고 채권금리 역시 굉장히 올라가다 보니까 저축은행에서 대출을 받을 수가 없거든요.특히 우리나라는 금리 상한이 있는데 20%가 상한이기 때문에 저축은행에서 이분들의 신용 평가를 하자면 예를 들어서 27% 받아야 된다고 생각을 하면 사실 20% 금리로는 대출을 더 이상 해 줄 수 없기 때문에 대출이 막힌 상태입니다. 이렇게 되면 불법사금융이라고 얘기하죠. 금리가 40%가 넘는 불법사금융으로 가서 사채를 쓴다든지 일수를 쓴다는 말들을 하는데. 이분들이 그런 시장으로 갈 수밖에 없거든요.당장 긴급한 생활비가 필요한 분들이 실제 우리나라가 제2금융권이라고 얘기하죠. 제도권에 편중된 금융권에 가면 금리를 너무 높게 받아서 금리상한에 걸려서 빌릴 수가 없기 때문에 사채시장으로 가야 되는 상황이 발생하고요. 이런 것을 막으려고 어떻게 보자면 긴급생활비라든지 이런 것들에 대해서 정부가 즉각적으로 대출해 주는 이런 제도를 만들었다고 보시면 될 것 같습니다.[앵커] 말씀하신 것처럼 취약계층을 대상으로 한 건데 그럼에도 불구하고 저소득층에 빌려주는 거면 금리를 낮췄어야 되는 거 아니냐, 15.9%거든요. 이거 좀 과도하다는 지적이 나오고 있더라고요. 이건 어떻게 보십니까?[이정환] 사실 이게 절대적인 기준으로 보면 과도하다는 이야기들이 많이 나올 수 있는데. 일단 아까 말씀하신 것처럼 취약차주들, 돈을 빌릴 때 굉장히 어려움을 겪는 차주. 그러니까 실제로 빌리려면 정상적으로 평가하면 30% 정도, 20% 이상 굉장히 높은 금리로 빌려야 되는 분들이 이런 것을 이용하고 있다는 게 하나의 특징이라고 말씀드릴 수 있겠고요. 두 번째로는 최근 서민금융 동향 자체가 열심히 갚은 사람들을 도와주자는 쪽으로 가고 있거든요.열심히 갚은 사람들이라는 것은 결국 이자를 착실히 낸 사람들한테는 이자비용을 감면해 주면서 실질적으로 서민금융을 이용하는 분들이 혜택을 받을 수 있도록. 그러니까 다시 말해서 투기 목적으로 돈을 빌려서 쓰는 분들이 아니라 진짜 자기가 갚을 의도가 있는데 돈을 빌리지 못해서, 너무 고금리로 빌려야 되는 사람들에 대해서 혜택을 주자는 입장으로 가고 있기 때문에 6개월 혹은 1년 동안 계속 갚을 경우 금리 9%대까지 하락하는 이런 구조로 만들었기 때문에 물론 높지만 대상 자체가 굉장히 신용도가 낮은 분들이나 그리고 이 높은 금리를 완화할 수 있는 메커니즘 같은 것들을 이 제도에 포함했다고 보시면 될 것 같습니다.[앵커] 다음은 애플페이 얘기입니다. 최근에 애플페이에 대한 관심이 상당히 뜨거운데 사용이 제한적이라서 시장에 영향이 클 거다, 아니다 예측이 분분하더라고요. 주변에서 사용하신 분들도 있을 텐데 어떻게 보고 계신가요?[이정환] 보통 단말기가 한 300만 개 정도 있다고 이야기하는데 삼성페이 같은 페이가 가능한 단말기가 300만 개 정도 있는데 애플페이가 아직까지 가능한 거는 10% 정도라고 이야기하더라고요. 10% 정도이기 때문에 이게 늘어나면서 어떻게 확장될 것이냐. 얼마나 많은 가맹점들이 애플페이를 받아들일 수 있을까가 중요한 이슈라고 볼 수 있을 것 같고요.지금은 현대카드가 앞장서서 어떻게 보면 애플페이를 주도하고 있지만 지금 토스 같은 핀테크 업체죠. 핀테크 업체에서 굉장한 전략으로 어차피 핀테크 업체라는 것은 신규 산업 전략을 가지고 매출을 높여야 되는 상황들이 발생하는데. 토스와 같은 핀테크 업체들이 경쟁적으로 어떻게 보면 단말기를 지급하고 자기의 수익도 만들고 이 단말기를 통해서 정보가 가게 되죠. 자기들이 정보를 갖게 되면 흔히 말하는 기업, 이 가계의, 자영업자들의 신용도를 평가해서 대출을 해 주겠다는 이야기까지 나오고 있거든요.지금 상태는 10% 수준으로 굉장히 낮지만 카드사뿐만 아니라 핀테크 업체 역시 애플페이에 대해서 굉장히 눈독을 들이고 있는 상황이고. 이런 것을 바탕으로 해서 지불 결제에 대한 정확한 정보를 가지고 대출업, 사실은 금융업의 끝은 자금중개업이라고 이야기하는데. 이 자금중개업으로 나갈 발판을 마련하고 있는 상황이라 생각보다는 빨리 확장될 수 있다.지금은 한 10% 정도 수준, 첫날에는 거래 오류도 있었다고 얘기하지만 이런 것은 아마 금방 안정화될 것이고 핀테크 산업들이 들어오게 된다면 빨리 안정화될 수도 있는 상황이라고 보시면 될 것 같습니다. [앵커] 부동산 얘기를 해보고 싶습니다. 올해 공동주택 공시가격 발표가 됐는데 지난해 비교해서 18.6%가 떨어졌더라고요. 역대 최대 하락폭이라고 하는데 어떤 것들이 공동주택 공시가격 하락에 영향을 미친 걸까요? [이정환] 공시가격이라는 것은 기본적으로 여러분들이 내는 재산세, 종부세, 건강보험료까지 연동되는 부동산가격의 기준이라고 보면 될 것 같고요. 이것 역시 현재 지가가 떨어지게 되면 아마 공시지가 역시 큰 영향을 받을 수밖에 없다고 보시면 될 것 같습니다. 지가가 떨어지는 근본적인 원인은 금리 상승이죠. 금리가 올해 역사상 유례없이 떨어졌다고 이야기하는데 이 공시지가가. 금리 역시 역사상 유례없이 올랐습니다.0.5% 수준으로 가다가 급작스럽게 3.5% 수준까지 가면서 금리인상에 대한 효과가 시장에 반영되는 수준이다. 금리인상으로 사람들이 결국 대출을 일으킬 수 없고 부동산 대출 역시 부동산을 구매하는 데 가장 중요한 역할을 하고 혹은 부동산가격을 뻥튀기한다고 이야기하는데 버블을 만드는 중요한 역할을 하고 있다고 이야기하거든요.금리 인상이 되다 보니까 투자형 부동산에 대한 수요들이 급감하게 되고 수요가 급감하게 되면 시장 가격이 급감을 하게 되고 공시가격이 떨어질 수밖에 없습니다. 특히 세종에서 굉장히 많이 떨어졌다고 이야기하는데 세종에서 실제 가격이 많이 떨어지니까 부동산 공시가격이 굉장히 많이 떨어졌다고 보시면 될 것 같고요. 전반적으로 공시가격이라는 것들은 결국 시장가격 연동해서 변한다.시장가격이 변동하는 가장 큰 요인은 금리의 인상 그리고 아까 말씀 안 드렸지만 부동산 건설경기 자체가 위축된 것이 아니냐는 기대감들이 겹치면서 굉장히 큰 하락을 겪었다고 보면 될 것 같습니다. [앵커] 이렇게 공시가격이 변동되면 늘 상징적인 고가 아파트들 중심으로 보유세나 이런 것들의 변동이 보도를 통해서 전해지게 되는데 공시가격 하락으로 서민들이 받는 혜택이 있다면 어떤 것들이 있습니까?[이정환] 일단 재산세 혹은 건강보험료를 크게 얘기합니다. 특히 고가주택에 사시는 분들은 종합부동산세가 중요한 이야기고 그렇지 않은 분들은 재산세나 건강보험료가 중요하게 될 텐데 특히 건강보험료가 일반적으로 기업을 다니시는 분들은 건강보험료가 연동이 안 돼 있기 때문에 건강보험료가 소득에 따라 결정되니까 자영업자들은 건강보험료가 본인이 가진 공동주택의 가격, 자동차에 의해서 결정되게 돼 있고요.이렇기 때문에 공시지가가 하락하게 되면 공시지가에 연동돼 있는 재산세도 떨어질 것이고 건강보험료 역시 올라서 실질적인 부담이 되고 있다는 얘기를 많이 하는데 일반 기업을 다니는 분들은 아니고 자영업자들의 건강보험료 일부 하락할 가능성이 있다고 보시면 될 것 같습니다.[앵커] 어쨌든 공시가격가 역대 최대 하락폭을 보이면서 떨어졌습니다. 얼어붙은 부동산 시장에는 어떤 영향을 줄 수 있을까요?[이정환] 부동산 시장에는 수요와 공급인데 모든 시장이 결국 수요와 공급에 따라 갈리게 될 텐데요. 공시지가가 하락한다는 이야기는 공급이 조금 줄어들 수 있는 요인은 된다고 보면 될 것 같습니다. 아무래도 종합부동산세라든지 재산세에 대한 부담이 감경되면 집을 가진 분들이 굳이 급매로 내놓거나 이런 부담은 줄어들게 되거든요.아무래도 종합부동산세가 20% 이상 감소된다는 이야기도 많이 나오고 있고 이런 것들 때문에 고액 주택, 특히나 아니면 재산세 자체가 부담이 되는 분들이 결국 주택을 공급시장에 내놓을 가능성이 조금 적다고 보시면 될 것 같습니다. 이에 따라서 공급이 위축될 가능성이 있는데. 그런데 지금의 문제는 사실 수요의 문제죠. 수요의 문제라는 것은 주택가격이 떨어질 것이라는 기대가 굉장히 많이 형성돼 있고 기준금리가 너무 올라가서 또 빚을 내기도 어려울 것이라는 기대감들이 형성돼 있기 때문에 기준금리 인상에 따라서 수요가 너무 위축돼 있고 이런 기대들이 꺾이지 않는 상황. 부동산 PF 때문에 지금 부동산 주택 분양 자체가 안 되고 있는 상황이 발생하고 있어서 한동안은 가격이 떨어지는 폭을 줄이기는 하겠지만 가격이 이것을 계기로 급반등하거나 이럴 일은 없지 않을까. 결국 지금의 상황이, 지금 부동산 시장 상황이 수요측 요인이 큰 것이고 지금 정책 자체는 공급을 줄이는 역할을 하고 있기 때문에 가격의 급반등을 예측하기는 어렵다고 결론 내릴 수 있을 것 같습니다.[앵커] 미국의 0.25%포인트 금리 인상 이후 우리 경제에 어떤 영향을 줄지 이정환 한양대 교수와 함께 짚어봤습니다. 오늘 말씀 고맙습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2023.03.22.</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>한투증권, 카카오뱅크·토스뱅크와 ‘STO 협의체’ 결성</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005105183?sid=101</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>[사진제공=한국투자증권]이르면 내년부터 시작될 것으로 전망되는 ‘토큰 증권(STO)’ 시장을 선점하기 위한 증권사들의 행보가 빨라지고 있다.한국투자증권은 22일 카카오뱅크·토스뱅크와 함꼐 STO협의체 ‘한국 ST 프렌즈’를 결성하고 토큰증권 생태계 구축에 나선다고 밝혔다.  토큰 증권이란 부동산, 미술품은 물론 음원 등까지 투자 가능한 자산들을 쪼개 발행한 증권을 뜻한다. 블록체인 기술을 활용해 이르면 내년부터 도입될 전망이다.금융위원회가 지난달 ‘토큰증권 가이드라인’을 내놓은 이후 각 증권사들이 경쟁적으로 관련 시장 공략을 위한 방안을  내놓고 있다. 증권업계에선 장기적으로 토큰증권이 주식 채권 등에 이은 새로운 성장동력이 될 수 있을 것으로 기대하고 있어서다.한국투자증권이 이날 밝힌 협의체엔 카카오뱅크와 토스뱅크가 블록체인 시범 운영 파트너로 참여한다.  한국투자증권은 카뱅의 2대 주주다. 또 한국은행 중앙은행 디지털화폐(CBDC) 모의실험 사업을 수행한 카카오엔터프라이즈가 분산원장 구축을 위한 기술 파트너로 차명한다.한국투자증권은 연내 발행 분산원장 인프라를 구축하고 안정성과 보안성 테스트를 진행할 예정이다. 이후 본격적인 토큰증권 상품 공급을 추진하기로 했다. 초기 생태계 구축이 완료되면 경쟁력있는 조각투자 기업들의 참여를 유도해 투자자 보호, 시스템 안정을 최우선으로 하는 토큰증권 생태계로 확장해나간다는 목표다.한국투자증권 관계자는 “토큰증권에 적합한 상품을 공급할 수 있는 발행 인프라 구축이 토큰증권 생태계 구성의 첫 걸음”이라며 “파트너간 시너지를 극대화해 토큰증권 활성화와 양질의 상품 제공에 역할을 다하겠다”고 말했다.금융위는 상반기 중 토큰 증권과 관련한 전자증권법 및 자본시장법 개정안을 제출할 계획이다.한국투자증권 외에도 KB증권은 관련 생태계 확대 등을 위해 ‘ST 오너스’를 출범했다. 이 외에도 미래에셋증권, 신한투자증권,  NH투자증권, 하나증권, 대신증권, 교보증권, SK증권 등도 협의체 설립을 비롯해 관련 플랫폼기업 투자·인수 등을 검토하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2023.03.24.</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>인터넷·지방은행 공동대출 도입 건의</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003753626?sid=101</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>김소영 금융위원회 부위원장이 22일 오전 서울 종로구 정부서울청사에서 열린 은행권 경영·영업 관행·제도 개선 제4차 실무작업반 회의에서 예금 비교, 추천 혁신금융서비스 및 인터넷전문은행 경쟁력 강화 방안에 대해 논의하고 있다. /금융위원회										인터넷전문은행이 경쟁력 강화 방안의 하나로 지방은행과의 ‘공동 대출’ 도입을 금융 당국에 건의했다. 정부는 시중은행 중심의 과점 체제를 완화한다는 차원에서 도입을 검토할 예정이다.23일 금융위원회에 따르면 카카오·케이·토스뱅크로 구성된 인터넷전문은행협의회는 정부서울청사에서 열린 ‘제4차 은행권 경영·영업 관행·제도 개선 실무작업반’ 회의에서 이 같은 건의 사항을 발표했다.‘공동 대출’은 인터넷은행이 고객을 모집해 대출 대상자를 선정하고, 대출 자금은 인터넷은행과 지방은행이 분담하는 대출 상품이다. 온라인 고객 모집과 비대면 고객 신용평가에 노하우를 축적해온 인터넷은행과 안정적인 자금 조달 부분에서 강점을 가지는 지방은행이 각자 역할을 나눠 맡는 식이다.인터넷은행은 적정 자본 비율 내에서 대출을 지속 공급해 성장 기반을 확대할 수 있고, 지방은행은 영업 채널을 다각화하면서 양질의 대출 상품들을 많이 확보한다는 점에서 양측 모두에게 이익이 될 것으로 평가받는다.고객이 인터넷은행 애플리케이션(앱)에서 대출을 신청한 뒤, 인터넷은행과 지방은행이 각각 심사해 통과가 되면 대출이 이뤄진다. 두 은행에서 사전 합의된 대출 비율에 따라 실행된다. 고객 대응 업무는 인터넷은행이 지방은행으로부터 위탁받아 수행한다. 토스뱅크와 광주은행이 현재 이 모델 도입을 추진하고 있다.정부는 법적·제도적 제약 여부 및 출시 가능성 등을 검토할 예정이다. 실무작업반을 이끌고 있는 김소영 금융위 부위원장은 “대출 재원을 확보하고 있는 지방은행과 소비자와의 넓은 접점을 가지고 있는 인터넷전문은행 간 협업을 통한 경쟁 촉진 효과가 기대된다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/기사데이터/토스/엑셀파일/news(토스, 2023.03.16~2023.03.31).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2023.03.16~2023.03.31).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,1256 +1705,6 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2023.03.29.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>30만 원 빌리려 사채 기웃…‘대출 한파’ 서민 벼랑 끝 내몬다</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/658/0000036847?sid=101</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>연체 늘자 제2금융권도 문턱 높여저신용자 정책 상품도 잇단 중단연 4000% 이자 불법 사금융 노출전문가 “법정금리 조정 등 절실”연체율이 급등하면서 ‘제도권 금융 마지노선’인 제2금융권 대출 문턱이 높아지고 있다. 이에 급전이 필요한 서민이 대거 제도권 밖으로 내몰린다.소액생계비(긴급생계비) 대출 상담 및 신청이 시작된 지난 27일 중앙서민금융통합지원센터에 대출 상담 안내문이 놓여 있다. 연합뉴스29일 금융업계에 따르면 전국 상호저축은행은 대출 심사 기준을 높이는 추세다. 부산 한 저축은행 관계자는 “예전엔 신용카드 소액대출인 ‘카드론’ 내역이 있어도 대출할 수 있었다. 하지만 지금은 기준이 높아져 카드론이 진행 중이면 대출이 어렵다. 전체적으로 심사 기준이 까다로워졌다”고 밝혔다. 저축은행 중앙회 관계자는 “연체율이 올라 더 빡빡하게 내부 심사 기준을 적용한다. 전국적으로 신규 대출보다 리스크 관리에 집중하고 있다”고 말했다.대출 규모 자체도 줄어 서민은 ‘대출 한파’에 힘들어한다. 금융위원회 자료를 보면 전 금융권의 지난해 가계대출은 2015년 이후 처음으로 감소했다. 2019년(56조2000억 원) 2020년(112조3000억 원) 2021년(107조5000억 원) 꾸준히 늘었지만, 지난해엔 8조7000억 원 줄었다. 제2금융권 가계대출 역시 2021년보다 5조9000억 원 감소했다.지난 1월 고금리 상황에 캐피탈과 저축은행을 비롯한 제2금융권 업체 10여 곳은 토스 카카오페이 등 중개 플랫폼을 통한 대출 신청을 차단했다. 예가람·대신·고려·DB저축은행 등은 저신용자 정책금융 상품인 ‘햇살론’ 신청을 중단했다. 금융당국은 “어려운 환경에도 서민금융 창구로서의 역할을 지속해 달라”고 당부했지만 역부족이었다.이에 서민이 제도권의 마지노선이라 여겨지는 제2금융권에서 밀려나면서 불법 대출에 노출되고 있다는 지적이 나온다. 최근 부산에서 발생한 사건이 구체적인 사례다. 급전이 필요했던 A씨는 미등록 대부업체에 연 4000%의 살인적 금리에 알몸 사진을 담보로 30만 원을 대출했다. A씨는 모든 이자를 포함해 100만 원을 상환했지만 대부업체는 30만 원을 별도로 갚지 않으면 알몸 사진을 인터넷에 유포하겠다고 협박했다. 이 업체는 유사한 방식으로 3500여 명에게 최고 연 4000%가 넘는 고리 이자를 챙긴 혐의로 경찰에 적발됐다.최근 정부가 출시한 소액 생계비 대출(연 15.9%)에도 최대 100만 원이라도 빌리려는 서민이 몰리면서 예약 첫날부터 서민금융진흥원 홈페이지 접속이 지연되기도 했다.동아대 경제학과 정남기 교수는 “금리가 연 15%대인 소액 생계비 대출이 인기를 끄는 것은 그만큼 불법 사금융으로 밀려날 위기에 처한 국민이 많다는 뜻이다”며 “합법적 금융사들이 취약계층 대출을 외면하지 않도록 20%로 묶인 법정 최고 금리를 조정하는 등 정부 대책이 필요하다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2023.03.27.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>국내은행도 위기설?…당국, 입출금 동향 실시간 점검</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/422/0000590724?sid=101</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>[앵커] 예금 인출 사태나 자금 부족 우려가 글로벌 은행들로까지 번지자 인터넷전문은행 위기설이 제기되는 등 그 불안감이 국내로도 파급될 조짐을 보이고 있습니다. 그러자 금융당국은 "현재로선 별다른 문제가 없다"면서도 은행 입출금 동향 실시간 점검에 들어갔습니다. 김동욱 기자입니다.[기자] 미국 실리콘밸리은행 파산을 시작으로 스위스 투자은행 크레디트스위스 매각, 최근 부도 위험이 제기되며 주가가 폭락한 독일 도이체방크까지….글로벌 은행들의 위기가 연쇄적으로 번지고 있습니다.금융 전문가들은 이들 은행과 국내 은행은 상황이 다르다며 지나친 우려에 대해 선을 긋고 있는 상황.하지만 한 인터넷전문은행의 위기설이 제기되는 해프닝도 있었습니다.토스뱅크가 지난 24일 연 3.5% 금리를 가입 즉시 제공하는 선이자 예금 상품을 출시하자, 유동성 우려가 있는 것 아니냐는 오해를 산 겁니다.홍민택 토스뱅크 대표는 "수신 확보가 아니라, 고객이 이자를 받는 불편한 경험을 개선하기 위한 것"이라며 "재무상황에 미치는 영향은 미미하다"고 해명했습니다.또 보도자료를 통해 "여신 9조원, 수신 23조원으로 안정적 성장세를 보이고 있고 하반기 손익분기점 달성이 가시화되고 있다"며 "은행의 예금 잔액에 대한 대출금 잔액 비율을 의미하는 예대율은 44%"라고 설명했습니다.&lt;홍민택 / 토스뱅크 대표&gt; "꾸준한 자본확충을 통해 건전성 제고, 대안 신용평가의 고도화, 부실관리 강화에 힘쓰고 소비자보호에 빈틈이 없도록 금융당국과 협력할 것입니다."금융당국은 지난주부터 국내 은행들의 입출금 동향 실시간 점검에 들어갔는데 "현재로선 별 문제가 없다"고 설명했습니다.또, 뱅크런 등에 대비한 비상계획을 점검하고, 예금자 보호한도 상향 방안도 검토 중입니다.연합뉴스TV 김동욱입니다. (dk1@yna.co.kr)#토스뱅크 #해프닝 #금융당국 #입출금동향 #실시간점검연합뉴스TV 기사문의 및 제보 : 카톡/라인 jebo23</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2023.03.22.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>금리인하 혜택 고신용자에게만...대출도 ‘빈익빈 부익부’</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002119810?sid=101</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>대출고객 평균 신용점수 최고수준은행권 “건전성 관리 위해 불가피”전문가 “소액생계비 대출 등 확대를”은행권 대출금리가 내리고 있는 가운데 정작 내려간 금리만큼 대출 문턱은 더 높아진 것으로 나타났다. 주요 시중은행에서 신용대출을 받은 고객의 평균 신용점수는 공시 이후 최고 수준을 기록한 상태다. [연합]은행권의 대출금리가 하락하고 있지만, 정작 내려간 금리만큼 대출 문턱은 더 높아진 것으로 드러났다. 실제 주요 시중은행에서 신용대출을 받은 고객의 평균 신용점수는 지난해 말 이후 꾸준히 상승세를 보여 공시 이후 최고 수준을 기록한 상태다. 심지어 중저신용자 대출 의무가 있는 인터넷은행에서도 고신용자의 대출 비중을 늘리는 현상이 포착되면서 대출 ‘빈익빈 부익부’ 현상에 대한 우려가 커지고 있다.22일 은행연합회에 따르면 5대 시중은행(KB국민·신한·하나·우리·NH농협)이 지난달 취급한 가계신용대출의 총평균금리(서민금융 제외)는 5.75%로 지난해 11월(6.68%) 이후 꾸준히 감소세를 나타내고 있다. 금융당국의 대출금리 인하 압박이 거세진 영향이다. 실제 같은 기간 기준금리는 0.25~0.5%포인트 상승했지만, 은행들은 가산금리 인하 등을 통해 대출금리 조정에 나서고 있다.문제는 고신용자 비중 확대와 함께 대출 문턱이 높아지면서 인하된 대출금리를 적용받기가 까다로워졌다는 점이다. 실제 지난달 5대 은행에서 신용대출을 받은 차주의 평균 신용점수는 918.8점(KCB)으로 지난해 11월(899.4점)과 비교했을 때 19점 가량 상승했다. 관련 공시가 시작된 지난해 7월 이후 가장 높은 수치다. 국민은행의 올 1월 신용대출 차주의 평균 신용점수(941점)는 전월(901점) 대비 40점가량 대폭 상향됐다.중저신용 대출 의무가 있는 인터넷은행에서도 같은 추세가 나타났다. 인터넷은행 3사(케이뱅크·카카오뱅크·토스뱅크)가 지난달 취급한 신용대출 차주의 평균 신용점수는 902.6점으로 공시 이후 처음으로 900점대에 진입했다. 지난해 11월(855.6점), 12월(840.6점)과 비교했을 때 약 50~60점가량 높다. 특히 카카오뱅크는 지난해 말 중저신용 비율을 맞추고자 차주들의 평균 신용점수를 770점까지 내렸지만, 올 2월에는 주요 시중은행과 유사한 평균 914점의 신용점수를 유지했다.이같은 은행권의 변화는 건전성 관리를 위해 부실 위험이 덜한 고신용자 대출 비중을 늘리고, 중저신용자 비중을 줄인 영향으로 풀이된다. 금리 인상기를 거치며 은행들이 보유한 대출 자산에 대한 부실 우려는 커지고 있다. 가시화되는 경기둔화 우려에 따라 늘어난 대출의 상환 능력이 줄어들고 있다는 지적이 나오면서다.금융감독원에 따르면 국내은행의 지난 1월 말 기준 원화대출 연체율은 0.31%로 전월(0.25%)과 비교해 0.06%포인트 상승했다. 이로써 국내은행 연체율은 약 20개월 만에 0.3%대에 진입했다. 중저신용자 대출 비중을 늘려온 인터넷은행의 경우 지난해 한 해 동안 연체율이 두 배 가까이 상승하는 등 보다 어려운 상황에 직면했다.은행권 관계자는 “금융당국에서 건전성 관리와 함께 대출금리 인하에 대한 요구도 지속하고 있는데, 두 가지 요구를 모두 맞추기 위해서는 결국 일정 부분에 대한 희생은 피할 수 없다”며 “특히 신용대출의 경우 신용점수와 연관된 부실 민감도가 높은 상품이기 때문에, 가장 빠르게 변화가 나타난 것”이라고 말했다.다만 은행권의 대출 문턱이 높아질 경우, 대출금리 인하의 효과도 일부 고신용자에 집중될 수밖에 없다. 저축은행 등 2금융권에서는 최근 수익성 관리를 위해 대출금리를 인상하는 추세다. 지난달 말 저축은행 가계신용대출 평균금리는 연 15.89%로 지난해말(15.77%)에 비해 소폭 상승했다. 여기에 리스크 관리를 목적으로 한 저신용자 대출 중단 비중도 늘고 있다. 일부 고신용자를 제외한 차주들은 되레 더 많은 금리를 주고 대출을 받아야 하는 상황에 처한 셈이다.대출 ‘빈익빈 부익부’ 현상은 기업대출에도 나타나고 있다. 주요 은행이 건전성 관리 차원으로 기업대출 심사를 강화하고, 우량기업을 위주로 대출 잔액을 늘린 탓이다. 5대 은행의 지난달 말 대기업대출 잔액은 약 111조원으로 지난해 말(105조원)에 비해 5% 이상 증가했지만, 중소기업대출 잔액(599조원)은 같은 기간 0.27% 상승에 그쳤다. 여기에 비우량 회사채의 발행 비중도 점차 줄어들며, 은행 대출에 의존해야 하는 중소기업 차주들의 자금 조달 어려움도 커지고 있다.전문가들은 은행서 밀려난 대출 차주들에 대한 지원을 강화하고 대출금리 규제를 재점검할 필요가 있다고 조언했다. 김대종 세종대 경영학부 교수는 “최근 내놓은 ‘소액생계비대출’ 등 정책 상품을 확대해 소외 차주들에 대한 금융지원을 활성화할 필요가 있다”면서도 “과거 법정최고금리를 최고 20%까지 낮춘 이후 제도권 금융서 밀려난 차주들의 선례를 고려해 일부 차주가 아닌 소비자 전반에 혜택을 줄 수 있는 대출금리 인하 방안을 고려해야 한다”고 말했다. 김광우 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2023.03.22.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>[양날의검 BNPL]㊥커지는 국내 후불결제 시장</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000735693?sid=101</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>빅테크·카드사 각축전…"고객 록인(Lock-in) 효과"국내에서는 빅테크 업체들을 중심으로 BNPL 시장이 점점 커지고 있다. 금융위는 지난 2021년 후불 결제에 결제 한도(30만원)를 부여하면서 서비스의 포문을 열었다. 신용카드와 달리 할부 결제는 허용하지 않고, 일시 납부만 가능하게 했다.빅테크들은 금융위원회에 소액 후불 결제 서비스를 혁신금융서비스로 지정받아 BNPL 서비스를 제공하고 있다. 국내에서 BNPL 서비스를 운영하는 빅테크는 네이버파이낸셜, 카카오페이, 토스 등이다.모바일 결제 관련 이미지. [사진=아이뉴스24 DB]네이버파이낸셜은 지난 2021년 4월부터 월 최대 30만원 한도 내에서 네이버페이 후불 결제를 서비스 중이다. 금융정보와 비금융 정보(결제, 쇼핑 이력 등)를 결합한 대안 신용평가시스템을 활용해 소비자의 개별 한도를 산정한다.카카오페이는 15만원 한도 내에서 버스, 지하철, 택시, 하이패스에서 사용할 수 있는 후불 결제 교통카드 서비스를 제공하고 있다. 토스도 선불충전금이 부족한 소비자에게 대안 신용평가 후 최대 월 30만원 한도 내에서 후불 결제를 지원한다.쿠팡은 일부 고객을 대상으로 BNPL 서비스인 '나중 결제'를 시범 운영 중이다. 돈을 받아야 하는 기간을 늦춰주는 외상 개념이다. 혁신금융서비스가 아니기 때문에 위험 관리를 위해 제한 '월 최대 30만원, 무 할부' 원칙을 지키지 않아도 되는 게 특징이다.지난해 기준금리 인상 여파에 대출금리가 치솟자 후불 결제로 눈을 돌리는 이들이 많아졌다. 국회 정무위원회 소속 더불어민주당 강병원 의원실에 따르면 지난해 말 기준 후불 결제 서비스 가입자는 토스 153만여 명, 네이버파이낸셜 66만여 명이다. 양사 누적 결제 잔액은 약 3천146억원에 이른다.최석민 금융결제원 청산관리실장은 "국내 빅테크사의 BNPL 시장 진출은 BNPL 자체의 수수료 수익보다는 신규 고객인 MZ세대를 록인(Lock-in)하고, 기존 고객의 이탈을 막아 대형 결제 플랫폼으로서 입지를 공고히 한다는 데 의미가 있다"고 설명했다.빅테크 후불 결제 서비스에 MZ세대 소비자를 빼앗길 위기에 처한 카드사들도 BNPL 진출에 시동을 걸었다. 현대카드는 온라인 패션플랫폼 무신사가 운영 중인 하위 플랫폼 '솔드아웃'을 통해 BNPL 서비스를 제공한다.롯데카드의 베트남 현지 법인인 롯데파이낸스 베트남은 티키(Tiki)와 BNPL 서비스 출시를 위한 전략적 제휴를 맺고 무이자로 또는 비교적 낮은 금리로 2~3개월에 걸쳐 대금을 분할 상환하는 서비스를 하고 있다. 국민카드도 사내벤처를 통해 다날과 BNPL 서비스 출시를 준비 중이다.업계 관계자는 "국내 시장은 높은 신용카드 보급률과 무이자 할부 서비스가 이미 발달해 BNPL에 대한 수요가 상대적으로 적지만, 세계적 흐름으로 자리 잡은 만큼 높은 성장 잠재성을 가진 것은 분명하다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2023.03.27.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>토스뱅크, 7초에 1명씩 가입했다…"연내 손익분기점 달성"</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001091289?sid=101</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>27일 기준 가입자 605만 명 넘겨여신 9.3조·수신 23.2조 원 달성토스뱅크가 출범 1년 6개월 만에 600만 고객을 넘어섰다. 이 기간 여신 규모는 9조 3,000억 원, 수신 규모는 23조 2,000억 원에 다다른 것으로 확인된다. 안정적인 성장세에 힘입은 토스뱅크는 올 하반기 예대율 개선 속 손익분기점(BEP, break-even point)을 넘길 것으로 기대한다.토스뱅크는 27일 자사 가입 고객이 605만 명을 넘어섰다고 밝혔다. 이는 지난해 3월(235만 명) 대비 약 2.6배 수준이다. 약 7초에 1명이 새로운 가입자가 된 셈이다. 가입자 연령대를 보면 20대가 26.8%로 가장 많았고, 30대(23.1%) 40대(22.8%) 50대 이상(20.4%)도 고르게 분포했다. 10대의 경우 7%로 가장 적었는데, 이는 은행 가입 고객 연령이 만 17세 이상이기 때문이라는 설명이다.토스뱅크는 '지금 이자 받기', '먼저 이자 받는 예금' 등 고객 중심적인 혁신 서비스가 성장세는 물론 두터운 고객층 형성에 기여한 것으로 분석했다. 대표적으로 지난 24일 선보인 '먼저 이자 받는 예금'은 혜택의 직관성을 한층 강화하고 자금 운용의 편의성을 높인 상품이다.토스뱅크는 지난해에 이어 올해까지 선제적인 유상증자 단행을 통해 총 1조 6,500억 원의 자본금을 확충했다. 최근에는 한국투자캐피탈이 증자에 참여 의사를 밝히며 주주사로 합류할 예정이다. 비바리퍼블리카를 비롯해 하나은행, 한화투자증권, 중소기업중앙회, 이랜드, SC제일은행 등 주주사들에 힘입어 재무건전성을 키울 계획이다.시장의 유동성 불안에도 충분한 대비를 진행 중이다. 27일 기준 유동성커버리지비율(LCR)은 833.5%로, 토스뱅크는 약 14조 5,000억 원의 고유동성자산을 확보하고 있다. 이는 평균(100%)을 유지하는 시중은행 대비 8배 이상 높은 수치로, 유동성 공급에 차질 없이 준비돼 있다는 의미다.또 순안정자금조달비율(NSFR)도 시중은행 대비 2배 가까이 높은 208%다. 장기간(1년 이상) 필요한 은행의 보유자산에 따라 안정적으로 자금을 조달할 것으로 나타났다.토스뱅크 관계자는 "토스뱅크는 안정적인 자본 확충과 보유 여신 대비 안정적인 수신고를 바탕으로 성장하며 올해 BEP 달성이 가시화 되고 있다"고 기대감을 내비쳤다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2023.03.23.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>'인뱅이 모객하고 지방銀과 공동대출'…당국 '은행과점 깨기' 카드</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005234934?sid=101</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>인뱅 ‘모객력’-지방銀 ‘재원’ 결합중·저신용자 대출 비중 목표 완화도 건의금융당국이 인터넷전문은행(인뱅)의 경쟁력 강화를 위해 지방은행과의 ‘공동대출 모델’을 추진한다. 인뱅과 지방은행이 각기 가진 강점을 결합, 대형은행 중심의 과점체제를 완화할 수 있단 취지에서다.김소영 금융위원회 부위원장은 지난 22일 서울 종로구 정부서울청사서 열린 ’제4차 은행권 경영·영업 관행·제도개선 태스크포스(TF)’ 실무작업반 회의에서 “인뱅에서 건의한 공동대출 모델에 대해 법적·제도적 제약 여부, 출시 가능성에 대해 적극적으로 검토해달라”고 주문했다.인뱅 경쟁력 강화를 주제로 열린 이날 회의에서 카카오뱅크·케이뱅크·토스뱅크로 구성된 인터넷전문은행협의회(협의회)는 인뱅의 경쟁력 강화를 위한 건의 사항을 발표했다. 협의회가 건의한 공동대출 모델은 인뱅의 우수한 모객력과 신용평가모형을 바탕으로 대출 대상자를 선정하고, 자금은 인뱅과 지방은행이 분담하는 구조다.예컨대 고객이 인뱅 애플리케이션에서 대출을 신청하면 인뱅과 지방은행이 각기 심사를 진행하고, 양 기관은 양자 모두에서 승인된 고객에게 사전 합의된 비율에 따라 대출을 실행하는 방식이다. 대고객업무는 인뱅이 지방은행으로부터 위탁받아 수행하며, 사후관리는 일관성을 위해 동일한 사후관리업체에 위탁한다.협의회는 이런 공동대출 모델의 효과에 대해 “인뱅은 적정 자본 비율 내에서 대출을 지속 공급해 성장 기반을 확대하고, 지방은행은 영업 채널을 다각화하고 양질의 대출 폴리오를 확보해 경쟁력을 강화할 수 있다"면서 "대형 시중은행 중심의 과점구조를 완화하고 인뱅과 지방은행의 상생과 동반성장을 견인할 수 있을 것"이라고 설명했다.김 부위원장은 이와 관련 “대출 재원을 확보한 지방은행, 소비자와의 넓은 접점을 가진 인뱅 간 협업을 통한 경쟁 촉진 효과가 기대된다”면서 금융위·금융감독원 담당자들에게 해당 모델과 관련한 적극 검토를 당부했다.한편 인뱅들은 이날 공동대출 외에도 경쟁력 강화방안의 일환으로 중·저신용자 대출 비중 목표를 완화해 달라고 건의했다. 고금리 국면이 지속되면서 이들 중·저신용자를 중심으로 연체율이 증가, 인뱅들이 금융권의 '메기'역할을 수행하는 데 한계가 있단 이유에서다.다만 이와 관련해서 김 부위원장은 "당초 인뱅의 목적은 금융혁신과 은행권 내 건전한 경쟁 촉진이었으나, 지금까지 인뱅의 성장 과정을 보면 급격한 외형성장에 치중한 측면이 있다"면서 "꾸준한 자금확충을 통한 건전성 제고와 대안신용평가의 고도·혁신화, 중·저신용자대출 활성화, 철저한 부실 관리로 내실을 다지는 것이 국민이 기대하는 바"라고 선을 그었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2023.03.21.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>건당 고작 15원?… 핀테크엔 태산 같은 부담</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003752874?sid=101</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>[Biz 톡]							오는 5월에 정부가 주도하는 ‘온라인 원스톱 대환대출 플랫폼’이 출시됩니다. 은행, 저축은행, 카드, 캐피털사 등에서 받은 대출을 온라인으로 한눈에 비교해서 저금리 대출로 갈아탈 수 있는 대출 이동 시스템이죠. 그런데 출시 한 달 반 정도를 남기고 대출 비교의 핵심 역할을 맡은 핀테크 업체들로부터 불만이 나오고 있습니다. 잠정적으로 15원으로 책정된 ‘대출 조회 수수료’가 너무 비싸다는 겁니다.대출 조회 수수료는 핀테크 업체가 대출 상품 정보가 들어있는 전산망에서 대출 정보를 빼올 때 드는 요금입니다. 현재 네이버·카카오·토스 등이 운영하는 대출 비교 플랫폼에서 사용하는 ‘오픈뱅킹’ 시스템의 수수료가 최고 15원인데, 이 수준으로 수수료가 결정된 것입니다.핀테크 기업들은 수수료를 더 낮춰야 한다는 주장입니다. 소비자는 보다 나은 대출 조건을 찾기 위해 상품 조회를 수시로 할 가능성이 높습니다. 지금보다 조회 건수가 폭발적으로 늘어날 수 있는 것이죠. 예컨대 조회 건수가 1000만 건이면 수수료가 1억5000만원이 됩니다. 수수료를 감당할 여력이 부족한 중소 핀테크사들은 대출 조회 수가 얼마나 늘어날지 가늠이 되지 않아 걱정이 크다고 합니다.그런데 대출 정보를 제공하고 수수료를 받는 금융사들은 핀테크 업계의 요구를 수용할 수 없다는 입장입니다. 대환대출 플랫폼은 기존 오픈뱅킹에 비해 고객에게 제공해야 할 정보가 훨씬 많습니다. 기존 대출을 정리할 때 내야 하는 중도 상환 수수료가 대표적이죠. 오픈뱅킹보다 처리해야 하는 정보량이 많고 처리 과정도 훨씬 복잡하기 때문에 비용이 더 들 수밖에 없다는 것이죠. 금융사들은 15원도 많이 양보한 것이라고 맞서고 있습니다.핀테크 측은 일단 출시 이후 6개월 정도 수수료를 유예하고, 실제 조회수 추이를 지켜본 뒤 5~10원 수준으로 수수료를 낮추고 후불 방식으로 지급하자는 입장입니다. 이 안을 금융사들이 받아들일지는 미지수입니다.시험적이고 혁신적인 서비스를 만들 때는 여러 이해관계가 얽히고설키게 마련입니다. 고금리 시대 국민들의 금융 복지를 위해 국가적으로 진행되는 사업이니만큼, 하루빨리 현명한 결론이 도출되기를 기대합니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2023.03.27.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>홍민택 토스뱅크 대표 "소문은 해프닝…유동성 우려할 부분 없어"</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005236512?sid=101</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>토스뱅크가 지난 24일 출시한 '먼저 이자 받는 예금' 상품과 관련 유동성 우려 목소리가 나오는 것에 대해 "일종의 해프닝"이라는 입장을 밝혔다.홍민택 토스뱅크 대표는 27일 서울 여의도 국회 의원회관에서 열린 토론회에 앞서 기자들과 만나 일각에서 뱅크런(대규모 예금 인출) 등 토스뱅크의 유동성을 우려하는 목소리가 나오는 것과 관련 "도이체방크 위기설 등으로 금융 시장이 불안해 생기는 일 같다"며 "실제로 우려할 만한 부분이 전혀 없다"고 강조했다.홍 대표는 "선이자 정기예금은 기존 금융권에 있던 상품으로 고객에게 이자를 먼저 제공해도 재무적으로 차이가 없다"며 "선이자 예금 상품은 수신 확보를 위해서가 아니라 고객이 이자를 받는 불편한 경험을 개선하고자 출시한 것"이라고 설명했다.또 해당 상품의 중단 가능성 등에 대해서는 "해당 상품은 '먼저 이자 받기' 시리즈 2탄이고, 이를 브랜딩하고 싶다"면서 "불안심리에 대해서는 잘 이야기를 해봐야 할 것 같다"고 덧붙였다.한편 이날 토스뱅크는 여·수신 규모도 안정적으로 성장했다며 진화에 나섰다. 전날 기준 여신 잔액은 9조3000억원, 수신 잔액은 23조2000억원을 기록했다. 특히 여신의 경우 지난해 3월 2조6000억원에서 1년간 4배가량으로 늘었다. 예대율은 약 44%로 역시 전년 동기(12.4%)의 4배 가까이로 상승했다. 토스뱅크는 올해 하반기 흑자 전환이 예상된다고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2023.03.27.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>[강원경제 이슈체크] '예금보호' 상향론 부상…신규은행 도입 신중모드</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/654/0000035768?sid=102</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>SVB 사태 이후 급변하는 금융시장국내 예금자 보호한도 22년째 제자리고금리 등 여파 금융기관 수신액 급증뱅크런 우려에 정부 제도 개선 공감대한도 인상 부작용·법률화 신중론 제기예금 보험료율 등 개선안 8월쯤 윤곽특화은행 등 은행 과점체제 해소안 모색SVB 사태에 금융위 6월까지 논의 지속인뱅-향토은행 '공동대출 모델'도 검토미국 실리콘밸리은행(SVB) 사태로 전 세계 금융시장 불안이 커지면서 국내 금융계도 금융시장 불안, 고금리, 경기 침체 등이 시장 전반의 불안으로 연결될까 우려하고 있다. 올해도 고금리 여파가 지속될 것으로 예상되는 가운데 정부와 금융당국 등은 관련 정책 변경을 검토하는 등 긴밀히 움직이고 있다.늘어가는 예금잔액에 은행부도 불안예금 보호 한도 1억원 이상 확대 논의SVB 파산 사태 여파로 국내에서도 예금자보호액을 상향해야 한다는 목소리가 나오고 있다. 정치권에서는 예금자보호한도를 상향해 불안심리를 잠재우고 뱅크런을 사전에 차단해 금융 소비자를 보호해야 한다고 보고 있지만 금융계에서는 부작용이 일어날 수 있다는 지적과 저축은행이 반사이익을 누릴 수 있다는 의견이 나오면서 기대와 우려가 공존하는 모양새다. 예금자보호한도는 금융회사가 파산 등으로 예금을 돌려줄 수 없게 됐을 때 예금보험공사가 금융회사 대신 지급해주는 최대한도 금액이다. 국내 예금자보호한도는 2001년 1인당 1인당 국내총생산(GDP)을 고려해 5000만원으로 오른 이후 20여년간 제자리다. 우리나라 1인당 GDP가 2001년 1만5736달러에서 지난해 3만5003달러로 과거보다 2배 이상 증가했지만 예금자보호한도는 22년째 동결돼 상향을 요구하는 목소리가 높다.금융당국은 예금보호제도 개선에는 동의하면서도 한도 상향 등을 법률화하는 데는 신중한 입장이다. 현행 제도로도 유사시 예금을 전액 보호할 수 있는 장치가 있기 때문이다. 예금 보호 한도가 대통령령으로 규정돼 있어 비상 상황 시 정부가 행정입법으로 한도를 제한 없이 풀 수 있는 제도적 근거는 마련돼 있다. 예금보험공사가 국회 정무위원회 소속 국민의힘 김희곤 의원실에 제출한 자료에 따르면, 예금자보호법상 보호 한도 5000만 원을 넘어서는 은행 예금의 비율은 2017년 61.8%(724조3000억 원)에서 지난해 6월 기준 65.7%(1152조7000억 원)로 상승했다.강원지역도 최근 고금리 기조에 코스피·코스닥시장 불안, 부동산 침체 등으로 예금 등의 수신액이 크게 늘어나고 있는 상황이다. 최근 한국은행 강원본부가 발표한 강원지역 금융기관 여수신 동향을 보면 지난 1월말 수신잔액은 76조6946억원으로 전년동월말 대비 11.3% 증가했다. 지난 1월 한달간 5416억원 늘어난 가운데 우체국예금, 새마을금고, 상호저축은행 및 신용협동조합 등에서 정기예금을 중심으로 증가세를 지속했다.금융당국은 예금보험공사와 태스크포스를 구성해 예금자보호한도, 목표 기금 규모, 예금보험료율 등 주요 개선 과제를 검토해 8월까지 개선안을 내놓을 방침이다. 이와 관련 이복현 금융감독원장은 지난 24일 신한은행에서 열린 '상생금융 간담회'에서 "예금자보호한도에 대한 개선 방안을 검토 중"이라고 밝혔다.인터넷은행 등 은행 인허가 신규 논의 지속향토은행 신설 계획 유지되나최근 은행권 과점 폐해를 막기 위해 신규 은행 추가 인가 등이 논의되고 있지만 SVB 사태를 계기로 이에 신중해야 한다는 지적이 제기됐다. 다만 금융위원회가 인터넷전문은행 신규 인가 여부 등에 대해 오는 6월까지 논의한 뒤 결론 내겠다고 밝혀 계획 철회로는 이어지지 않았다. 또 시중은행의 과점체계 완화방안의 하나로 인터넷 전문은행이 향토(지방)은행과 협업해 대출 자금을 공동으로 분담하는 '공동대출 모델'을 제안하기도 했다. 이는 시중은행 중심으로 형성된 과점체계를 완화할 수 있는 장점이 있어 금융당국은 '인터넷은행-향토은행 공동대출' 도입을 적극적으로 검토한다는 방침이다. 이번 모델은 인터넷 은행의 우수한 모객력과 신용평가모형을 바탕으로 대출 대상자를 선정하고 대출 자금은 인터넷 은행과 향토은행이 분담하는 대출 상품이다. 인터넷 은행은 적정 자본 비율 내에서 대출을 지속 공급해 성장 기반을 확대할 수 있고 향토은행은 영업 채널을 다각화하고 양질의 대출 포트폴리오를 확보할 수 있을 것으로 기대된다. 금융권에 따르면 토스뱅크와 광주은행이 현재 이 모델 도입을 추진하고 있다.이복현 금융감독원장은 최근 SVB가 파산한 사태와 관련해 유사한 상황이 국내에서 나타날 가능성은 작다고 밝혔다. 아울러 이 사태를 계기로 금융당국이 시중은행의 과점 문제를 해소하기 위한 대안으로 검토 중인 특화은행(챌린저 뱅크) 도입 논의 등을 배제할 생각은 없다고 덧붙였다. 최근 SVB 파산 사태를 계기로 은행의 건전성에 대한 관심이 높아졌다는 질문에 대해 이 원장은 "SVB 파산 사태와 같은 위험이라든가 똑같은 취약점으로 인한 상황이 국내에 발생할 가능성은 작은 것으로 파악하고 있다"고 말했다. 김호석</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2023.03.31.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>토스뱅크, 지난해 2644억 순손실…"올해는 흑자전환"</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011776611?sid=101</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 이정필 기자 = 토스뱅크는 지난해 2644억원의 당기순손실을 기록했다고 31일 밝혔다. 순손실 중 대손충당금이 차지하는 비중이 70%로, 올해는 흑자전환을 시현하겠다는 목표다.토스뱅크에 따르면 지난해 순이자이익은 2174억원을 달성했다. 전년 113억원 손실에서 대폭으로 턴어라운드했다. 지난해 명목순이자마진(NIM)은 0.79%으로 전년(-0.54%)에 비해 1.33%포인트 상승했다.지난해 말 수신 잔액은 20.3조원, 여신 잔액은 8.6조원으로 예대율 47.6%을 나타냈다. 대손충당금은 총 1860억원으로 적립률 405%를 보였다. 보수적으로 쌓아 충분한 손실흡수능력을 보유하면서 은행권 평균(227%) 대비 1.8배에 달한다는 설명이다.총 납입 자본금은 1조6500억원으로 늘면서 국제결제은행(BIS) 자기자본비율 12.7%대로 재무건전성이 개선됐다. 토스뱅크는 지난해 4분기 보유 유가증권의 약 25%인 4조원 규모를 1.6%의 손실률로 매도했다.3월 현재 토스뱅크가 보유한 모든 유가증권의 평가손실은 840억원대, 평가손실률은 0.65%로 나타났다. 매도 가능 채권의 평가손실은 680억원대로 지난해 말 대비 30% 이상 감소했다. 이로 인해 BIS 비율이 0.47%포인트 상승하는 효과가 발생했다.만기 보유채권의 평가손실은 160억원대다. 현재 보유한 유가증권의 40%가량은 2년 내 만기가 도래하는 단기 국공채다. 고객 수는 지난해 540만명에서 현재 605만명으로 늘었다. 수신잔액은 23.2조원, 여신잔액은 9.3조원으로 각각 증가했다.토스뱅크 관계자는 "올해 적립률이 상대적으로 낮은 전월세자금대출을 출시할 예정"이라며 "여신 포트폴리오 다각화를 통해 늘어나는 신규 여신 규모 대비 새로 지출되는 충당금 비중은 축소될 것"이라고 설명했다.이어 "전월세자금대출, 지방은행 공동대출 등 여신 포트폴리오를 지속 강화하고 수익성을 개선해 올해를 흑자 전환의 원년으로 만들 수 있도록 하겠다"고 전했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2023.03.21.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>[단독]금감원, 올해 네이버페이 수시검사...전자금융 상시검사체계 가동</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005446773?sid=101</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>사실상 정기검사...이용자보호 중점금융사·전금업자 불시 IT사고 대비데이터 결합 등 핀테크 지원 강화도[이데일리 서대웅 기자] 금융감독원이 올해 네이버파이낸셜(네이버페이) 수시검사에 착수한다. 사실상 정기검사 격이다. 금감원은 불시에 발생하는 IT사고에 대비해 네이버페이 수시검사 일정을 별도로 정하진 않았다. 금융회사와 전자금융거래업자에 대한 상시검사태세를 갖추면서 IT리스크 관리에 중점을 두겠다는 계획이다. 이와 함께 데이터 결합 등 핀테크 기업이 혁신역량을 발휘할 수 있도록 전폭 지원하겠다고 밝혔다.작년 한해만 IT침해·장애 등 사고 470여건21일 이데일리 취재 결과 금감원은 올해 중 네이버페이를 대상으로 수시검사를 벌이기로 했다. 형식은 수시검사지만 사실상 정기검사에 가깝다. 규정상 금감원은 ‘금융회사’에만 정기검사를 나갈 수 있다. 네이버페이가 금감원 검사를 받는 것은 이번이 두 번째다. 앞서 금감원은 지난 2021년 4월 빅테크 중에선 처음으로 네이버페이를 대상으로 수시검사를 벌였다. 비바리퍼블리카(토스), 카카오페이(377300)엔 지난해 나갔다.네이버페이 검사 일정은 아직 확정 짓지 않았다. 보통 금감원은 연중 정기검사, 정기검사와 다름없는 수시검사 계획을 2월 중 잡는다. 다만 전금업자와 금융회사 IT검사를 담당하는 IT검사국은 ‘상시검사체제’를 갖출 계획이다. 언제 터질지 모르는 IT사고에 대비하겠다는 것이다. 지난해만 해도 매달 IT 침해·장애 등 총 470여건의 사고가 발생했다. 금감원이 올해 IT검사국 내 ‘상시감시팀’을 신설한 배경이기도 하다. 금감원은 이날 디지털부문 금융감독 업무설명회 자료에서 “수시·테마검사를 강화해 IT리스크에 선제 대응하겠다”고 밝혔다.네이버페이 검사는 소비자 피해와 직결될 수 있는 부분을 중점적으로 들여다볼 것으로 보인다. 2020년 9월 마련된 이용자 예탁금 보호체계 준수 여부, 지난달부터 시행 중인 간편결제 수수료율 공시 적절성을 주요하게 살필 전망이다. 전산시스템 성능 관리, 비상대책 실효성 등도 주요 검사 대상이다. 금감원은 네이버페이뿐 아니라 빅테크 등 대형 전금업자에 대해선 밀착형 검사업무를 운영할 방침이다.김병칠 금감원 전략감독 부원장보는 이날 설명회에서 “IT 리스크에 대한 사전 예방적 검사·점검을 강화하고 전자금융 안전성 제고를 위한 규제와 시스템을 정비하겠다”고 했다. 또 “전금업자의 건전경영기준 및 이용자보호기준 강화와 선불업자의 수수료율 공시가 시장에서 안착되도록 하겠다”고 강조했다.“핀테크 혁신역량 발휘 전폭 지원”디지털금융산업 혁신 지원에도 나선다. 김 부원장보는 “금융회사와 신산업·핀테크 기업들이 혁신역량을 충분히 발휘할 수 있도록 전폭적으로 지원하겠다”고 했다. 금감원은 디지털금융산업 혁신지원 중점 과제로 △데이터 인프라 구축 및 결합 활성화 △건전한 데이터 산업 영업환경 조성 △금융규제 샌드박스 내실화 △건전한 온라인투자연계금융업(온투업) 성장기반 마련 등 네 가지를 꼽았다.이밖에 금감원은 오는 6월 출범하는 ‘디지털자산 리스크 협의회’를 통해 디지털자산시장과 전통적 금융시장 간 연계성 확대에 따른 잠재리스크 관리방안을 검토하겠다고도 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2023.03.20.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>‘덜떨어진’ 대출금리, 가계예대금리차 4개월째 확대(종합)</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005446085?sid=101</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>정책서민금융 제외 2.30%p, 전월보다 0.29%p 올라대출금리보다 예금금리 더 내려…잔액 코픽스도 상승세3월 시장금리도 높은 수준…통화정책 불확실성도 우려[이데일리 이명철 기자] 고금리 국면에서 높은 대출금리를 낮추라는 압박이 계속되고 있지만 예금금리와 대출금리 차이는 더 벌어졌다. 가계대출금리에 비해 정기예금 등 저축성수신금리의 인하폭이 컸던 탓이다. 벌어진 예대금리차가 좀처럼 좁혀지지 않으면서 은행들의 예대마진은 그만큼 더 늘어날 여지가 커졌다. 일부 은행들이 가산금리를 낮추면서 대출금리를 내리고 있지만 체감 효과가 미미하다는 지적은 이어질 전망이다.국민은행 예대금리차 1.48%p, 5대은행 최고은행연합회가 20일 공시한 예대금리차 비교에 따르면 국내 17개 은행(산업은행·씨티은행 제외)의 정책서민금융 제외 가계예대금리차(햇살론뱅크 등 정책서민 금융을 제외한 가계대출금리에서 저축성수신금리를 뺌)는 2월 기준 평균 2.30%포인트(p)로 전월(2.11%p)대비 0.29%p 확대됐다.정책서민금융 제외 가계예대금리차는 지난해 10월(1.60%p)을 기점으로 지난달까지 4개월 연속 상승세다. 5대 시중은행(KB국민·신한·하나·우리·NH농협)의 평균 정책서민금융 제외 가계예대금리차는 전월(1.18%p)대비 0.18%p 상승한 1.36%p다. KB국민은행 1.48%p, 우리은행 1.46%p, 하나은행 1.32%p, 신한은행 1.06%p 순으로 높았다.정책서민금융 제외 가계예대금리차가 가장 큰 곳은 전북은행으로 6.48%p다. 이어 토스뱅크 4.9%p, 광주은행 4.52%p 등 순이다. 5대 은행은 KB국민은행 1.48%p, 우리·NH농협은행 각 1.46%p, 하나은행 1.32%p, 신한은행 1.06%p 순으로 높았다.이와 관련해 KB국민은행 관계자는 “지난 1월말 시행한 주택담보대출·전세자금대출 금리 인하로 전세대출의 경우 전월대비 1%p 가까이 평균금리가 낮아졌지만 신용대출과 단기성 예금 비중 확대로 예대금리차 인하 효과가 다소 축소됐다”며 “다만 전월에 비해 예대금리차는 축소됐다”고 설명했다.저축성수신금리는 카카오뱅크 3.83%, BNK부산은행 3.73%, DGB대구은행 3.7% 등 순으로 높았다. 5대 은행 중에선 신한은행이 3.63%로 가장 높았고 이어 하나은행·우리은행 3.55%, KB국민은행 3.53%, NH농협은행 3.31% 등이었다.주택담보대출 등 가계대출금리는 전북은행 11.06%, 광주은행 9.34%, 토스뱅크 8.23% 등이었다. 5대 은행 중에선 우리은행이 5.1%였고 이어 KB국민은행 5.04%, 하나은행 4.97%, 신한은행 4.84%, NH농협은행 4.8% 순으로 높았다.전체 대출금리에서 저축성수신금리를 뺀 예대금리차는 2월 2.31%p로 전월(2.23%p)보다 0.08%p 오르면서 4개월 연속 확대됐다. 전북은행(5.05%p), 토스뱅크(4.67%p), 광주은행(3.85%p), Sh수협은행(2.57%p), BNK경남은행(2.26%p) 등 순으로 높았다.예금-대출금리 시차, 예대마진만 커질 듯지난해 급격한 기준금리 인상으로 시장금리가 높아지면서 은행들이 높은 이자이익을 거두자 금융당국은 대출금리 인하를 요구함과 함께 은행들의 성과급 체계를 점검하고 있다.[이데일리 김정훈 기자]하지만 여전히 예대금리차가 높은 상황이다. 예대금리차가 벌어지면 은행은 내어주는 예금이자 지급액보다 대출이자가 더 많아 이익 증가 요인이 된다.은행들이 금융당국 압박에 대출금리를 낮추고 있음에도 예대금리차가 벌어지는 이유는 저축성수신금리 낙폭이 더 크기 때문이다.17개 은행의 2월 평균 가계대출금리차는 6.06%로 전월(6.19%)대비 0.13%p 낮아졌다. 반면 저축성수신금리는 같은기간 3.92%에서 3.58%로 0.34%p 떨어졌다. 은행연 관계자는 “지난해 하반기 예금금리가 급격히 상승하면서 예대금리차가 좁아졌다가 이후 예금금리가 더 빨리 내린 영향”이라고 분석했다.예금금리에 비해 대출금리 인하 속도가 더디다는 비판은 피할 수 없게 됐다. 은행권은 올초만 해도 낮아진 예금금리가 대출금리의 기준이 되는 코픽스(COFIX·자금조달비용지수)에 반영되는 시차가 발생해 예대금리차가 일시적으로 벌어졌다고 설명했다. 하지만 신규취급액 기준 코픽스는 올해 1~3월 연속 전월대비 하락했다. 잔액 기준 코픽스가 지속 상승하고 있어 전체 예대금리차에도 영향을 주는 것으로 풀이된다.높은 대출금리에 대한 지적이 계속되지만 추가 인하가 이어질지도 미지수다. 시장금리인 은행채(AAA·무보증) 1년물 금리는 지난달 중순 3.5% 정도까지 낮아졌다가 이달초 3.9%대까지 올랐다. 17일 현재 3.651%로 다소 안정됐지만 앞으로 통화정책에 대한 불확실성이 변수로 지목된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2023.03.24.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>"싼 대출, 고금리 예금 어디?"…은행판 '알고리즘戰' 불붙나</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006703476?sid=101</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>은행 제도개선 TF서 대환대출에 이어 예금도 비교 플랫폼 도입 결정맞춤형 우대금리 적용 관건…당국 "플랫폼 경쟁 촉진돼 빅테크도 안심 못해6일 서울 시내 한 은행 영업점에 대출 금리 안내 현수막이 게시돼 있다. 023.3.6/뉴스1 ⓒ News1 임세영 기자(서울=뉴스1) 신병남 기자 = 금융당국이 은행권 경쟁촉진을 위해 대환대출 플랫폼에 이어 예금비교 서비스까지 도입을 예고하면서 은행 금리 경쟁이 더욱 치열해질 전망이다. '개인 맞춤형 금리쇼핑'이 가능한 곳으로 고객들이 집중될 것으로 보여, 이를 준비할 금융사·핀테크의 고민도 커지고 있다. 24일 금융권에 따르면 전날 금융위원회는 '4차 은행권 경영·영업 관행·제도 개선 실무작업반' 회의에서 9개 사의 예금중개서비스를 6월 출시하기로 했다. 뱅크샐러드, NHN페이코, 줌인터넷, 깃플, 핀크, 비바리퍼블리카, 네이버파이낸셜, 씨비파이낸셜, 신한은행 등이다.금융당국은 서비스 도입 경과를 살펴 내년에는 이를 정식 제도화할 방침이다. 오는 5월부터 대환대출 플랫폼에서 대출 상품이 활발히 비교되는 것에 이어 예금 상품에도 비교추천이 시작되는 것이다.금융당국은 과거 계좌이동제, 오픈뱅킹 등 소비자가 자산관리를 더욱 편하게 하는 방식의 은행 경쟁 촉진방안을 마련해왔으나, 이번엔 직접적인 금리 경쟁이 가능한 제도를 마련했다.서비스가 도입되면 소비자는 본인이 원하는 조건의 예·적금 상품을 간편하게 검색·가입할 수 있다. 같은 조건에서 더욱 높은 금리를 주는 상품이 있다면, 한 번에 다른 금융사로 갈아탈 수 있는 형태다.예금과 대출은 금리라는 숫자가 직관적으로 드러나는 상품이기에 금리 경쟁은 자연스럽게 촉진될 것으로 전망된다. 특히 금융당국은 예금중개서비스에 마이데이터 사업도 연계하도록 할 계획이다. 이렇게 되면 상품 만기 시 소비자가 즉시 연장여부를 판단할 수 있게 돼 금리에 따른 자금이동이 더욱 원활해질 것으로 보인다.동시에 수시입출금 통장, 카드 사용실적 등 소비자 자산분석을 통해 우대금리 적용여부 등을 포함하게 된다. 단순 상품배열이 아니라 초개인화한 맞춤형 상품추천이 가능해진다는 의미다.이 때문에 서비스 구축에 나설 금융사와 핀테크뿐만 아니라 네이버, 카카오, 토스 등 빅테크 간 경쟁도 금융당국은 기대하고 있다. 적시에 상품 추천이 가능한 알고리즘 구축을 어느 회사가 빨리하느냐에 따라 시장 선점도 갈릴 것으로 보인다.강영수 금융위 은행과장은 "플랫폼 강화 정책이 빅테크를 위한 정책은 아니다"며 "오프라인은 지점 수나 위치에 따라 경쟁구도를 바꾸기 어려운 측면이 있으나, 온라인에서는 실력만 있으면 빅테크도 이길 수 있는 구도가 될 것"이라고 말했다.한편 금융당국은 플랫폼 알고리즘이 금융산업의 중요 과제로 떠오르는 만큼 관련 금융소비자보호에 관한 감독규정 개정에도 착수했다. 금융사가 검색결과와 상관없는 광고성 상품을 검색결과에 넣거나 수수료 이익 등을 위해 배열을 왜곡하는 것을 방지하는 것이 골자다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2023.03.22.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>한투증권, 카카오·토스뱅크와 토큰증권 ‘맞손’</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004985423?sid=101</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>‘한국투자 ST 프렌즈’ 출범  한국투자증권과 카카오뱅크, 토스뱅크, 카카오엔터프라이즈가 토큰증권(ST) 분야에서 손잡기로 결정했다. 금융기관을 중심으로 결성된 첫 사례다.   22일 금융투자업계에 따르면 한국투자증권은 인터넷 전문은행 카카오뱅크, 토스뱅크와 함께 토큰증권 협의체 '한국투자 ST 프렌즈'를 결성했다.   '한국투자 ST 프렌즈'는 한국투자증권을 주축으로 카카오뱅크와 토스뱅크가 토큰증권을 기록할 분산원장(블록체인)의 금융기관 시범운영 파트너로 참여한다. 한국은행 CBDC(중앙은행 디지털화폐) 모의실험 사업을 성공적으로 수행하며 기술력을 인정받은 카카오엔터프라이즈가 분산원장 구축을 위한 기술 파트너로 합류한다.   한국투자증권은 토큰증권이라는 새로운 시장이 열리는 만큼 발행 플랫폼 인프라 구축을 최우선으로 시너지를 낼 계획이다.   한국투자증권은 연내 발행 분산원장 인프라를 구축하고, 안정성 및 보안성 테스트를 완료할 방침이다. 이후 한국투자증권의 발행 역량과 카카오뱅크, 토스뱅크의 플랫폼 역량을 바탕으로 본격적인 토큰증권 상품 공급을 추진키로 했다.   초기 생태계 구축이 완료되면 경쟁력 있는 조각투자 기업들의 참여를 유도해 투자자 보호와 시스템 안정성을 최우선으로 하는 국내 1위 토큰증권 생태계로 확장한다는 목표다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2023.03.27.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>'로톡' 빈자리 노리는 리걸테크…투자사채 통한 신규투자 4배 증가 [Geeks' Briefing]</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004825396?sid=105</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>이 기사는 프리미엄 스타트업 미디어 플랫폼 한경 긱스에 게재된 기사입니다.한국경제신문의 프리미엄 스타트업 뉴스 플랫폼 긱스(Geeks)가 27일 스타트업 뉴스를 브리핑합니다.'로톡'의 빈자리 노리는 로이어드컴퍼니, '알법AI' 출시실시간 변호사 매칭 서비스 ‘알법’을 운영 중인 리걸테크 스타트업 로이어드컴퍼니가 인공지능 판례검색 서비스 '알법AI'를 출시했다. 알법AI는 과거 제1심 지방법원 판결 중 이용자의 상황과 가장 유사한 판결, 가장 처벌이 중한 판결, 평균 처벌 결과 등을 보여주는 AI 검색엔진이다. 알법AI는 음주운전 판례검색을 시작으로 다양한 유형의 법원 판결문 검색 서비스를 개시할 예정이다. 챗GPT로 인해 검색엔진의 제작 속도가 획기적으로 빨라진 만큼 여러 분야의 사건에 대한 유사 판결문 및 평균 형량 값 제공이 가능할 것으로 전망된다.CB BW 등 투자사채 통한 신규투자 4배 증가투자시장이 얼어붙자 스타트업들이 기업가치 하락을 피하기 위해 주식 대신 투자사채로 눈을 돌려 급전을 조달하고 있다. VC도 투자 안정성을 높이기 위해 전환사채(CB), 신주인수권부사채(BW) 등 투자사채로 눈을 돌리고 있다. 대출에 따른 이자 수익과 함께 신주 인수를 통한 지분가치 상승을 노릴 수 있기 때문이다. 한국벤처캐피탈협회에 따르면 창업투자회사의 신규 투자액 가운데 투자사채 비중은 지난해 2분기 2.5%에서 4분기 10.7%로 높아졌다. 반면 토스(비바리퍼블리카) 등 성장 플랫폼 투자 시 주로 활용한 상환전환우선주 비중은 같은 기간 75.5%에서 68.9%로 줄었다. 보통주를 통한 신규 자금 조달도 18.2%에서 13%로 낮아졌다.반지형 혈압측정기 카트원플러스, 식약처 허가 획득글로벌 헬스케어 스타트업 스카이랩스의 반지형 웨어러블 의료기기 ‘카트원 플러스’가 혈압측정 기능으로 국내 식품의약품안전처 허가를 획득했다. 카트원 플러스는 팔뚝을 압박해 혈압을 측정하는 ‘커프’ 방식이 아닌, 반지형이라 손가락에 착용하면 별도 조작 없이 24시간 연속 모니터링할 수 있다. 특히 그동안 정확히 판단하기 힘들었던 야간혈압, 아침고혈압 데이터를 제공하고, 혈압 통계 데이터를 기반으로 약물 용량 조절을 가능하게 하며, 수면, 운동, 음주, 혈압약 복용 등 생활 습관 개선 변화를 추적하기에 효과적이다.세포 생산기술 스타트업 ‘티엠이테라퓨틱스’, 팁스 선정성장인자에 기반한 세포 생산 및 제어기술을 보유한 기업인 티엠이테라퓨틱스가 중소벤처기업부의 기술창업 지원 프로그램인 팁스(TIPS)에 선정되어 5억원의 개발 자금을 확보했다. 티엠이테라퓨틱스는 지난해 빅뱅엔젤스의 투자를 받아 이번 팁스에 선정되었다. 티엠이테라퓨틱스는 생체 모방체로 세포가 자라는데 필수적인 성장인자의 안정성을 향상해, 투입되는 성장인자의 양을 줄여서 적정한 가격으로 배양육을 얻을 수 있는 핵심 기술을 개발하고 있다.뤼이드, 미국 대입 SAT 대비 AI 진단 플랫폼 알테스트 글로벌 출시인공지능(AI) 기반 교육 솔루션 기업 뤼이드가 미 대입 시험인 SAT와 ACT를 준비하는 학생을 위한 AI 진단 플랫폼 ‘알테스트’를 출시한다. 알테스트는 실제 시험과 동일한 경험을 제공하는 150여 문항의 풀 버전 모의고사와 AI 기술을 활용해 30여 문항으로 축소한 미니 버전으로 구성돼 있다. 뤼이드는 학생의 실력 수준에 맞게 달라지는 AI 기반의 문제 추천 시스템을 개발해 알테스트에 적용했다. 뤼이드는 이미 AI 기반 토익 교육 앱 ‘산타’를 통해 3억 건 이상의 데이터를 학습 후 사용자 맞춤 문제를 골라서 추천해주는 검증된 기술력을 가지고 있다.금융 기술기업 이노핀, 유니베스트투자자문 인수인공지능(AI) 빅데이터 기반 금융 딥테크 기업 이노핀이 유니베스트투자자문을 인수했다. 인수가격은 15억원으로 박성우 유니베스트투자자문 대표를 포함해 8명의 투자인력이 이노핀과 손잡게 됐다. IT 개발자들이 만든 이노핀은 2017년부터 개인 투자자용 로보어드바이저 서비스인 '투자의달인'을 키움증권, 미래에셋증권, 하나증권 등에 제공하고 있다. 이노핀은 AI 기술을 적용한 주가 예측, 포트폴리오 구성 기술을 자체 개발했다. 지난해 헤지펀드를 활용한 글로벌 자산운용 서비스 '핀진'을 출시했다. 이번 유니베스트투자자문 인수를 통해 국내에서 핀진의 운용실적을 확보할 계획이다.KB국민카드, 스타트업 지원 프로그램 참여기업 모집KB국민카드는 KB캐피탈, KB국민은행과 '스타트업 오픈스테이지' 프로그램에 참여할 스타트업을 모집한다. 올해는 ▲데이터·AI(데이터 수집·활용·분석 관련 스타트업, KB국민카드 보유 데이터 활용 신규 비즈 창출 스타트업) ▲핀테크(결제, 금융 분야 핀테크 스타트업, 블록체인(STO 등) 활용 신사업 분야) ▲플랫폼 콘텐츠(KB페이 콘텐츠 제휴 가능 스타트업) ▲모빌리티(전기차 MaaS, 온디맨드 서비스 등) 사업을 추진 중인 스타트업이 대상이다. 스타트업 오픈 스테이지 참가 기업 모집은 내달 21일까지 진행하며 서울창조경제혁신센터 오픈이노베이션 홈페이지를 통해 접수할 수 있다.스타트업얼라이언스, 언주 엔스페이스 개소설립 9주년을 맞은 스타트업얼라이언스가 커뮤니티 공간인 ‘&amp;Space(엔스페이스)’를 언주역에 새롭게 이전 개소했다. 엔스페이스 공간 기획은 설치미술가 이완 작가가 담당했다. 엔스페이스는 컨퍼런스, 세미나, 문화 행사 등 다양한 종류 행사를 고려한 기능적 설계와 스타트업얼라이언스의 실험적이고 선도적인 이미지를 전달하는 데 중점을 뒀다.핸디즈, 아마노코리아와 MOU 체결숙박 위탁운영 서비스 1등 스타트업 핸디즈가 아마노코리아와 고객 주차 서비스 제공을 위한 전략적 MOU를 체결했다. 이번 MOU를 통해 전국 어반스테이, 르컬렉티브 투숙객을 확인할 수 있는 핸디즈가 자체 개발한 PMS와 연동할 수 있는 주차관제 시스템을 구축 및 개발에 적극 협조할 예정이다. 더불어 투숙객에게는 간편한 주차 등록과 요금 정산 등 편리한 주차장 이용을 제공하고 신속한 시스템 장애 복구 등 지속적인 기술 지원하게 된다."챗GPT가 일자리 위협할까?"...한국 개발자들 의견은커리어테크 스타트업 퍼블리가 개발자 커뮤니티 커리어리 이용자 423명을 대상으로 한 ‘챗GPT 실제 업무 시 활용 여부’ 설문조사에 따르면 응답자의 46%가 ‘실제 업무에 활용하고 있다’고 답변했으며, 업무할 때 챗GPT를 활용하는 방법으로는 ‘개발 정보, 코드 등 구글링처럼 검색 용도로 사용한다’고 응답한 개발자가 48%였다. 이어 코드 작성(13%), 보고서 등 문서 작성 도움(13%), 반복 업무 도움(9%), 에러 및 버그 확인을 위한 코드 리뷰(7%) 순이었다.챗GPT의 발전 가능성을 묻는 문항에서는 응답자의 69%가 아직 발전 중이나 3~5년 이내로 빠르게 성장할 것이라 전망했다. 13%는 최대 발전해도 인간을 대체하긴 어려울 것으로 전망했다. 응답자의 11%는 현재 수준으로도 충분히 인간을 대체할 만큼 발전했다고 평가했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2023.03.25.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>‘금발이 너무해’ 리즈 위더스푼, 결혼 12년 만에 두 번째 이혼</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002695973?sid=104</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>[데일리안 = 박정선 기자] 배우 리즈 위더스푼이 결혼 12년 만에 이혼을 발표했다.ⓒ뉴시스리즈 위더스푼은 25일(한국시간) 자신의 SNS에 “개인적인 소식을 전하게 됐다. 남편 짐 토스와 12년 만에 이혼을 결정했다”고 밝혔다.그러면서 “결코 쉬운 일이 아니었다. 지극히 개인적인 문제다. 우리 가족의 사생활을 존중해주신 분들게 감사하다”면서 “지금 현재로서 우리의 우선순위는 아들과 우리 가족이 앞으로 나아가야 할 방향이다. 우리는 함께 멋진 시간을 보내왔다. 우리가 쌓아온 것에 대한 깊은 사랑과 존중을 가지고 앞으로 나아가기로 했다”고 전했다.1976년생인 리즈 위더스푼은 1999년 동료 배우 라이언 필립과 결혼해 두 자녀를 낳은 뒤 2007년 이혼했다. 이후 2011년 짐 토스와 재혼했고, 이듬해 셋째를 얻었다.위더스푼은 1991년 영화 ‘대니의 질투’로 데뷔해 한국에서는 ‘금발이 너무해’ 시리즈로 얼굴을 알렸다. 현재까지도 넷플릭스 ‘유어 플레이스 어오 마인’에 출연하는 등 배우로서 활발히 활동하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2023.03.25.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>“어떤 걸 깔고 무엇을 즐겼을까”…모두가 찾은 앱은?</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005106713?sid=105</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>[사진 출처 = 연합뉴스]지난달 가장 많은 신규 설치 건수를 기록한 온라인동영상서비스(OTT) 앱은 쿠팡플레이로 나타났다. 디즈니플러스, 티빙, 넷플릭스가 뒤를 이었다.25일 업계에 따르면 앱 통계 분석 플랫폼 ‘모바일인덱스’는 최근 지난달 일반 앱과 게임 앱 순위를 집계한 리포트를 공개했다.리포트를 보면 지난달 신규 설치 건수가 가장 많은 OTT는 쿠팡플레이로 41만건을 기록했다. 디즈니플러스는 30건, 티빙은 28만건으로 뒤를 이었다. 넷플릭스 신규 설치는 25만건으로 집계됐다.업종별로 보면 금융분야에서는 90만건을 기록한 NH올원뱅크가 1위에 올랐다. KB페이와 모니모는 각각 36만건으로 조사됐다. 이어 ▲토스 35만건 ▲카카오뱅크 34만건 ▲신한플레이 29만건 순이었다.쇼핑분야 앱중에서는 57만건을 기록한 당근마켓이 1위를 차지했다. 2위는 쿠팡(40만건), 3위는 알리익스프레스(30만건), 4위는 우리동네GS(21만건), 5위는 11번가(20만건) 등이 이름을 올렸다.여행·교통분야에서는 티머니GO(34만건), 여기어때(33만건), 네이버지도(32만건), 코레일톡(32만건), 카카오맵(29만건) 등이 순위권에 들었다.식음료분야에서는 배달의민족이 54만건으로 1위를 차지했다. 패션·의류에서는 29만건을 기록한 무신사가 가장 많은 신규 설치 건수를 나타냈다.사용자 수가 가장 가파르게 상승한 앱은 메타버스 서비스 ‘본디’였다. 본디는 지난달에만 사용자 수가 179만명 증가했다.그러나 모바일인덱스 최근 통계를 보면 지난 4일 기준 본디의 일간활성이용자(DAU) 추정치는 7만6440명으로 90% 이상 감소했다.본디의 전신이 중국 앱 ‘젤리’라는 사실이 알려지면서 이용자가 급감했다는 분석이 나온다.‘V3 모바일 플러스’는 같은 기간 사용자가 129만명 늘었다. NH올원뱅크는 102만명, 삼성헬스는 58만명 증가했다.게임 앱 중에서는 로블록스 사용자 수가 172만명으로 가장 많았다. ‘포켓몬고’가 138만명으로 뒤를 이었다. 탕탕특공대는 117만명, 피망 뉴맞고는 100만명, 브롤스타즈는 92만명으로 집계됐다.1인당 월 평균 지출액이 가장 높은 게임 앱은 리니지2M으로 나타났다. 리니지2M 사용자는 1인당 월 평균 42만3936만원을 지출했다. 이어 리니지W는 36만3758원, 리니지M 19만3489원, ‘오딘: 발할라 라이지’ 16만5689원, 피파온라인4M 1만4503원으로 조사됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2023.03.27.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>홍민택 토스뱅크 대표 “유동성 우려는 해프닝 같다”</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000042388?sid=101</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>홍민택 대표 “1인당 평균 잔액도 가장 높아”여신 9조원·수신 23조원, 하반기 흑자 전환 전망 홍민택 토스뱅크 대표가 27일 국회에서 열린 토론회를 마치고 나와 기자들에게 답변하고 있다. [사진 이용우 기자][이코노미스트 이용우 기자] 홍민택 토스뱅크 대표가 최근 일각에서 제기하는 토스뱅크의 유동성 문제에 대해 “오히려 시중은행들보다 유동성 비율이 훨씬 높다”며 “유동성 우려나 뱅크런에 대한 근거가 없고 해프닝으로 보인다”고 말했다. 홍 대표는 27일 오전 서울 여의도 국회의원회관에서 열린 인터넷 전문은행 출범 5주년 기념 토론회가 끝나고 기자들과 만나 이같이 말했다.그는 지난 24일 연 3.5% 금리를 가입 즉시 제공하는 선이자 예금 상품을 출시한 뒤 일각에서 토스뱅크의 유동성을 우려하는 목소리가 제기된 데 대해 “저도 써보니까 돈을 넣는 순간 이자가 지급되는 경험이었기 때문에 좋았다”며 “(유동성) 우려의 원인이나 근거가 전혀 없다”고 설명했다. 홍 대표는 “뱅크런 사태를 우려하는 내용들이 나오고 있지만 돈이 빠져나가야지 뱅크런이지 현재 그런 패턴이나 상황이 없다”며 “토스뱅크는 시중은행 중에서도 1인당 평균 잔액이 400만원으로 가장 높은 은행”이라고 강조했다. 지난 25~26일 주말 사이 원화 예수금 변동액과 관련한 질문에는 “통상적인 수준을 보였다”며 “오히려 최근에는 계속 증가 중”이라고 답했다. 홍 대표는 마지막으로 “오히려 일부 고객들은 금리가 낮다고 지적하는 경우가 있다”며 “불안 심리가 오히려 문제가 될 수 있겠지만 정부와 긴밀하게 소통하고 모든 상황을 (시장과) 투명하게 소통할 것”이라고 덧붙였다. 한편 이날 토스뱅크는 보도자료를 통해 출범 1년 6개월 만에 600만 고객을 넘어섰고 여신 규모는 9조3000억원, 수신 규모는 23조2000억원을 달성했다고 밝혔다. 이는 3월 2조6000억원이던 여신 잔액과 비교해 1년새 4배 가까이 늘어난 규모다. 이를 바탕으로 토스뱅크는 올해 하반기 손익분기점(BEP) 달성, 흑자 전환에 성공할 것으로 전망했다. 규모 성장과 함께 안정적이고도 빠르게 수익성이 개선된 덕분이다. 신생 은행의 경우 평균 3~4년이 흑자전환에 소요되지만 토스뱅크의 경우 그 시간을 1년 이상 앞당길 것으로 보인다.토스뱅크의 유동성커버리지비율(LCR)은 833.5%로, 약 14조5000억원의 고유동성자산을 확보하고 있다. 이는 평균 100%을 유지하는 시중은행 대비 8배 이상 높은 수치다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2023.03.22.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>한국 찾는 구영배 큐텐 대표…'위메프' 인수 마무리 짓나</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004865325?sid=101</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>구영배 큐텐 대표/사진= 큐텐 제공큐텐의 위메프 인수 작업이 이달 중 마무리될 것으로 예상되는 가운데 구영배 큐텐 회장이 다음 주 한국을 찾는다. 큐텐이 위메프 인수를 확정지으면 위티파크(위메프·티몬·인터파크)를 중심으로 한 큐텐 연합이 국내 e커머스에 상당한 파장을 가져올 전망이다. 22일 관련 업계에 따르면 큐텐과 위메프는 이달 중 인수합병(M&amp;A) 계약 체결을 목표로 협상을 진행 중인 것으로 알려졌다. 위메프 인수에는 롯데, 카카오, 야놀자, 토스 등도 관심을 가졌으나 현재는 큐텐이 가장 유력한 것으로 업계는 보고 있다. 큐텐 측은 "구 회장이 개인 일정으로 방한하는 것으로 안다"는 입장이지만 업계에선 인수 협상이 막바지에 이른게 아니냐는 관측을 내놓고 있다. 큐텐의 위메프 인수는 티몬과 같은 지분교환 방식이 될 전망이다. 큐익스프레스가 아닌 큐텐 지분과 위메프 지분을 교환하는 형태다. 위메프 주주가 보유한 주식을 큐텐에 넘기고 그 대가로 큐텐 주식을 얻는 식이다. 큐텐의 물류 자회사인 큐익스프레스도 거론됐지만 오는 6월 나스닥 목표로 상장을 준비하고 있는 만큼 거래 대상에서 제외됐다.큐텐의 인수에 동의한 위메프 투자자들은 궁극적으로 큐텐 상장을 염두에 두고 인수에 찬성한 것으로 알려졌다. 위메프를 키우는 것보단 큐텐과 함께 성장하는 게 투자금 회수에도 용이하다는 판단이다. 큐텐은 큐익스프레스 상장으로 얻은 자금을 통해 위티파크를 키운 뒤 궁극적으로는 큐텐 상장을 노리는 것으로 알려졌다. 2010년 서비스를 시작한 큐텐은 싱가포르 소비자들에게 한국 제품을 판매하는 사업 형태를 통해 시장 내에서 빠르게 몸집을 키운 플랫폼이다. 현재는 동남아시아를 기반으로 동북아·유럽·미주 등 11개 언어, 24개국에서 사업을 이어오고 있다.큐텐 입장에서는 한국 셀러들이 핵심 경쟁력이나 다름없지만, 지난해까지만 해도 이베이코리아와의 경업(영업상 경쟁) 금지 계약에 따라 직접적인 한국 진출을 하지 못했었다. 하지만 이베이코리아가 신세계에 매각되면서 한국 시장 진출의 문이 열렸고 지난해 9월 티몬을 인수하며 본격적인 국내 e커머스 진출을 위한 발판을 마련했다.위티파크 인수는 큐익스프레스의 사업 확장에도 도움이 될 것으로 전망된다. 큐익스프레스가 가진 물류 역량을 위티파크와 협력하는 셀러들에게 활용할 수 있기 때문이다. 실제 지난해 큐텐에 인수된 티몬의 경우 지난 1월 'QX프라임'이라는 파트너 대상 통합 풀필먼트 서비스를 시작한 바 있다. 이를 통해 셀러들은 상품 등록·주문·포장·배송 등 모든 과정을 원스톱으로 지원받을 수 있게 됐다. 티몬 입점 파트너를 큐익스프레스 파트너로 자동 유입시킨 셈이다.업계에서도 큐텐을 중심으로 한 위티파크 연합이 성사될 경우 국내 e커머스 판도에도 변화가 일어날 수 밖에 없을 것으로 보고 있다. 업계 한 관계자는 "쿠팡과 네이버라는 강자들을 제외한 e커머스 업체들이 살아남기 위해서는 결국 힘을 합치는 것밖에 없다"며 "큐텐이 세 곳을 모두 운영하게 된다면 점유율 기준으로 11번가를 넘어서게 되기 때문에 업계에서도 긴장감 있게 지켜보고 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2023.03.24.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>지방은행 손 잡는 인뱅… 이번엔 진짜 ‘메기’ 될까</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001596056?sid=101</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>[스토리텔링 경제] 당국 ‘은행권 과점 깨기’ 첫 카드는금융당국이 인터넷전문은행을 ‘은행권 과점 깨기’의 핵심 주체로 낙점했다. 이와 함께 경쟁 촉진자로서 인터넷은행이 어떻게 하면 역할을 더 잘 수행할 수 있을지에 대한 고심에 들어갔다.인터넷은행은 2017년 처음 도입 당시 혁신과 포용을 외치며 시장 혁신을 일으킬 ‘메기’가 될 것으로 기대를 모았다. 디지털 혁신 측면에서 인터넷 은행이 나름대로 역할을 했다는 시각도 있지만, 혁신이 기대에 미치지 못했다는 반론도 만만치 않다.금융당국은 인터넷은행의 ‘파트2’에 기대를 걸고 있다. 금융위원회와 금융감독원 등은 지난 22일 열린 ‘제3차 은행권 경영·영업 관행·제도 개선 실무작업반’ 회의에서 이들의 경쟁력 제고 방안에 대해 심도 있게 논의했다.김소영 금융위 부위원장은 “인터넷 은행은 지금까지 급격한 외형성장에 치중한 측면이 있다”며 “꾸준한 자본확충을 통한 건전성 제고, 대안신용평가의 고도화·혁신화, 중·저신용자 대출 활성화, 철저한 부실 관리 등 내실을 다져나가야 한다”고 강조했다.인뱅·지방은행 공동대출 출시 검토금융위는 23일 인터넷은행의 경쟁력 강화 방안의 하나로 지방은행과의 공동 대출 도입을 검토하고 있다고 밝혔다. 인터넷은행의 우수한 영업 능력과 신용평가모형을 바탕으로 대출 대상자를 선정하고, 재원은 인터넷은행과 지방은행이 분담하는 형태다.고객이 인터넷은행 애플리케이션에서 대출을 신청하면, 인터넷은행과 지방은행이 각각 심사를 진행한다. 대출은 양쪽에서 모두 승인된 고객에게 사전 합의된 비율에 따라 실행된다. 고객 대응 업무는 인터넷은행이 지방은행으로부터 위탁받아 수행한다.인터넷은행은 적정 자본 비율 내에서 대출을 지속 공급해 성장 기반을 확대할 수 있고, 지방은행은 영업 채널을 다각화하고 양질의 대출 포트폴리오를 확보할 수 있을 것으로 기대를 모으고 있다. 실제 토스뱅크와 광주은행이 현재 해당 모델 도입을 추진하고 있는 것으로 알려졌다. 김 부위원장은 정부 관계자들에게 해당 모델 관련 법적·제도적 제약 여부, 출시 가능성 등을 적극적으로 검토해줄 것을 당부했다.이외에도 인터넷은행은 경쟁력 강화를 위한 방안으로 방카슈랑스 영업기준(25%룰)과 구속행위(일명 꺾기) 관련 규제 완화 등을 건의했다. 회의 참석자들은 관련 규제가 비대면 디지털 영업환경에 부합하지 않는다는데 공감대를 모았다. 다만 다크패턴(눈속임 설계) 등으로 소비자를 속이거나 유인하는 문제와 관련한 규제를 고민할 필요가 있다는 의견도 나왔다. 금융당국은 인터넷은행의 건의 사항에 대해서는 관련 전문가 의견 등을 종합적으로 고려해 개선 여부를 검토할 방침이다.중·저신용자 대출 비중 완화 선 그어금융당국은 인터넷은행에 쓴소리도 아끼지 않았다. 지난 6년간 인터넷은행이 급격한 외형 성장에 치중한 측면이 있다며, 은행권 내 경쟁 촉진과 중·저신용자 대출 확대 등 본래 역할에 힘써줄 것을 당부한 것이다. 인터넷은행의 숙원이었던 중·저신용자 대출 비중 완화에는 사실상 반대의사를 분명히 한 셈이다.실제 인터넷은행은 외형적으로 ‘폭풍 성장’했다. 지난해 기준 카카오뱅크의 가입자 수는 2042만명이며, 케이뱅크와 토스뱅크도 각각 849만명, 570만명이나 된다. 자산 규모 역시 2017년 말 7조2000억원에서 지난해 말 79조5000억원으로 10배 이상 커졌다.인터넷은행이 정체돼있던 금융권에 경쟁·혁신의 바람을 일으킨 ‘메기’인지, 아니면 ‘큰 미꾸라지’ 정도에 그쳤는지에 대해서는 의견이 엇갈린다. 철옹성같이 여겨지던 시중은행의 디지털 변화 물꼬를 텄다는 점에서는 긍정적인 평가를 받지만, 중·저신용자를 포용하겠다던 미션은 달성 못했다는 비판이 크다. 특히 각사의 CSS(신용평가시스템)을 고도화해 차별화를 꾀하기보다는 시중은행처럼 ‘이자 장사’에만 집중한 것 아니냐는 시각도 있다.지난해 가장 높은 중·저신용자 대출 비중(잔액 기준)을 기록한 건 토스뱅크(40.4%)였지만 정작 자신들이 내세웠던 목표치인 42%에는 미달했다. 카카오뱅크와 케이뱅크는 목표치(25%)를 소폭 넘어선 25.4%, 25.1%를 각각 기록했다. 반면 이들의 고신용자 대출 비중은 여전히 높다. 인터넷은행이 중·저신용자와 고신용자 모두에게 ‘이자 장사’를 하고 있다는 지적은 꾸준히 나온다.류두진 성균관대 경제학과 교수는 “인터넷은행은 점포 운영 비용이 상대적으로 적다는 이점을 이용해 사실상 수수료만 조금 깎아주는 식으로 소비자들을 유인했다”며 “인터넷은행이 혁신을 위한 노력보다는 기존 은행처럼 예대마진에 치우진 영업구조에 천착하고 있다”고 말했다.금융당국도 인터넷은행이 중·저신용자 대출 확대 등 설립 취지를 되돌아봐야 한다고 거듭 강조하고 있다. 빅데이터 등 IT혁신을 통한 새로운 대안신용평가모형을 개발하고 중·저신용자 대출을 확대하는 것이 도입취지이자 설립 당시 국민과의 약속이었다는 것이다. 또 인터넷은행이 낮은 비용으로 질 좋은 서비스를 제공할 수 있는 분야를 적극 발굴해줄 것도 당부했다. 시중은행과 모든 영역에서 경쟁하기보다는 영국의 챌린저뱅크처럼 특화된 전문영역에 집중할 필요가 있다는 것이다.금융당국은 인터넷은행에 ‘두번째’ 기대를 걸고 있다. 강영수 금융위 은행과장은 “인터넷뱅크가 금융시장에 기여하지 못했다는 평가는 운영 기간이 짧았던 측면도 있다”며 “과도한 외형 성장을 했다는 지적도 있으나, 전체 자산은 아직 국내 은행의 2% 수준”이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2023.03.20.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>라이언 뛰어넘는다… 토스뱅크, '키워봐요 적금' 캐릭터 인형 제공</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000905051?sid=101</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>사진=토스뱅크 토스뱅크는 자신의 '키워봐요 적금' 동물 캐릭터를 인증한 고객 1500명에게 선착순으로 실물 모찌 인형을 주는 이벤트를 오는 21일 오후 2시부터 실시한다고 20일 밝혔다.이벤트 참여 방법은 간단하다. 자신이 보유한 키워봐요 적금 동물의 알 혹은 동물의 사진을 자신의 인스타그램 스토리에 업로드하면 된다. 기존 적금 가입자나 이벤트 시작 전 적금 가입을 마친 고객이라면 누구나 참여할 수 있다.다만 사진은 반드시 '전체 공개'여야 하며 필수로 토스와 토스뱅크 계정을 태그해야 한다. 선착순 1500명에겐 키워봐요 적금 동물 캐릭터 4종 중 본인의 동물과 동일한 캐릭터의 실물 모찌 인형을 증정한다. 당첨자에겐 인스타그램 DM으로 개별 안내할 예정이다.토스뱅크 '키워봐요 적금'은 6개월 만기 시 최고 4.5%의 금리를 제공한다. 납입한도는 월 최대 100만원이며 매주 1000원부터 20만원까지 납입 가능하다.가입 시 지급된 동물의 알이 이튿날 부화되면서 6개월 동안 열 단계에 걸쳐서 성장한다. 동물은 유령, 거북이, 문어, 망아지 네 종으로 랜덤 지급되며 매주 적금 자동이체 달성하면 최종 만기 시 전설의 동물로 진화한다.토스뱅크 관계자는 "키워봐요 적금의 동물 성장 스토리의 재미와 귀여움으로 만기 후에도 계속 재가입 하고 있다는 고객들의 반응에 이번 이벤트를 기획했다"며 "앞으로도 고객들이 보다 즐겁게 금융을 이용하고 좋은 혜택을 받으실 수 있도록 노력하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2023.03.17.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>인터넷은행도 연봉 1억 시대</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003752292?sid=101</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>카뱅 1억4600만, 토스 1억1900만인터넷은행 로고. /각 사 제공										시중은행과 지방은행에 이어 인터넷전문은행도 억대 연봉 대열에 합류했다.16일 각 은행이 공시한 ‘2022년 지배구조 및 보수체계 연차보고서’에 따르면 지난해 토스뱅크 임직원의 평균 연봉은 1억1900만원으로, 출범 첫해인 2021년(6100만원)의 2배 가까이로 상승했다.카카오뱅크 임직원 평균 임금은 1억4600만원으로 인터넷전문은행뿐 아니라 전체 은행권에서도 최고였다. 스톡옵션 행사 차익(542억원)이 반영됐기 때문인데, 이를 제외하더라도 1인당 평균 임금이 1억700만원으로 업계 상위권이었다. 1호 인터넷은행인 케이뱅크의 작년 임직원 연봉은 평균 9600만원이었다. 전년(8000만원) 대비 약 20% 올랐다.인터넷은행의 임금이 많이 오른 것은 ‘몸값’이 높은 IT 개발자들을 공격적으로 채용했기 때문이다. 인터넷은행들은 인재 유치를 위해 높은 보수 등 파격적인 근로 조건을 제시하고 있다. 대형 은행에 비해 직원이 적다 보니 소수가 거액 연봉을 받으면 평균치가 오르는 경향이 있다. 금융권 관계자는 “신생 은행이라 공격적으로 경력직 스카우트에 나선 것이 원인으로 보인다”며 “글로벌 금리 인상과 미국 은행 위기로 리스크 대비가 중요해졌기 때문에 지나친 인건비 지출은 지양할 필요가 있다”고 했다.한편 지난해 다른 시중은행 평균 연봉도 대부분 1억원 안팎을 기록했다. 한국씨티은행 평균 임금이 1억2000만원이었고, KB국민은행(1억1300만원), 우리은행(1억400만원)도 1억원을 넘었다. SC제일은행은 9700만원이었다.지방은행 중에서도 부산은행(1억1800만원)과 경남은행(1억1000만원)의 지난해 1인당 평균 연봉이 1억원을 넘었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2023.03.16.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>정유신 교수 "한국-베트남, 디지털 금융혁신 파트너 돼야"</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005444290?sid=105</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>[IBFC 2023] 개회식 오프닝 세션 발표"韓 핀테크 산업, 지난 10년간 양적·질적 성장""정부 정책 지원에 힘입어 글로벌 진출 발판 필요""젋고 ICT 인프라 구축한 베트남은 최적 파트너"[하노이(베트남)=이데일리 임유경 기자] “한국은 지난 10년간 세계에 내놔도 손색이 없을 정도의 핀테크 역량을 쌓았고, 이제 글로벌 디지털금융 산업의 리더로 도약해야 하는 시기를 맞다. 동남아 최고 수준의 정보통신기술(ICT) 인프라가 구축돼있고 인구의 평균 연령이 30대 초반으로 젊은 베트남은 한국의 가장 좋은 디지털금융 혁신 파트너가 될 것이다.”정유신 서강대기술경영대학원 교수는 16일 베트남 하노이 인터컨티넨탈 하노이 랜드마크72에서 이데일리 주최로 열린 제12회 국제 비즈니스·금융 컨퍼런스(IBFC)에서 “한국과 베트남이 디지털금융 협력을 통해 큰 시너지를 낼 수 있다”고 강조하며 이같이 말했다.2010년 초반 태동한 국내 핀테크 산업은 지난 10년간 양적·질적으로 빠르게 성장했다. 업체 수는 연평균 22.8%씩 증가해 지난해 기준 600개를 넘어섰고, 국내 상위 5개 핀테크 앱(카카오페이, 네이버페이, 토스, 카카오뱅크, 페이코)의 누적 가입자 수는 1억2000만명을 돌파했다. 업체당 연평균 투자유치액도 2019년 2억3000만원에서 2021년 27억2000만원으로 12배 급증했다.정유신 서강대 기술경영대학원 교수가 16일 베트남 하노이 인터컨티넨탈 하노이 랜드마크72에서 이데일리 주최로 열린 제 12회 국제 비즈니스 금융 컨퍼런스(IBFC)에서 오프닝 세션을 진행하고 있다.(사진=이영훈 기자)정 교수는 “카카오뱅크나 토스 등은 세계에 내놔도 손색없는 성공 사례를 창출했다”며 “핀테크 산업의 활성화뿐 아니라 기존 금융권의 혁신을 유도하는 메기 역할을 톡톡히 했다”고 평가했다.정부의 적극적인 정책 지원도 핀테크 산업 고속 성장의 주요 요인이 됐다. 정 교수는 핀테크 활성화에 기여한 주요 정책으로 △금융규제 샌드박스 △오픈뱅킹 △마이데이터 사업을 꼽았다.금융규제 샌드박스는 혁신적인 핀테크 서비스에 대해 규제 유예 및 비용 지원을 통해 서비스 출시를 돕는 제도다. 현재까지 금융규제 샌드박스를 통해 237건의 혁신금융서비스가 지정됐고 156개의 서비스가 출시되는 성과를 냈다. 정 교수는 “금융산업의 혁신을 견인하는 역할을 했다”고 분석했다.오픈뱅킹은 개별적으로 제휴하지 않아도 시스템 접속만으로 제공기관의 결제망에 접근해 핵심 금융 서비스를 통합적으로 제공할 수 있게 한 제도다. 은행, 핀테크, 상호금융, 금투사, 카드사 120여 곳이 오픈뱅킹에 참여하고 있다. 마이데이터는 하나의 앱에서 은행, 카드, 보험, 증권 등 모든 금융정보에 접근하고 맞춤형 금융 서비스를 제공하게 지원한다. 정 교수는 오픈뱅킹 및 마이데이터에대해 “고객의 자기정보 통제권을 보장하고, 전통 금융사의 데이터 독점권을 개방해 핀테크 혁신을 촉발했다”고 설명했다.그동안 국내 핀테크 산업이 역량을 축적하는 데 정책의 초점이 맞춰졌다면, 이제는 글로벌 시장으로 나아갈 수 있는 판을 깔아줘야 한다는 게 정 교수의 판단이다. 그는 “지난해 서울의 금융중심지 종합 순위는 11위지만, 핀테크 분야는 4위를 기록했다”며 “IT 강점을 살려 디지털금융 중심지 정책에 시동을 걸어야 한다”고 강조했다. 우리 기업들이 글로벌 시장과 교류하며 성장하는 데 집중적인 지원이 이뤄져야 할 필요가 있다는 얘기다.베트남은 한국 핀테크 기업들이 가장 높은 관심을 보이는 국가다. 한국핀테크지원센터의 2021년 조사결과 이미 해외에 진출했거나 진출을 준비 중인 핀테크 업체는 87개 사다. 이들을 대상으로 향후 진출하고 싶은 국가를 묻자, 미국(38.4%)과 베트남(34.8%)이 1·2위로 꼽혔다. 정 교수는 국내 기업들이 베트남에 관심이 높은 이유에 대해 “베트남 정부의 강력한 디지털 정책으로 동남아 최고 수준의 인터넷·스마트폰 보급률을 자랑하며, 인구의 평균 연령이 3대 초반으로 디지털 네이티브(원주민) 세대가 주를 이루고 있기 때문”이라고 설명했다.실제 베트남은 핀테크 강국이다. VN페이, 모모, 스카이마비스 등 기업가치 1조원 이상의 유니콘 핀테크 기업도 여럿이다. 정 교수는 “베트남 이커머스(전자상거래) 산업이 급성장하고 있고, 지속적인 포용금융정책이 필요한 만큼 베트남 핀테크 시장은 향후 더욱 커질 것으로 보인다”고 전망했다. 그는 이어 “베트남은 동남아 핀테크 허브로 발돋움할 가능성이 큰 국가로 양국 핀테크·금융회사들이 협력을 통해 시너지 효과를 창출할 수 있을 것으로 기대한다”고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2023.03.24.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>토스뱅크, ‘먼저 이자 받는 예금’ 출시… 연 3.5% 금리</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000887720?sid=101</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>토스뱅크 제공        인터넷전문은행 토스뱅크는 가입과 동시에 이자를 받을 수 있는 ‘먼저 이자 받는 예금’을 출시한다고 24일 밝혔다.이 상품은 은 연 3.5% 금리(세전, 만기일에 세금 차감)를 고객들에게 제공하며, 맡길 수 있는 금액 규모는 최소 100만원에서 최대 10억원까지다.먼저 이자 받는 예금은 일종의 정기예금 상품이다. 일정 기간 돈을 보관했을 때 고금리를 제공한다. 언제든 돈을 넣고 뺄 수 있는 수시입출금식 보통예금과 달라, 자금을 안정적으로 묶어두고 높은 금리를 받고자 하는 고객들에게 유리하다는 게 토스뱅크 측의 설명이다.다만 시중은행의 정기예금과 달리, ‘먼저 이자 받는 예금’은 고객들이 돈을 맡김과 동시에 즉시 이자를 받을 수 있다. 가령 1억원을 6개월 간(184일 기준) 맡기는 고객은 세전 금액인 약 176만원을 즉시 받는다. 받은 이자는 고객이 원할 때 언제든 출금 가능하다.예치 기간은 절반 이하로 줄였다. 고객들은 3개월·6개월 중 필요에 따라 이를 선택하면 돼, 자금 운용의 편의성이 강화될 것으로 보인다. 어느 기간을 선택하더라도 연 3.5% 금리는 동일하게 적용된다.토스뱅크 관계자는 “그동안 정기예금은 고객이 목돈을 굴리기 위한 수단이었음에도, 고객들이 매달 또는 만기일에 이자를 받기까지 기다려야 해 그 혜택이 직관적으로 전달되지 않았다”며 “토스뱅크의 ‘먼저 이자 받는 예금’은 고객들이 돈 모으는 재미를 즉시 느낄 수 있도록 했으며 동시에 필요에 따라 자금을 운용할 수 있는 상품으로 실질적인 목돈 마련에 기여할 것으로 보고 있다”고 말했다.만기를 채운 고객은 ‘자동 재가입’ 서비스를 통해, 최대 3번(최장 2년)까지 간편하게 재가입할 수 있다. 이때 적용되는 금리는 재가입 시점의 금리를 따른다.중도해지도 자유롭다. 고객이 원할 때 언제든 해지 가능하다. 단, 먼저 받은 이자에서 중도해지 이자(가입기간에 비례)를 제외한 금액이 원금에서 차감된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2023.03.20.</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>토스뱅크 ‘키워봐요 적금’ 인스타 이벤트 실시</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005445770?sid=101</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>동물 캐릭터 인증하면 선착순 인형 증정(이미지=토스뱅크)[이데일리 이명철 기자] 토스뱅크는 오는 21일 오후 2시부터 ‘키워봐요 적금’ 동물 캐릭터를 인증한 고객 1500명에게 선착순으로 실물 모찌 인형을 증정하는 인스타그램 이벤트를 실시한다고 20일 밝혔다.이벤트는 고객이 보유한 키워봐요 적금 동물의 알이나 동물 사진을 본인 인스타그램 스토리에 업로드하는 방식이다. 기존 적금 가입자나 이벤트 시작 전 적금 가입을 마친 고객이라면 누구나 참여할 수 있다.사진은 반드시 ‘전체 공개’여야 하고 토스와 토스뱅크 계정을 태그해야 한다. 선착순 1500명에겐 키워봐요 적금 동물 캐릭터 4종 중 본인의 동물과 동일한 캐릭터의 실물 모찌 인형을 준다.당첨자에겐 인스타그램 메시지(DM)로 개별 안내할 예정이다. 보다 자세한 이벤트 참여 방법은 토스·토스뱅크 인스타그램 계정에서 확인할 수 있다.토스뱅크의 ‘키워봐요 적금’은 6개월 만기 시 최고 4.5%의 금리 혜택을 제공하는 상품이다. 납입 한도는 월 최대 100만원이고 매주 1000원부터 20만원까지 납입 가능하다.가입 시 지급된 동물의 알이 이튿날 부화하면서 6개월 동안 열 단계에 걸쳐서 성장한다. 동물은 유령, 거북이, 문어, 망아지 네 종으로 랜덤 지급된다. 매주 적금 자동이체를 달성하면 최종 만기 시 전설의 동물로 진화한다.토스뱅크 관계자는 “키워봐요 적금의 동물 성장 스토리의 재미와 귀여움으로 만기 후에도 계속 재가입하고 있다는 고객들의 반응에 이번 이벤트를 기획했다”며 “앞으로도 고객들이 보다 즐겁게 금융을 이용하고 좋은 혜택을 받도록 노력하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2023.03.20.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>주요 은행 2월 가계 예대금리차, 2개월 연속 확대</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003211954?sid=101</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>KB국민·신한·우리·하나은행(왼쪽 위부터 시계방향).  각 사 제공지난달 주요 시중은행의 가계 예대금리차가 두 달 연속 확대된 것으로나타났다.20일 은행연합회의 예대금리차 비교 공시를 보면 KB국민은행의 지난달 가계 예대금리차(이하 정책서민금융 제외)는 1.48%포인트로, 신한·하나·우리·NH농협은행 등 주요 시중은행을 통틀어 가장 컸다.2위는 NH농협은행(1.46%포인트)이었고 이어 우리은행(1.46%포인트), 하나은행(1.32%포인트), 신한은행(1.06%포인트) 순이었다.5대 시중은행 중 KB국민은행을 제외한 나머지 4개 은행은 가계 예대금리차가 지난해 12월 이후 2개월 연속 확대됐다. KB국민은행은 지난 1월 대비 0.03%포인트 축소됐다.예대금리차는 저축성 수신금리에서 대출금리를 제한 것으로, 예대금리차가 클수록 이자 이익이 많이 발생하는 것으로 해석된다.KB국민은행 관계자는 “지난 1월 말 주택담보·전세자금 대출 금리를 인하했고 특히 전세자금 대출 금리는 전달보다 1%포인트 가까이 내렸다”며 “그러나 금리가 낮은 단기성 예금과 금리 인하가 없었던 신용대출의 비중이 커지면서 예대금리차 축소 효과가 줄었다”고 설명했다.인터넷전문은행 중에선 토스뱅크의 가계 예대금리차(4.90%포인트)가 최대였고, 케이뱅크(2.04%포인트)와 카카오뱅크(1.15%포인트)가 뒤를 이었다. 토스뱅크는 담보대출 상품을 취급하지 않아 대출금리가 비교적 높은 편이다.이날 공시에 참여한 19개 은행 중에서는 전북은행(6.48%포인트)의 가계 예대금리차가 가장 컸다.기업 대출과 가계대출 중 정책서민금융을 포함한 전체 예대금리차는 5대 은행 중 하나은행(1.91%포인트)이 가장 컸다. 이어 NH농협은행(1.81%포인트), 우리은행(1.81%포인트), KB국민은행(1.76%포인트), 신한은행(1.40%포인트)이 뒤를 이었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2023.03.19.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>해외에서 돈이 떨어졌다…이 카드면 수수료 걱정 NO</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011750796?sid=101</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>기사내용 요약'하나트래블로그 체크카드'·'트래블페이 충전카드'…수수료 면제 '해외 원화결제 차단 서비스(DCC)' 신청해야 수수료 폭탄 피해  *재판매 및 DB 금지[서울=뉴시스] 남정현 기자 = #30대 A씨는 12일 태국 여행 중 현지화인 바트가 부족해 현지ATM에서 5000바트(약 20만원)를 인출했다. 현지 ATM 수수료가 180바트(약 6800원), 마스터카드 국제브랜드 수수료(5800원), 국내 카드사 수수료(2000원) 등에 낼 수수료를 합해 최대 21만5000원까지 생각했지만 통장에 찍힌 금액은 24만9715원으로 25만원가량이었다. A씨는 여행 전 충분히 준비하지 않아 3만원 넘게 손해를 봤단 생각에 수일 동안 스스로를 자책했다.해외 여행 시 해당 국가의 화폐를 환전해 가지만 부득이하게 신용(체크)카드를 사용해야 할 경우와 ATM에서 추가로 현지화를 출금해야 할 경우가 생기곤 한다. 하늘길이 열리며 해외 여행이 급증하자, 최근 카드사들이 현지에서 결제·인출 시 수수료를 없앤 카드를 잇따라 내놓고 있다. 19일 카드업계에 따르면 통상 해외에서 카드를 이용할 경우 글로벌 브랜드사(비자·마스터카드 등)의 결제 네트워크를 이용하기 때문에 이에 대한 수수료를 내야 한다. 예컨대 한 카드사의 경우 해외 결제 시 국제 브랜드 수수료 1%와 해당 카드사 수수료 0.2%를 지불해야 한다. 현금인출 시 건당 3 달러(약 3900원)와 이용금액의 1%를 수수료로 내야 한다.특히 해외에서 사용한 금액은 글로벌 브랜드사가 정한 환율에 의해 미 달러로 환산돼 국내 카드사에 접수되며 카드사는 미 달러와 수수료를 원화로 환산해 결제계좌에서 즉시 인출한다. 이 경우 '현지화'가 아닌 '원화'로 결제·인출할 경우 불필요하게 환전이 여러 번 진행되며 이로 인한 수수료가 A씨 사례같이 눈덩이처럼 불어나게 된다. 이에 여행 전에 카드사를 통해 반드시 '해외 원화결제 차단 서비스(DCC)'에 가입할 것이 권장된다. 만약 결제 후 영수증을 통해 결제된 화폐가 원화로 확인될 경우 취소 후 현지 통화로 다시 결제해야 한다.수수료 면제 특화 카드를 살펴보면 '하나트래블로그 체크카드'가 대표적이다. 이 카드는 하나은행·카드의 온라인 플랫폼 '트래블로그'에 기반한다. '트래블로그'는 환전 수수료 없이 원할 때 앱에 외화를 충전하고 환전 서비스를 이용할 수 있는 서비스다. 매매기준율로 환전할 수 있어 그만큼 실물 지폐로 환전해 갈 때 발생하는 환전 수수료 없이 결제할 수 있다. 또 해외 결제 시 발생하는 해외 서비스 이용 수수료가 모두 면제된다.지난해 7월 출시된 후 지난달까지 63만 명이 가입했다. 트래블로그로 환전한 돈은 모두 1315억원에 이르며 지난 1월에만 334억원이 환전됐다. 충전한 하나머니를 다시 원화로 바꿀 때 5% 수수료가 부과된다는 게 단점으로 꼽혔지만 지난달부터 1%로 대폭 인하됐다. 하나카드 관계자는 "'환테크'를 부추길 수 있다는 외환당국의 우려로 최소한의 수수료를 부과한다"며 "대신 수수료가 포함된 별도 환율이 아니라 정식 공시되는 매매기준율"이라고 설명했다.핀테크사 트래블월렛이 내놓은 '트래블페이 충전카드' 역시 최근 해외 여행 필수카드로 꼽힌다. 엔화 등 주요 통화의 경우 환전 수수료가 없다. 기타 통화로 분류된 통화 또한 환전 수수료가 0.5~2.5%로 국내 최저보다 훨씬 저렴하다. 특히 언제든지 원하는 때에 바로 앱에서 환전할 수 있어, 환율을 보며 원하는 만큼 환전할 수 있다는 점이 특징이다. 이 외에 관련 혜택이 있는 카드로는 ▲토스뱅크카드 ▲하나은행 밀리언달러 카드 ▲트리플카드 등이 있다. 다만 해외 ATM 인출 시 대부분의 카드들이 면제해 주는 수수료는 국내 카드사 수수료다. 글로벌 브랜드사와 현지 ATM 운영사가 부과하는 수수료는 지불해야 한다는 의미다. '트래블로그'의 경우 글로벌 브랜드 이용료까지 면제되지만, 현지 ATM 운영사에서 요구하는 수수료는 지불해야 한다. 하나카드 관계자는 "트래블로그 카드의 장점은 해외 매입사에서 요청하는 추가 수수료까지 면제되는 것"이라며 "현지 단말기 운영사에서 별도로 요구하는 수수료는 지불해야 한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2023.03.31.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>OO페이 결제, 가게 사장님에게 카드보다 더 부담됐다</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002287259?sid=105</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>9개 업체 중 배달의민족 3.00%로 가장 높아9개 업체(네이버파이낸셜·카카오페이·쿠팡페이·지마켓·십일번가·배달의민족·NHN페이코·SSG닷컴·토스)가 제공하는 선불전자지급 수단 결제 수수료율이 카드 결제 수수료율보다 높은 것으로 집계됐다.31일 금융감독원은 이들 9개 업체의 평균 선불결제 수수료율은 2.00(영세가맹점)~2.23(일반가맹점)%에 분포하고 있으며, 평균 카드 결제 수수료율 1.09~2.39%보다 대부분 높은 것으로 조사됐다고 밝혔다.선불결제 수수료율은 금융소비자가 해당 사업자가 'OO페이'나 포인트, 머니 충전을 통해 결제하는 방식에서 가맹점에게 받는 수수료이다.(사진=이미지투데이)9개 업체 중 쿠팡페이·지마켓·십일번가·배달의민족·SSG닷컴은 영세 가맹점과 일반 가맹점 간 수수료율이 차등적으로 책정되지 않았다. 이중 ▲배달의민족의 선불결제 수수료율은 3.00%로 9개 업체 중 가장 높았으며 ▲쿠팡페이(2.50%) ▲SSG닷컴(2.50%) ▲지마켓(2.49%) ▲십일번가(2.00%) 순으로 집계됐다.빅테크로 꼽히는 네이버파이낸셜과 카카오페이는 가맹점을 5개(영세·중소1·중소2·중소3·일반)로 차등화해 수수료율을 받고 있었지만 카드 결제 수수료율 보다는 높았다. 네이버파이낸셜의 카드 결제 수수료율은 0.84~2.18%였지만 선불결제 수수료율은 0.91~2.17%, 카카오페이의 경우에는 1.01~1.40%, 1.66~2.08%로 각각 조사됐다.금융감독원 디지털금융혁신국 전자금융팀 측은 "간편결제 업자의 결제 수단별, 업체별 수수료율 공시가 자율적인 경쟁을 촉진해 합리적으로 수수료를 책정할 수 있게 될 것"이라며 "가맹점의 입장서 수수료와 관련된 정보 및 협상력의 비대칭성이 완화돼 수수료 부담이 점진적으로 줄어들 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2023.03.29.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>금융당국이 알아야 할 임진왜란의 ‘블랙스완’ [역사 속 경제이야기]</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003797190?sid=101</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>역사 속 경제이야기 ⑥  경제는 결국 사람 심리를 통해 결정된다. 사람이 경제를 만들고, 사람이 경제를 무너뜨린다. 그렇기 때문에 비약적으로 성장한 지금의 경제라 할지라도, 반복되는 과거 역사 속 사람의 행보를 되짚어보면 한층 깊이 이해할 수 있다. &lt;역사 속 경제이야기&gt;는 역사를 뒤흔든 사건과 그 사건의 주인공을 통해 지금 우리가 맞닥뜨린 ‘경제 현상’의 통찰을 얻는 시리즈다.      1592년 4월 일어난 임진왜란에서 초반 조선은 수도 서울이 함락되고 국왕이 의주까지 도망가는 등 큰 패배를 당했다. 흔히 동·서인으로 나뉘어 당파싸움에 몰두한 조선 지도층이 패배의 이유로 여겨진다. 일본의 침략을 예상하지 않았다는 인식은 도요토미 히데요시를 만나고 온 사신들이 당파에 따라 침략 가능성을 달리 보았다는 기록 때문에 정설처럼 받아들여지곤 한다. 신립의 탄금대 전투나 전쟁 발발 한 달여만에 서울에서 도망간 국왕 선조 등이 이러한 생각을 뒷받침한다.      국왕 앞에서 침략 가능성을 놓고 논쟁을 벌였다는 조선 사신단이 일본에 간 건 전쟁 2년 전인 1590년이었다. 국왕 선조는 다음 해엔 1591년엔 정읍현감 이순신을 8단계나 끌어올려 전라좌수사로 임명했다. 전쟁 발발 3년 전인 1589년. 이순신은 조선 조정이 추린 ‘불차 채용’, 즉 특별 승진 대상 명단에 이름을 올렸다. 당시 이순신을 추천한 사람은 병조(현재의 국방부) 경력이 풍부했던 이산해와 정언신이었다. 이순신의 고속 승진은 친구 류성룡의 적극 천거나 선조의 고집 때문만은 아니다.         임진왜란 초기 전투 기록 임진왜란 개전 초기 동래성에서의 전투를 담은 ‘동래부순절도’. 전쟁으로 인해 수많은 인명이 죽고, 다치면서 의학서의 필요성은 그만큼 컸다.    말하자면 일찌감치 조선 조정과 국왕은 일본의 침략을 예상했다. 그랬기에 특별 승진 대상 무신을 뽑아 놓았고 일본 정탐을 위해 사신을 보냈으며 침략이 다가온다고 판단되자 선별한 무신들을 전방에 내려보냈다.      그렇다면, 왜 조선은 속절없이 일본에 밀렸던 걸까. 1589년. 국왕 선조는 신하들과 회의 중 변협에게 “일본군이 수 만명 올 가능성이 있을까”라고 물었다. 1555년 을묘왜변 때 일본군과 싸웠던 변협은 “일본의 배는 크기가 작아 한 번에 100명 정도밖에 타지 않으니 1만 명 정도일 것”이라고 답했다.      이것이 전쟁 초반 조선이 패배한 원인 중 하나였다.     조선은 일본의 침략을 예상했다. 그런데 ‘얼마나’ 쳐들어올지에 대해서는 과거 경험에 부쳐 ‘수 만명’일 것이라고 생각했다. 일본과 직접 싸운 신하도 “만 명을 넘지 못한다”고 예측하는데 ‘10만 명이 넘을 것’이라고 생각을 떠오르기란 쉽지 않다. 이를 토대로 방위대책을 만들어야 한다는 건 더더욱. 정작 도요토미 히데요시는 14만이 넘는 대군을 부산에 상륙시켰다.     ‘수만 명 정도일 것’이라는 생각은 임진왜란 전에는 합리적인 주장이었다. 아니 비현실적이라는 비판도 컸다. 선조는 임진왜란 전 충청도, 경상도, 전라도의 책임자에 윤선각. 김수. 이광을 임명한 뒤 이들에게 성곽을 보수하고 참호를 파게 했다. 실록은 이들이 너무나 열심히 일하는 바람에 지역주민들의 원망이 컸다고 기록했다. 중장비가 없다보니 성벽 수리나 참호 파기엔 백성들이 무보수로 동원됐기 때문이다. 특히 경상도 책임자인 김수는 유생도 공사에 참여시킬 정도로 열성적이었다. 큰 경계심이 있었다는 뜻이다.      수 만명 침략에 대비한 방어체제를 만들어야 한다는 논리는 ‘힘들게 왜 성을 쌓느냐’는 반박에 부딪히기 일쑤였다. 류성룡에 한 지방 유력자가 ”부산 앞은 망망대해인데 일본군이 어떻게 넓은 바다를 넘어오겠느냐”는 항의성 편지가 오기도 했다. 조선 조정은 그럼에도 방어 준비를 이어갔지만 끝내 ‘10만 명 이상’을 대비한 조치는 쉽게 하지 못했다. 조선 수군 중 가장 많은 함대를 보유한 경상우수사 원균은 상상외로 쏟아진 일본군 부대에 군영을 불태웠다.      조선 조정은 커질 것이 분명한 항의를 누를만한 정치력이 없었고, 일본군의 정확한 규모를 알아낸 정보도 없었다. 그러니 결국 조선 조정은 자신들의 경험 내에서 판단했다. 조선 입장에서 십만이 넘는 일본군의 상륙은 말하자면, ‘블랙스완’. 즉 예상을 뛰어넘는 사건이었다. 당시 조선 지도부의 한계는 예상을 뛰어넘는 일본의 침략을 ‘경험’과 ‘인식’을 통해서만 본 것에 있었다.      검은(黑) 백조(白鳥). ‘블랙스완’은 평소 상식이라면 생각할 수 없던 일이 일어난 걸 뜻한다. 원래는 철학, 사회학 등에 쓰이던 표현인데 2008년 글로벌 금융위기 전 나심 탈레브라는 학자가 위기 가능성을 경고하면서 이 표현을 사용하면서 영역이 금융으로도 확장됐다. 이후에도 금융 시장에 예기치 못한 사건 사고가 발생할 때 ‘블랙스완’은 종종 소환되곤 한다.         사진=로이터연합뉴스    2023년 3월. 미국 실리콘밸리은행(SVB) 파산으로 불거진 전 세계 금융권 불안현상은 이 ‘블랙스완’에 해당할까. 지난해 미국 연방준비제도이사회(Fed·연준)의 공격적 금리 인상 후. 금융권이 쉽지 않은 상황에 부닥칠 것이라는 예상은 학계나 업계 내부에서 꾸준히 나오던 목소리였다. 즉. 이번 불안 사태는 예상 범주 안에 있다.      이번 불안 사태의 결말이 어떻게 될지는 현재로써는 예측하기 어렵다. SVB 파산은 유럽 주요 은행인 크레디스위스(CS)의 부실 우려로 이어졌고 결국 CS는 스위스 UBS에 합병됐다. 그 과정에서 불거진 불똥은 도이치방크 등 다른 은행에 대한 불안으로 번졌다. 독일 올라프 숄츠 총리가 “도이치방크는 안전하다”고 거듭 강조했지만 투자자들의 불안은 쉽사리 가라앉지 않고 있다.      불안이 ‘블랙스완’으로 번질 가능성을 배제하기 어렵다. 한국 금융 당국이 계속해 “우리 금융은 안전하다”고 강조하는 것도 바로 이 ‘블랙스완’으로 바뀔 가능성을 사전에 차단하려는 노력이다. 이복현 금융감독원장은 지난 24일 기자들과 만난 자리에서 “SVB 파산 사태와 같은 위험이라든가 똑같은 취약점으로 인한 상황이 국내에 발생할 가능성은 적은 것으로 파악하고 있다”고 말했다. 금융 당국은 CS 사태의 불똥이 된 ‘코코본드’ 상각 사태와 관련, 국내 금융 시장의 코코본드는 CS 상각 조건과 달라 유사 사태가 일어날 가능성은 작다고 본다. 또 금융 당국이 현재 상황을 위험으로 판단하고 대응하는 순간. 시장이 진짜 위험이라고 보고 더 크게 반응할 수도 있다. 시장은 지금, ‘위험’과 ‘안전’을 종잇장 차이로 보고 있다. 금융 당국의 대응이 조심스러울 수밖에 없다. 순간의 판단이 시장에 불을 지를 수 있다.     이럴 때 중요한 판단 근거는 ‘경험과 인식’이 아닌, 현재 상황에 대한 냉철한 인식, 그리고 빠른 정보 습득이어야 한다. 시장 상황은 시시각각 변한다. SVB 파산 원인 중 하나는 진화된 금융 시스템으로 과거와 달리 몇 시간 만에도 가능해진 ‘뱅크런(예금 대량인출)’에 있다. 한국 경제. 금융에서도 이러한 상황이 일어난다는 보장이 없다. 막연한 공포 심리가 휘몰아친 ‘토스뱅크’ 사태에서도 변화된 금융환경이 엿보인다. 토스뱅크가 내놓은 선이자 예금을 놓고 유동성 불안에 따른 대응 아니냐는 소문이 돌자 토스뱅크는 유동성 위기 대응 지표 중 하나인 유동성 커버리지비율(LCR)이 현재 833.5%로 규제비율인 90%의 9배라고 진화에 나섰다.      금융 당국의 조처에 ’냉철함’이 있어야 하는 건, 지금 한국 금융 시스템의 불안정성이 높아졌기 때문이기도 하다. 제2금융권을 중심으로 급증한 부동산 프로젝트파이낸싱(PF) 부실 우려가 커지고 있다. 금융권 내에서는 4월 이후 PF 대란이 벌어질 것이라는 우려가 커진다. ‘경험’과 ‘인식’을 통해 현재의 금융 시장이 안전하다는 신호를 보내는 것도 필요하지만, 그와 동시에 예측할 수 없는 사태를 대비해야 하는 노력도 있어야 한다. 추경호 부총리의 언급처럼 “한시도 긴장의 끈을 놓지 않고 동향을 예의주시하면서 당면한 어려움을 극복하는 데 총력을 다해야 하는 때”(24일 전문가 간담회)다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2023.03.31.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>'네·카·토' 간편결제 수수료 첫 공시… "대폭 인하 효과"</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000731631?sid=101</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>게티이미지뱅크이른바 '네·카·토'로 불리는 빅테크 업체들의 간편결제 서비스 수수료율이 처음 공시됐다. 그간 빅테크 수수료를 두고 소상공인 중심으로 '깜깜이' 수수료라는 지적이 제기됐고, 윤석열 정부는 이를 국정과제로 선정해 수수료율 공시를 추진해 왔다. 31일 금융감독원에 따르면, 공시 대상인 9개 업체의 선불결제 수수료율은 평균 2.00∼2.23%로 나타났다. 선불결제 수수료는 네이버페이포인트, 카카오페이머니 등 선불전자지급 수단으로 결제 시 입점 상인이 플랫폼에 지불하는 비용이다. 이들 빅테크업체의 카드결제 수수료율은 평균 1.09∼2.39%였다. 수수료율이 최초로 공개되면서 네이버파이낸셜·카카오페이·비바리퍼블리카(토스) 등 빅테크 3사의 수수료 인하 움직임도 나타났다. 이들 빅테크 3사의 선불결제 수수료율은 1.73%로, 2021년 연중 평균 수준인 2.03% 대비 0.29%포인트 내려갔다. 특히 간편결제의 대부분을 차지하는 신용카드 기반 간편결제 수수료율은 2021년(1.95%)보다 0.49%포인트 인하된 1.46%로 집계됐다. 공시 대상 업체는 간편결제 규모가 월 평균 1,000억 원 이상인 업체로 △네이버파이낸셜 △쿠팡페이 △카카오페이 △G마켓 △11번가 △우아한형제들 △NHN페이코 △SSG닷컴 △비바리퍼블리카 등이다.  이들 업체는 이날을 시작으로 매 반기 말로부터 1개월 이내에 수수료율을 공시해야 한다. 금감원 관계자는 "기준금리 인상으로 어려워진 경제 상황을 고려해 그간 업계에서 소상공인 부담을 완화하고자 수수료율 인하 노력을 기울인 결과로 보인다"고 평가했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2023.03.27.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>금융업계 “카카오·토스·케이 등 인뱅 3사, 중금리 대출 확대에 기여…리스크관리 필요”</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/117/0003711764?sid=004</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>[마이데일리 = 구현주 기자] 카카오·토스·케이뱅크 등 인터넷전문은행이 그간 중신용(중금리) 대출 확대에 기여했지만, 향후 리스크관리가 필요하다는 의견이 나왔다.27일 국민의힘 정책위원회가 주최하고 윤창현 의원과 인뱅 3사가 공동 주관하는 인터넷전문은행 5주년 기념 토론회가 국회 의원회관 제1세미나실에서 열렸다.윤창현 의원은 개회사에서 “인뱅 도약이 금융소비자 편익으로 이어질 수 있도록 입법과 정책을 통해 자율과 혁신을 지원할 것”이라고 말했다. 주제 발표를 맡은 여은정 중앙대학교 교수는 “인뱅 3사가 서로 다른 사업모델을 추구하고 있지만 시장에 성공적으로 안착했다”며 “모바일 금융 편의성 제고, 중신용 대출 확대에 기여했다”고 평가했다. 이어진 토론에서 이병윤 금융연구원 선임연구위원은 “최근 늘어난 중금리 대출에 대해서는 철저한 리스크관리가 필요하고 향후 대안신용평가 능력 강화와 해외진출 등으로 수익성 확대를 도모해야 한다”고 제안했다.민세진 동국대 교수는 “인뱅 출현은 은행산업 효율성과 소비자 후생 증진 차원에서 매우 긍정적으로 평가하지만 혹시라도 발생할 모바일런 사태를 예방하기 위해 예금보험 상한 상향 조정과 중저신용자 대출 비중 목표를 유연하게 할 필요가 있다”고 주장했다.조연행 금융소비자연맹 회장은 “아직도 갈 길이 먼 소비자권익 향상과 후생증진에 보다 더 역점을 두고 추진해주길 바란다”고 강조했다. 김영주 금융감독원 부원장보는 “인뱅 혁신성장과 금융포용 지속을 위해 충분한 손실흡수능력 확보와 소비자와 신뢰유지가 중요하며 혁신성장 지원을 위해 업계와 적극적인 소통 노력을 강화해 나가겠다”고 했다. [사진 = 각사](구현주 기자 winter@mydaily.co.kr)</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2023.03.16.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>SVB 사태로 촉발된 '폰 뱅크런' 위기감...인뱅 "가능성 낮아"</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004982663?sid=101</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>인터넷은행 3사 LCR 모두 세자릿수금융당국이 규제한 85% 훨씬 웃돌아인뱅 "수신 추이 모니터링 하는 중" 사진=뉴시스    [파이낸셜뉴스] 미국 실리콘밸리은행(SVB) 파산으로 '폰 뱅크런'에 대한 위기감이 확산하는 가운데 국내 인터넷은행의 대규모 자금 인출 가능성에 대해 관심이 쏠리고 있다. 일단 국내 인터넷은행의 유동성은 당국 규제를 훨씬 웃도는 수준으로 관리되고 있으며 지난 SVB 사태 이후 수신 잔액에 큰 변동은 없는 것으로 조사됐다. 또한 예수금도 다수 소매 고객에게 분산돼 있어 대규모 자금 인출 가능성은 매우 낮다는 입장이다.    ■"SVB와 국내 은행 상황 달라" 16일 업계에 따르면 SVB가 36시간 만에 초고속으로 문을 닫는 사건이 발생하자 일각에서 국내 인터넷 은행에 대한 우려가 제기됐다. SVB 파산 배경에 스마트폰을 통한 대규모 예금 인출이 있었다는 점이 밝혀지자 국내 모바일 뱅킹 시장에서도 유사시 대응책이 마련돼야 한다는 지적이다. 전자금융감독규정에 따르면 개인 고객 기준 국내 은행의 인터넷·모바일 뱅킹 1회 이체 한도는 최대 1억원, 1일 이체 한도는 최대 5억원이다.   하지만 인터넷은행들은 SVB 사태와 비슷한 사고가 국내에서 발생할 확률은 낮다고 입 모아 주장한다. SVB와 달리 고객층도 다양하고 1인당 예수금도 크지 않아서다. 실제 지난 SVB 사태 이후 금융권 리스크를 점검한 금감원 조사에서 인터넷은행의 1인당 평균 예금액은 200만원대로 낮은 수준에 그쳤다.   인터넷은행 관계자는 "여파를 분석하고 있지만 수신에 유의미한 변동은 없는 상황"이라며 "국내 인터넷은행에 큰 영향은 없을 것으로 예측하고 있다"고 말했다.    ■인터넷銀 유동성 비율 '안정적' 실제 인터넷은행은 대부분 당국 규제 이상으로 단기 현금화할 수 있는 자산을 확보하고 있을 뿐 아니라 그 비율도 높이고 있는 추세로 나타났다. 지난해 9월 말 케이뱅크의 유동성 커버리지 비율(LCR)은 188.82%로 3월 말(172.44%) 비해 10%가량 상승했다. 같은 기간 토스뱅크(898.29%→898.94%)도 소폭 늘었다. 카카오뱅크는 지난해 3월 말(1038.44%)에 비해 낮아지는 모습을 보였지만 지난해 9월 말 999.11%로 인터넷은행 3사 중 가장 높은 수치를 기록했다.   이는 시중은행에 비해서도 높은 수치다. 지난해 3·4분기 4대 시중은행(KB국민·신한·하나·우리)의 평균 유동성 커버리지 비율은 96.45%로 집계됐다. 하나은행 105.27% 우리은행 95.3%, 국민은행 92.69%, 신한은행 92.55% 등이다.   유동성 커버리지 비율은 30일간 순 현금 유출액 대비 고유동성 자산 비율을 말한다. 은행이 외화 유출 등 고강도 스트레스 상황을 한 달 동안 겪는다고 가정했을 때 은행이 재빨리 현금화할 수 있는 자산 규모를 산출한 것이다. 이 비율이 높을수록 유동성 위기가 발생했을 때 오래 견딜 수 있다는 뜻이다.   인터넷은행 또다른 관계자는 "이미 수신의 많은 비중을 고유동성 자산에 넣고 있다"며 "다만 자금 모니터링을 강화하는 등 노력을 하고 있다"고 말했다.   현재 금융당국이 은행에 요구하는 최소 유동성 커버리지 비율은 92.5%다. 당초 금융당국은 코로나19로 한시적으로 85%까지 낮췄던 이 비율을 올 7월까지 단계적으로 100%까지 끌어올리기로 했으나 최근 시장 상황을 고려해 이 같은 조치를 6개월 유예하기로 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2023.03.17.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>2천억원 유상증자한다는 토스뱅크…불어난 임금비 부담</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002631894?sid=101</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>후발주자 토뱅, 고연봉 개발자 대거 채용이 부메랑으로?토스뱅크 상호. 토스뱅크 제공인터넷전문은행 토스뱅크가 출범 1년 반만에 일곱번째 유상증자에 나선다. 불어난 인건비가 이번 자본확충의 또다른 배경이 아니냐는 해석도 나온다.토스뱅크는 17일 2천억원 규모의 유상증자를 추진한다고 밝혔다. 재무안정성을 높이고 사업 확장을 위한 종잣돈을 마련하기 위해서다. 구체적으로 발행가 6500원에 보통주 3077만주를 제3자 배정 방식으로 발행한다. 오는 30일로 예정된 자본금 납입일에 신규 투자자인 한국투자캐피탈을 포함해 하나은행 등 신주를 배정받은 주주들이 주식 인수대금을 모두 치르면, 토스뱅크의 납입자본금은 1조6500억원으로 불어난다. 토스뱅크는 “높아진 대외변동성으로 투자시장이 얼어붙은 가운데서도 높아진 기업가치를 인정받고 신규 주주까지 확보하는 성과를 달성할 수 있다”고 말했다. 토스뱅크는 유상증자 결정 소식과 함께 ‘2022년 지배구조 및 보수체계 연차보고서’도 공시했다. 이를 보면, 지난해 이 은행의 임직원 보수총액은 462억6천만원으로 전년(139억7천만원) 대비 3.3배 증가했다. 임직원 1인당 평균 연봉을 기준으로는 6100만원에서 1억1900만원으로 두배 가까이 올랐다. 경쟁사인 카카오뱅크(29.2%)와 케이뱅크(38.3%)의 인건비 증가율과 비교하면 압도적으로 높은 수준이다. 다만 토스뱅크가 2021년 10월부터 영업한 점을 염두에 두면, 같은 기간에 견준 임금총액 상승폭으로 보기는 어렵다. 그럼에도 토스뱅크가 인터넷전문은행 후발주자로서 출범 전후로 은행권과 아이티 업계에서 보수 수준이 높은 고연차 개발자를 대거 채용해 왔다는 점에서 임금 등 인건비가 경영 수지에 부담을 줄 수 있다는 우려도 일부에서 나온다. 비용 부담이 커 경영 수지가 지속적으로 나빠지게 되면 재무안정성이 흔들린다. 불어난 인건비가 유상증자의 또다른 배경일 수 있다는 얘기다. 전문가들은 지금처럼 금융시장 변동성이 커 경영 환경이 악화되는 시기엔 지나친 인건비 지출은 바람직하지 않다고 지적한다. 이효섭 자본시장연구원 금융산업실장은 “글로벌 은행들도 비용을 줄이고 정부도 임직원 성과급 체계나 업적 평가 기준 개선을 검토하는 현재 같은 시기에 고액 연봉자를 많이 데려오려다 과도하게 비용을 집행한 부분은 긍정적인 모습으로 보기는 어렵다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2023.03.22.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>한투증권, 카카오·토스와 '토큰증권 협의체' 결성</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011756016?sid=101</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>기사내용 요약카뱅·토뱅, 카카오엔터프라이즈 참여[서울=뉴시스] 박은비 기자 = 한국투자증권은 인터넷전문은행 카카오뱅크·토스뱅크와 함꼐 토큰증권(STO) 협의체 '한국 ST 프렌즈'를 결성하고 토큰증권 생태계 구축에 나선다고 22일 밝혔다.이 협의체는 한국투자증권을 주축으로 카카오뱅크와 토스뱅크가 토큰증권을 기록할 분산원장(블록체인)의 금융기관 시범 운영 파트너로 참여한다. 또 한국은행 중앙은행 디지털화폐(CBDC) 모의실험 사업을 수행해 기술력을 인정받은 카카오엔터프라이즈가 분산원장 구축을 위한 기술 파트너로 합류한다.금융당국이 토큰증권 제도화를 추진하면서 조각투자업체와 블록체인 기업을 내세운 협력체들이 하나둘씩 등장하는 가운데 금융기관이 중심으로 협의체를 결성한 것이다. 한국투자증권은 연내 발행 분산원장 인프라를 구축하고 안정성과 보안성 테스트를 진행할 예정이다. 이후 본격적인 토큰증권 상품 공급을 추진하기로 했다. 초기 생태계 구축이 완료되면 경쟁력있는 조각투자 기업들의 참여를 유도해 투자자 보호, 시스템 안정을 최우선으로 하는 토큰증권 생태계로 확장해나간다는 목표다.한국투자증권 관계자는 "토큰증권에 적합한 상품을 공급할 수 있는 발행 인프라 구축이 토큰증권 생태계 구성의 첫 걸음"이라며 "파트너간 시너지를 극대화해 토큰증권 활성화와 양질의 상품 제공에 역할을 다하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2023.03.20.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>토스뱅크, ‘키워봐요 적금’ 캐릭터 인형 1500개 선착순 증정</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002300151?sid=101</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>◆…토스뱅크가 자신의 '키워봐요 적금' 동물 캐릭터를 인증한 고객 1500명에게 선착순으로 실물 모찌 인형을 증정하는 인스타그램 이벤트를 21일 오후 2시부터 실시한다. 사진=토스뱅크 제공토스뱅크가 자신의 '키워봐요 적금' 동물 캐릭터를 인증한 고객 1500명에게 선착순으로 실물 모찌 인형을 증정하는 인스타그램 이벤트를 21일 오후 2시부터 실시한다고 밝혔다.   이벤트 참여 방법은 자신이 보유한 키워봐요 적금 동물의 알 혹은 동물의 사진을 자신의 인스타그램 스토리에 업로드하면 된다. 기존 적금 가입자나 이벤트 시작 전 적금 가입을 마친 고객이라면 누구나 참여 가능하다.   단 사진은 반드시 '전체 공개'여야 하며 필수로 토스와 토스뱅크계정을 태그해야 한다. 선착순 1500명에겐 키워봐요 적금 동물 캐릭터 4종 중 본인의 동물과 동일한 캐릭터의 실물 모찌 인형을 증정한다.   당첨자에겐 인스타그램 DM으로 개별 안내할 예정이며 보다 자세한 이벤트 참여 방법은 토스와 토스뱅크 인스타그램 계정에서 확인할 수 있다.   토스뱅크 '키워봐요 적금'은 6개월 만기 시 최고 4.5%의 금리 혜택을 제공한다. 납입한도는 월 최대 100만원이며 매주 1000원부터 20만원까지 납입 가능하다.   가입 시 지급된 동물의 알이 이튿날 부화되면서 6개월 동안 열 단계에 걸쳐서 성장한다. 동물은 유령, 거북이, 문어, 망아지 네 종으로 랜덤 지급되며 매주 적금 자동이체 달성하면 최종 만기 시 전설의 동물로 진화한다.   토스뱅크 관계자는 "키워봐요 적금의 동물 성장 스토리의 재미와 귀여움으로 만기 후에도 계속 재가입 하고 있다는 고객들의 반응에 이번 이벤트를 기획하게 됐다"라며 "앞으로도 고객들이 보다 즐겁게 금융을 이용하고 좋은 혜택을 받으실 수 있도록 노력하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2023.03.21.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>토스, 한국투자저축銀과 전자금융사기 예방 나선다</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000886782?sid=101</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>모바일 금융 플랫폼 토스를 운영하는 비바리퍼블리카(이하 토스)가 한국투자저축은행과 전자금융사기 예방을 위한 업무협약(MOU)을 체결했다고 21일 밝혔다.지난 20일 진행된 업무제휴 협약식에서 토스 김규하 토스 최고브랜드경영자(왼쪽)과 전찬우 한국투자저축은행 전무가 기념 사진을 촬영하고 있다. /토스 제공        이번 업무협약을 통해 토스는 자체 개발한 악성 앱(애플리케이션) 탐지 기능 ‘토스 피싱제로’를 제공하고, 한국투자저축은행은 제공받은 솔루션을 시범 적용할 계획이다.피싱으로부터 금융 소비자를 보호하기 위해 토스에서 자체 제작한 보안 솔루션인 ‘토스 피싱제로’는 지난해 4월 안드로이드용 토스 앱에 탑재됐다. 해당 기능은 권한의 적절성, 악성 행위 가능성 등 휴대폰에 설치되어 있는 앱의 악성 여부를 판단한다.‘토스 피싱제로’는 화이트 해커와 토스의 보안 기술팀이 개발한 ‘악성 앱 분석 자동화 시스템’을 활용한다. 특히 보이스피싱을 통해 금융 피해를 유발하는 신종⋅변이 악성 앱을 실시간으로 탐지해 내는 것이 특징으로, 토스 보안기술팀은 최신 해킹 기술, 악성 앱을 통한 공격 트렌드 등을 연구한 결과를 반영하여 해당 기능을 주기적으로 업데이트하고 있다.세부 활동 내용으로는 단말기 내 악성 앱이 존재할 경우 앱 삭제를 권고하고, 삭제하지 않을 경우 금융 서비스 이용이 불가함을 안내하고 있다. 토스는 2022년 4월부터 2023년 1월까지 탐지한 악성 앱의 개수는 누적 약 68만건 이상, 보호한 금융 소비자는 누적 10만명 정도라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2023.03.22.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>결제사고 터지면 누구 책임… 덩치만큼 리스크 커진 핀테크 [핀테크 '감시 사각지대']</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004985452?sid=101</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>한은 지급결제 공동검사 제외애플페이 진출로 시장규모 커져금감원, 전자금융 감독 강화키로 [파이낸셜뉴스]애플의 간편결제 서비스 '애플페이'의 국내 상륙을 계기로 간편결제 시장이 덩치를 키우고 있는 가운데 핀테크 업체들이 '지급결제 감시 회색지대'로 남아있어 논란이 예상된다. 핀테크 업체들은 지급결제 공동검사 대상에서 빠져 정기적으로 당국의 검사를 받지 않기 때문이다. 시장 규모에 걸맞게 소비자 보호를 위한 제도개선이 시급하다는 지적이다.   22일 금융권에 따르면 시중은행과 증권사를 제외한 핀테크 업체들은 금융당국과 한국은행의 지급결제 공동검사 대상에서 빠져 있다. 다른 금융회사와 달리 당국이 지급결제 업무와 관련, 정기적으로 현장검사 등을 실시하지 않는다는 얘기다.   한국은행 관계자는 "선불충전금 업체 등 핀테크 업체는 현행 전자금융거래법상 공동검사 대상이 아니다"라며 "금융감독원에서 선불충전금 업체와 관련, 별도로 관리하고 있다"고 밝혔다. 이 관계자는 "상대적으로 핀테크 규모가 작아서 한은이나 감독원 직원이 현장에 나가서 검사해야 하는지는 찬반 양론이 있다"면서 "안정성도 중요 과제지만 모든 핀테크 업체를 일일이 들여다보면 감독 애로가 있을 수도 있기 때문에 핀테크에 대한 공동검사 요구권을 적극 검토하는 단계는 아니다"라고 말했다.   당국의 입장과 달리 코로나19 이후 비대면 거래가 확산되면서 핀테크 업체들이 주로 진출한 간편결제·송금 시장 규모는 급격히 커지고 있다. 간편결제는 지급카드 정보 등을 서비스 기관에 미리 등록해두고 거래 시 간편인증수단을 이용해 돈을 지급하는 서비스로 'OO페이' 등이 여기에 해당된다.   지난해 상반기 중 간편결제 이용실적은 일평균 7232억원, 간편송금은 6024억원에 달한다. 2021년 간편결제 이용금액은 전년 대비 35.2% 늘었다. 핀테크 업체가 주도하는 선불결제 시장은 이용금액 증가율이 52.7%에 달했다. 애플페이가 지난 21일 국내에서 서비스를 시작하면서 간편결제 시장 경쟁이 심화되고 규모도 더 커질 것으로 예상되고 있다.   당국에서도 핀테크 업체의 지급결제 리스크를 인식하고는 있다. 한국은행은 2021년 지급결제보고서에서 "빅테크기업은 은행, 카드사 등 기존 지급서비스 제공기관과의 연계를 통해 고객에게 지급서비스를 제공하고 있다. 이에 따라 빅테크에서 발생하는 리스크가 기존 지급서비스 제공기관으로 전이될 가능성이 크다"고 밝혔다. 한국은행은 지급결제 플랫폼에 대한 감시대상 시스템 지정, 공동검사 실시 등을 검토하겠다고 했지만 아직 현실화되지는 않았다.   이와 관련, 금감원에서는 올해 네이버파이낸셜(네이버페이)을 대상으로 수시검사에 나설 계획이다. 지난해 비바리퍼블리카(토스), 카카오페이에 검사를 나간 데 이어 간편결제 3대 업체를 모두 들여다보겠다는 취지다. 또 IT검사국 상시감시팀을 통해 전금업자 리스크 관리를 강화하겠다고 밝혔다.   이런 상황에 핀테크 업계에서는 자체적으로 지급결제 리스크 관리를 강화하려는 모양새다. 머지포인트 사태를 계기로 대형업체들은 선불충전금 대다수를 시중은행에 신탁하는 등 관리를 강화하고 있다. 핀테크 업체 관계자는 "모든 핀테크 업체가 지급결제를 하는 플랫폼이 아니다 보니 직접적인 연관은 없다"면서도 "향후 어떻게 서비스를 업그레이드하느냐에 따라 열려 있는 시장이므로 리스크 관리 방안을 고민 중"이라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2023.03.26.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>금리인하요구권 신청·수용률, 인터넷은행이 시중은행보다 높아</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002790989?sid=101</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>시중은행과 인터넷 전문은행의 금리인하요구권 운용 현황 분석 결과 인터넷 은행이 시중은행보다 신청률과 수용률 모두 훨씬 높은 것으로 나타났다.26일 국회 정무위원회 윤창현 의원이 5대 시중은행과 인터넷 은행 3사에서 받은 자료에 따르면, 5대 시중은행의 금리인하요구권 신청가능 계좌 약 870만개 중 실제 신청이 이루어진 계좌는 약 55만개로 평균 신청률은 6.33%였다. 실제 금리가 인하된 계좌는 약 20만개(2.38%)에 불과했다.NH농협은행은 전체 신청가능 계좌 약 160만개 중 약 2만5000개(1.56%)에서만 금리인하 신청이 이뤄졌다. 전체 신청가능 계좌 대비 수용률은 NH농협은행 1.01%를 비롯, 5대 시중은행이 평균 2.38%에 그쳤다.반면 인터넷 은행의 금리인하요구권 신청가능 대출계좌 약 570만개 중 실제 신청이 이루어진 계좌는 약 142만개, 실제 금리가 낮아진 계좌는 약 27만개로 나타났다. 신청률 및 수용률이 각각 24.96%, 4.71%로 시중은행(6.33%, 2.38%)보다 높았다.또한 금리 인하 폭을 살펴보면 시중은행은 0.13%(우리은행)~0.42%(NH농협은행)에 분포하고 있으나 인터넷 은행은 0.38%(카카오뱅크)~0.76%(토스뱅크)에 분포돼 시중은행보다 금리 인하 폭도 높은 것으로 나타났다.윤창현 의원은 "시중은행들도 인터넷 은행을 벤치마킹해 신청절차는 더 편하게 개편하고 고객의 입장에서 금리인하 수용률을 높이고 인하폭도 확대할 필요가 있다"고 말했다. 사진=연합뉴스</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2023.03.27.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>위기설 진화 나선 토스뱅크 홍민택 "유동성 매우 안정적"</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000014972?sid=101</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>유동성커버리지비율 833.5%…5대 은행 평균 8배"새 '선이자 예금상품' 참신해 오해 낳은 듯"인터넷 커뮤니티를 중심으로 도는 '토스뱅크 뱅크런' 우려설에 이 은행 홍민택 대표가 "우려할 부분이 전혀 없다"고 반박했다. 미국 실리콘밸리은행(SVB) 파산으로 인해 글로벌 금융위기 걱정이 커진 상황에서 토스뱅크가 '먼저 이자 받는 예금'이라는 독특한 수신 상품을 내놓자, 그 배경으로 이 은행의 유동성 문제가 제기된 것에 대표가 직접 "사실무근"이라고 선을 그은 것이다. 홍 대표는 27일 서울 여의도 국회의원회관에서 열린 인터넷전문은행 출범 5주년 기념 토론회 시작 전 기자들과 만나 "(은행권 유동성 위험과 관련해) 도이체방크 위기설 등으로 금융 시장이 불안해 생기는 일 같다"며 "실제로 우려할 만한 부분이 전혀 없다"고 강조했다.그는 "사실 다른 은행보다 이런 충격에 더 안전한 수준인데 상대적으로 업력이 길지 않은 데다 인터넷전문은행이다 보니 우려가 나온 거 같다"며 "수신이 23조원을 넘고, 오히려 시중은행들보다 유동성 비율이 훨씬 높다"고 덧붙였다. 이날 토스뱅크는 시장의 유동성 불안에 충분한 대비가 이뤄졌다는 내용의 설명자료를 내기도 했다. 자료에 따르면 토스뱅크는 이날 기준 고유동성자산이 약 14조5000억원으로, 유동성커버리지비율(LCR)은 833.5%다. LCR이란 국채 등 현금화하기 쉬운 자산의 최소 의무보유비율인데, 은행업 감독규정상 100%(올해 6월말까지는 한시적으로 92.5%)를 지켜야 한다. 5대 은행(KB국민·신한·하나·우리·NH농협)의 LCR은 작년 9월말 기준 101.6%였다. 토스뱅크의 LCR은 대형은행보다 8배 이상 높은 것이다.토스뱅크는 여신 잔액 대비 충분한 수신 잔액을 바탕으로 안정적인 성장세도 유지하고 있다고 덧붙였다. 이날 기준 토스뱅크의 수신 잔액은 23조2000억원, 여신 잔액은 9조3000억원이다. 지난해 9월말 대비 수신 잔액은 545억원 늘었고, 여신 잔액은 2조1708억원 증가했다. 예대율(은행의 예금 잔액에 대한 대출금 잔액 비율)은 44%로 전년 동기(12.4%) 대비 4배 가까이 상승했다. 순안정자금조달비율(NSFR)은 208%로 시중은행 대비 2배 가까이 높다는 게 토스뱅크 측 설명이다. 장기간(1년 이상) 필요한 은행의 보유자산에 따라 안정적으로 자금을 조달할 수 있다는 것이다.토스뱅크 뱅크런 우려설은 SVB 파산에 이어 지난 주말 독일 도이체방크 주가가 급락하면서 글로벌 은행권에 대한 위기의식이 고조되며 일부 인터넷 커뮤니티에서 제기됐다. 토스뱅크의 '먼저 이자 받는 예금' 출시를 두고 '급히 유동성을 확보하기 위해 고액 예치금을 끌어모으려는 것 아니냐'는 의혹이 제기된 것이다. 앞서 토스뱅크는 지난 24일 고객이 돈을 맡기면 즉시 선(先)이자를 받을 수 있는 수신상품을 내놨다. 가령 1억원을 6개월간(184일 기준) 맡기는 고객은 세전 금액인 약 176만원을 즉시 받는다. 받은 이자는 이용자가 원할 때 언제든 출금 가능하다. 홍 대표는 이에 대해 "선이자 정기예금은 기존 금융권에 있던 상품으로, 고객에게 이자를 먼저 제공해도 재무적으로는 차이가 없다"며 "선이자 예금 상품은 수신을 확보하기 위해서가 아니라, 고객이 이자를 받는 불편한 경험을 개선하고자 출시한 것"이라고 설명했다. 이어 "(나중에 이자를 지급하는 기 상품들과 달리) 돈을 넣는데 이자를 바로 주는 상품인 먼저 이자 받는 예금이 너무 좋아서 오히려 위험하게 느껴지는 아이러니가 있는 것 같다"며 "기존 상품들이 시장에 워낙 너무 고착화돼 있어 참신한 상품이 오히려 이런 오해를 낳게 된 게 아닌가 생각한다"고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2023.03.27.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>토스증권 ‘주식모으기’ 누적 이용자 60만명 돌파</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002121621?sid=101</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>[토스증권 제공][헤럴드경제=권제인] 토스증권은 27일 적립식 투자 서비스인 ‘주식모으기’의 누적 이용자가 60만명을 돌파했다고 밝혔다. 서비스를 선보인지 1년만의 성과로 3월 현재 주식모으기 이용자는 64만명이다.주식모으기는 국내 및 해외주식을 고객이 원하는 일정한 주기와 수량만큼 설정해 적립식으로 투자하는 서비스다. 투자 주기는 매일, 매주, 매월 등 고객의 투자 계획에 따라 다르게 설정할 수 있고, 국내주식은 1주부터, 해외주식은 최소 1000원부터 소수점 단위로 투자가 가능하다.토스증권이 주식모으기 이용 고객들의 데이터를 분석한 결과에 따르면, 고객 1인당 평균 2건의 주식모으기를 이용하고 있으며, ‘매일’ 꾸준히 투자하는 비중이 가장 높았다. 매일 주기로 주식모으기를 이용하고 있는 사용자는 전체 이용자의 46%에 달했다. ‘매주’ 투자하는 사용자와 ‘매월’ 투자하는 사용자는 각각 42.5%, 11.5% 순이었다.토스증권 고객들이 주식모으기를 통해 가장 많이 투자하고 있는 종목은 테슬라였다. 애플과 스타벅스가 그 뒤를 이었다. 상위 5개 종목 중 국내주식으로는 삼성전자가 유일하게 이름을 올렸다.토스증권 관계자는 “주식모으기는 고객들의 이용 지속성이 높은 서비스 중 하나로, 고객 10명 중 6명은 6개월 이상 서비스를 사용하고 있다“며 “적립식 투자가 시장 리스크를 헤징하는 전략으로 유효했던 것으로 보인다”고 말했다.[토스증권 제공]</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2023.03.21.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>20대 대학생, 월세 등 고정비 빼고 '월평균 52만원' 쓴다</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004864594?sid=101</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>20대 대학생들의 한 달 평균 소비금액이 52만원이라는 조사가 나왔다.대학생활 플랫폼 '에브리타임' 운영사 비누랩스는 지난달 17일부터 22일까지 20대 대학생 남녀 각각 500명씩 총 1000명을 대상으로 설문조사한 결과 이같이 나타났다고 21일 밝혔다.조사에 따르면 20대 대학생이 저축, 투자, 주거비 등 고정비를 제외하고 소비하는 규모는 한 달 평균 52만원이었다. 분포별로는 30만원 이상 60만원 미만이 52.1%로 가장 많았고, 61만원 이상이라는 응답이 25.7%로 뒤를 이었다. 30만원 미만이라는 응답도 22.2%였다.투자를 하고있다는 응답은 28%였다. 이 중 절반 이상인 56%가 100만원 이하 소액투자를 하고 있었다. 투자상품은 대부분 국내 주식과 해외 주식 등 주식상품이었고 여성보다는 남성에서, 저학년보다 고학년에서 투자하고 있다는 응답이 높았다.대학생들의 주거래은행으로는(중복응답) △국민은행(20.7%) △카카오뱅크(18.5%) △농협은행(14.3%) △토스뱅크(17.4%) △신한은행(7.5%) 순으로 조사됐다. 카카오뱅크와 토스뱅크 등 인터넷 전문 은행을 주거래 은행으로 이용하는 이유로는 '모바일 이용이 편리해서'라는 응답이 가장 높았으며 '간편한 가입·발급 절차'와 '수수료 할인 등 금융 혜택' 등도 주요 이유로 꼽혔다.주로 사용하는 은행 앱은 토스가 24.4%로 가장 높았다. 이어 △카카오뱅크(21.6%) △국민은행(18.4%) △농협은행(14.3%) △신한은행(6.7%) 순으로 주거래 은행과는 또다른 양상이었다. 이들은 시중은행 앱의 불만족 요소(중복응답)로 송금이 불편한 점(48%)과 느린 거래·반응 속도(31%) 등 이유로 들었다.금융앱 만족도 조사(5점 척도)에서는 토스가 4.09점, 카카오뱅크 3.95점, 카카오페이 3.62점을 기록했다. 앱 별 선호 콘텐츠 조사 결과에서는 만보기(토스), 세이프 박스·저금통(카카오뱅크), 멤버십 관리(카카오페이)가 각각 28%, 30%, 40%를 차지하며 각 서비스의 최선호 콘텐츠로 꼽혔다.[머니투데이 스타트업 미디어 플랫폼 유니콘팩토리]</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2023.03.17.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>토스 '챗GPT'에 토스뱅크에 대해 물었더니…'엉뚱한 답'</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000327552?sid=101</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>[앵커] 요즘 '챗GPT'라는 인공지능 챗봇이 큰 관심을 받고 있죠? 토스 앱에도 최근 '챗GPT'가 신규 서비스로 도입됐는데요.미국에서 벌어져 주목받고 있는 뱅크런에 대해 토스의 챗GPT에 질문해 봤습니다. 이한승 기자, 토스 챗GPT가 뭐라고 대답한 건가요? [기자] 제가 토스뱅크 뱅크런 사태를 물어봤는데요.토스 챗GPT는 지난 2021년 6월에 발생한 토스뱅크의 서비스 이용 장애라고 설명했습니다. 대규모 인출이라는 뱅크런의 의미와는 다른 대답을 한 겁니다. 개인정보 유출사태에 대해서도 물었는데요.지난 2021년 3월 토스뱅크 고객들의 개인정보가 해킹을 당했다는 답변이 나왔습니다. 하지만 토스뱅크가 출범한 게 2021년 10월이니까 출범 전에 그런 사건이 벌어졌다는 건 있을 수 없는 일입니다. [앵커] 토스의 챗GPT가 사실을 말하는 게 아닌가 보죠? [기자] 단언하긴 어렵습니다. 토스뱅크에 대해 물었을 때에는 인터넷은행에 대한 설명을 해서 챗GPT의 답변이 모두 거짓이라고 치부할 수도 없는 노릇입니다. 이에 대해 토스는 챗GPT가 2021년 9월까지의 정보만 습득한 상태이다 보니, 이후 출범한 토스뱅크에 대해서는 잘못된 답변이 나올 수도 있다고 설명했습니다. 토스는 현재 베타 서비스 중인데, 정식 운영이나 다른 서비스로의 확장 계획은 아직 없다고 밝혔습니다. 토스 사용자가 금융을 비롯해 생활 전반적인 정보를 간편하게 얻을 수 있게 돕겠다는 취지라곤 했지만, 정보에 대한 진위여부를 알 수 없기 때문에 이용할 때 유의해야 할 필요가 있습니다. SBS Biz 이한승입니다.당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2023.03.16.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>1개월 만기도 연 3% 금리… 초단기 예금 뜬다</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002789254?sid=101</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>금리 인상기 불확실성이 커지면서 초단기 예금을 통해 현금 유동성을 확보하려는 금융소비자가 늘고 있다. 단기성 자금 예치에 적합했던 파킹통장 금리마저 최근 하향세를 보이면서 1개월 만기 예금을 선택하는 소비자들이 증가하는 것이다.  특히 4월부터는 한국은행 규정 개정에 따라 1개월 만기 초단기 적금도 가입이 가능해지면서 이 적금에 대한 관심이 커질 전망이다.16일 금융권에 따르면 KDB산업은행의 'KDB 정기예금'은 만기를 최소 1개월부터 최대 60개월까지 설정할 수 있다. 만기를 1개월만 지정해도 연 3.3% 금리를 제공한다. 카카오뱅크 '카카오뱅크 정기예금'과 케이뱅크의 '코드K 정기예금'도 1개월부터 36개월까지 만기를 설정할 수 있고, 1개월 만기 선택시 3.0%를 제공한다. IBK기업은행 '실세금리정기예금'도 1개월 만기시 2.95%를 준다.반면 대기성 자금을 대거 빨아들였던 저축은행권과 인터넷은행 파킹통장 금리는 최근 2%대로 주저앉았다. SBI저축은행의 파킹통장 상품 '입출금통장'은 1억원 이하 금리를 기존 3.2%에서 지난달 16일 3.0%로, 지난 10일 2.8%로 두 번 내렸다.OK저축은행도 지난 6일 'OK읏백만통장Ⅱ' 501만~5000만원 금리를 연 3.3%에서 3.0%로 0.3%포인트 내렸다. 다올저축은행도 지난달 21일에 이어 지난 8일 'Fi 저축예금' 비대면 가입 상품 금리를 3.3%에서 3.1%로 0.2%포인트 인하했다.인터넷 은행 파킹통장 금리도 모두 하락한지 오래다. 14일 기준 케이뱅크 연 2.7%, 카카오뱅크 연 2.6%로 매일 이자를 지급하는 토스뱅크 수시입출금통장 금리는 5000만원까지 2.2%, 5000만원 이상 금액에 대해 연 3.8%를 제공 중이다.금융권에서는 4월부터 '초단기 적금' 경쟁이 거셀 것으로 예상하고 있다. 한국은행이 지난해 은행에서 1개월 만기 초단기 정기적금을 가입할 수 있다는 내용의 '금융기관 여수신이율 등에 관한 규정'을 개정하면서 1995년 11월 이후 27년 만에 은행 적금 만기가 변경됐다. 현재 최소 만기는 6개월이다.1개월 적금이 가능해지면 다양한 단기 목표를 위한 '30일적금', 휴가·기념일 적금 상품이 쏟아지면서 20·30대 젊은 층에게 인기를 끌 수 있다는 분석이 나온다. 인터넷 은행을 중심으로 '6개월 적금'이 이미 널리 알려져 있기 때문이다. 카카오뱅크 '26주 적금'은 26주동안 자동이체 납입에 성공하면 우대금리를 적용해 최대 7% 금리를 준다. 케이뱅크도 최소 30일에서 최대 200일까지 목표를 설정하면 500만원 이내에서 연 최고 4%에 목돈을 자동으로 모아주는 '챌린지 박스'를 운영 중이다. 토스뱅크의 '키워봐요 적금'도 6개월 만기시 4%를 제공한다.카카오뱅크는 특히 지난해 말 특허청에 '30(써티, thirty) 적금'이라는 명칭의 상표권 출원을 진행해 상표 선점에 나섰다. 카카오뱅크 관계자는 "상품을 준비하고 있지만 구체적인 시점은 정해지지 않았다"면서도 "연내 출시가 예상된다"고 말했다. 금융 불확실성 확대에 따라 초단기예금을 운영하려는 소비자가 늘고 있다. 연합뉴스 제공.</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2023.03.22.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>[시그널] 한투증권, 카뱅·토스뱅크 손잡고 토큰증권 협의체 결성</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004169906?sid=101</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>'한국투자 ST 프렌즈' 출범연내 인프라 구축·상품 공급 목표카카오엔터프라이즈와 기술 협력[서울경제] 한국금융지주(071050) 자회사 한국투자증권이 인터넷은행들과 손잡고 토큰증권 협의체를 결성했다. 연내 토큰증권 관련 인프라 구축을 완료하고 상품 공급에 나설 계획이다.22일 한국투자증권은 인터넷 전문은행 카카오뱅크·토스뱅크와 함께 토큰증권 협의체 '한국투자 ST 프렌즈'를 결성하고 본격적으로 토큰증권 생태계 구축에 나선다고 밝혔다.토큰증권은 현실 세계의 자산을 토큰화한 것으로 토큰화는 분산원장 기반의 디지털화를 의미한다. 디지털화를 하면 자산의 소유권을 데이터베이스에 등록하여 실물 자산을 인도하는 대신 데이터베이스 기록 변경만으로 이전할 수 있다. 토큰증권은 일반 전자증권보다 거래 자동화가 쉽고 투명성과 보안성이 강화되며 대체불가능토큰(NFT)에 비해 유동성이 높다.한국투자 ST 프렌즈는 한국투자증권을 주축으로 카카오뱅크와 토스뱅크가 토큰증권을 기록할 분산원장(블록체인)의 금융기관 시범 운영 파트너로 참여한다. 한국은행 중앙은행 디지털화폐(CBDC) 모의실험 사업을 성공적으로 수행하며 기술력을 인정받은 카카오엔터프라이즈가 분산원장 구축을 위한 기술 파트너로 합류한다.이번 한국투자 ST 프렌즈는 금융기관이 중심이 돼 결성한 첫 사례라는 점에서 의미가 남다르다. 은행업계 핀테크를 이끌어온 카카오뱅크·토스뱅크와 한국 자본시장을 선도해온 한국투자증권이 힘을 합쳐 토큰증권 발행 플랫폼 인프라 구축을 최우선으로 시너지를 낸다는 계획이다.한국투자증권은 연내 발행 분산원장 인프라를 구축하고 안정성 및 보안성 테스트를 완료할 예정이다. 이후 한국투자증권의 발행 역량과 카카오뱅크·토스뱅크의 플랫폼 역량을 바탕으로 본격적인 토큰증권 상품 공급을 추진한다. 초기 생태계 구축이 완료되면 경쟁력 있는 조각투자 기업들의 참여를 유도해 투자자 보호와 시스템 안정성을 최우선으로 하는 국내 1위 토큰증권 생태계로 확장해 나간다는 목표다.한국투자증권 관계자는 "토큰증권에 적합한 상품을 공급할 수 있는 발행 인프라 구축이 토큰증권 생태계 구성의 첫 걸음"이라며 "카카오엔터프라이즈의 안정적인 IT인프라 기술력과 카카오뱅크·토스뱅크의 플랫폼 경쟁력, 한국투자증권의 투자처 발굴 능력까지 파트너간 시너지를 극대화해 토큰증권 활성화와 양질의 상품 제공에 역할을 다하겠다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2023.03.23.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>2022년 적자 전환한 이스트소프트··· 올해는 실적으로 증명해야</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002144829?sid=105</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이종현기자] 알집 등 유틸리티 소프트웨어(SW)로 인지도를 쌓은 기업 이스트소프트가 2022년 사업을 적자로 마감했다. 소폭이지만 매출액도 줄었다. 기업 전망에 적신호가 켜진 상황이다.   이스트소프트는 지난 21일 금융감독원 전자공시시스템(DART)에 2022년 사업보고서를 제출했다. 연결 기준 매출엑 887억원, 영업이익 –56억원, 당기순이익 –82억원 등이다. 매출액은 0.9% 줄었고 영업이익과 당기순이익은 적자로 전환했다.   별도 기준으로는 매출액은 늘었다. 325억원으로 전년대비 13.1% 늘었다. 그러나 적자가 동반한 성장이다. 2021년 3억원이었던 영업이익은 –14억원으로 적자전화했다. 당기순이익은 -55억원에서 –74억원으로 적자 규모를 키웠다.   장부상 이스트소프트의 전체 실적 부진의 원인은 계열사인 줌인터넷으로 보인다. 줌인터넷은 2021년 매출액 287억원, 영업이익 67억원을 기록하며 알짜 사업으로 평가됐으나 2022년에는 매출액 229억원, 영업이익 –7억원을 기록하며 ‘애물단지’가 됐다.    포털사이트 줌(ZUM)을 운영하는 줌인터넷은 2022년 금융으로 사업 영역 확장을 꾀했지만 번번히 실패했다. 줌인터넷이 KB증권과 함께 설립한 합작법인 프로젝트바닐라는 야심차게 출시한 모바일거래시스템(MTS) ‘바닐라’가 뚜렷한 성과를 보이지 못한 채 지난 4월 청산했다. ‘한국형 로빈후드’, ‘토스증권의 대항마’를 자처했던 것이 무색한 결과다.   또 2022년 5월 출시한 비상장 주식 정보제공 및 거래 플랫폼 ‘겟스탁’도 출시 이후 별다른 성과를 보이지 못했다. 겟스탁의 장외주식 거래 기능도 1개월 만에 중단됐다. 금융 사업에서 잇따라 실패한 상황이다.   이밖에 계열사들도 부진했다. 증강현실(AR) 기술을 이용한 안경·선글라스 쇼핑몰 ‘라운즈’의 적자도 큰 폭으로 늘었다. 라운즈는 2021년 매출액 52억원, 당기순이익 –28억원을 기록했는데 2022년에는 매출액 67억원, 당기순이익 –70억원을 기록했다.    ‘카발온라인’을 서비스하는 이스트게임즈는 2021년 매출액 157억원, 당기순이익 49억원에서 2022년 매출액 120억원, 당기순이익 3억원으로 매출액과 이익 모두 급감했다.    기업공개(IPO)를 준비 중인 사이버보안 계열사 이스트시큐리티의 매출액은 2021년 대비 26.9% 상승한 227억원을 기록했다. 당기순이익은 –8900만원가량이다. 매출 상승은 고무적이나 2022년 사이버보안업계가 유례없는 호황기를 누렸다는 점을 고려하면 적자 마감은 아쉽다.    이스트소프트는 지난 몇년간 인공지능(AI)에 사활을 걸고 있다. AI 버추얼 휴먼 제작 기술을 바탕으로 ‘AI 스튜디오 페르소’를 출시한 뒤 교육, 증권 등 분야와 손잡고 버추얼 휴먼을 제작하는 사업을 이어가는 중이다. YBM과 한국어와 영어 발화가 가능한 AI 토익스피킹 강사를, 한국투자증권과는 AI 애널리스트를 선보인 바 있다.    이스트소프트의 AI 사업이 성공을 거둘지는 미지수다. 오픈AI의 AI 챗봇 ‘챗GPT’가 흥행하며 AI에 대한 기대감을 키우고 있지만 자연어처리(NLP) 기반의 AI에 대한 관심이 이스트소프트가 집중하고 있는 AI 인간으로까지 이어질지가 관건이다.    금융사업에 집중했으나 성과를 거두지 못한 줌인터넷의 사례를 무시할 수 없다. 계열사들의 수이성이 악화되는 가운데 모회사인 이스트소프트 역시도 신사업을 위한 투자를 지속하는 중이다. 2018년 이후 2022년까지 5년간 이스트소프트의 영업이익 합은 –24억원으로 적자다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2023.03.23.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>[온라인 플랫폼 온다]②발등에 불 떨어진 보험업계</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000014863?sid=101</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>설계사들 "빅테크 보험 비교·추천 생존권 위협"손보사는 매년 5000억원 수수료 발생 가능성보험 비교·추천 플랫폼 서비스 출시가 막바지 조율 단계에 진입했다. 수천만명의 회원을 보유한 네이버·카카오·토스 등 빅테크 플랫폼에서 앞으로 수백가지 보험상품이 비교·추천된다는 얘기다. 기대와 우려가 교차한다. 다양한 보험상품의 손쉬운 비교로 금융소비자 편의가 높아질 것인지, 아니면 빅테크 플랫폼의 또 다른 수익창구로 변질될 것인지. 다양한 지점에서 향후 방향성을 짚어본다. [편집자]/그래픽=비즈워치"소비자가 누리는 단기적 편리함의 결과는 보험료 인상과 산업생태계 파괴로 이어질 것이고, 소비자 부담으로 부메랑이 돼 돌아올 것이다."보험영업인 노동조합연대(보노련)이 지난 21일 진행한 '보험설계사의 생존권 보장을 위한 핀테크 진출저지' 집회에서 나온 말이다.네이버파이낸셜·카카오페이·토스 등 빅테크들이 보험영업에 뛰어들면 카카오모빌리티처럼 독과점을 통한 불공정 시장이 형성될 것이란 지적이다. ▷관련기사 : [빅테크 규제]숨 쉴 수 없는 압박…왜 카카오일까?(2021년 9월 19일)접근이 쉽고 간편한 빅테크 플랫폼에 고객이 몰릴 게 불 보듯 뻔해서다. 이렇게 되면 일부 보험설계사들의 일자리와 수익이 줄어들 수밖에 없다는 게 보노련의 주장이다.보노련은 금융당국에 "핀테크(빅테크) 기업에 대한 자동차보험 특혜 판매 허용 시도를 당장 중단하고 보험설계사 생존권을 보장하기 위한 노력을 해달라"고 강조했다.서울 정부청사 앞에서 빅테크 업체의 자동차보험 판매 허용 시도를 반대하는 집회를 진행했다./사진=보험영업인노동조합연대결국 자동차보험이 플랫폼 보험 비교·추천 서비스에 탑재되면서 보험업계 발등에 불이 떨어졌다. 대형 보험대리점(GA) 중심의 보험대리점협회는 자동차보험의 플랫폼 비교·추천을 마지못해 수긍한 상태다.하지만 보노련과 같은 일부 보험설계사들은 여전히 반발하고 있다. CM(사이버마케팅)을 통한 다이렉트 상품 판매 활성화로 자동차보험 대면 고객이 대거 빠져나간 상황에서 플랫폼까지 끼어들면 입지가 더 좁아질 수밖에 없다는 것이다.향후 보험사들이 대면상품에 대한 소비자 접근을 빅테크 플랫폼에 전담시키는 형태로 발전할 수 있다는 위기감도 깔려있다. 빅테크 플랫폼이 대면상품에 대한 판매를 주로 맡게 되면 보험사 전속설계사들이나 보험사 내 별도 조직으로만 보험판매가 연결될 수 있다는 우려다.지난해 GA업계가 용산 대통령 집무실, 광화문 등에서 두 차례 집회를 열고 생존권 보장을 위한 최소한의 장치가 필요하다고 주장한 배경이다.차보험을 판매하는 손해보험사들도 불편하긴 마찬가지다. 자동차보험 판매 비용이 늘 공산이 커서다. 금융감독원에 따르면 2021년 기준 자동차보험 시장 규모(원수보험료 기준)는 20조2774억원에 달한다. 이 가운데 CM 채널 규모는 대략 40% 이상으로 8~10조원 가량으로 추산된다.플랫폼에 지급할 수수료가 5% 내외로 책정된다면 단순 계산해 약 4000억~5000억원이 플랫폼 업체에 비교·추천 수수료로 지급되는 셈이다. 자동차보험이 1년마다 갱신되는 상품이라는 점을 고려하면 매년 이런 비용이 발생할 수 있다. 손보사가 자체적으로 보유한 다이렉트 채널에서는 판매 수수료가 거의 발생하지 않는데, 빅테크 업체가 상품을 비교·추천 해주는 명목으로 최대 5000억원의 비용이 더 들게 되는 것이다.사업에서 차지하는 비중이 20% 수준인 자동차보험에 대한 판매 주도권을 향후 빅테크 플랫폼에 뺏길 수 있다는 위기감도 읽힌다. 손보사 한 관계자는 "빅테크 플랫폼의 파급력을 고려하면, 앞으로 비교·추천 서비스 수수료가 얼마나 더 늘어날지 모른다는 게 문제"이라고 짚었다. 이 수수료는 일정 부분 소비자가 부담하는 보험료에 전가될 가능성이 높다.상황이 이렇게 되자 손보업계는 소비자들에게 플랫폼에서 자동차보험에 가입하면, 보험사 다이렉트 홈페이지에서 직접 가입하는 것보다 보험료가 비싸다는 점을 알리는 절차가 필요하다고 주장한다. 비교·추천 서비스를 통한 보험 가입 전 알림창을 띄우거나 안내 문구를 추가하는 등의 최소한의 방안이 필요하다는 것이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2023.03.26.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>인터넷은행이 시중은행보다 금인인하요구권 신청률 4배 ↑, 수용률 2배 ↑</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/079/0003751655?sid=101</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>핵심요약윤창현 의원 "시중은행, 금리인하 수용률 높이고 인하 폭 확대 필요"연합뉴스금리인하요구권 신청률이나 수용률은 인터넷은행이 시중은행보다 높은 것으로 나타났다.26일 윤창현 국민의힘 의원이 5대 시중은행(하나·KB국민·신한·NH농협·우리)과 인터넷전문은행(케이뱅크·토스뱅크·카카오뱅크)에서 받은 자료에 따르면 지난해 5대 시중은행의 금리인하요구권 신청률은 대출 계좌 870만여개 가운데 55만여개로 6.33%였다. 실제 금리가 인하된 계좌는 20여만개로 수용률은 2.38%에 불과했다.NH농협은행의 경우 금리인하요구권 신청률은 전체 신청 가능 계좌 160여만개 중 2만5천여개로 1.56%였으며 수용률은 1.01%였다.반면 인터넷전문은행은 금리인하요구권을 신청할 수 있는 대출 계좌 570여만개 가운데 142만여개, 24.96%에서 실제 신청이 이루어졌다. 이 가운데 금리가 인하된 계좌는 27만여개로 4.71%였다. 신청률은 시중은행 대비 4배, 수용률은 2배 정도 높았다. 금리인하요구권 수용에 따른 금리 인하 폭은 시중은행의 경우 0.13%포인트(우리은행)~0.42%포인트(NH농협은행)에 분포했다.하지만 인터넷전문은행은 0.38%포인트(카카오뱅크)~0.76%포인트(토스뱅크)로 시중은행보다 금리 인하 폭이 컸다. 윤창현 의원은 "시중은행들도 인터넷전문은행을 벤치마킹해 신청 절차는 더 편하게 개편하며 고객의 입장에서 금리인하 수용률은 높이고 인하 폭도 대폭 확대할 필요가 있다"고 말했다.※CBS노컷뉴스는 여러분의 제보로 함께 세상을 바꿉니다. 각종 비리와 부당대우, 사건사고와 미담 등 모든 얘깃거리를 알려주세요.이메일 : jebo@cbs.co.kr카카오톡 : @노컷뉴스사이트 : https://url.kr/b71afn</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2023.03.27.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>토스뱅크, 올 하반기 흑자전환 전망…고객 600만 넘어</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000208023?sid=101</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>토스뱅크는 출범 1년6개월 만에 600만 고객을 넘어섰다고 27일 밝혔다. /토스뱅크 제공토스뱅크가 출범 1년 6개월 만에 600만 고객을 넘어섰다. 여신 규모는 9조3000억 원, 수신 규모는 23조2000억 원을 달성했다. 이에 힘입어 올해 하반기 손익분기점(BEP)을 넘길 것으로 전망하고 있다.26일 토스뱅크는 지난해 3월 2조6000억 원이던 여신 잔액이 1년 새 4배 가까이 늘어 수익성 개선을 견인했다고 밝혔다. 예금잔액에 대한 대출금잔액의 비율을 말하는 예대율은 44%에 달하며 전년 동기의 12.4%보다 4배 가까이 개선됐다. 토스뱅크는 올 하반기 손익분기점(BEP) 달성, 흑자 전환에 성공할 것으로 전망하고 있다. 신생 은행의 경우 평균 3~4년이 흑자전환에 소요되지만 토스뱅크의 경우 그 시간을 1년 이상 앞당길 것으로 보인다. 은행 성장 바탕이 되는 자본도 빠르게 확충하고 있다. 토스뱅크는 지난해에 이어 올해까지 선제적인 유상증자 단행을 통해 총 1조6500억 원의 자본금을 확충하며 여신 성장을 뒷받침했다. 최근에는 한국투자캐피탈이 증자에 참여 의사를 밝히며 주주사로 합류할 예정이다. 토스뱅크는 비바리퍼블리카를 비롯해 하나은행, 한화투자증권, 중소기업중앙회, 이랜드, SC제일은행 등 주주사로 있다. 시장의 유동성 불안에도 충분한 대비가 이뤄진 것으로 나타났다. 이날 기준 유동성커버리지비율(LCR)은 833.5%로, 토스뱅크는 약 14조5000억 원의 고유동성자산을 확보하고 있다. 이는 평균(100%)을 유지하는 시중은행 대비 8배 이상 높은 수치다.또 순안정자금조달비율(NSFR)도 208%로 시중은행 대비 2배 가까이 높아, 1년 이상 필요한 은행의 보유자산에 따라 안정적으로 자금을 조달할 수 있는 것으로 나타났다.이날 기준 토스뱅크 가입 고객은 605만명을 넘어섰다. 이는 전년 동기의 235만명 대비 약 2.6배다. 고객 연령대를 보면 20대가 26.8%로 가장 많았지만, 30대는 23.1% 40대는 22.8%, 50대 이상은 20.4%로 전 연령이 이용하는 모습을 나타냈다. 10대의 경우 7%로 가장 적었는데, 이는 은행 가입 고객 연령이 만 17세 이상으로 제한된 영향이다.  토스뱅크 관계자는 "토스뱅크는 안정적인 자본 확충과 보유 여신 대비 안정적인 수신고를 바탕으로 성장하며 올해 BEP 달성이 가시화되고 있다"며 "고객 중심적인 혁신 서비스와 고객의 금융 주권을 생각한 서비스와 상품으로 성장세를 이어갈 것"이라고 말했다.발로 뛰는 더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2023.03.23.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>“예금도 비교해서 갈아탄다” 온라인 중개서비스 6월 출시</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004170699?sid=101</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>■4차 은행권 제도개선 TF 실무작업반 회의단순 금리 비교→'맞춤형 예·적금상품' 추천원스톱 가입, 만기 알림 및 갈아타기 추천도인터넷은행-지방은행 공동대출 도입도 논의[서울경제] 6월부터는 금융 소비자들이 직접 예적금 상품을 일일이 비교하지 않고도 플랫폼에서 ‘맞춤형’ 상품을 추천 받아 바로 가입할 수 있게 된다.23일 금융위원회는 전날 열린 ‘제4차 은행권 경영·영업 관행·제도 개선 실무작업반’ 회의에서 이 같은 내용의 ‘온라인 예금 상품 중개 서비스’를 6월 출시하기로 했다고 밝혔다.현재 기존 포털이나 플랫폼에서 상품 금리 등 단순 정보만 제공하는 것에서 벗어나 중개 서비스와 마이데이터를 연계한 고객 맞춤형 상품을 제공해 소비자 편의성을 높인다는 게 주요 취지다. 또 은행 지점이나 금융회사 홈페이지에서 가입하는 대신 플랫폼 내에서 원스톱으로 가입까지 가능하도록 하고 만기 알림이나 갈아타기 추천 등의 관리 서비스도 제공할 계획이다.2415A10 온라인 예금상품 중개서비스 특징이에 금융위는 정식 제도화 전 규제 샌드박스를 통해 온라인 플랫폼을 통한 예금 상품 중개 서비스를 시범 운영할 방침이다. 지난해 11월 혁신금융서비스로 지정된 9개 기업의 예금 중개 서비스가 6월 출시 예정이다. 또 5월 말 10개 이상의 추가 신청 기업에 대한 혁신금융서비스 지정심사도 진행한다. 카카오페이 등이 서비스 신청을 준비 중인 것으로 알려졌다. 금융위는 시범 운영 경과를 바탕으로 내년 중 정식 제도화를 검토할 계획이다.한편 실무작업반 회의에서는 시중은행 과점 체제 완화 차원에서 인터넷전문은행과 지방은행이 ‘공동대출’을 도입하는 방안도 논의했다. 인터넷은행은 대출을 지속적으로 공급할 수 있고, 영업망 확대를 검토 중인 지방은행은 고객과의 접점을 늘릴 수 있다는 점에서 모두 ‘윈윈 효과’를 낼 수 있다는 판단이다. 현재 토스뱅크와 광주은행이 공동대출 모델을 추진 중이다.고객이 인터넷은행 애플리케이션에서 대출을 신청하면 인터넷은행과 지방은행이 각각 심사한다. 양행 모두에서 승인된 고객에 한해 사전 합의된 비율에 따라 대출을 실행한다. 대출 과정에서 고객 대응 등의 업무는 인터넷은행이 지방은행으로부터 위탁을 받아 수행한다. 대출 연체 등 사후 관리는 두 은행이 각 채권자로서 독립적인 사후 관리 주체가 되지만 일관성 있는 고객 경험을 위해 동일한 사후 관리 업체에 위탁하는 방안으로 추진된다.금융위는 “인터넷은행은 적정 자본 비율 내에서 대출을 지속 공급해 성장 기반을 확대하고, 지방은행은 영업 채널을 다각화하고 양질의 대출 포트폴리오를 확보해 경쟁력을 강화할 수 있다”면서 “대형 시중은행 중심의 과점적 구조를 완화하고 인터넷은행과 지방은행의 상생과 동반 성장을 견인하는 기회가 될 것”이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2023.03.26.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>“1억 맡기면 즉시 176만원 준다”…이자 먼저받는 예금 등장</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/144/0000875827?sid=101</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>토스뱅크가 인터넷전문은행 최초로 가입과 동시에 이자를 받을 수 있는 ‘먼저 이자 받는 예금’을 선보였다.‘먼저 이자 받는 예금’은 연 3.5% 금리(세전, 만기일에 세금 차감)를 제공, 맡길 수 있는 금액 규모는 최소 100만원에서 최대 10억원까지다. 가령, 1억원을 6개월간(184일 기준) 맡기는 고객은 세전 금액인 약 176만원을 즉시 수령 가능하다.받은 이자는 고객이 원할 때 언제든 출금할 수 있다. 다만 언제든 돈을 넣고 뺄 수 있는 수시입출금식 보통예금과는 달라, 자금을 묶어두고 고금리를 받고자 하는 고객은 활용해 볼 만 하다.예치 기간은 3·6개월 중 선택할 수 있다. 기간에 상관 없이 연 3.5% 금리는 동일하게 적용된다.만기를 채운 고객은 ‘자동 재가입’ 서비스를 통해, 최대 3번(최장 2년)까지 재가입 할 수 있다. 이때 적용하는 금리는 재가입 시점의 금리를 따른다.이 예금은 중도해지도 가능하다. 중도해지 시 먼저 받은 이자에서 중도해지 이자(가입 기간에 비례)를 제외한 금액이 원금에서 차감된다.강석봉 기자 ksb@kyunghyang.com</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
